--- a/output.xlsx
+++ b/output.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>MJ by Fuel</t>
-  </si>
-  <si>
-    <t>Total System Cost</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Total Cost</t>
   </si>
   <si>
     <t>crudeoil</t>
@@ -32,6 +26,27 @@
   </si>
   <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>RefineryProduction</t>
+  </si>
+  <si>
+    <t>MtGProduction</t>
+  </si>
+  <si>
+    <t>GtkmProduction</t>
+  </si>
+  <si>
+    <t>B2gasProduction</t>
+  </si>
+  <si>
+    <t>GasHubUsage</t>
+  </si>
+  <si>
+    <t>KmHubUsage</t>
+  </si>
+  <si>
+    <t>KilometersUsage</t>
   </si>
 </sst>
 </file>
@@ -389,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,41 +420,67 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>124.024199843872</v>
       </c>
       <c r="C2">
         <v>546.448087431694</v>
       </c>
       <c r="D2">
-        <v>124.024199843872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
         <v>2371.1943793911</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="E2">
         <v>0</v>
+      </c>
+      <c r="F2">
+        <v>508.1967213114755</v>
+      </c>
+      <c r="G2">
+        <v>1991.803278688524</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2500</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Total Cost</t>
   </si>
@@ -31,13 +31,25 @@
     <t>RefineryProduction</t>
   </si>
   <si>
+    <t>Refinery-gasoline</t>
+  </si>
+  <si>
     <t>MtGProduction</t>
   </si>
   <si>
+    <t>MtG-gasoline</t>
+  </si>
+  <si>
     <t>GtkmProduction</t>
   </si>
   <si>
+    <t>Gtkm-km</t>
+  </si>
+  <si>
     <t>B2gasProduction</t>
+  </si>
+  <si>
+    <t>B2gas-gasoline</t>
   </si>
   <si>
     <t>GasHubUsage</t>
@@ -404,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +456,20 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -465,21 +489,33 @@
         <v>508.1967213114755</v>
       </c>
       <c r="G2">
+        <v>508.1967213114755</v>
+      </c>
+      <c r="H2">
         <v>1991.803278688524</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>1991.803278688524</v>
+      </c>
+      <c r="J2">
         <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2500</v>
       </c>
       <c r="K2">
         <v>1000</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2500</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
         <v>1000</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Total Cost</t>
   </si>
@@ -22,43 +22,100 @@
     <t>crudeoil</t>
   </si>
   <si>
+    <t>biomass</t>
+  </si>
+  <si>
     <t>hydrogen</t>
   </si>
   <si>
-    <t>biomass</t>
-  </si>
-  <si>
     <t>RefineryProduction</t>
   </si>
   <si>
     <t>Refinery-gasoline</t>
   </si>
   <si>
+    <t>Refinery-diesel</t>
+  </si>
+  <si>
+    <t>BtDProduction</t>
+  </si>
+  <si>
+    <t>BtD-diesel</t>
+  </si>
+  <si>
+    <t>BtLProduction</t>
+  </si>
+  <si>
+    <t>BtL-gasoline</t>
+  </si>
+  <si>
+    <t>MtDProduction</t>
+  </si>
+  <si>
+    <t>MtD-diesel</t>
+  </si>
+  <si>
     <t>MtGProduction</t>
   </si>
   <si>
     <t>MtG-gasoline</t>
   </si>
   <si>
-    <t>GtkmProduction</t>
-  </si>
-  <si>
-    <t>Gtkm-km</t>
-  </si>
-  <si>
-    <t>B2gasProduction</t>
-  </si>
-  <si>
-    <t>B2gas-gasoline</t>
-  </si>
-  <si>
-    <t>GasHubUsage</t>
-  </si>
-  <si>
-    <t>KmHubUsage</t>
-  </si>
-  <si>
-    <t>KilometersUsage</t>
+    <t>PVGasProduction</t>
+  </si>
+  <si>
+    <t>PVGas-pkm</t>
+  </si>
+  <si>
+    <t>PVDieselProduction</t>
+  </si>
+  <si>
+    <t>PVDiesel-pkm</t>
+  </si>
+  <si>
+    <t>TruckN1Production</t>
+  </si>
+  <si>
+    <t>TruckN1-tkm</t>
+  </si>
+  <si>
+    <t>TruckN2Production</t>
+  </si>
+  <si>
+    <t>TruckN2-tkm</t>
+  </si>
+  <si>
+    <t>TruckN3Production</t>
+  </si>
+  <si>
+    <t>TruckN3-tkm</t>
+  </si>
+  <si>
+    <t>TruckSZMProduction</t>
+  </si>
+  <si>
+    <t>TruckSZM-tkm</t>
+  </si>
+  <si>
+    <t>GasolineHubUsage</t>
+  </si>
+  <si>
+    <t>DieselHubUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
   </si>
 </sst>
 </file>
@@ -416,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,55 +525,169 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124.024199843872</v>
+        <v>37.65025520601402</v>
       </c>
       <c r="C2">
-        <v>546.448087431694</v>
+        <v>1190.475409836065</v>
       </c>
       <c r="D2">
-        <v>2371.1943793911</v>
+        <v>400</v>
       </c>
       <c r="E2">
+        <v>354.9100221530673</v>
+      </c>
+      <c r="F2">
+        <v>1107.142131147541</v>
+      </c>
+      <c r="G2">
+        <v>365.3569032786885</v>
+      </c>
+      <c r="H2">
+        <v>741.7852278688525</v>
+      </c>
+      <c r="I2">
+        <v>216</v>
+      </c>
+      <c r="J2">
+        <v>216</v>
+      </c>
+      <c r="K2">
         <v>0</v>
-      </c>
-      <c r="F2">
-        <v>508.1967213114755</v>
-      </c>
-      <c r="G2">
-        <v>508.1967213114755</v>
-      </c>
-      <c r="H2">
-        <v>1991.803278688524</v>
-      </c>
-      <c r="I2">
-        <v>1991.803278688524</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
+        <v>298.1244186085765</v>
+      </c>
+      <c r="N2">
+        <v>298.1244186085765</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>2500</v>
-      </c>
-      <c r="O2">
-        <v>1000</v>
-      </c>
       <c r="P2">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>288.4396604831751</v>
+      </c>
+      <c r="R2">
+        <v>288.4396604831752</v>
+      </c>
+      <c r="S2">
+        <v>569.5603395168248</v>
+      </c>
+      <c r="T2">
+        <v>569.5603395168248</v>
+      </c>
+      <c r="U2">
+        <v>7.5</v>
+      </c>
+      <c r="V2">
+        <v>7.5</v>
+      </c>
+      <c r="W2">
+        <v>24.2</v>
+      </c>
+      <c r="X2">
+        <v>24.2</v>
+      </c>
+      <c r="Y2">
+        <v>130.3</v>
+      </c>
+      <c r="Z2">
+        <v>130.3</v>
+      </c>
+      <c r="AA2">
+        <v>414.5</v>
+      </c>
+      <c r="AB2">
+        <v>414.5</v>
+      </c>
+      <c r="AC2">
+        <v>365.3569032786885</v>
+      </c>
+      <c r="AD2">
+        <v>1255.909646477429</v>
+      </c>
+      <c r="AE2">
+        <v>7.5</v>
+      </c>
+      <c r="AF2">
+        <v>130.3</v>
+      </c>
+      <c r="AG2">
+        <v>414.5</v>
+      </c>
+      <c r="AH2">
+        <v>858</v>
+      </c>
+      <c r="AI2">
+        <v>24.2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
   </si>
 </sst>
 </file>
@@ -675,19 +675,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
-        <v>7.5</v>
+        <v>414.5</v>
       </c>
       <c r="AF2">
         <v>130.3</v>
       </c>
       <c r="AG2">
-        <v>414.5</v>
+        <v>24.2</v>
       </c>
       <c r="AH2">
         <v>858</v>
       </c>
       <c r="AI2">
-        <v>24.2</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
-        <v>414.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF2">
         <v>130.3</v>
@@ -687,7 +687,7 @@
         <v>858</v>
       </c>
       <c r="AI2">
-        <v>7.5</v>
+        <v>414.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
-        <v>7.5</v>
+        <v>414.5</v>
       </c>
       <c r="AF2">
         <v>130.3</v>
@@ -687,7 +687,7 @@
         <v>858</v>
       </c>
       <c r="AI2">
-        <v>414.5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
   </si>
 </sst>
 </file>
@@ -675,19 +675,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
+        <v>130.3</v>
+      </c>
+      <c r="AF2">
+        <v>858</v>
+      </c>
+      <c r="AG2">
+        <v>414.5</v>
+      </c>
+      <c r="AH2">
+        <v>24.2</v>
+      </c>
+      <c r="AI2">
         <v>7.5</v>
-      </c>
-      <c r="AF2">
-        <v>130.3</v>
-      </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>858</v>
-      </c>
-      <c r="AI2">
-        <v>414.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
   </si>
 </sst>
 </file>
@@ -588,16 +588,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.65025520601402</v>
+        <v>42.50739806315688</v>
       </c>
       <c r="C2">
         <v>1190.475409836065</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>354.9100221530673</v>
+        <v>612.0528792959246</v>
       </c>
       <c r="F2">
         <v>1107.142131147541</v>
@@ -606,13 +606,13 @@
         <v>365.3569032786885</v>
       </c>
       <c r="H2">
-        <v>741.7852278688525</v>
+        <v>741.7852278688524</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>298.1244186085765</v>
+        <v>514.1244186085767</v>
       </c>
       <c r="N2">
-        <v>298.1244186085765</v>
+        <v>514.1244186085767</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>288.4396604831751</v>
       </c>
       <c r="R2">
-        <v>288.4396604831752</v>
+        <v>288.4396604831751</v>
       </c>
       <c r="S2">
         <v>569.5603395168248</v>
@@ -675,19 +675,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
-        <v>130.3</v>
+        <v>858</v>
       </c>
       <c r="AF2">
-        <v>858</v>
+        <v>414.5</v>
       </c>
       <c r="AG2">
-        <v>414.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH2">
         <v>24.2</v>
       </c>
       <c r="AI2">
-        <v>7.5</v>
+        <v>130.3</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
   </si>
 </sst>
 </file>
@@ -588,16 +588,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.65025520601402</v>
+        <v>42.50739806315688</v>
       </c>
       <c r="C2">
         <v>1190.475409836065</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>354.9100221530673</v>
+        <v>612.0528792959246</v>
       </c>
       <c r="F2">
         <v>1107.142131147541</v>
@@ -606,13 +606,13 @@
         <v>365.3569032786885</v>
       </c>
       <c r="H2">
-        <v>741.7852278688525</v>
+        <v>741.7852278688524</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>298.1244186085765</v>
+        <v>514.1244186085767</v>
       </c>
       <c r="N2">
-        <v>298.1244186085765</v>
+        <v>514.1244186085767</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>288.4396604831751</v>
       </c>
       <c r="R2">
-        <v>288.4396604831752</v>
+        <v>288.4396604831751</v>
       </c>
       <c r="S2">
         <v>569.5603395168248</v>
@@ -675,19 +675,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
+        <v>858</v>
+      </c>
+      <c r="AF2">
         <v>414.5</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
+        <v>7.5</v>
+      </c>
+      <c r="AH2">
+        <v>24.2</v>
+      </c>
+      <c r="AI2">
         <v>130.3</v>
-      </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>858</v>
-      </c>
-      <c r="AI2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -103,19 +103,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
     <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>612.0528792959246</v>
+        <v>612.0528792959244</v>
       </c>
       <c r="F2">
         <v>1107.142131147541</v>
@@ -606,7 +606,7 @@
         <v>365.3569032786885</v>
       </c>
       <c r="H2">
-        <v>741.7852278688524</v>
+        <v>741.7852278688525</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>514.1244186085767</v>
+        <v>514.1244186085765</v>
       </c>
       <c r="N2">
-        <v>514.1244186085767</v>
+        <v>514.1244186085765</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>288.4396604831751</v>
       </c>
       <c r="R2">
-        <v>288.4396604831751</v>
+        <v>288.4396604831752</v>
       </c>
       <c r="S2">
         <v>569.5603395168248</v>
@@ -675,19 +675,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AE2">
-        <v>858</v>
+        <v>24.2</v>
       </c>
       <c r="AF2">
-        <v>414.5</v>
+        <v>130.3</v>
       </c>
       <c r="AG2">
         <v>7.5</v>
       </c>
       <c r="AH2">
-        <v>24.2</v>
+        <v>858</v>
       </c>
       <c r="AI2">
-        <v>130.3</v>
+        <v>414.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Total Cost</t>
   </si>
   <si>
+    <t>CO2</t>
+  </si>
+  <si>
     <t>crudeoil</t>
   </si>
   <si>
@@ -103,19 +106,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
   </si>
 </sst>
 </file>
@@ -473,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +585,11 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -591,26 +597,26 @@
         <v>42.50739806315688</v>
       </c>
       <c r="C2">
+        <v>87.14279999999999</v>
+      </c>
+      <c r="D2">
         <v>1190.475409836065</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>612.0528792959244</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1107.142131147541</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>365.3569032786885</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>741.7852278688525</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -621,73 +627,76 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>514.1244186085765</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>514.1244186085765</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>514.1244186085765</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>288.4396604831751</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>288.4396604831752</v>
-      </c>
-      <c r="S2">
-        <v>569.5603395168248</v>
       </c>
       <c r="T2">
         <v>569.5603395168248</v>
       </c>
       <c r="U2">
-        <v>7.5</v>
+        <v>569.5603395168248</v>
       </c>
       <c r="V2">
         <v>7.5</v>
       </c>
       <c r="W2">
-        <v>24.2</v>
+        <v>7.5</v>
       </c>
       <c r="X2">
         <v>24.2</v>
       </c>
       <c r="Y2">
-        <v>130.3</v>
+        <v>24.2</v>
       </c>
       <c r="Z2">
         <v>130.3</v>
       </c>
       <c r="AA2">
-        <v>414.5</v>
+        <v>130.3</v>
       </c>
       <c r="AB2">
         <v>414.5</v>
       </c>
       <c r="AC2">
+        <v>414.5</v>
+      </c>
+      <c r="AD2">
         <v>365.3569032786885</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1255.909646477429</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
+        <v>414.5</v>
+      </c>
+      <c r="AG2">
         <v>24.2</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
+        <v>7.5</v>
+      </c>
+      <c r="AI2">
+        <v>858</v>
+      </c>
+      <c r="AJ2">
         <v>130.3</v>
-      </c>
-      <c r="AG2">
-        <v>7.5</v>
-      </c>
-      <c r="AH2">
-        <v>858</v>
-      </c>
-      <c r="AI2">
-        <v>414.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,16 +106,16 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
     <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
   </si>
   <si>
     <t>tkm-N3Usage</t>
@@ -684,16 +684,16 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AF2">
+        <v>7.5</v>
+      </c>
+      <c r="AG2">
+        <v>858</v>
+      </c>
+      <c r="AH2">
         <v>414.5</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>7.5</v>
-      </c>
-      <c r="AI2">
-        <v>858</v>
       </c>
       <c r="AJ2">
         <v>130.3</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,19 +106,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
   </si>
 </sst>
 </file>
@@ -684,19 +684,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AF2">
-        <v>7.5</v>
+        <v>858</v>
       </c>
       <c r="AG2">
-        <v>858</v>
+        <v>130.3</v>
       </c>
       <c r="AH2">
         <v>414.5</v>
       </c>
       <c r="AI2">
+        <v>7.5</v>
+      </c>
+      <c r="AJ2">
         <v>24.2</v>
-      </c>
-      <c r="AJ2">
-        <v>130.3</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,19 +106,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
   </si>
 </sst>
 </file>
@@ -684,19 +684,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AF2">
-        <v>858</v>
+        <v>130.3</v>
       </c>
       <c r="AG2">
-        <v>130.3</v>
+        <v>24.2</v>
       </c>
       <c r="AH2">
         <v>414.5</v>
       </c>
       <c r="AI2">
+        <v>858</v>
+      </c>
+      <c r="AJ2">
         <v>7.5</v>
-      </c>
-      <c r="AJ2">
-        <v>24.2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,19 +106,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.50739806315688</v>
+        <v>42.5073980631569</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>612.0528792959244</v>
+        <v>612.0528792959249</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>514.1244186085765</v>
+        <v>514.1244186085769</v>
       </c>
       <c r="O2">
-        <v>514.1244186085765</v>
+        <v>514.1244186085769</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>288.4396604831752</v>
       </c>
       <c r="T2">
-        <v>569.5603395168248</v>
+        <v>569.5603395168249</v>
       </c>
       <c r="U2">
         <v>569.5603395168248</v>
@@ -684,19 +684,19 @@
         <v>1255.909646477429</v>
       </c>
       <c r="AF2">
+        <v>858</v>
+      </c>
+      <c r="AG2">
+        <v>7.5</v>
+      </c>
+      <c r="AH2">
+        <v>24.2</v>
+      </c>
+      <c r="AI2">
+        <v>414.5</v>
+      </c>
+      <c r="AJ2">
         <v>130.3</v>
-      </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>414.5</v>
-      </c>
-      <c r="AI2">
-        <v>858</v>
-      </c>
-      <c r="AJ2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -106,19 +106,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.5073980631569</v>
+        <v>63544.75555102103</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -603,10 +603,10 @@
         <v>1190.475409836065</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2">
-        <v>612.0528792959249</v>
+        <v>1213426.338593582</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -618,10 +618,10 @@
         <v>741.7852278688525</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>514.1244186085769</v>
+        <v>1019278.124418609</v>
       </c>
       <c r="O2">
-        <v>514.1244186085769</v>
+        <v>1019278.124418609</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>288.4396604831751</v>
       </c>
       <c r="S2">
-        <v>288.4396604831752</v>
+        <v>288.4396604831563</v>
       </c>
       <c r="T2">
-        <v>569.5603395168249</v>
+        <v>849719.5603395168</v>
       </c>
       <c r="U2">
-        <v>569.5603395168248</v>
+        <v>849719.5603395168</v>
       </c>
       <c r="V2">
         <v>7.5</v>
@@ -681,22 +681,22 @@
         <v>365.3569032786885</v>
       </c>
       <c r="AE2">
-        <v>1255.909646477429</v>
+        <v>1020235.909646478</v>
       </c>
       <c r="AF2">
-        <v>858</v>
+        <v>414.5</v>
       </c>
       <c r="AG2">
+        <v>24.2</v>
+      </c>
+      <c r="AH2">
         <v>7.5</v>
       </c>
-      <c r="AH2">
-        <v>24.2</v>
-      </c>
       <c r="AI2">
-        <v>414.5</v>
+        <v>130.3</v>
       </c>
       <c r="AJ2">
-        <v>130.3</v>
+        <v>850008</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Total Cost</t>
   </si>
@@ -115,10 +115,13 @@
     <t>tkm-N2Usage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
+    <t>BASF Schwarzheide GmbH</t>
   </si>
 </sst>
 </file>
@@ -476,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,13 +591,16 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.5073980631569</v>
+        <v>60754.97540209295</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -603,10 +609,10 @@
         <v>1190.475409836065</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2">
-        <v>612.0528792959249</v>
+        <v>1214701.412959892</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -618,10 +624,10 @@
         <v>741.7852278688525</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -630,28 +636,28 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>514.1244186085769</v>
+        <v>999999</v>
       </c>
       <c r="O2">
-        <v>514.1244186085769</v>
+        <v>999999</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>20350.18688630918</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>20350.18688630918</v>
       </c>
       <c r="R2">
-        <v>288.4396604831751</v>
+        <v>16354.37667599064</v>
       </c>
       <c r="S2">
-        <v>288.4396604831752</v>
+        <v>16354.37667599064</v>
       </c>
       <c r="T2">
-        <v>569.5603395168249</v>
+        <v>833653.6233240096</v>
       </c>
       <c r="U2">
-        <v>569.5603395168248</v>
+        <v>833653.6233240094</v>
       </c>
       <c r="V2">
         <v>7.5</v>
@@ -678,13 +684,13 @@
         <v>414.5</v>
       </c>
       <c r="AD2">
-        <v>365.3569032786885</v>
+        <v>20715.54378958815</v>
       </c>
       <c r="AE2">
-        <v>1255.909646477429</v>
+        <v>1000956.785227869</v>
       </c>
       <c r="AF2">
-        <v>858</v>
+        <v>850008</v>
       </c>
       <c r="AG2">
         <v>7.5</v>
@@ -693,10 +699,18 @@
         <v>24.2</v>
       </c>
       <c r="AI2">
+        <v>130.3</v>
+      </c>
+      <c r="AJ2">
         <v>414.5</v>
       </c>
-      <c r="AJ2">
-        <v>130.3</v>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FacilityInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="CO2LocationInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Total Cost</t>
   </si>
@@ -106,22 +107,37 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>BASF Schwarzheide GmbH</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Amount Used</t>
+  </si>
+  <si>
+    <t>Process Used</t>
+  </si>
+  <si>
+    <t>VERA Klärschlammverbrennung GmbH</t>
+  </si>
+  <si>
+    <t>MtD</t>
   </si>
 </sst>
 </file>
@@ -479,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,16 +607,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60754.97540209295</v>
+        <v>63544.75555102103</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -612,7 +625,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>1214701.412959892</v>
+        <v>1213426.338593582</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -636,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>999999</v>
+        <v>1019278.124418609</v>
       </c>
       <c r="O2">
-        <v>999999</v>
+        <v>1019278.124418609</v>
       </c>
       <c r="P2">
-        <v>20350.18688630918</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>20350.18688630918</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>16354.37667599064</v>
+        <v>288.4396604831751</v>
       </c>
       <c r="S2">
-        <v>16354.37667599064</v>
+        <v>288.4396604831563</v>
       </c>
       <c r="T2">
-        <v>833653.6233240096</v>
+        <v>849719.5603395168</v>
       </c>
       <c r="U2">
-        <v>833653.6233240094</v>
+        <v>849719.5603395168</v>
       </c>
       <c r="V2">
         <v>7.5</v>
@@ -684,13 +697,13 @@
         <v>414.5</v>
       </c>
       <c r="AD2">
-        <v>20715.54378958815</v>
+        <v>365.3569032786885</v>
       </c>
       <c r="AE2">
-        <v>1000956.785227869</v>
+        <v>1020235.909646478</v>
       </c>
       <c r="AF2">
-        <v>850008</v>
+        <v>130.3</v>
       </c>
       <c r="AG2">
         <v>7.5</v>
@@ -699,18 +712,1770 @@
         <v>24.2</v>
       </c>
       <c r="AI2">
-        <v>130.3</v>
+        <v>850008</v>
       </c>
       <c r="AJ2">
         <v>414.5</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>20457</v>
+      </c>
+      <c r="D2">
+        <v>1213747.422680412</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
         <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -107,21 +107,21 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -134,7 +134,7 @@
     <t>Process Used</t>
   </si>
   <si>
-    <t>VERA Klärschlammverbrennung GmbH</t>
+    <t>Wacker Chemie AG</t>
   </si>
   <si>
     <t>MtD</t>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>779658.4169504924</v>
+        <v>4650550.598448258</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -625,7 +625,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>1213426.338593783</v>
+        <v>343.481450724496</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -649,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1019278.124415571</v>
+        <v>288.5244186085766</v>
       </c>
       <c r="O2">
-        <v>1019278.124415571</v>
+        <v>288.5244186085766</v>
       </c>
       <c r="P2">
-        <v>3.206105902791025e-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.206105902791025e-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>288.4396630143114</v>
+        <v>288.4396604831751</v>
       </c>
       <c r="S2">
-        <v>288.4396630142583</v>
+        <v>288.4396604831752</v>
       </c>
       <c r="T2">
-        <v>849719.5603369857</v>
+        <v>561.5603395168249</v>
       </c>
       <c r="U2">
-        <v>849719.5603369857</v>
+        <v>561.5603395168248</v>
       </c>
       <c r="V2">
         <v>7.5</v>
@@ -697,25 +697,25 @@
         <v>414.5</v>
       </c>
       <c r="AD2">
-        <v>365.3569064847944</v>
+        <v>365.3569032786885</v>
       </c>
       <c r="AE2">
-        <v>1020235.90964344</v>
+        <v>1246.309646477429</v>
       </c>
       <c r="AF2">
+        <v>7.5</v>
+      </c>
+      <c r="AG2">
+        <v>24.2</v>
+      </c>
+      <c r="AH2">
+        <v>130.3</v>
+      </c>
+      <c r="AI2">
         <v>414.5</v>
       </c>
-      <c r="AG2">
-        <v>850008</v>
-      </c>
-      <c r="AH2">
-        <v>7.5</v>
-      </c>
-      <c r="AI2">
-        <v>24.2</v>
-      </c>
       <c r="AJ2">
-        <v>130.3</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>20457</v>
+        <v>1612</v>
       </c>
       <c r="D2">
-        <v>1213426.338589966</v>
+        <v>343.481450724496</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -107,19 +107,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
+    <t>pkmUsage</t>
   </si>
   <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
     <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
   </si>
   <si>
     <t>Name</t>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4650550.598448258</v>
+        <v>1960969.618549671</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -625,7 +625,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.481450724496</v>
+        <v>343.4814507244959</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288.5244186085766</v>
+        <v>288.5244186085765</v>
       </c>
       <c r="O2">
-        <v>288.5244186085766</v>
+        <v>288.5244186085765</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>288.4396604831752</v>
       </c>
       <c r="T2">
-        <v>561.5603395168249</v>
+        <v>561.5603395168248</v>
       </c>
       <c r="U2">
         <v>561.5603395168248</v>
@@ -703,19 +703,19 @@
         <v>1246.309646477429</v>
       </c>
       <c r="AF2">
+        <v>24.2</v>
+      </c>
+      <c r="AG2">
         <v>7.5</v>
       </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
       <c r="AH2">
+        <v>850</v>
+      </c>
+      <c r="AI2">
         <v>130.3</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>414.5</v>
-      </c>
-      <c r="AJ2">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +756,7 @@
         <v>1612</v>
       </c>
       <c r="D2">
-        <v>343.481450724496</v>
+        <v>343.4814507244959</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="171">
   <si>
     <t>Total Cost</t>
   </si>
@@ -107,21 +107,21 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -134,7 +134,397 @@
     <t>Process Used</t>
   </si>
   <si>
-    <t>Wacker Chemie AG</t>
+    <t>Sasol Germany GmbH</t>
+  </si>
+  <si>
+    <t>Covestro Deutschland AG</t>
+  </si>
+  <si>
+    <t>YARA Brunsbüttel GmbH</t>
+  </si>
+  <si>
+    <t>Raffinerie Heide GmbH</t>
+  </si>
+  <si>
+    <t>VYNOVA Wilhelmshaven GmbH</t>
+  </si>
+  <si>
+    <t>Holcim (Deutschland) AG</t>
+  </si>
+  <si>
+    <t>Papier- u. Kartonfabrik Varel GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>KRONOS TITAN GmbH Werk Nordenham</t>
+  </si>
+  <si>
+    <t>Müllheizkraftwerk Bremerhaven</t>
+  </si>
+  <si>
+    <t>Nordland Papier GmbH Papierfabrik</t>
+  </si>
+  <si>
+    <t>SWN Stadtwerke Neumünster GmbH</t>
+  </si>
+  <si>
+    <t>VERA Klärschlammverbrennung GmbH</t>
+  </si>
+  <si>
+    <t>Aurubis AG</t>
+  </si>
+  <si>
+    <t>Holborn Europa Raffinerie GmbH</t>
+  </si>
+  <si>
+    <t>Shell Deutschland Oil GmbH SDO Raffinerie Harburg</t>
+  </si>
+  <si>
+    <t>ADM Hamburg Aktiengesellschaft Werk Hamburg</t>
+  </si>
+  <si>
+    <t>MVR Müllverwertung Rugenberger Damm GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE, Niederlassung Hamburg</t>
+  </si>
+  <si>
+    <t>DOW Deutschland Anlagenges. m.b.H Werk Stade</t>
+  </si>
+  <si>
+    <t>Aluminium Oxid Stade GmbH</t>
+  </si>
+  <si>
+    <t>Müllverwertung Borsigstraße GmbH, (MVB)</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Stapelfeld GmbH</t>
+  </si>
+  <si>
+    <t>Müllverbrennung Kiel GmbH &amp; Co. KG - Müllheizkraftwerk Kiel</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Bremen GmbH / BREMA Walzwerk GmbH</t>
+  </si>
+  <si>
+    <t>swb Entsorgung GmbH &amp; Co. KG / MKK Bremen Mittelkalorik-Kraftwerk</t>
+  </si>
+  <si>
+    <t>Nordzucker AG Werk Uelzen</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Hannover GmbH</t>
+  </si>
+  <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Georgsmarienhütte GmbH</t>
+  </si>
+  <si>
+    <t>Dyckerhoff GmbH, werk Lengerich</t>
+  </si>
+  <si>
+    <t>Calcis Lienen GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>EVI Abfallverwertung B.V. &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>EBE Holzheizkraftwerk GmbH</t>
+  </si>
+  <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
+    <t>Peiner Träger GmbH</t>
+  </si>
+  <si>
+    <t>Holcim (Deutschland) GmbH Werk Höver</t>
+  </si>
+  <si>
+    <t>Enertec Hameln GmbH Müllverbrennungsanlage</t>
+  </si>
+  <si>
+    <t>Sappi Alfeld GmbH</t>
+  </si>
+  <si>
+    <t>Heidelberg Cement AG Zementwerk Paderborn</t>
+  </si>
+  <si>
+    <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
+  </si>
+  <si>
+    <t>MVA Bielefeld-Herford GmbH</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Helmstedt GmbH</t>
+  </si>
+  <si>
+    <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
+  </si>
+  <si>
+    <t>Nordzucker AG, Werk Klein Wanzleben</t>
+  </si>
+  <si>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
+    <t>Werk  Zielitz</t>
+  </si>
+  <si>
+    <t>EUROGLAS GmbH</t>
+  </si>
+  <si>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Rheinkalk GmbH Werk Hönnetal</t>
+  </si>
+  <si>
+    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
+  </si>
+  <si>
+    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
+  </si>
+  <si>
+    <t>Deuna Zement GmbH</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
+  </si>
+  <si>
+    <t>RWE Generation SE MHKW Karnap</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
+    <t>AGR mbH</t>
+  </si>
+  <si>
+    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+  </si>
+  <si>
+    <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
+  </si>
+  <si>
+    <t>Oxea GmbH Werk Ruhrchemie</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE Niederlassung Voerde</t>
+  </si>
+  <si>
+    <t>DK Recycling und Roheisen GmbH</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
+  </si>
+  <si>
+    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
+  </si>
+  <si>
+    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+  </si>
+  <si>
+    <t>Solvay Chemicals GmbH</t>
+  </si>
+  <si>
+    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
+  </si>
+  <si>
+    <t>BSR / MHKW</t>
+  </si>
+  <si>
+    <t>Stadtwerke Düsseldorf AG</t>
+  </si>
+  <si>
+    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
+  </si>
+  <si>
+    <t>Aluminium Norf GmbH</t>
+  </si>
+  <si>
+    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>AWG Abfallwirtschaftsgesellschaft mbH Wuppertal</t>
+  </si>
+  <si>
+    <t>Biomassekraftwerk Lünen GmbH</t>
+  </si>
+  <si>
+    <t>Fritz Winter Eisengießerei GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Vattenfall Europe New Energy Ecopower GmbH</t>
+  </si>
+  <si>
+    <t>Fels-Werke GmbH</t>
+  </si>
+  <si>
+    <t>Pfleiderer Baruth GmbH</t>
+  </si>
+  <si>
+    <t>Stora Enso Sachsen GmbH</t>
+  </si>
+  <si>
+    <t>ROMONTA  Amsdorf</t>
+  </si>
+  <si>
+    <t>Linde Gas Produktionsgesellschaft mbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>TREA Leuna</t>
+  </si>
+  <si>
+    <t>Linde Gas Produktionsgesellschaft mbH &amp; Co. KG / TOTAL</t>
+  </si>
+  <si>
+    <t>Dow Olefinverbund GmbH, Werk Schkopau</t>
+  </si>
+  <si>
+    <t>Schwenk Zement KG, Werk Bernburg</t>
+  </si>
+  <si>
+    <t>SOLVAY Chemicals GmbH</t>
+  </si>
+  <si>
+    <t>OPTERRA Karsdorf GmbH</t>
+  </si>
+  <si>
+    <t>SUEZ Energie und Verwertung GmbH</t>
+  </si>
+  <si>
+    <t>CropEnergies Bioethanol GmbH</t>
+  </si>
+  <si>
+    <t>Südzucker AG Mannheim / Ochsenfurt, Werk Zeitz</t>
+  </si>
+  <si>
+    <t>GUARDIAN Flachglas GmbH</t>
+  </si>
+  <si>
+    <t>Martinswerk GmbH</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Fortuna Nord</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Saarbrücken GmbH</t>
+  </si>
+  <si>
+    <t>Evonik Degussa GmbH Werk Wesseling</t>
+  </si>
+  <si>
+    <t>Abfallentsorgungs- und Verwertungsgesellschaft Köln mbH</t>
+  </si>
+  <si>
+    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
+  </si>
+  <si>
+    <t>Currenta GmbH &amp; Co. OHG Entsorgungszentrum Bürrig</t>
+  </si>
+  <si>
+    <t>KRONOS TITAN GmbH</t>
+  </si>
+  <si>
+    <t>AVEA Entsorgungsbetriebe GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Zanders GmbH</t>
+  </si>
+  <si>
+    <t>MVA Weisweiler GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Heinr. Aug. Schoeller Söhne GmbH &amp; Co. KG Papierfabrik Schoellershammer</t>
+  </si>
+  <si>
+    <t>Pfeifer &amp; Langen GmbH &amp; Co. KG Werk Jülich</t>
+  </si>
+  <si>
+    <t>LEIPA Georg Leinfelder GmbH Werk Schwedt</t>
+  </si>
+  <si>
+    <t>Buderus Edelstahl GmbH</t>
+  </si>
+  <si>
+    <t>Papierfabrik A. Jass GmbH &amp; Co.KG</t>
+  </si>
+  <si>
+    <t>ZKW Otterbein Zementwerk</t>
+  </si>
+  <si>
+    <t>ETN Wintershall</t>
+  </si>
+  <si>
+    <t>Werk Werra Standort Wintershall</t>
+  </si>
+  <si>
+    <t>Werk Werra Standort Hattorf</t>
+  </si>
+  <si>
+    <t>Werk Werra Standort Unterbreizbach</t>
+  </si>
+  <si>
+    <t>FELS-WERKE Kalkwerk Kaltes Tal</t>
+  </si>
+  <si>
+    <t>FELS-WERKE Kalkwerk Hornberg</t>
+  </si>
+  <si>
+    <t>FELS-WERKE GmbH Kalkwerk Rübeland</t>
+  </si>
+  <si>
+    <t>Biomasse Heizkraftwerk Siegerl GmbH</t>
+  </si>
+  <si>
+    <t>Solvay &amp; CPC Barium Strontium             GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Smurfit Kappa Zülpich Papier  GmbH</t>
+  </si>
+  <si>
+    <t>IHKW Industrieheizkraftwerk Andernach GmbH c/o ThyssenKrupp Rasselstein GmbH</t>
+  </si>
+  <si>
+    <t>BHW Beeskow Holzwerkstoffe GmbH</t>
+  </si>
+  <si>
+    <t>Portlandzementwerk " Wotan",, H. Schneider KG</t>
+  </si>
+  <si>
+    <t>Moritz J. Weig GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Entsorgungsgesellschaft Mainz mbH</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Großräschen GmbH</t>
+  </si>
+  <si>
+    <t>BASF Schwarzheide GmbH</t>
+  </si>
+  <si>
+    <t>Thermische Abfallbehandlung Lauta GmbH &amp; Co. oHG</t>
   </si>
   <si>
     <t>MtD</t>
@@ -613,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1960969.618549671</v>
+        <v>60374617795.99579</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -667,7 +1057,7 @@
         <v>288.4396604831752</v>
       </c>
       <c r="T2">
-        <v>561.5603395168248</v>
+        <v>561.560339516825</v>
       </c>
       <c r="U2">
         <v>561.5603395168248</v>
@@ -703,19 +1093,19 @@
         <v>1246.309646477429</v>
       </c>
       <c r="AF2">
+        <v>130.3</v>
+      </c>
+      <c r="AG2">
         <v>24.2</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7.5</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
+        <v>414.5</v>
+      </c>
+      <c r="AJ2">
         <v>850</v>
-      </c>
-      <c r="AI2">
-        <v>130.3</v>
-      </c>
-      <c r="AJ2">
-        <v>414.5</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,13 +1143,2240 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>1612</v>
+        <v>25541</v>
       </c>
       <c r="D2">
-        <v>343.4814507244959</v>
+        <v>1.483469072164949</v>
       </c>
       <c r="E2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
+      </c>
+      <c r="C3">
+        <v>25541</v>
+      </c>
+      <c r="D3">
+        <v>1.316876288659794</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>25572</v>
+      </c>
+      <c r="D4">
+        <v>6.790639175257733</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>25734</v>
+      </c>
+      <c r="D5">
+        <v>7.718798969072167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>26388</v>
+      </c>
+      <c r="D6">
+        <v>1.166149484536083</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>25566</v>
+      </c>
+      <c r="D7">
+        <v>9.28159793814433</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>26316</v>
+      </c>
+      <c r="D8">
+        <v>2.35609793814433</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>26954</v>
+      </c>
+      <c r="D9">
+        <v>1.00748969072165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>27570</v>
+      </c>
+      <c r="D10">
+        <v>2.26090206185567</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>26892</v>
+      </c>
+      <c r="D11">
+        <v>2.15777319587629</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>24534</v>
+      </c>
+      <c r="D12">
+        <v>3.173195876288661</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>20457</v>
+      </c>
+      <c r="D13">
+        <v>1.213747422680412</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>20539</v>
+      </c>
+      <c r="D14">
+        <v>1.356541237113402</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>21079</v>
+      </c>
+      <c r="D15">
+        <v>6.108402061855671</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>21107</v>
+      </c>
+      <c r="D16">
+        <v>2.554422680412372</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>21107</v>
+      </c>
+      <c r="D17">
+        <v>1.769056701030927</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>21119</v>
+      </c>
+      <c r="D18">
+        <v>2.562355670103094</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>21129</v>
+      </c>
+      <c r="D19">
+        <v>1.784922680412371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>21683</v>
+      </c>
+      <c r="D20">
+        <v>4.728061855670104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>21683</v>
+      </c>
+      <c r="D21">
+        <v>3.284257731958763</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>22113</v>
+      </c>
+      <c r="D22">
+        <v>3.879231958762888</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>22145</v>
+      </c>
+      <c r="D23">
+        <v>2.562355670103094</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>24114</v>
+      </c>
+      <c r="D24">
+        <v>1.039221649484536</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>28237</v>
+      </c>
+      <c r="D25">
+        <v>4.355211340206187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>28237</v>
+      </c>
+      <c r="D26">
+        <v>2.133974226804124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>29525</v>
+      </c>
+      <c r="D27">
+        <v>1.308943298969072</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>30659</v>
+      </c>
+      <c r="D28">
+        <v>1.951515463917526</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <v>49086</v>
+      </c>
+      <c r="D29">
+        <v>0.8726288659793812</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>49124</v>
+      </c>
+      <c r="D30">
+        <v>1.158216494845361</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>49525</v>
+      </c>
+      <c r="D31">
+        <v>8.012319587628866</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>49536</v>
+      </c>
+      <c r="D32">
+        <v>1.182015463917526</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>49824</v>
+      </c>
+      <c r="D33">
+        <v>3.054201030927835</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>49824</v>
+      </c>
+      <c r="D34">
+        <v>1.269278350515464</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>31171</v>
+      </c>
+      <c r="D35">
+        <v>0.9598917525773197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>31226</v>
+      </c>
+      <c r="D36">
+        <v>1.30101030927835</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>31319</v>
+      </c>
+      <c r="D37">
+        <v>4.894654639175258</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>31789</v>
+      </c>
+      <c r="D38">
+        <v>3.300123711340206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>31061</v>
+      </c>
+      <c r="D39">
+        <v>2.625819587628866</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>33106</v>
+      </c>
+      <c r="D40">
+        <v>1.832520618556702</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>33332</v>
+      </c>
+      <c r="D41">
+        <v>2.046711340206186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>33609</v>
+      </c>
+      <c r="D42">
+        <v>3.078</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>38372</v>
+      </c>
+      <c r="D43">
+        <v>3.546046391752578</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44">
+        <v>38723</v>
+      </c>
+      <c r="D44">
+        <v>2.665484536082475</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>39164</v>
+      </c>
+      <c r="D45">
+        <v>0.9598917525773197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46">
+        <v>39171</v>
+      </c>
+      <c r="D46">
+        <v>1.134417525773196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47">
+        <v>39326</v>
+      </c>
+      <c r="D47">
+        <v>2.022912371134021</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48">
+        <v>39340</v>
+      </c>
+      <c r="D48">
+        <v>0.9440257731958761</v>
+      </c>
+      <c r="E48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49">
+        <v>39418</v>
+      </c>
+      <c r="D49">
+        <v>1.554865979381444</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>58710</v>
+      </c>
+      <c r="D50">
+        <v>6.393989690721649</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51">
+        <v>59075</v>
+      </c>
+      <c r="D51">
+        <v>2.022912371134021</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52">
+        <v>14727</v>
+      </c>
+      <c r="D52">
+        <v>1.094752577319588</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <v>37218</v>
+      </c>
+      <c r="D53">
+        <v>2.966938144329897</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54">
+        <v>37355</v>
+      </c>
+      <c r="D54">
+        <v>8.091649484536084</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55">
+        <v>44793</v>
+      </c>
+      <c r="D55">
+        <v>1.880118556701031</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>45329</v>
+      </c>
+      <c r="D56">
+        <v>4.910520618556701</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57">
+        <v>45356</v>
+      </c>
+      <c r="D57">
+        <v>2.126041237113402</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58">
+        <v>45699</v>
+      </c>
+      <c r="D58">
+        <v>5.307170103092785</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>45966</v>
+      </c>
+      <c r="D59">
+        <v>1.880118556701031</v>
+      </c>
+      <c r="E59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60">
+        <v>46049</v>
+      </c>
+      <c r="D60">
+        <v>5.545159793814433</v>
+      </c>
+      <c r="E60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>46147</v>
+      </c>
+      <c r="D61">
+        <v>1.356541237113402</v>
+      </c>
+      <c r="E61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>46236</v>
+      </c>
+      <c r="D62">
+        <v>2.998670103092783</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>46562</v>
+      </c>
+      <c r="D63">
+        <v>1.253412371134021</v>
+      </c>
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <v>47053</v>
+      </c>
+      <c r="D64">
+        <v>4.505938144329896</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65">
+        <v>47137</v>
+      </c>
+      <c r="D65">
+        <v>1.927716494845361</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66">
+        <v>47166</v>
+      </c>
+      <c r="D66">
+        <v>7.528407216494845</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67">
+        <v>47166</v>
+      </c>
+      <c r="D67">
+        <v>3.879231958762888</v>
+      </c>
+      <c r="E67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68">
+        <v>47198</v>
+      </c>
+      <c r="D68">
+        <v>3.117664948453609</v>
+      </c>
+      <c r="E68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69">
+        <v>47443</v>
+      </c>
+      <c r="D69">
+        <v>1.435871134020619</v>
+      </c>
+      <c r="E69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70">
+        <v>47475</v>
+      </c>
+      <c r="D70">
+        <v>1.745257731958763</v>
+      </c>
+      <c r="E70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71">
+        <v>47495</v>
+      </c>
+      <c r="D71">
+        <v>6.393989690721649</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72">
+        <v>47829</v>
+      </c>
+      <c r="D72">
+        <v>2.554422680412372</v>
+      </c>
+      <c r="E72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73">
+        <v>47829</v>
+      </c>
+      <c r="D73">
+        <v>1.499335051546392</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74">
+        <v>13597</v>
+      </c>
+      <c r="D74">
+        <v>3.157329896907218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75">
+        <v>40235</v>
+      </c>
+      <c r="D75">
+        <v>3.101798969072166</v>
+      </c>
+      <c r="E75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76">
+        <v>41468</v>
+      </c>
+      <c r="D76">
+        <v>2.427494845360825</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>41468</v>
+      </c>
+      <c r="D77">
+        <v>1.197881443298969</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>42327</v>
+      </c>
+      <c r="D78">
+        <v>2.070510309278351</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>42349</v>
+      </c>
+      <c r="D79">
+        <v>2.903474226804124</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80">
+        <v>44532</v>
+      </c>
+      <c r="D80">
+        <v>1.388273195876289</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81">
+        <v>44536</v>
+      </c>
+      <c r="D81">
+        <v>1.665927835051546</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82">
+        <v>35260</v>
+      </c>
+      <c r="D82">
+        <v>1.721458762886598</v>
+      </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83">
+        <v>15562</v>
+      </c>
+      <c r="D83">
+        <v>1.96738144329897</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84">
+        <v>15562</v>
+      </c>
+      <c r="D84">
+        <v>1.792855670103093</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85">
+        <v>15837</v>
+      </c>
+      <c r="D85">
+        <v>3.315989690721649</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>4838</v>
+      </c>
+      <c r="D86">
+        <v>1.602463917525774</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87">
+        <v>6137</v>
+      </c>
+      <c r="D87">
+        <v>3.69677319587629</v>
+      </c>
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88">
+        <v>6237</v>
+      </c>
+      <c r="D88">
+        <v>3.522247422680413</v>
+      </c>
+      <c r="E88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89">
+        <v>6237</v>
+      </c>
+      <c r="D89">
+        <v>3.300123711340206</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90">
+        <v>6237</v>
+      </c>
+      <c r="D90">
+        <v>1.531067010309278</v>
+      </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91">
+        <v>6258</v>
+      </c>
+      <c r="D91">
+        <v>1.34860824742268</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92">
+        <v>6406</v>
+      </c>
+      <c r="D92">
+        <v>5.100912371134022</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93">
+        <v>6406</v>
+      </c>
+      <c r="D93">
+        <v>2.64168556701031</v>
+      </c>
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94">
+        <v>6638</v>
+      </c>
+      <c r="D94">
+        <v>6.917567010309277</v>
+      </c>
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95">
+        <v>6686</v>
+      </c>
+      <c r="D95">
+        <v>2.371963917525773</v>
+      </c>
+      <c r="E95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96">
+        <v>6712</v>
+      </c>
+      <c r="D96">
+        <v>3.006603092783506</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97">
+        <v>6712</v>
+      </c>
+      <c r="D97">
+        <v>1.404139175257733</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98">
+        <v>6766</v>
+      </c>
+      <c r="D98">
+        <v>0.9519587628865979</v>
+      </c>
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99">
+        <v>50127</v>
+      </c>
+      <c r="D99">
+        <v>2.086376288659794</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100">
+        <v>50129</v>
+      </c>
+      <c r="D100">
+        <v>3.347721649484537</v>
+      </c>
+      <c r="E100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101">
+        <v>50354</v>
+      </c>
+      <c r="D101">
+        <v>2.625819587628866</v>
+      </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102">
+        <v>50389</v>
+      </c>
+      <c r="D102">
+        <v>1.332742268041238</v>
+      </c>
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103">
+        <v>50735</v>
+      </c>
+      <c r="D103">
+        <v>2.11810824742268</v>
+      </c>
+      <c r="E103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104">
+        <v>50997</v>
+      </c>
+      <c r="D104">
+        <v>2.356097938144329</v>
+      </c>
+      <c r="E104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105">
+        <v>51371</v>
+      </c>
+      <c r="D105">
+        <v>1.761123711340207</v>
+      </c>
+      <c r="E105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106">
+        <v>51373</v>
+      </c>
+      <c r="D106">
+        <v>1.626262886597938</v>
+      </c>
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107">
+        <v>51373</v>
+      </c>
+      <c r="D107">
+        <v>1.285144329896907</v>
+      </c>
+      <c r="E107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108">
+        <v>51465</v>
+      </c>
+      <c r="D108">
+        <v>0.9678247422680413</v>
+      </c>
+      <c r="E108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109">
+        <v>52249</v>
+      </c>
+      <c r="D109">
+        <v>2.887608247422681</v>
+      </c>
+      <c r="E109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110">
+        <v>52355</v>
+      </c>
+      <c r="D110">
+        <v>1.150283505154639</v>
+      </c>
+      <c r="E110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111">
+        <v>52409</v>
+      </c>
+      <c r="D111">
+        <v>1.602463917525774</v>
+      </c>
+      <c r="E111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112">
+        <v>16303</v>
+      </c>
+      <c r="D112">
+        <v>2.895541237113402</v>
+      </c>
+      <c r="E112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113">
+        <v>35576</v>
+      </c>
+      <c r="D113">
+        <v>0.8726288659793812</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114">
+        <v>36039</v>
+      </c>
+      <c r="D114">
+        <v>1.554865979381444</v>
+      </c>
+      <c r="E114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115">
+        <v>36137</v>
+      </c>
+      <c r="D115">
+        <v>1.618329896907217</v>
+      </c>
+      <c r="E115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116">
+        <v>36266</v>
+      </c>
+      <c r="D116">
+        <v>2.340231958762887</v>
+      </c>
+      <c r="E116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117">
+        <v>36266</v>
+      </c>
+      <c r="D117">
+        <v>1.697659793814434</v>
+      </c>
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118">
+        <v>36269</v>
+      </c>
+      <c r="D118">
+        <v>2.237103092783505</v>
+      </c>
+      <c r="E118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119">
+        <v>36414</v>
+      </c>
+      <c r="D119">
+        <v>1.126484536082474</v>
+      </c>
+      <c r="E119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120">
+        <v>38875</v>
+      </c>
+      <c r="D120">
+        <v>3.633309278350516</v>
+      </c>
+      <c r="E120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121">
+        <v>38875</v>
+      </c>
+      <c r="D121">
+        <v>1.562798969072166</v>
+      </c>
+      <c r="E121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122">
+        <v>38889</v>
+      </c>
+      <c r="D122">
+        <v>2.078443298969073</v>
+      </c>
+      <c r="E122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123">
+        <v>56479</v>
+      </c>
+      <c r="D123">
+        <v>0.9757577319587631</v>
+      </c>
+      <c r="E123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124">
+        <v>53557</v>
+      </c>
+      <c r="D124">
+        <v>0.9995567010309282</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125">
+        <v>53909</v>
+      </c>
+      <c r="D125">
+        <v>2.046711340206186</v>
+      </c>
+      <c r="E125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126">
+        <v>56626</v>
+      </c>
+      <c r="D126">
+        <v>1.451737113402062</v>
+      </c>
+      <c r="E126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127">
+        <v>15848</v>
+      </c>
+      <c r="D127">
+        <v>2.657551546391753</v>
+      </c>
+      <c r="E127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>164</v>
+      </c>
+      <c r="C128">
+        <v>54579</v>
+      </c>
+      <c r="D128">
+        <v>1.388273195876288</v>
+      </c>
+      <c r="E128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129">
+        <v>56727</v>
+      </c>
+      <c r="D129">
+        <v>2.102242268041237</v>
+      </c>
+      <c r="E129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130">
+        <v>55120</v>
+      </c>
+      <c r="D130">
+        <v>2.514757731958763</v>
+      </c>
+      <c r="E130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131">
+        <v>1983</v>
+      </c>
+      <c r="D131">
+        <v>1.577528044083465</v>
+      </c>
+      <c r="E131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132">
+        <v>1987</v>
+      </c>
+      <c r="D132">
+        <v>3.36358762886598</v>
+      </c>
+      <c r="E132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133">
+        <v>2991</v>
+      </c>
+      <c r="D133">
+        <v>1.39620618556701</v>
+      </c>
+      <c r="E133" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -107,19 +107,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
   </si>
   <si>
     <t>Name</t>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60374617795.99579</v>
+        <v>60374617778.56241</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -1015,7 +1015,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.4814507244959</v>
+        <v>343.4814507244961</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288.5244186085765</v>
+        <v>288.5244186085768</v>
       </c>
       <c r="O2">
-        <v>288.5244186085765</v>
+        <v>288.5244186085768</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.553957459549564e-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-7.553957459549564e-15</v>
       </c>
       <c r="R2">
         <v>288.4396604831751</v>
@@ -1093,19 +1093,19 @@
         <v>1246.309646477429</v>
       </c>
       <c r="AF2">
+        <v>7.5</v>
+      </c>
+      <c r="AG2">
+        <v>850</v>
+      </c>
+      <c r="AH2">
+        <v>414.5</v>
+      </c>
+      <c r="AI2">
+        <v>24.2</v>
+      </c>
+      <c r="AJ2">
         <v>130.3</v>
-      </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>7.5</v>
-      </c>
-      <c r="AI2">
-        <v>414.5</v>
-      </c>
-      <c r="AJ2">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1146,7 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>1.483469072164949</v>
+        <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
         <v>170</v>
@@ -1180,7 +1180,7 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.790639175257733</v>
+        <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
         <v>170</v>
@@ -1197,7 +1197,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072167</v>
+        <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
@@ -1401,7 +1401,7 @@
         <v>21107</v>
       </c>
       <c r="D17">
-        <v>1.769056701030927</v>
+        <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
         <v>170</v>
@@ -1435,7 +1435,7 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>1.784922680412371</v>
+        <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
         <v>170</v>
@@ -1486,7 +1486,7 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762888</v>
+        <v>3.879231958762886</v>
       </c>
       <c r="E22" t="s">
         <v>170</v>
@@ -1605,7 +1605,7 @@
         <v>49086</v>
       </c>
       <c r="D29">
-        <v>0.8726288659793812</v>
+        <v>0.8726288659793813</v>
       </c>
       <c r="E29" t="s">
         <v>170</v>
@@ -1707,7 +1707,7 @@
         <v>31171</v>
       </c>
       <c r="D35">
-        <v>0.9598917525773197</v>
+        <v>0.9598917525773195</v>
       </c>
       <c r="E35" t="s">
         <v>170</v>
@@ -1724,7 +1724,7 @@
         <v>31226</v>
       </c>
       <c r="D36">
-        <v>1.30101030927835</v>
+        <v>1.301010309278351</v>
       </c>
       <c r="E36" t="s">
         <v>170</v>
@@ -1877,7 +1877,7 @@
         <v>39164</v>
       </c>
       <c r="D45">
-        <v>0.9598917525773197</v>
+        <v>0.9598917525773195</v>
       </c>
       <c r="E45" t="s">
         <v>170</v>
@@ -1962,7 +1962,7 @@
         <v>58710</v>
       </c>
       <c r="D50">
-        <v>6.393989690721649</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E50" t="s">
         <v>170</v>
@@ -2064,7 +2064,7 @@
         <v>45329</v>
       </c>
       <c r="D56">
-        <v>4.910520618556701</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E56" t="s">
         <v>170</v>
@@ -2132,7 +2132,7 @@
         <v>46049</v>
       </c>
       <c r="D60">
-        <v>5.545159793814433</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E60" t="s">
         <v>170</v>
@@ -2200,7 +2200,7 @@
         <v>47053</v>
       </c>
       <c r="D64">
-        <v>4.505938144329896</v>
+        <v>4.505938144329898</v>
       </c>
       <c r="E64" t="s">
         <v>170</v>
@@ -2234,7 +2234,7 @@
         <v>47166</v>
       </c>
       <c r="D66">
-        <v>7.528407216494845</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E66" t="s">
         <v>170</v>
@@ -2319,7 +2319,7 @@
         <v>47495</v>
       </c>
       <c r="D71">
-        <v>6.393989690721649</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E71" t="s">
         <v>170</v>
@@ -2472,7 +2472,7 @@
         <v>44532</v>
       </c>
       <c r="D80">
-        <v>1.388273195876289</v>
+        <v>1.388273195876288</v>
       </c>
       <c r="E80" t="s">
         <v>170</v>
@@ -2489,7 +2489,7 @@
         <v>44536</v>
       </c>
       <c r="D81">
-        <v>1.665927835051546</v>
+        <v>1.665927835051547</v>
       </c>
       <c r="E81" t="s">
         <v>170</v>
@@ -2523,7 +2523,7 @@
         <v>15562</v>
       </c>
       <c r="D83">
-        <v>1.96738144329897</v>
+        <v>1.967381443298969</v>
       </c>
       <c r="E83" t="s">
         <v>170</v>
@@ -2659,7 +2659,7 @@
         <v>6258</v>
       </c>
       <c r="D91">
-        <v>1.34860824742268</v>
+        <v>1.348608247422681</v>
       </c>
       <c r="E91" t="s">
         <v>170</v>
@@ -2710,7 +2710,7 @@
         <v>6638</v>
       </c>
       <c r="D94">
-        <v>6.917567010309277</v>
+        <v>6.917567010309281</v>
       </c>
       <c r="E94" t="s">
         <v>170</v>
@@ -2778,7 +2778,7 @@
         <v>6766</v>
       </c>
       <c r="D98">
-        <v>0.9519587628865979</v>
+        <v>0.9519587628865978</v>
       </c>
       <c r="E98" t="s">
         <v>170</v>
@@ -2880,7 +2880,7 @@
         <v>50997</v>
       </c>
       <c r="D104">
-        <v>2.356097938144329</v>
+        <v>2.35609793814433</v>
       </c>
       <c r="E104" t="s">
         <v>170</v>
@@ -2897,7 +2897,7 @@
         <v>51371</v>
       </c>
       <c r="D105">
-        <v>1.761123711340207</v>
+        <v>1.761123711340206</v>
       </c>
       <c r="E105" t="s">
         <v>170</v>
@@ -2948,7 +2948,7 @@
         <v>51465</v>
       </c>
       <c r="D108">
-        <v>0.9678247422680413</v>
+        <v>0.9678247422680412</v>
       </c>
       <c r="E108" t="s">
         <v>170</v>
@@ -3033,7 +3033,7 @@
         <v>35576</v>
       </c>
       <c r="D113">
-        <v>0.8726288659793812</v>
+        <v>0.8726288659793813</v>
       </c>
       <c r="E113" t="s">
         <v>170</v>
@@ -3101,7 +3101,7 @@
         <v>36266</v>
       </c>
       <c r="D117">
-        <v>1.697659793814434</v>
+        <v>1.697659793814433</v>
       </c>
       <c r="E117" t="s">
         <v>170</v>
@@ -3220,7 +3220,7 @@
         <v>53557</v>
       </c>
       <c r="D124">
-        <v>0.9995567010309282</v>
+        <v>0.9995567010309281</v>
       </c>
       <c r="E124" t="s">
         <v>170</v>
@@ -3339,7 +3339,7 @@
         <v>1983</v>
       </c>
       <c r="D131">
-        <v>1.577528044083465</v>
+        <v>1.753190721649485</v>
       </c>
       <c r="E131" t="s">
         <v>170</v>
@@ -3356,7 +3356,7 @@
         <v>1987</v>
       </c>
       <c r="D132">
-        <v>3.36358762886598</v>
+        <v>3.187924951300077</v>
       </c>
       <c r="E132" t="s">
         <v>170</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60374617778.56241</v>
+        <v>60374617840.00072</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -1015,7 +1015,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.4814507244961</v>
+        <v>343.4814507244959</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288.5244186085768</v>
+        <v>288.5244186085765</v>
       </c>
       <c r="O2">
-        <v>288.5244186085768</v>
+        <v>288.5244186085765</v>
       </c>
       <c r="P2">
-        <v>-7.553957459549564e-15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-7.553957459549564e-15</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>288.4396604831751</v>
@@ -1180,7 +1180,7 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.790639175257732</v>
+        <v>6.790639175257733</v>
       </c>
       <c r="E4" t="s">
         <v>170</v>
@@ -1197,7 +1197,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072166</v>
+        <v>7.718798969072167</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
@@ -1486,7 +1486,7 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762886</v>
+        <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
         <v>170</v>
@@ -1707,7 +1707,7 @@
         <v>31171</v>
       </c>
       <c r="D35">
-        <v>0.9598917525773195</v>
+        <v>0.9598917525773196</v>
       </c>
       <c r="E35" t="s">
         <v>170</v>
@@ -1724,7 +1724,7 @@
         <v>31226</v>
       </c>
       <c r="D36">
-        <v>1.301010309278351</v>
+        <v>1.30101030927835</v>
       </c>
       <c r="E36" t="s">
         <v>170</v>
@@ -1809,7 +1809,7 @@
         <v>33332</v>
       </c>
       <c r="D41">
-        <v>2.046711340206186</v>
+        <v>2.046711340206185</v>
       </c>
       <c r="E41" t="s">
         <v>170</v>
@@ -1877,7 +1877,7 @@
         <v>39164</v>
       </c>
       <c r="D45">
-        <v>0.9598917525773195</v>
+        <v>0.9598917525773196</v>
       </c>
       <c r="E45" t="s">
         <v>170</v>
@@ -1945,7 +1945,7 @@
         <v>39418</v>
       </c>
       <c r="D49">
-        <v>1.554865979381444</v>
+        <v>1.554865979381443</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1962,7 +1962,7 @@
         <v>58710</v>
       </c>
       <c r="D50">
-        <v>6.39398969072165</v>
+        <v>6.393989690721649</v>
       </c>
       <c r="E50" t="s">
         <v>170</v>
@@ -1979,7 +1979,7 @@
         <v>59075</v>
       </c>
       <c r="D51">
-        <v>2.022912371134021</v>
+        <v>2.02291237113402</v>
       </c>
       <c r="E51" t="s">
         <v>170</v>
@@ -2115,7 +2115,7 @@
         <v>45966</v>
       </c>
       <c r="D59">
-        <v>1.880118556701031</v>
+        <v>1.88011855670103</v>
       </c>
       <c r="E59" t="s">
         <v>170</v>
@@ -2132,7 +2132,7 @@
         <v>46049</v>
       </c>
       <c r="D60">
-        <v>5.545159793814434</v>
+        <v>5.545159793814433</v>
       </c>
       <c r="E60" t="s">
         <v>170</v>
@@ -2200,7 +2200,7 @@
         <v>47053</v>
       </c>
       <c r="D64">
-        <v>4.505938144329898</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E64" t="s">
         <v>170</v>
@@ -2217,7 +2217,7 @@
         <v>47137</v>
       </c>
       <c r="D65">
-        <v>1.927716494845361</v>
+        <v>1.92771649484536</v>
       </c>
       <c r="E65" t="s">
         <v>170</v>
@@ -2234,7 +2234,7 @@
         <v>47166</v>
       </c>
       <c r="D66">
-        <v>7.528407216494846</v>
+        <v>7.528407216494845</v>
       </c>
       <c r="E66" t="s">
         <v>170</v>
@@ -2319,7 +2319,7 @@
         <v>47495</v>
       </c>
       <c r="D71">
-        <v>6.39398969072165</v>
+        <v>6.393989690721649</v>
       </c>
       <c r="E71" t="s">
         <v>170</v>
@@ -2472,7 +2472,7 @@
         <v>44532</v>
       </c>
       <c r="D80">
-        <v>1.388273195876288</v>
+        <v>1.388273195876289</v>
       </c>
       <c r="E80" t="s">
         <v>170</v>
@@ -2574,7 +2574,7 @@
         <v>4838</v>
       </c>
       <c r="D86">
-        <v>1.602463917525774</v>
+        <v>1.602463917525773</v>
       </c>
       <c r="E86" t="s">
         <v>170</v>
@@ -2710,7 +2710,7 @@
         <v>6638</v>
       </c>
       <c r="D94">
-        <v>6.917567010309281</v>
+        <v>6.917567010309278</v>
       </c>
       <c r="E94" t="s">
         <v>170</v>
@@ -2880,7 +2880,7 @@
         <v>50997</v>
       </c>
       <c r="D104">
-        <v>2.35609793814433</v>
+        <v>2.356097938144329</v>
       </c>
       <c r="E104" t="s">
         <v>170</v>
@@ -2897,7 +2897,7 @@
         <v>51371</v>
       </c>
       <c r="D105">
-        <v>1.761123711340206</v>
+        <v>1.761123711340207</v>
       </c>
       <c r="E105" t="s">
         <v>170</v>
@@ -2999,7 +2999,7 @@
         <v>52409</v>
       </c>
       <c r="D111">
-        <v>1.602463917525774</v>
+        <v>1.602463917525773</v>
       </c>
       <c r="E111" t="s">
         <v>170</v>
@@ -3050,7 +3050,7 @@
         <v>36039</v>
       </c>
       <c r="D114">
-        <v>1.554865979381444</v>
+        <v>1.554865979381443</v>
       </c>
       <c r="E114" t="s">
         <v>170</v>
@@ -3084,7 +3084,7 @@
         <v>36266</v>
       </c>
       <c r="D116">
-        <v>2.340231958762887</v>
+        <v>2.340231958762886</v>
       </c>
       <c r="E116" t="s">
         <v>170</v>
@@ -3186,7 +3186,7 @@
         <v>38889</v>
       </c>
       <c r="D122">
-        <v>2.078443298969073</v>
+        <v>2.078443298969072</v>
       </c>
       <c r="E122" t="s">
         <v>170</v>
@@ -3220,7 +3220,7 @@
         <v>53557</v>
       </c>
       <c r="D124">
-        <v>0.9995567010309281</v>
+        <v>0.9995567010309282</v>
       </c>
       <c r="E124" t="s">
         <v>170</v>
@@ -3237,7 +3237,7 @@
         <v>53909</v>
       </c>
       <c r="D125">
-        <v>2.046711340206186</v>
+        <v>2.046711340206185</v>
       </c>
       <c r="E125" t="s">
         <v>170</v>
@@ -3288,7 +3288,7 @@
         <v>54579</v>
       </c>
       <c r="D128">
-        <v>1.388273195876288</v>
+        <v>1.388273195876289</v>
       </c>
       <c r="E128" t="s">
         <v>170</v>
@@ -3305,7 +3305,7 @@
         <v>56727</v>
       </c>
       <c r="D129">
-        <v>2.102242268041237</v>
+        <v>2.102242268041238</v>
       </c>
       <c r="E129" t="s">
         <v>170</v>
@@ -3356,7 +3356,7 @@
         <v>1987</v>
       </c>
       <c r="D132">
-        <v>3.187924951300077</v>
+        <v>3.187924951300045</v>
       </c>
       <c r="E132" t="s">
         <v>170</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>Total Cost</t>
   </si>
@@ -107,21 +107,21 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -203,21 +203,24 @@
     <t>Müllverbrennung Kiel GmbH &amp; Co. KG - Müllheizkraftwerk Kiel</t>
   </si>
   <si>
+    <t>ArcelorMittal Bremen GmbH</t>
+  </si>
+  <si>
     <t>ArcelorMittal Bremen GmbH / BREMA Walzwerk GmbH</t>
   </si>
   <si>
     <t>swb Entsorgung GmbH &amp; Co. KG / MKK Bremen Mittelkalorik-Kraftwerk</t>
   </si>
   <si>
+    <t>EMPG - EAA Großenkneten Erdgas-Aufbereitungsanlage</t>
+  </si>
+  <si>
     <t>Nordzucker AG Werk Uelzen</t>
   </si>
   <si>
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -227,15 +230,15 @@
     <t>Calcis Lienen GmbH &amp; Co.KG</t>
   </si>
   <si>
+    <t>BP Europa SE BP Lingen</t>
+  </si>
+  <si>
     <t>EVI Abfallverwertung B.V. &amp; Co. KG</t>
   </si>
   <si>
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
-    <t>Nordzucker AG Werk Nordstemmen</t>
-  </si>
-  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
     <t>Enertec Hameln GmbH Müllverbrennungsanlage</t>
   </si>
   <si>
+    <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
+  </si>
+  <si>
     <t>Sappi Alfeld GmbH</t>
   </si>
   <si>
@@ -263,268 +269,64 @@
     <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
   </si>
   <si>
-    <t>Nordzucker AG, Werk Klein Wanzleben</t>
-  </si>
-  <si>
-    <t>EUROGLAS AG</t>
-  </si>
-  <si>
-    <t>Werk  Zielitz</t>
-  </si>
-  <si>
-    <t>EUROGLAS GmbH</t>
-  </si>
-  <si>
-    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+    <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
-  </si>
-  <si>
     <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
   </si>
   <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
-  </si>
-  <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>TRIMET Aluminium SE</t>
-  </si>
-  <si>
     <t>AGR mbH</t>
   </si>
   <si>
-    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+    <t>Evonik Degussa GmbH</t>
+  </si>
+  <si>
+    <t>Ruhr Oel GmbH Werk Scholven</t>
+  </si>
+  <si>
+    <t>Ruhr Oel GmbH Werk Horst</t>
   </si>
   <si>
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
-    <t>Oxea GmbH Werk Ruhrchemie</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
-  </si>
-  <si>
-    <t>TRIMET Aluminium SE Niederlassung Voerde</t>
-  </si>
-  <si>
-    <t>DK Recycling und Roheisen GmbH</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+    <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
+  </si>
+  <si>
+    <t>Pruna Betreiber GmbH vertreten durch die KBS GmbH Werk Schwelgern</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Hamborn</t>
   </si>
   <si>
     <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
   </si>
   <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
-  </si>
-  <si>
-    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
-  </si>
-  <si>
-    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+    <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
     <t>Solvay Chemicals GmbH</t>
   </si>
   <si>
-    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
-  </si>
-  <si>
-    <t>BSR / MHKW</t>
-  </si>
-  <si>
-    <t>Stadtwerke Düsseldorf AG</t>
-  </si>
-  <si>
-    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
-  </si>
-  <si>
-    <t>Aluminium Norf GmbH</t>
-  </si>
-  <si>
-    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>AWG Abfallwirtschaftsgesellschaft mbH Wuppertal</t>
-  </si>
-  <si>
-    <t>Biomassekraftwerk Lünen GmbH</t>
-  </si>
-  <si>
-    <t>Fritz Winter Eisengießerei GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Vattenfall Europe New Energy Ecopower GmbH</t>
-  </si>
-  <si>
-    <t>Fels-Werke GmbH</t>
-  </si>
-  <si>
-    <t>Pfleiderer Baruth GmbH</t>
-  </si>
-  <si>
-    <t>Stora Enso Sachsen GmbH</t>
-  </si>
-  <si>
-    <t>ROMONTA  Amsdorf</t>
-  </si>
-  <si>
-    <t>Linde Gas Produktionsgesellschaft mbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>TREA Leuna</t>
-  </si>
-  <si>
-    <t>Linde Gas Produktionsgesellschaft mbH &amp; Co. KG / TOTAL</t>
-  </si>
-  <si>
-    <t>Dow Olefinverbund GmbH, Werk Schkopau</t>
-  </si>
-  <si>
-    <t>Schwenk Zement KG, Werk Bernburg</t>
-  </si>
-  <si>
-    <t>SOLVAY Chemicals GmbH</t>
-  </si>
-  <si>
-    <t>OPTERRA Karsdorf GmbH</t>
-  </si>
-  <si>
-    <t>SUEZ Energie und Verwertung GmbH</t>
-  </si>
-  <si>
-    <t>CropEnergies Bioethanol GmbH</t>
-  </si>
-  <si>
-    <t>Südzucker AG Mannheim / Ochsenfurt, Werk Zeitz</t>
-  </si>
-  <si>
-    <t>GUARDIAN Flachglas GmbH</t>
-  </si>
-  <si>
-    <t>Martinswerk GmbH</t>
-  </si>
-  <si>
-    <t>RWE Power AG-Fabrik Fortuna Nord</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Saarbrücken GmbH</t>
-  </si>
-  <si>
-    <t>Evonik Degussa GmbH Werk Wesseling</t>
-  </si>
-  <si>
-    <t>Abfallentsorgungs- und Verwertungsgesellschaft Köln mbH</t>
-  </si>
-  <si>
-    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
-  </si>
-  <si>
-    <t>Currenta GmbH &amp; Co. OHG Entsorgungszentrum Bürrig</t>
-  </si>
-  <si>
-    <t>KRONOS TITAN GmbH</t>
-  </si>
-  <si>
-    <t>AVEA Entsorgungsbetriebe GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Zanders GmbH</t>
-  </si>
-  <si>
-    <t>MVA Weisweiler GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Heinr. Aug. Schoeller Söhne GmbH &amp; Co. KG Papierfabrik Schoellershammer</t>
-  </si>
-  <si>
-    <t>Pfeifer &amp; Langen GmbH &amp; Co. KG Werk Jülich</t>
-  </si>
-  <si>
-    <t>LEIPA Georg Leinfelder GmbH Werk Schwedt</t>
-  </si>
-  <si>
-    <t>Buderus Edelstahl GmbH</t>
-  </si>
-  <si>
-    <t>Papierfabrik A. Jass GmbH &amp; Co.KG</t>
-  </si>
-  <si>
-    <t>ZKW Otterbein Zementwerk</t>
-  </si>
-  <si>
-    <t>ETN Wintershall</t>
-  </si>
-  <si>
-    <t>Werk Werra Standort Wintershall</t>
-  </si>
-  <si>
-    <t>Werk Werra Standort Hattorf</t>
-  </si>
-  <si>
-    <t>Werk Werra Standort Unterbreizbach</t>
-  </si>
-  <si>
-    <t>FELS-WERKE Kalkwerk Kaltes Tal</t>
-  </si>
-  <si>
-    <t>FELS-WERKE Kalkwerk Hornberg</t>
-  </si>
-  <si>
-    <t>FELS-WERKE GmbH Kalkwerk Rübeland</t>
-  </si>
-  <si>
-    <t>Biomasse Heizkraftwerk Siegerl GmbH</t>
-  </si>
-  <si>
-    <t>Solvay &amp; CPC Barium Strontium             GmbH &amp; Co KG</t>
-  </si>
-  <si>
-    <t>Smurfit Kappa Zülpich Papier  GmbH</t>
-  </si>
-  <si>
-    <t>IHKW Industrieheizkraftwerk Andernach GmbH c/o ThyssenKrupp Rasselstein GmbH</t>
-  </si>
-  <si>
-    <t>BHW Beeskow Holzwerkstoffe GmbH</t>
-  </si>
-  <si>
-    <t>Portlandzementwerk " Wotan",, H. Schneider KG</t>
-  </si>
-  <si>
-    <t>Moritz J. Weig GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Entsorgungsgesellschaft Mainz mbH</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Großräschen GmbH</t>
-  </si>
-  <si>
-    <t>BASF Schwarzheide GmbH</t>
-  </si>
-  <si>
-    <t>Thermische Abfallbehandlung Lauta GmbH &amp; Co. oHG</t>
+    <t>Rheinkalk GmbH</t>
+  </si>
+  <si>
+    <t>CEMEX Zement GmbH</t>
+  </si>
+  <si>
+    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
+  </si>
+  <si>
+    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie Werk Nord</t>
   </si>
   <si>
     <t>MtD</t>
@@ -1003,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60374617840.00072</v>
+        <v>14126786177.81083</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -1015,7 +817,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.4814507244959</v>
+        <v>343.481450724496</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -1039,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288.5244186085765</v>
+        <v>288.5244186085766</v>
       </c>
       <c r="O2">
-        <v>288.5244186085765</v>
+        <v>288.5244186085766</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1093,19 +895,19 @@
         <v>1246.309646477429</v>
       </c>
       <c r="AF2">
+        <v>414.5</v>
+      </c>
+      <c r="AG2">
+        <v>24.2</v>
+      </c>
+      <c r="AH2">
+        <v>130.3</v>
+      </c>
+      <c r="AI2">
+        <v>850</v>
+      </c>
+      <c r="AJ2">
         <v>7.5</v>
-      </c>
-      <c r="AG2">
-        <v>850</v>
-      </c>
-      <c r="AH2">
-        <v>414.5</v>
-      </c>
-      <c r="AI2">
-        <v>24.2</v>
-      </c>
-      <c r="AJ2">
-        <v>130.3</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,7 +951,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1166,7 +968,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +982,10 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.790639175257733</v>
+        <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +999,10 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072167</v>
+        <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1217,7 +1019,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1234,7 +1036,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1251,7 +1053,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1268,7 +1070,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1285,7 +1087,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1302,7 +1104,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1319,7 +1121,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1336,7 +1138,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1353,7 +1155,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1370,7 +1172,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1387,7 +1189,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1404,7 +1206,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1421,7 +1223,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1438,7 +1240,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1455,7 +1257,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1472,7 +1274,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1489,7 +1291,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1506,7 +1308,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1523,7 +1325,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1339,10 @@
         <v>28237</v>
       </c>
       <c r="D25">
-        <v>4.355211340206187</v>
+        <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1356,10 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>2.133974226804124</v>
+        <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1568,13 +1370,13 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>29525</v>
+        <v>28237</v>
       </c>
       <c r="D27">
-        <v>1.308943298969072</v>
+        <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1585,13 +1387,13 @@
         <v>65</v>
       </c>
       <c r="C28">
-        <v>30659</v>
+        <v>26197</v>
       </c>
       <c r="D28">
-        <v>1.951515463917526</v>
+        <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1602,13 +1404,13 @@
         <v>66</v>
       </c>
       <c r="C29">
-        <v>49086</v>
+        <v>29525</v>
       </c>
       <c r="D29">
-        <v>0.8726288659793813</v>
+        <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1619,13 +1421,13 @@
         <v>67</v>
       </c>
       <c r="C30">
-        <v>49124</v>
+        <v>30659</v>
       </c>
       <c r="D30">
-        <v>1.158216494845361</v>
+        <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1636,13 +1438,13 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>8.012319587628866</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1653,13 +1455,13 @@
         <v>69</v>
       </c>
       <c r="C32">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>1.182015463917526</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1670,13 +1472,13 @@
         <v>70</v>
       </c>
       <c r="C33">
-        <v>49824</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>3.054201030927835</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1687,13 +1489,13 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>1.269278350515464</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1704,13 +1506,13 @@
         <v>72</v>
       </c>
       <c r="C35">
-        <v>31171</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>0.9598917525773196</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1721,13 +1523,13 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>31226</v>
+        <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.30101030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1738,13 +1540,13 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>31319</v>
+        <v>31226</v>
       </c>
       <c r="D37">
-        <v>4.894654639175258</v>
+        <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1755,13 +1557,13 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>31789</v>
+        <v>31319</v>
       </c>
       <c r="D38">
-        <v>3.300123711340206</v>
+        <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1772,13 +1574,13 @@
         <v>76</v>
       </c>
       <c r="C39">
-        <v>31061</v>
+        <v>31789</v>
       </c>
       <c r="D39">
-        <v>2.625819587628866</v>
+        <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1789,13 +1591,13 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>33106</v>
+        <v>38239</v>
       </c>
       <c r="D40">
-        <v>1.832520618556702</v>
+        <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1806,13 +1608,13 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>33332</v>
+        <v>31061</v>
       </c>
       <c r="D41">
-        <v>2.046711340206185</v>
+        <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1823,13 +1625,13 @@
         <v>79</v>
       </c>
       <c r="C42">
-        <v>33609</v>
+        <v>33106</v>
       </c>
       <c r="D42">
-        <v>3.078</v>
+        <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1840,13 +1642,13 @@
         <v>80</v>
       </c>
       <c r="C43">
-        <v>38372</v>
+        <v>33332</v>
       </c>
       <c r="D43">
-        <v>3.546046391752578</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1857,13 +1659,13 @@
         <v>81</v>
       </c>
       <c r="C44">
-        <v>38723</v>
+        <v>33609</v>
       </c>
       <c r="D44">
-        <v>2.665484536082475</v>
+        <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1874,13 +1676,13 @@
         <v>82</v>
       </c>
       <c r="C45">
-        <v>39164</v>
+        <v>38372</v>
       </c>
       <c r="D45">
-        <v>0.9598917525773196</v>
+        <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1891,13 +1693,13 @@
         <v>83</v>
       </c>
       <c r="C46">
-        <v>39171</v>
+        <v>38723</v>
       </c>
       <c r="D46">
-        <v>1.134417525773196</v>
+        <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1908,13 +1710,13 @@
         <v>84</v>
       </c>
       <c r="C47">
-        <v>39326</v>
+        <v>39596</v>
       </c>
       <c r="D47">
-        <v>2.022912371134021</v>
+        <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1925,13 +1727,13 @@
         <v>85</v>
       </c>
       <c r="C48">
-        <v>39340</v>
+        <v>58710</v>
       </c>
       <c r="D48">
-        <v>0.9440257731958761</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1942,13 +1744,13 @@
         <v>86</v>
       </c>
       <c r="C49">
-        <v>39418</v>
+        <v>37218</v>
       </c>
       <c r="D49">
-        <v>1.554865979381443</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1959,13 +1761,13 @@
         <v>87</v>
       </c>
       <c r="C50">
-        <v>58710</v>
+        <v>37355</v>
       </c>
       <c r="D50">
-        <v>6.393989690721649</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1976,13 +1778,13 @@
         <v>88</v>
       </c>
       <c r="C51">
-        <v>59075</v>
+        <v>45329</v>
       </c>
       <c r="D51">
-        <v>2.02291237113402</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1993,13 +1795,13 @@
         <v>89</v>
       </c>
       <c r="C52">
-        <v>14727</v>
+        <v>45699</v>
       </c>
       <c r="D52">
-        <v>1.094752577319588</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2010,13 +1812,13 @@
         <v>90</v>
       </c>
       <c r="C53">
-        <v>37218</v>
+        <v>45772</v>
       </c>
       <c r="D53">
-        <v>2.966938144329897</v>
+        <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2027,13 +1829,13 @@
         <v>91</v>
       </c>
       <c r="C54">
-        <v>37355</v>
+        <v>45896</v>
       </c>
       <c r="D54">
-        <v>8.091649484536084</v>
+        <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2044,13 +1846,13 @@
         <v>92</v>
       </c>
       <c r="C55">
-        <v>44793</v>
+        <v>45899</v>
       </c>
       <c r="D55">
-        <v>1.880118556701031</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2061,13 +1863,13 @@
         <v>93</v>
       </c>
       <c r="C56">
-        <v>45329</v>
+        <v>46049</v>
       </c>
       <c r="D56">
-        <v>4.910520618556702</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2078,13 +1880,13 @@
         <v>94</v>
       </c>
       <c r="C57">
-        <v>45356</v>
+        <v>47166</v>
       </c>
       <c r="D57">
-        <v>2.126041237113402</v>
+        <v>11.52</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2095,13 +1897,13 @@
         <v>95</v>
       </c>
       <c r="C58">
-        <v>45699</v>
+        <v>47166</v>
       </c>
       <c r="D58">
-        <v>5.307170103092785</v>
+        <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2112,13 +1914,13 @@
         <v>96</v>
       </c>
       <c r="C59">
-        <v>45966</v>
+        <v>47166</v>
       </c>
       <c r="D59">
-        <v>1.88011855670103</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2129,13 +1931,13 @@
         <v>97</v>
       </c>
       <c r="C60">
-        <v>46049</v>
+        <v>47166</v>
       </c>
       <c r="D60">
-        <v>5.545159793814433</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2146,13 +1948,13 @@
         <v>98</v>
       </c>
       <c r="C61">
-        <v>46147</v>
+        <v>47259</v>
       </c>
       <c r="D61">
-        <v>1.356541237113402</v>
+        <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2163,13 +1965,13 @@
         <v>99</v>
       </c>
       <c r="C62">
-        <v>46236</v>
+        <v>47495</v>
       </c>
       <c r="D62">
-        <v>2.998670103092783</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2180,13 +1982,13 @@
         <v>100</v>
       </c>
       <c r="C63">
-        <v>46562</v>
+        <v>42489</v>
       </c>
       <c r="D63">
-        <v>1.253412371134021</v>
+        <v>11.52</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2197,13 +1999,13 @@
         <v>101</v>
       </c>
       <c r="C64">
-        <v>47053</v>
+        <v>15562</v>
       </c>
       <c r="D64">
-        <v>4.505938144329896</v>
+        <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2214,13 +2016,13 @@
         <v>102</v>
       </c>
       <c r="C65">
-        <v>47137</v>
+        <v>50389</v>
       </c>
       <c r="D65">
-        <v>1.92771649484536</v>
+        <v>11.52</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2231,1152 +2033,13 @@
         <v>103</v>
       </c>
       <c r="C66">
-        <v>47166</v>
+        <v>50997</v>
       </c>
       <c r="D66">
-        <v>7.528407216494845</v>
+        <v>10.74964144614546</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67">
-        <v>47166</v>
-      </c>
-      <c r="D67">
-        <v>3.879231958762888</v>
-      </c>
-      <c r="E67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68">
-        <v>47198</v>
-      </c>
-      <c r="D68">
-        <v>3.117664948453609</v>
-      </c>
-      <c r="E68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69">
-        <v>47443</v>
-      </c>
-      <c r="D69">
-        <v>1.435871134020619</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70">
-        <v>47475</v>
-      </c>
-      <c r="D70">
-        <v>1.745257731958763</v>
-      </c>
-      <c r="E70" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71">
-        <v>47495</v>
-      </c>
-      <c r="D71">
-        <v>6.393989690721649</v>
-      </c>
-      <c r="E71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72">
-        <v>47829</v>
-      </c>
-      <c r="D72">
-        <v>2.554422680412372</v>
-      </c>
-      <c r="E72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73">
-        <v>47829</v>
-      </c>
-      <c r="D73">
-        <v>1.499335051546392</v>
-      </c>
-      <c r="E73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74">
-        <v>13597</v>
-      </c>
-      <c r="D74">
-        <v>3.157329896907218</v>
-      </c>
-      <c r="E74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75">
-        <v>40235</v>
-      </c>
-      <c r="D75">
-        <v>3.101798969072166</v>
-      </c>
-      <c r="E75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76">
-        <v>41468</v>
-      </c>
-      <c r="D76">
-        <v>2.427494845360825</v>
-      </c>
-      <c r="E76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77">
-        <v>41468</v>
-      </c>
-      <c r="D77">
-        <v>1.197881443298969</v>
-      </c>
-      <c r="E77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78">
-        <v>42327</v>
-      </c>
-      <c r="D78">
-        <v>2.070510309278351</v>
-      </c>
-      <c r="E78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79">
-        <v>42349</v>
-      </c>
-      <c r="D79">
-        <v>2.903474226804124</v>
-      </c>
-      <c r="E79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80">
-        <v>44532</v>
-      </c>
-      <c r="D80">
-        <v>1.388273195876289</v>
-      </c>
-      <c r="E80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81">
-        <v>44536</v>
-      </c>
-      <c r="D81">
-        <v>1.665927835051547</v>
-      </c>
-      <c r="E81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82">
-        <v>35260</v>
-      </c>
-      <c r="D82">
-        <v>1.721458762886598</v>
-      </c>
-      <c r="E82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83">
-        <v>15562</v>
-      </c>
-      <c r="D83">
-        <v>1.967381443298969</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84">
-        <v>15562</v>
-      </c>
-      <c r="D84">
-        <v>1.792855670103093</v>
-      </c>
-      <c r="E84" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85">
-        <v>15837</v>
-      </c>
-      <c r="D85">
-        <v>3.315989690721649</v>
-      </c>
-      <c r="E85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86">
-        <v>4838</v>
-      </c>
-      <c r="D86">
-        <v>1.602463917525773</v>
-      </c>
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87">
-        <v>6137</v>
-      </c>
-      <c r="D87">
-        <v>3.69677319587629</v>
-      </c>
-      <c r="E87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88">
-        <v>6237</v>
-      </c>
-      <c r="D88">
-        <v>3.522247422680413</v>
-      </c>
-      <c r="E88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89">
-        <v>6237</v>
-      </c>
-      <c r="D89">
-        <v>3.300123711340206</v>
-      </c>
-      <c r="E89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90">
-        <v>6237</v>
-      </c>
-      <c r="D90">
-        <v>1.531067010309278</v>
-      </c>
-      <c r="E90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91">
-        <v>6258</v>
-      </c>
-      <c r="D91">
-        <v>1.348608247422681</v>
-      </c>
-      <c r="E91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92">
-        <v>6406</v>
-      </c>
-      <c r="D92">
-        <v>5.100912371134022</v>
-      </c>
-      <c r="E92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93">
-        <v>6406</v>
-      </c>
-      <c r="D93">
-        <v>2.64168556701031</v>
-      </c>
-      <c r="E93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94">
-        <v>6638</v>
-      </c>
-      <c r="D94">
-        <v>6.917567010309278</v>
-      </c>
-      <c r="E94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95">
-        <v>6686</v>
-      </c>
-      <c r="D95">
-        <v>2.371963917525773</v>
-      </c>
-      <c r="E95" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96">
-        <v>6712</v>
-      </c>
-      <c r="D96">
-        <v>3.006603092783506</v>
-      </c>
-      <c r="E96" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97">
-        <v>6712</v>
-      </c>
-      <c r="D97">
-        <v>1.404139175257733</v>
-      </c>
-      <c r="E97" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98">
-        <v>6766</v>
-      </c>
-      <c r="D98">
-        <v>0.9519587628865978</v>
-      </c>
-      <c r="E98" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99">
-        <v>50127</v>
-      </c>
-      <c r="D99">
-        <v>2.086376288659794</v>
-      </c>
-      <c r="E99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100">
-        <v>50129</v>
-      </c>
-      <c r="D100">
-        <v>3.347721649484537</v>
-      </c>
-      <c r="E100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101">
-        <v>50354</v>
-      </c>
-      <c r="D101">
-        <v>2.625819587628866</v>
-      </c>
-      <c r="E101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102">
-        <v>50389</v>
-      </c>
-      <c r="D102">
-        <v>1.332742268041238</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103">
-        <v>50735</v>
-      </c>
-      <c r="D103">
-        <v>2.11810824742268</v>
-      </c>
-      <c r="E103" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104">
-        <v>50997</v>
-      </c>
-      <c r="D104">
-        <v>2.356097938144329</v>
-      </c>
-      <c r="E104" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105">
-        <v>51371</v>
-      </c>
-      <c r="D105">
-        <v>1.761123711340207</v>
-      </c>
-      <c r="E105" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>142</v>
-      </c>
-      <c r="C106">
-        <v>51373</v>
-      </c>
-      <c r="D106">
-        <v>1.626262886597938</v>
-      </c>
-      <c r="E106" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107">
-        <v>51373</v>
-      </c>
-      <c r="D107">
-        <v>1.285144329896907</v>
-      </c>
-      <c r="E107" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108">
-        <v>51465</v>
-      </c>
-      <c r="D108">
-        <v>0.9678247422680412</v>
-      </c>
-      <c r="E108" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>145</v>
-      </c>
-      <c r="C109">
-        <v>52249</v>
-      </c>
-      <c r="D109">
-        <v>2.887608247422681</v>
-      </c>
-      <c r="E109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110">
-        <v>52355</v>
-      </c>
-      <c r="D110">
-        <v>1.150283505154639</v>
-      </c>
-      <c r="E110" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111">
-        <v>52409</v>
-      </c>
-      <c r="D111">
-        <v>1.602463917525773</v>
-      </c>
-      <c r="E111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112">
-        <v>16303</v>
-      </c>
-      <c r="D112">
-        <v>2.895541237113402</v>
-      </c>
-      <c r="E112" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113">
-        <v>35576</v>
-      </c>
-      <c r="D113">
-        <v>0.8726288659793813</v>
-      </c>
-      <c r="E113" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114">
-        <v>36039</v>
-      </c>
-      <c r="D114">
-        <v>1.554865979381443</v>
-      </c>
-      <c r="E114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115">
-        <v>36137</v>
-      </c>
-      <c r="D115">
-        <v>1.618329896907217</v>
-      </c>
-      <c r="E115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116">
-        <v>36266</v>
-      </c>
-      <c r="D116">
-        <v>2.340231958762886</v>
-      </c>
-      <c r="E116" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117">
-        <v>36266</v>
-      </c>
-      <c r="D117">
-        <v>1.697659793814433</v>
-      </c>
-      <c r="E117" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118">
-        <v>36269</v>
-      </c>
-      <c r="D118">
-        <v>2.237103092783505</v>
-      </c>
-      <c r="E118" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119">
-        <v>36414</v>
-      </c>
-      <c r="D119">
-        <v>1.126484536082474</v>
-      </c>
-      <c r="E119" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120">
-        <v>38875</v>
-      </c>
-      <c r="D120">
-        <v>3.633309278350516</v>
-      </c>
-      <c r="E120" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121">
-        <v>38875</v>
-      </c>
-      <c r="D121">
-        <v>1.562798969072166</v>
-      </c>
-      <c r="E121" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122">
-        <v>38889</v>
-      </c>
-      <c r="D122">
-        <v>2.078443298969072</v>
-      </c>
-      <c r="E122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123">
-        <v>56479</v>
-      </c>
-      <c r="D123">
-        <v>0.9757577319587631</v>
-      </c>
-      <c r="E123" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>160</v>
-      </c>
-      <c r="C124">
-        <v>53557</v>
-      </c>
-      <c r="D124">
-        <v>0.9995567010309282</v>
-      </c>
-      <c r="E124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125">
-        <v>53909</v>
-      </c>
-      <c r="D125">
-        <v>2.046711340206185</v>
-      </c>
-      <c r="E125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>162</v>
-      </c>
-      <c r="C126">
-        <v>56626</v>
-      </c>
-      <c r="D126">
-        <v>1.451737113402062</v>
-      </c>
-      <c r="E126" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127">
-        <v>15848</v>
-      </c>
-      <c r="D127">
-        <v>2.657551546391753</v>
-      </c>
-      <c r="E127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128">
-        <v>54579</v>
-      </c>
-      <c r="D128">
-        <v>1.388273195876289</v>
-      </c>
-      <c r="E128" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129">
-        <v>56727</v>
-      </c>
-      <c r="D129">
-        <v>2.102242268041238</v>
-      </c>
-      <c r="E129" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130">
-        <v>55120</v>
-      </c>
-      <c r="D130">
-        <v>2.514757731958763</v>
-      </c>
-      <c r="E130" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131">
-        <v>1983</v>
-      </c>
-      <c r="D131">
-        <v>1.753190721649485</v>
-      </c>
-      <c r="E131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132">
-        <v>1987</v>
-      </c>
-      <c r="D132">
-        <v>3.187924951300045</v>
-      </c>
-      <c r="E132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133">
-        <v>2991</v>
-      </c>
-      <c r="D133">
-        <v>1.39620618556701</v>
-      </c>
-      <c r="E133" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>Total Cost</t>
   </si>
@@ -32,6 +32,9 @@
     <t>hydrogen</t>
   </si>
   <si>
+    <t>electricity</t>
+  </si>
+  <si>
     <t>RefineryProduction</t>
   </si>
   <si>
@@ -41,6 +44,18 @@
     <t>Refinery-diesel</t>
   </si>
   <si>
+    <t>Refinery-kerosene</t>
+  </si>
+  <si>
+    <t>Refinery2Production</t>
+  </si>
+  <si>
+    <t>Refinery2-gasoline</t>
+  </si>
+  <si>
+    <t>Refinery2-diesel</t>
+  </si>
+  <si>
     <t>BtDProduction</t>
   </si>
   <si>
@@ -53,18 +68,33 @@
     <t>BtL-gasoline</t>
   </si>
   <si>
-    <t>MtDProduction</t>
-  </si>
-  <si>
-    <t>MtD-diesel</t>
-  </si>
-  <si>
     <t>MtGProduction</t>
   </si>
   <si>
     <t>MtG-gasoline</t>
   </si>
   <si>
+    <t>PtF-FT1Production</t>
+  </si>
+  <si>
+    <t>PtF-FT1-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-FT1-diesel</t>
+  </si>
+  <si>
+    <t>PtF-FT2Production</t>
+  </si>
+  <si>
+    <t>PtF-FT2-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-FT2-diesel</t>
+  </si>
+  <si>
+    <t>PtF-FT2-kerosene</t>
+  </si>
+  <si>
     <t>PVGasProduction</t>
   </si>
   <si>
@@ -107,15 +137,21 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>KeroseneHubUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>pkmUsage</t>
   </si>
   <si>
@@ -272,6 +308,9 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
@@ -323,13 +362,19 @@
     <t>CEMEX Zement GmbH</t>
   </si>
   <si>
+    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Frechen</t>
+  </si>
+  <si>
+    <t>Basell Polyolefine GmbH Werk Wesseling</t>
+  </si>
+  <si>
     <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
   </si>
   <si>
-    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie Werk Nord</t>
-  </si>
-  <si>
-    <t>MtD</t>
+    <t>PtF-FT1</t>
   </si>
 </sst>
 </file>
@@ -687,13 +732,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,114 +844,186 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14126786177.81083</v>
+        <v>15200173417.69366</v>
       </c>
       <c r="C2">
-        <v>87.14279999999999</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>1190.475409836065</v>
+        <v>1311.475409836066</v>
       </c>
       <c r="E2">
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.481450724496</v>
+        <v>368.3920002072201</v>
       </c>
       <c r="G2">
-        <v>1107.142131147541</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>365.3569032786885</v>
+        <v>858.4615384615382</v>
       </c>
       <c r="I2">
-        <v>741.7852278688525</v>
+        <v>240</v>
       </c>
       <c r="J2">
+        <v>498.4615384615383</v>
+      </c>
+      <c r="K2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>361.2105926860029</v>
+      </c>
+      <c r="M2">
+        <v>117.4668594100823</v>
+      </c>
+      <c r="N2">
+        <v>243.7437332759206</v>
+      </c>
+      <c r="O2">
         <v>216</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>216</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>288.5244186085766</v>
-      </c>
-      <c r="O2">
-        <v>288.5244186085766</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>288.4396604831751</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>288.4396604831752</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>561.560339516825</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>561.5603395168248</v>
+        <v>310.2248422797642</v>
       </c>
       <c r="V2">
+        <v>95.86809362117717</v>
+      </c>
+      <c r="W2">
+        <v>214.3567486585871</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1.4210854715202e-14</v>
+      </c>
+      <c r="AB2">
+        <v>357.8960155509943</v>
+      </c>
+      <c r="AC2">
+        <v>357.8960155509943</v>
+      </c>
+      <c r="AD2">
+        <v>500.1039844490057</v>
+      </c>
+      <c r="AE2">
+        <v>500.1039844490057</v>
+      </c>
+      <c r="AF2">
         <v>7.5</v>
       </c>
-      <c r="W2">
+      <c r="AG2">
         <v>7.5</v>
       </c>
-      <c r="X2">
+      <c r="AH2">
         <v>24.2</v>
       </c>
-      <c r="Y2">
+      <c r="AI2">
         <v>24.2</v>
       </c>
-      <c r="Z2">
+      <c r="AJ2">
         <v>130.3</v>
       </c>
-      <c r="AA2">
+      <c r="AK2">
         <v>130.3</v>
       </c>
-      <c r="AB2">
+      <c r="AL2">
         <v>414.5</v>
       </c>
-      <c r="AC2">
+      <c r="AM2">
         <v>414.5</v>
       </c>
-      <c r="AD2">
-        <v>365.3569032786885</v>
-      </c>
-      <c r="AE2">
-        <v>1246.309646477429</v>
-      </c>
-      <c r="AF2">
+      <c r="AN2">
+        <v>453.3349530312595</v>
+      </c>
+      <c r="AO2">
+        <v>1172.562020396046</v>
+      </c>
+      <c r="AP2">
+        <v>120</v>
+      </c>
+      <c r="AQ2">
+        <v>24.2</v>
+      </c>
+      <c r="AR2">
+        <v>130.3</v>
+      </c>
+      <c r="AS2">
+        <v>120</v>
+      </c>
+      <c r="AT2">
         <v>414.5</v>
       </c>
-      <c r="AG2">
-        <v>24.2</v>
-      </c>
-      <c r="AH2">
-        <v>130.3</v>
-      </c>
-      <c r="AI2">
-        <v>850</v>
-      </c>
-      <c r="AJ2">
+      <c r="AU2">
+        <v>858</v>
+      </c>
+      <c r="AV2">
         <v>7.5</v>
       </c>
     </row>
@@ -917,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,16 +1042,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -942,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -951,7 +1068,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -959,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>25541</v>
@@ -968,7 +1085,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -976,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>25572</v>
@@ -985,7 +1102,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -993,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1002,7 +1119,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1010,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>26388</v>
@@ -1019,7 +1136,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1027,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>25566</v>
@@ -1036,7 +1153,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1044,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.35609793814433</v>
+        <v>2.356097938144329</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1061,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>26954</v>
@@ -1070,7 +1187,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1078,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>27570</v>
@@ -1087,7 +1204,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1095,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>26892</v>
@@ -1104,7 +1221,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1112,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>24534</v>
@@ -1121,7 +1238,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1129,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>20457</v>
@@ -1138,7 +1255,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1146,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1155,7 +1272,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1163,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>21079</v>
@@ -1172,7 +1289,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1180,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1189,7 +1306,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1197,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -1206,7 +1323,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1214,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>21119</v>
@@ -1223,7 +1340,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1231,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -1240,7 +1357,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1248,7 +1365,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>21683</v>
@@ -1257,7 +1374,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1265,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>21683</v>
@@ -1274,7 +1391,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1282,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>22113</v>
@@ -1291,7 +1408,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1299,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>22145</v>
@@ -1308,7 +1425,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1316,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>24114</v>
@@ -1325,7 +1442,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1333,7 +1450,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -1342,7 +1459,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1350,7 +1467,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>28237</v>
@@ -1359,7 +1476,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1367,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>28237</v>
@@ -1376,7 +1493,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1384,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -1393,7 +1510,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1401,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -1410,7 +1527,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1418,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -1427,7 +1544,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1435,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>49124</v>
@@ -1444,7 +1561,7 @@
         <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1452,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>49525</v>
@@ -1461,7 +1578,7 @@
         <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1469,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C33">
         <v>49536</v>
@@ -1478,7 +1595,7 @@
         <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1486,7 +1603,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>49808</v>
@@ -1495,7 +1612,7 @@
         <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1503,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>49824</v>
@@ -1512,7 +1629,7 @@
         <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1520,7 +1637,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>49824</v>
@@ -1529,7 +1646,7 @@
         <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1537,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>31226</v>
@@ -1546,7 +1663,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1554,7 +1671,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C38">
         <v>31319</v>
@@ -1563,7 +1680,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1571,7 +1688,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>31789</v>
@@ -1580,7 +1697,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1588,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>38239</v>
@@ -1597,7 +1714,7 @@
         <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1605,7 +1722,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>31061</v>
@@ -1614,7 +1731,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1622,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>33106</v>
@@ -1631,7 +1748,7 @@
         <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1639,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>33332</v>
@@ -1648,7 +1765,7 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1656,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>33609</v>
@@ -1665,7 +1782,7 @@
         <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1673,7 +1790,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>38372</v>
@@ -1682,7 +1799,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1690,7 +1807,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>38723</v>
@@ -1699,7 +1816,7 @@
         <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1707,7 +1824,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>39596</v>
@@ -1716,7 +1833,7 @@
         <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1724,16 +1841,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C48">
-        <v>58710</v>
+        <v>39171</v>
       </c>
       <c r="D48">
-        <v>6.39398969072165</v>
+        <v>1.134417525773196</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1741,16 +1858,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C49">
-        <v>37218</v>
+        <v>58710</v>
       </c>
       <c r="D49">
-        <v>2.966938144329897</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1758,16 +1875,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C50">
-        <v>37355</v>
+        <v>37218</v>
       </c>
       <c r="D50">
-        <v>8.091649484536084</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1775,16 +1892,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C51">
-        <v>45329</v>
+        <v>37355</v>
       </c>
       <c r="D51">
-        <v>4.910520618556702</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1792,16 +1909,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>45699</v>
+        <v>45329</v>
       </c>
       <c r="D52">
-        <v>5.307170103092785</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1809,16 +1926,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>45772</v>
+        <v>45699</v>
       </c>
       <c r="D53">
-        <v>11.52</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1826,16 +1943,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C54">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D54">
         <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1843,16 +1960,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C55">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D55">
-        <v>9.122938144329899</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1860,16 +1977,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C56">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D56">
-        <v>5.545159793814434</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1877,16 +1994,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C57">
-        <v>47166</v>
+        <v>46049</v>
       </c>
       <c r="D57">
-        <v>11.52</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1894,7 +2011,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>47166</v>
@@ -1903,7 +2020,7 @@
         <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1911,16 +2028,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>47166</v>
       </c>
       <c r="D59">
-        <v>10.07489690721649</v>
+        <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1928,16 +2045,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>47166</v>
       </c>
       <c r="D60">
-        <v>7.528407216494846</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1945,16 +2062,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C61">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D61">
-        <v>11.52</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1962,16 +2079,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C62">
-        <v>47495</v>
+        <v>47259</v>
       </c>
       <c r="D62">
-        <v>6.39398969072165</v>
+        <v>11.52</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1979,16 +2096,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C63">
-        <v>42489</v>
+        <v>47495</v>
       </c>
       <c r="D63">
-        <v>11.52</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1996,16 +2113,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C64">
-        <v>15562</v>
+        <v>42489</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2013,16 +2130,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C65">
-        <v>50389</v>
+        <v>15562</v>
       </c>
       <c r="D65">
         <v>11.52</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2030,16 +2147,67 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C66">
-        <v>50997</v>
+        <v>6886</v>
       </c>
       <c r="D66">
-        <v>10.74964144614546</v>
+        <v>11.48577340309642</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67">
+        <v>50226</v>
+      </c>
+      <c r="D67">
+        <v>11.52</v>
+      </c>
+      <c r="E67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68">
+        <v>50389</v>
+      </c>
+      <c r="D68">
+        <v>11.52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69">
+        <v>50389</v>
+      </c>
+      <c r="D69">
+        <v>11.52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -107,19 +107,19 @@
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
   </si>
   <si>
     <t>Name</t>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60374617840.00072</v>
+        <v>60374617730.38754</v>
       </c>
       <c r="C2">
         <v>87.14279999999999</v>
@@ -1015,7 +1015,7 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>343.4814507244959</v>
+        <v>343.4814509325169</v>
       </c>
       <c r="G2">
         <v>1107.142131147541</v>
@@ -1039,28 +1039,28 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288.5244186085765</v>
+        <v>288.5244154633024</v>
       </c>
       <c r="O2">
-        <v>288.5244186085765</v>
+        <v>288.5244154633024</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.320011803129574e-06</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.320011803129574e-06</v>
       </c>
       <c r="R2">
-        <v>288.4396604831751</v>
+        <v>288.4396631042371</v>
       </c>
       <c r="S2">
-        <v>288.4396604831752</v>
+        <v>288.4396631042371</v>
       </c>
       <c r="T2">
-        <v>561.560339516825</v>
+        <v>561.560336895763</v>
       </c>
       <c r="U2">
-        <v>561.5603395168248</v>
+        <v>561.5603368957629</v>
       </c>
       <c r="V2">
         <v>7.5</v>
@@ -1087,25 +1087,25 @@
         <v>414.5</v>
       </c>
       <c r="AD2">
-        <v>365.3569032786885</v>
+        <v>365.3569065987003</v>
       </c>
       <c r="AE2">
-        <v>1246.309646477429</v>
+        <v>1246.309643332155</v>
       </c>
       <c r="AF2">
+        <v>130.3</v>
+      </c>
+      <c r="AG2">
+        <v>414.5</v>
+      </c>
+      <c r="AH2">
+        <v>850</v>
+      </c>
+      <c r="AI2">
         <v>7.5</v>
       </c>
-      <c r="AG2">
-        <v>850</v>
-      </c>
-      <c r="AH2">
-        <v>414.5</v>
-      </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>24.2</v>
-      </c>
-      <c r="AJ2">
-        <v>130.3</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1180,7 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.790639175257733</v>
+        <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
         <v>170</v>
@@ -1197,7 +1197,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072167</v>
+        <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
@@ -1469,7 +1469,7 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>3.284257731958763</v>
+        <v>3.284257731958762</v>
       </c>
       <c r="E21" t="s">
         <v>170</v>
@@ -1690,7 +1690,7 @@
         <v>49824</v>
       </c>
       <c r="D34">
-        <v>1.269278350515464</v>
+        <v>1.269277536638138</v>
       </c>
       <c r="E34" t="s">
         <v>170</v>
@@ -1809,7 +1809,7 @@
         <v>33332</v>
       </c>
       <c r="D41">
-        <v>2.046711340206185</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E41" t="s">
         <v>170</v>
@@ -1928,7 +1928,7 @@
         <v>39340</v>
       </c>
       <c r="D48">
-        <v>0.9440257731958761</v>
+        <v>0.9440257731958762</v>
       </c>
       <c r="E48" t="s">
         <v>170</v>
@@ -1945,7 +1945,7 @@
         <v>39418</v>
       </c>
       <c r="D49">
-        <v>1.554865979381443</v>
+        <v>1.554865979381444</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1962,7 +1962,7 @@
         <v>58710</v>
       </c>
       <c r="D50">
-        <v>6.393989690721649</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E50" t="s">
         <v>170</v>
@@ -1979,7 +1979,7 @@
         <v>59075</v>
       </c>
       <c r="D51">
-        <v>2.02291237113402</v>
+        <v>2.022912371134021</v>
       </c>
       <c r="E51" t="s">
         <v>170</v>
@@ -2030,7 +2030,7 @@
         <v>37355</v>
       </c>
       <c r="D54">
-        <v>8.091649484536084</v>
+        <v>8.091649312601676</v>
       </c>
       <c r="E54" t="s">
         <v>170</v>
@@ -2098,7 +2098,7 @@
         <v>45699</v>
       </c>
       <c r="D58">
-        <v>5.307170103092785</v>
+        <v>5.307170103092786</v>
       </c>
       <c r="E58" t="s">
         <v>170</v>
@@ -2115,7 +2115,7 @@
         <v>45966</v>
       </c>
       <c r="D59">
-        <v>1.88011855670103</v>
+        <v>1.880118556701031</v>
       </c>
       <c r="E59" t="s">
         <v>170</v>
@@ -2132,7 +2132,7 @@
         <v>46049</v>
       </c>
       <c r="D60">
-        <v>5.545159793814433</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E60" t="s">
         <v>170</v>
@@ -2217,7 +2217,7 @@
         <v>47137</v>
       </c>
       <c r="D65">
-        <v>1.92771649484536</v>
+        <v>1.927716494845361</v>
       </c>
       <c r="E65" t="s">
         <v>170</v>
@@ -2234,7 +2234,7 @@
         <v>47166</v>
       </c>
       <c r="D66">
-        <v>7.528407216494845</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E66" t="s">
         <v>170</v>
@@ -2319,7 +2319,7 @@
         <v>47495</v>
       </c>
       <c r="D71">
-        <v>6.393989690721649</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E71" t="s">
         <v>170</v>
@@ -2574,7 +2574,7 @@
         <v>4838</v>
       </c>
       <c r="D86">
-        <v>1.602463917525773</v>
+        <v>1.602463917525774</v>
       </c>
       <c r="E86" t="s">
         <v>170</v>
@@ -2591,7 +2591,7 @@
         <v>6137</v>
       </c>
       <c r="D87">
-        <v>3.69677319587629</v>
+        <v>3.696773195876289</v>
       </c>
       <c r="E87" t="s">
         <v>170</v>
@@ -2710,7 +2710,7 @@
         <v>6638</v>
       </c>
       <c r="D94">
-        <v>6.917567010309278</v>
+        <v>6.917567010309279</v>
       </c>
       <c r="E94" t="s">
         <v>170</v>
@@ -2744,7 +2744,7 @@
         <v>6712</v>
       </c>
       <c r="D96">
-        <v>3.006603092783506</v>
+        <v>3.006603092783507</v>
       </c>
       <c r="E96" t="s">
         <v>170</v>
@@ -2761,7 +2761,7 @@
         <v>6712</v>
       </c>
       <c r="D97">
-        <v>1.404139175257733</v>
+        <v>1.404139175257732</v>
       </c>
       <c r="E97" t="s">
         <v>170</v>
@@ -2778,7 +2778,7 @@
         <v>6766</v>
       </c>
       <c r="D98">
-        <v>0.9519587628865978</v>
+        <v>0.9519587628865979</v>
       </c>
       <c r="E98" t="s">
         <v>170</v>
@@ -2880,7 +2880,7 @@
         <v>50997</v>
       </c>
       <c r="D104">
-        <v>2.356097938144329</v>
+        <v>2.35609793814433</v>
       </c>
       <c r="E104" t="s">
         <v>170</v>
@@ -2897,7 +2897,7 @@
         <v>51371</v>
       </c>
       <c r="D105">
-        <v>1.761123711340207</v>
+        <v>1.761123711340206</v>
       </c>
       <c r="E105" t="s">
         <v>170</v>
@@ -2948,7 +2948,7 @@
         <v>51465</v>
       </c>
       <c r="D108">
-        <v>0.9678247422680412</v>
+        <v>0.9678247422680413</v>
       </c>
       <c r="E108" t="s">
         <v>170</v>
@@ -2999,7 +2999,7 @@
         <v>52409</v>
       </c>
       <c r="D111">
-        <v>1.602463917525773</v>
+        <v>1.602463917525774</v>
       </c>
       <c r="E111" t="s">
         <v>170</v>
@@ -3050,7 +3050,7 @@
         <v>36039</v>
       </c>
       <c r="D114">
-        <v>1.554865979381443</v>
+        <v>1.554865979381444</v>
       </c>
       <c r="E114" t="s">
         <v>170</v>
@@ -3084,7 +3084,7 @@
         <v>36266</v>
       </c>
       <c r="D116">
-        <v>2.340231958762886</v>
+        <v>2.340231958762887</v>
       </c>
       <c r="E116" t="s">
         <v>170</v>
@@ -3186,7 +3186,7 @@
         <v>38889</v>
       </c>
       <c r="D122">
-        <v>2.078443298969072</v>
+        <v>2.078443298969073</v>
       </c>
       <c r="E122" t="s">
         <v>170</v>
@@ -3220,7 +3220,7 @@
         <v>53557</v>
       </c>
       <c r="D124">
-        <v>0.9995567010309282</v>
+        <v>0.999556701030928</v>
       </c>
       <c r="E124" t="s">
         <v>170</v>
@@ -3237,7 +3237,7 @@
         <v>53909</v>
       </c>
       <c r="D125">
-        <v>2.046711340206185</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E125" t="s">
         <v>170</v>
@@ -3305,7 +3305,7 @@
         <v>56727</v>
       </c>
       <c r="D129">
-        <v>2.102242268041238</v>
+        <v>2.102242268041237</v>
       </c>
       <c r="E129" t="s">
         <v>170</v>
@@ -3356,7 +3356,7 @@
         <v>1987</v>
       </c>
       <c r="D132">
-        <v>3.187924951300045</v>
+        <v>3.36358762886598</v>
       </c>
       <c r="E132" t="s">
         <v>170</v>
@@ -3373,7 +3373,7 @@
         <v>2991</v>
       </c>
       <c r="D133">
-        <v>1.39620618556701</v>
+        <v>1.220544226930241</v>
       </c>
       <c r="E133" t="s">
         <v>170</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Total Cost</t>
   </si>
@@ -35,9 +35,6 @@
     <t>electricity</t>
   </si>
   <si>
-    <t>testyboi</t>
-  </si>
-  <si>
     <t>RefineryProduction</t>
   </si>
   <si>
@@ -143,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -362,13 +359,13 @@
     <t>CEMEX Zement GmbH</t>
   </si>
   <si>
+    <t>TOTAL Raffinerie Mitteldeutschland GmbH (Raffinerie/POX)</t>
+  </si>
+  <si>
     <t>SKW Stickstoffwerke Piesteritz GmbH</t>
   </si>
   <si>
-    <t>Basell Polyolefine GmbH Werk Wesseling</t>
-  </si>
-  <si>
-    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
+    <t>RWE Power AG-Fabrik Frechen</t>
   </si>
   <si>
     <t>INEOS Köln GmbH</t>
@@ -732,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,16 +877,13 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49">
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200386757.43913</v>
+        <v>15200160460.66891</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -907,34 +901,34 @@
         <v>37.70093569372136</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>858.4615384615383</v>
       </c>
       <c r="I2">
-        <v>858.4615384615383</v>
+        <v>240</v>
       </c>
       <c r="J2">
-        <v>240</v>
+        <v>498.4615384615384</v>
       </c>
       <c r="K2">
-        <v>498.4615384615384</v>
+        <v>120</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>361.2105926860028</v>
       </c>
       <c r="M2">
-        <v>361.2105926860028</v>
+        <v>117.4668594100822</v>
       </c>
       <c r="N2">
-        <v>117.4668594100822</v>
+        <v>243.7437332759206</v>
       </c>
       <c r="O2">
-        <v>243.7437332759206</v>
+        <v>216</v>
       </c>
       <c r="P2">
         <v>216</v>
       </c>
       <c r="Q2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -946,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>310.2248422797642</v>
+      </c>
+      <c r="V2">
+        <v>95.86809362117717</v>
+      </c>
+      <c r="W2">
+        <v>214.3567486585871</v>
+      </c>
+      <c r="X2">
         <v>0</v>
-      </c>
-      <c r="V2">
-        <v>310.2248422797642</v>
-      </c>
-      <c r="W2">
-        <v>95.86809362117717</v>
-      </c>
-      <c r="X2">
-        <v>214.3567486585871</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -967,70 +961,67 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>357.8960155509943</v>
       </c>
       <c r="AC2">
         <v>357.8960155509943</v>
       </c>
       <c r="AD2">
-        <v>357.8960155509943</v>
+        <v>500.1039844490057</v>
       </c>
       <c r="AE2">
         <v>500.1039844490057</v>
       </c>
       <c r="AF2">
-        <v>500.1039844490057</v>
+        <v>7.5</v>
       </c>
       <c r="AG2">
         <v>7.5</v>
       </c>
       <c r="AH2">
-        <v>7.5</v>
+        <v>24.2</v>
       </c>
       <c r="AI2">
         <v>24.2</v>
       </c>
       <c r="AJ2">
-        <v>24.2</v>
+        <v>130.3</v>
       </c>
       <c r="AK2">
         <v>130.3</v>
       </c>
       <c r="AL2">
-        <v>130.3</v>
+        <v>414.5</v>
       </c>
       <c r="AM2">
         <v>414.5</v>
       </c>
       <c r="AN2">
+        <v>453.3349530312595</v>
+      </c>
+      <c r="AO2">
+        <v>1172.562020396046</v>
+      </c>
+      <c r="AP2">
+        <v>120</v>
+      </c>
+      <c r="AQ2">
         <v>414.5</v>
       </c>
-      <c r="AO2">
-        <v>453.3349530312595</v>
-      </c>
-      <c r="AP2">
-        <v>1172.562020396046</v>
-      </c>
-      <c r="AQ2">
-        <v>120</v>
-      </c>
       <c r="AR2">
-        <v>120</v>
+        <v>858</v>
       </c>
       <c r="AS2">
-        <v>858</v>
+        <v>24.2</v>
       </c>
       <c r="AT2">
-        <v>24.2</v>
+        <v>130.3</v>
       </c>
       <c r="AU2">
         <v>7.5</v>
       </c>
       <c r="AV2">
-        <v>130.3</v>
-      </c>
-      <c r="AW2">
-        <v>414.5</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1048,16 +1039,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1065,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -1074,7 +1065,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1082,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>25541</v>
@@ -1091,7 +1082,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1099,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>25572</v>
@@ -1108,7 +1099,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1116,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1125,7 +1116,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1133,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>26388</v>
@@ -1142,7 +1133,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1150,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>25566</v>
@@ -1159,7 +1150,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1167,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>26316</v>
@@ -1176,7 +1167,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1184,7 +1175,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>26954</v>
@@ -1193,7 +1184,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1201,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>27570</v>
@@ -1210,7 +1201,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1218,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>26892</v>
@@ -1227,7 +1218,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1235,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>24534</v>
@@ -1244,7 +1235,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1252,16 +1243,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>1.213747422680411</v>
+        <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1269,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1278,7 +1269,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1286,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>21079</v>
@@ -1295,7 +1286,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1303,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1312,7 +1303,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1320,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -1329,7 +1320,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1337,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>21119</v>
@@ -1346,7 +1337,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1354,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -1363,7 +1354,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1371,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>21683</v>
@@ -1380,7 +1371,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1388,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>21683</v>
@@ -1397,7 +1388,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1405,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>22113</v>
@@ -1414,7 +1405,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1422,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>22145</v>
@@ -1431,7 +1422,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1439,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>24114</v>
@@ -1448,7 +1439,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1456,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -1465,7 +1456,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1473,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>28237</v>
@@ -1482,7 +1473,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1490,7 +1481,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>28237</v>
@@ -1499,7 +1490,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1507,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -1516,7 +1507,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1524,7 +1515,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -1533,7 +1524,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1541,7 +1532,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -1550,7 +1541,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1558,7 +1549,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>49124</v>
@@ -1567,7 +1558,7 @@
         <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1575,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>49525</v>
@@ -1584,7 +1575,7 @@
         <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1592,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33">
         <v>49536</v>
@@ -1601,7 +1592,7 @@
         <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1609,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>49808</v>
@@ -1618,7 +1609,7 @@
         <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1626,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>49824</v>
@@ -1635,7 +1626,7 @@
         <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1643,7 +1634,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>49824</v>
@@ -1652,7 +1643,7 @@
         <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1660,7 +1651,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>31226</v>
@@ -1669,7 +1660,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1677,7 +1668,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38">
         <v>31319</v>
@@ -1686,7 +1677,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1694,7 +1685,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>31789</v>
@@ -1703,7 +1694,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1711,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>38239</v>
@@ -1720,7 +1711,7 @@
         <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1728,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>31061</v>
@@ -1737,7 +1728,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1745,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>33106</v>
@@ -1754,7 +1745,7 @@
         <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1762,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>33332</v>
@@ -1771,7 +1762,7 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1779,7 +1770,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>33609</v>
@@ -1788,7 +1779,7 @@
         <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1796,7 +1787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>38372</v>
@@ -1805,7 +1796,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1813,7 +1804,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>38723</v>
@@ -1822,7 +1813,7 @@
         <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1830,7 +1821,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>39596</v>
@@ -1839,7 +1830,7 @@
         <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1847,7 +1838,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>58710</v>
@@ -1856,7 +1847,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1864,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>37355</v>
@@ -1873,7 +1864,7 @@
         <v>8.091649484536084</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1881,16 +1872,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>45329</v>
       </c>
       <c r="D50">
-        <v>4.910520618556702</v>
+        <v>4.910520618556704</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1898,7 +1889,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>45699</v>
@@ -1907,7 +1898,7 @@
         <v>5.307170103092785</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1915,7 +1906,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>45772</v>
@@ -1924,7 +1915,7 @@
         <v>11.52</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1932,7 +1923,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>45896</v>
@@ -1941,7 +1932,7 @@
         <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1949,7 +1940,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>45899</v>
@@ -1958,7 +1949,7 @@
         <v>9.122938144329899</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1966,7 +1957,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55">
         <v>46049</v>
@@ -1975,7 +1966,7 @@
         <v>5.545159793814434</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1983,7 +1974,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56">
         <v>47053</v>
@@ -1992,7 +1983,7 @@
         <v>4.505938144329896</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2000,7 +1991,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57">
         <v>47166</v>
@@ -2009,7 +2000,7 @@
         <v>11.52</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2017,7 +2008,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>47166</v>
@@ -2026,7 +2017,7 @@
         <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2034,7 +2025,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>47166</v>
@@ -2043,7 +2034,7 @@
         <v>10.07489690721649</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2051,7 +2042,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>47166</v>
@@ -2060,7 +2051,7 @@
         <v>7.528407216494846</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2068,7 +2059,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61">
         <v>47259</v>
@@ -2077,7 +2068,7 @@
         <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2085,16 +2076,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62">
         <v>47495</v>
       </c>
       <c r="D62">
-        <v>5.955180619591216</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2102,7 +2093,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63">
         <v>42489</v>
@@ -2111,7 +2102,7 @@
         <v>11.52</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2119,7 +2110,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64">
         <v>15562</v>
@@ -2128,7 +2119,7 @@
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2136,16 +2127,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65">
-        <v>6886</v>
+        <v>6237</v>
       </c>
       <c r="D65">
         <v>11.52</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2153,16 +2144,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66">
-        <v>50389</v>
+        <v>6886</v>
       </c>
       <c r="D66">
         <v>11.52</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2170,16 +2161,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67">
-        <v>50389</v>
+        <v>50226</v>
       </c>
       <c r="D67">
         <v>11.52</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2187,16 +2178,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68">
         <v>50769</v>
       </c>
       <c r="D68">
-        <v>11.52</v>
+        <v>11.08119092886961</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -170,6 +170,21 @@
     <t>Process Used</t>
   </si>
   <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>K Value</t>
+  </si>
+  <si>
+    <t>H2 Opex</t>
+  </si>
+  <si>
+    <t>CO2 Opex</t>
+  </si>
+  <si>
+    <t>Indirect Opex</t>
+  </si>
+  <si>
     <t>Sasol Germany GmbH</t>
   </si>
   <si>
@@ -311,15 +326,18 @@
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
+    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
+  </si>
+  <si>
+    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
+  </si>
+  <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>AGR mbH</t>
-  </si>
-  <si>
     <t>Evonik Degussa GmbH</t>
   </si>
   <si>
@@ -368,7 +386,7 @@
     <t>RWE Power AG-Fabrik Frechen</t>
   </si>
   <si>
-    <t>INEOS Köln GmbH</t>
+    <t>Basell Polyolefine GmbH Werk Wesseling</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -883,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200160460.66891</v>
+        <v>15200035772.30962</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -895,10 +913,10 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.3920002072201</v>
+        <v>368.3920002072203</v>
       </c>
       <c r="G2">
-        <v>37.70093569372136</v>
+        <v>37.70093569372138</v>
       </c>
       <c r="H2">
         <v>858.4615384615383</v>
@@ -940,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>310.2248422797642</v>
+        <v>310.2248422797644</v>
       </c>
       <c r="V2">
-        <v>95.86809362117717</v>
+        <v>95.86809362117722</v>
       </c>
       <c r="W2">
-        <v>214.3567486585871</v>
+        <v>214.3567486585872</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1006,22 +1024,22 @@
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>7.5</v>
+      </c>
+      <c r="AR2">
+        <v>120</v>
+      </c>
+      <c r="AS2">
         <v>414.5</v>
-      </c>
-      <c r="AR2">
-        <v>858</v>
-      </c>
-      <c r="AS2">
-        <v>24.2</v>
       </c>
       <c r="AT2">
         <v>130.3</v>
       </c>
       <c r="AU2">
-        <v>7.5</v>
+        <v>24.2</v>
       </c>
       <c r="AV2">
-        <v>120</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1050,13 +1068,28 @@
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -1065,15 +1098,30 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3487393.97800187</v>
+      </c>
+      <c r="H2">
+        <v>33331633.33333333</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>3211279.34822684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>25541</v>
@@ -1082,15 +1130,30 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3095903.241680239</v>
+      </c>
+      <c r="H3">
+        <v>33331633.33333333</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>3120028.598903444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>25572</v>
@@ -1099,15 +1162,30 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>15940434.28455345</v>
+      </c>
+      <c r="H4">
+        <v>33429264.21745752</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>4640353.526253123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1116,15 +1194,30 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>18114593.9106332</v>
+      </c>
+      <c r="H5">
+        <v>33429264.21745752</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>4786474.22858194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>26388</v>
@@ -1133,15 +1226,30 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>2741666.444831646</v>
+      </c>
+      <c r="H6">
+        <v>33429264.21745752</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>3029585.493423196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>25566</v>
@@ -1150,15 +1258,30 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>21772856.99976025</v>
+      </c>
+      <c r="H7">
+        <v>33609222.38641504</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>5004876.854845014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>26316</v>
@@ -1167,15 +1290,30 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>5537474.182711428</v>
+      </c>
+      <c r="H8">
+        <v>33609222.38641504</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>3591695.233391508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>26954</v>
@@ -1184,15 +1322,30 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>2368753.896578679</v>
+      </c>
+      <c r="H9">
+        <v>33609222.38641504</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>2924239.357757165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>27570</v>
@@ -1201,15 +1354,30 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>5313876.844978522</v>
+      </c>
+      <c r="H10">
+        <v>33609222.38641504</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>3556025.558079649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>26892</v>
@@ -1218,15 +1386,30 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>5071633.194829957</v>
+      </c>
+      <c r="H11">
+        <v>34374076.88937075</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>3516074.693055412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>24534</v>
@@ -1235,15 +1418,30 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <v>7456203.669209288</v>
+      </c>
+      <c r="H12">
+        <v>34962685.86338257</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>3860032.27064468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>20457</v>
@@ -1252,15 +1450,30 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <v>2853533.867243568</v>
+      </c>
+      <c r="H13">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>3059058.228987825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1269,15 +1482,30 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+      <c r="G14">
+        <v>3189118.573443136</v>
+      </c>
+      <c r="H14">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>3142515.846107772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>21079</v>
@@ -1286,15 +1514,30 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15">
+        <v>14341627.49504883</v>
+      </c>
+      <c r="H15">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>4522964.437644095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1303,15 +1546,30 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
+        <v>6003264.40165077</v>
+      </c>
+      <c r="H16">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>3662634.134160224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -1320,15 +1578,30 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>4158437.557793059</v>
+      </c>
+      <c r="H17">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>3351059.927308201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>21119</v>
@@ -1337,15 +1610,30 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F18">
+        <v>0.75</v>
+      </c>
+      <c r="G18">
+        <v>6021894.954526041</v>
+      </c>
+      <c r="H18">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>3665383.563029062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -1354,15 +1642,30 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <v>0.75</v>
+      </c>
+      <c r="G19">
+        <v>4195714.668279373</v>
+      </c>
+      <c r="H19">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>3358308.48673273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>21683</v>
@@ -1371,15 +1674,30 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="G20">
+        <v>11104999.99920032</v>
+      </c>
+      <c r="H20">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>4251106.766759329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>21683</v>
@@ -1388,15 +1706,30 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F21">
+        <v>0.75</v>
+      </c>
+      <c r="G21">
+        <v>7716935.354567016</v>
+      </c>
+      <c r="H21">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>3892301.737650325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>22113</v>
@@ -1405,49 +1738,94 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F22">
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <v>9113441.365831105</v>
+      </c>
+      <c r="H22">
+        <v>35112131.13005736</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>4052333.328712357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103094</v>
+        <v>2.562355670103093</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>0.8</v>
+      </c>
+      <c r="G23">
+        <v>6021894.954526041</v>
+      </c>
+      <c r="H23">
+        <v>35261419.93911113</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>3665383.563029062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.039221649484536</v>
+        <v>1.039221649484535</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24">
+        <v>2443339.008220378</v>
+      </c>
+      <c r="H24">
+        <v>35261419.93911113</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>2946266.794435292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -1456,15 +1834,30 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H25">
+        <v>35261419.93911113</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>28237</v>
@@ -1473,15 +1866,30 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="G26">
+        <v>10230317.57467575</v>
+      </c>
+      <c r="H26">
+        <v>35261419.93911113</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>4167435.864813926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>28237</v>
@@ -1490,15 +1898,30 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>5015728.864236233</v>
+      </c>
+      <c r="H27">
+        <v>35261419.93911113</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>3506650.390632065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -1507,15 +1930,30 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>21958471.98347329</v>
+      </c>
+      <c r="H28">
+        <v>35849408.31499194</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>5015195.456029908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -1524,15 +1962,30 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F29">
+        <v>1.4</v>
+      </c>
+      <c r="G29">
+        <v>3077259.93144006</v>
+      </c>
+      <c r="H29">
+        <v>36933299.30390043</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>3115469.701891457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -1541,15 +1994,30 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F30">
+        <v>1.7</v>
+      </c>
+      <c r="G30">
+        <v>4587104.703249776</v>
+      </c>
+      <c r="H30">
+        <v>37640511.58399763</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>3431616.232505888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>49124</v>
@@ -1558,15 +2026,30 @@
         <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31">
+        <v>2723021.589861078</v>
+      </c>
+      <c r="H31">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>3024585.102161352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>49525</v>
@@ -1575,15 +2058,30 @@
         <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F32">
+        <v>1.8</v>
+      </c>
+      <c r="G32">
+        <v>18801918.17235561</v>
+      </c>
+      <c r="H32">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>4829900.566914583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>49536</v>
@@ -1592,15 +2090,30 @@
         <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F33">
+        <v>1.8</v>
+      </c>
+      <c r="G33">
+        <v>2778955.910854831</v>
+      </c>
+      <c r="H33">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>3039509.425943215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>49808</v>
@@ -1609,15 +2122,30 @@
         <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F34">
+        <v>1.8</v>
+      </c>
+      <c r="G34">
+        <v>21215963.57252571</v>
+      </c>
+      <c r="H34">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>4973514.536159209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>49824</v>
@@ -1626,15 +2154,30 @@
         <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F35">
+        <v>1.8</v>
+      </c>
+      <c r="G35">
+        <v>7176830.63573128</v>
+      </c>
+      <c r="H35">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>3824493.385265881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>49824</v>
@@ -1643,15 +2186,30 @@
         <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F36">
+        <v>1.8</v>
+      </c>
+      <c r="G36">
+        <v>2984042.160773337</v>
+      </c>
+      <c r="H36">
+        <v>37855437.77268496</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>3092355.773228031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>31226</v>
@@ -1660,32 +2218,62 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F37">
+        <v>1.9</v>
+      </c>
+      <c r="G37">
+        <v>3058616.539902832</v>
+      </c>
+      <c r="H37">
+        <v>38060293.37896816</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>3110889.813225406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>31319</v>
       </c>
       <c r="D38">
-        <v>4.894654639175258</v>
+        <v>4.894654639175257</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F38">
+        <v>1.9</v>
+      </c>
+      <c r="G38">
+        <v>11495757.65683257</v>
+      </c>
+      <c r="H38">
+        <v>38060293.37896816</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>4286880.992309345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>31789</v>
@@ -1694,15 +2282,30 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F39">
+        <v>1.9</v>
+      </c>
+      <c r="G39">
+        <v>7754181.439418147</v>
+      </c>
+      <c r="H39">
+        <v>38060293.37896816</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>3896843.850100604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>38239</v>
@@ -1711,15 +2314,30 @@
         <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H40">
+        <v>38255392.02166688</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>31061</v>
@@ -1728,15 +2346,30 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F41">
+        <v>2.1</v>
+      </c>
+      <c r="G41">
+        <v>6170936.453752637</v>
+      </c>
+      <c r="H41">
+        <v>38441090.93970785</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>3687149.882920415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>33106</v>
@@ -1745,15 +2378,30 @@
         <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F42">
+        <v>2.3</v>
+      </c>
+      <c r="G42">
+        <v>4307544.049353574</v>
+      </c>
+      <c r="H42">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>3379765.097364126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>33332</v>
@@ -1762,15 +2410,30 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F43">
+        <v>2.3</v>
+      </c>
+      <c r="G43">
+        <v>4810740.062798683</v>
+      </c>
+      <c r="H43">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>3471397.820165223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>33609</v>
@@ -1779,15 +2442,30 @@
         <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F44">
+        <v>2.3</v>
+      </c>
+      <c r="G44">
+        <v>7232706.703717464</v>
+      </c>
+      <c r="H44">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>3831684.085287054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>38372</v>
@@ -1796,15 +2474,30 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F45">
+        <v>2.3</v>
+      </c>
+      <c r="G45">
+        <v>8331454.23855985</v>
+      </c>
+      <c r="H45">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>3965215.892681056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>38723</v>
@@ -1813,15 +2506,30 @@
         <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F46">
+        <v>2.3</v>
+      </c>
+      <c r="G46">
+        <v>6264084.751326288</v>
+      </c>
+      <c r="H46">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>3700552.097367561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>39596</v>
@@ -1830,15 +2538,30 @@
         <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F47">
+        <v>2.3</v>
+      </c>
+      <c r="G47">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H47">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>58710</v>
@@ -1847,168 +2570,318 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48">
+        <v>15010968.32739887</v>
+      </c>
+      <c r="H48">
+        <v>39097761.98338025</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>4573255.840545377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C49">
-        <v>37355</v>
+        <v>59075</v>
       </c>
       <c r="D49">
-        <v>8.091649484536084</v>
+        <v>2.022912371134021</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49">
+        <v>4754832.319820861</v>
+      </c>
+      <c r="H49">
+        <v>39097761.98338025</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>3461586.123553794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C50">
-        <v>45329</v>
+        <v>37218</v>
       </c>
       <c r="D50">
-        <v>4.910520618556704</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F50">
+        <v>2.7</v>
+      </c>
+      <c r="G50">
+        <v>6971945.468368442</v>
+      </c>
+      <c r="H50">
+        <v>39380047.41901974</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>3797758.507656866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C51">
-        <v>45699</v>
+        <v>37355</v>
       </c>
       <c r="D51">
-        <v>5.307170103092785</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F51">
+        <v>2.9</v>
+      </c>
+      <c r="G51">
+        <v>18987662.48066654</v>
+      </c>
+      <c r="H51">
+        <v>39635749.05499732</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>4841430.024186624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C52">
-        <v>45772</v>
+        <v>45329</v>
       </c>
       <c r="D52">
-        <v>11.52</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>11532970.80719121</v>
+      </c>
+      <c r="H52">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>4290239.673387973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C53">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D53">
         <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H53">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C54">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D54">
-        <v>9.122938144329899</v>
+        <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H54">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C55">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D55">
-        <v>5.545159793814434</v>
+        <v>9.122938144329895</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>21401602.79478948</v>
+      </c>
+      <c r="H55">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>4984037.426968283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C56">
-        <v>47053</v>
+        <v>46049</v>
       </c>
       <c r="D56">
-        <v>4.505938144329896</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>13021230.96247917</v>
+      </c>
+      <c r="H56">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>4418307.05254629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C57">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D57">
-        <v>11.52</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>10583934.16780851</v>
+      </c>
+      <c r="H57">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>4201890.346963244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58">
         <v>47166</v>
@@ -2017,177 +2890,374 @@
         <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H58">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>47166</v>
       </c>
       <c r="D59">
-        <v>10.07489690721649</v>
+        <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H59">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>47166</v>
       </c>
       <c r="D60">
-        <v>7.528407216494846</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>23628643.36424644</v>
+      </c>
+      <c r="H60">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>5105201.851214484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C61">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D61">
-        <v>11.52</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>17668702.74772677</v>
+      </c>
+      <c r="H61">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>4757631.938664145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>47495</v>
+        <v>47259</v>
       </c>
       <c r="D62">
-        <v>6.39398969072165</v>
+        <v>11.52</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H62">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C63">
-        <v>42489</v>
+        <v>47495</v>
       </c>
       <c r="D63">
-        <v>11.52</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>15010968.32739887</v>
+      </c>
+      <c r="H63">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>4573255.840545377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C64">
-        <v>15562</v>
+        <v>42489</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F64">
+        <v>3.2</v>
+      </c>
+      <c r="G64">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H64">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C65">
-        <v>6237</v>
+        <v>15562</v>
       </c>
       <c r="D65">
         <v>11.52</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F65">
+        <v>3.4</v>
+      </c>
+      <c r="G65">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H65">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>6886</v>
+        <v>6237</v>
       </c>
       <c r="D66">
         <v>11.52</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F66">
+        <v>3.5</v>
+      </c>
+      <c r="G66">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H66">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C67">
-        <v>50226</v>
+        <v>6886</v>
       </c>
       <c r="D67">
         <v>11.52</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F67">
+        <v>3.5</v>
+      </c>
+      <c r="G67">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H67">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C68">
-        <v>50769</v>
+        <v>50226</v>
       </c>
       <c r="D68">
-        <v>11.08119092886961</v>
+        <v>11.39851051649873</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="F68">
+        <v>3.5</v>
+      </c>
+      <c r="G68">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H68">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69">
+        <v>50389</v>
+      </c>
+      <c r="D69">
+        <v>11.52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69">
+        <v>3.5</v>
+      </c>
+      <c r="G69">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H69">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>5273515.054654035</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -323,12 +323,12 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
-  </si>
-  <si>
     <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
   </si>
   <si>
@@ -338,6 +338,9 @@
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
+    <t>AGR mbH</t>
+  </si>
+  <si>
     <t>Evonik Degussa GmbH</t>
   </si>
   <si>
@@ -350,9 +353,6 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
-    <t>DK Recycling und Roheisen GmbH</t>
-  </si>
-  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -380,13 +380,13 @@
     <t>TOTAL Raffinerie Mitteldeutschland GmbH (Raffinerie/POX)</t>
   </si>
   <si>
-    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
-  </si>
-  <si>
     <t>RWE Power AG-Fabrik Frechen</t>
   </si>
   <si>
-    <t>Basell Polyolefine GmbH Werk Wesseling</t>
+    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
+  </si>
+  <si>
+    <t>INEOS Köln GmbH</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200035772.30962</v>
+        <v>15200224223.10327</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -913,10 +913,10 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.3920002072203</v>
+        <v>368.3920002072201</v>
       </c>
       <c r="G2">
-        <v>37.70093569372138</v>
+        <v>37.70093569372136</v>
       </c>
       <c r="H2">
         <v>858.4615384615383</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>310.2248422797644</v>
+        <v>310.2248422797642</v>
       </c>
       <c r="V2">
-        <v>95.86809362117722</v>
+        <v>95.86809362117717</v>
       </c>
       <c r="W2">
-        <v>214.3567486585872</v>
+        <v>214.3567486585871</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1024,22 +1024,22 @@
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>24.2</v>
+      </c>
+      <c r="AR2">
+        <v>858</v>
+      </c>
+      <c r="AS2">
+        <v>130.3</v>
+      </c>
+      <c r="AT2">
+        <v>120</v>
+      </c>
+      <c r="AU2">
+        <v>414.5</v>
+      </c>
+      <c r="AV2">
         <v>7.5</v>
-      </c>
-      <c r="AR2">
-        <v>120</v>
-      </c>
-      <c r="AS2">
-        <v>414.5</v>
-      </c>
-      <c r="AT2">
-        <v>130.3</v>
-      </c>
-      <c r="AU2">
-        <v>24.2</v>
-      </c>
-      <c r="AV2">
-        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1767,7 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
         <v>124</v>
@@ -1799,7 +1799,7 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.039221649484535</v>
+        <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
         <v>124</v>
@@ -2247,7 +2247,7 @@
         <v>31319</v>
       </c>
       <c r="D38">
-        <v>4.894654639175257</v>
+        <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
         <v>124</v>
@@ -2375,7 +2375,7 @@
         <v>33106</v>
       </c>
       <c r="D42">
-        <v>1.832520618556702</v>
+        <v>1.798294021653112</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2564,10 +2564,10 @@
         <v>102</v>
       </c>
       <c r="C48">
-        <v>58710</v>
+        <v>39171</v>
       </c>
       <c r="D48">
-        <v>6.39398969072165</v>
+        <v>1.134417525773196</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
@@ -2576,7 +2576,7 @@
         <v>2.5</v>
       </c>
       <c r="G48">
-        <v>15010968.32739887</v>
+        <v>2667086.537107407</v>
       </c>
       <c r="H48">
         <v>39097761.98338025</v>
@@ -2585,7 +2585,7 @@
         <v>100</v>
       </c>
       <c r="J48">
-        <v>4573255.840545377</v>
+        <v>3009426.484318849</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2596,10 +2596,10 @@
         <v>103</v>
       </c>
       <c r="C49">
-        <v>59075</v>
+        <v>58710</v>
       </c>
       <c r="D49">
-        <v>2.022912371134021</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
         <v>124</v>
@@ -2608,7 +2608,7 @@
         <v>2.5</v>
       </c>
       <c r="G49">
-        <v>4754832.319820861</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H49">
         <v>39097761.98338025</v>
@@ -2617,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="J49">
-        <v>3461586.123553794</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2695,7 +2695,7 @@
         <v>45329</v>
       </c>
       <c r="D52">
-        <v>4.910520618556702</v>
+        <v>4.910520618556701</v>
       </c>
       <c r="E52" t="s">
         <v>124</v>
@@ -2724,10 +2724,10 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>45772</v>
+        <v>45699</v>
       </c>
       <c r="D53">
-        <v>11.52</v>
+        <v>5.307170103092786</v>
       </c>
       <c r="E53" t="s">
         <v>124</v>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>27007138.60142434</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H53">
         <v>39754521.5981693</v>
@@ -2745,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <v>5273515.054654035</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2756,7 +2756,7 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D54">
         <v>11.52</v>
@@ -2788,10 +2788,10 @@
         <v>109</v>
       </c>
       <c r="C55">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D55">
-        <v>9.122938144329895</v>
+        <v>11.52</v>
       </c>
       <c r="E55" t="s">
         <v>124</v>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>21401602.79478948</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H55">
         <v>39754521.5981693</v>
@@ -2809,7 +2809,7 @@
         <v>100</v>
       </c>
       <c r="J55">
-        <v>4984037.426968283</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2820,10 +2820,10 @@
         <v>110</v>
       </c>
       <c r="C56">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D56">
-        <v>5.545159793814434</v>
+        <v>9.122938144329897</v>
       </c>
       <c r="E56" t="s">
         <v>124</v>
@@ -2832,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>13021230.96247917</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
@@ -2841,7 +2841,7 @@
         <v>100</v>
       </c>
       <c r="J56">
-        <v>4418307.05254629</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2852,10 +2852,10 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>47053</v>
+        <v>46049</v>
       </c>
       <c r="D57">
-        <v>4.505938144329896</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E57" t="s">
         <v>124</v>
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>10583934.16780851</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
@@ -2873,7 +2873,7 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>4201890.346963244</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3172,7 +3172,7 @@
         <v>121</v>
       </c>
       <c r="C67">
-        <v>6886</v>
+        <v>50226</v>
       </c>
       <c r="D67">
         <v>11.52</v>
@@ -3204,10 +3204,10 @@
         <v>122</v>
       </c>
       <c r="C68">
-        <v>50226</v>
+        <v>50389</v>
       </c>
       <c r="D68">
-        <v>11.39851051649873</v>
+        <v>11.52</v>
       </c>
       <c r="E68" t="s">
         <v>124</v>
@@ -3236,7 +3236,7 @@
         <v>123</v>
       </c>
       <c r="C69">
-        <v>50389</v>
+        <v>50769</v>
       </c>
       <c r="D69">
         <v>11.52</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="225">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-SZMUsage</t>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
   </si>
   <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -272,6 +272,9 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -323,21 +329,48 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG, Werk Klein Wanzleben</t>
+  </si>
+  <si>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
+    <t>Werk  Zielitz</t>
+  </si>
+  <si>
+    <t>EUROGLAS GmbH</t>
+  </si>
+  <si>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
     <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
   </si>
   <si>
+    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
+  </si>
+  <si>
     <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
   </si>
   <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
+  </si>
+  <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
+    <t>AGR mbH</t>
+  </si>
+  <si>
     <t>Evonik Degussa GmbH</t>
   </si>
   <si>
@@ -347,12 +380,27 @@
     <t>Ruhr Oel GmbH Werk Horst</t>
   </si>
   <si>
+    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+  </si>
+  <si>
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
+    <t>Oxea GmbH Werk Ruhrchemie</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE Niederlassung Voerde</t>
+  </si>
+  <si>
     <t>DK Recycling und Roheisen GmbH</t>
   </si>
   <si>
+    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+  </si>
+  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -365,31 +413,283 @@
     <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
   </si>
   <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
+  </si>
+  <si>
+    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
+  </si>
+  <si>
     <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
+    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+  </si>
+  <si>
     <t>Solvay Chemicals GmbH</t>
   </si>
   <si>
+    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
+  </si>
+  <si>
+    <t>BSR / MHKW</t>
+  </si>
+  <si>
+    <t>Stadtwerke Düsseldorf AG</t>
+  </si>
+  <si>
+    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
+  </si>
+  <si>
+    <t>Aluminium Norf GmbH</t>
+  </si>
+  <si>
+    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH</t>
   </si>
   <si>
-    <t>CEMEX Zement GmbH</t>
-  </si>
-  <si>
-    <t>TOTAL Raffinerie Mitteldeutschland GmbH (Raffinerie/POX)</t>
-  </si>
-  <si>
-    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
-  </si>
-  <si>
-    <t>RWE Power AG-Fabrik Frechen</t>
-  </si>
-  <si>
-    <t>Basell Polyolefine GmbH Werk Wesseling</t>
+    <t>Biomassekraftwerk Lünen GmbH</t>
   </si>
   <si>
     <t>PtF-FT1</t>
+  </si>
+  <si>
+    <t>MtG</t>
+  </si>
+  <si>
+    <t>{'diesel': 3128680.4345442876, 'gasoline': 3154454.259856827, 'kerosene': 3216712.1068517794}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3039776.791140218, 'gasoline': 3064818.2351748724, 'kerosene': 3125306.9818912433}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4520996.684693031, 'gasoline': 4558240.302642405, 'kerosene': 4648203.955290522}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4663358.943744231, 'gasoline': 4701775.33087622, 'kerosene': 4794571.8608115185}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2951660.017770215, 'gasoline': 2975975.5627009314, 'kerosene': 3034710.867124639}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4876143.927404925, 'gasoline': 4916313.22063031, 'kerosene': 5013343.974939981}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3499311.453475024, 'gasoline': 3528138.508203984, 'kerosene': 3597771.5696866163}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2849023.542467886, 'gasoline': 2872493.5761230094, 'kerosene': 2929186.5096145757}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3464559.255627028, 'gasoline': 3493100.024461567, 'kerosene': 3562041.5493486216}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3425635.9866770804, 'gasoline': 3453856.1086588968, 'kerosene': 3522023.0964931822}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3760746.4602990635, 'gasoline': 3791727.1962164473, 'kerosene': 3866562.572538993}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2980374.6704411097, 'gasoline': 3004926.7644401425, 'kerosene': 3064233.463894407}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3061685.6326721106, 'gasoline': 3086907.560033924, 'kerosene': 3147832.2724337406}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4406627.019231556, 'gasoline': 4442928.468800257, 'kerosene': 4530616.270883854}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3568425.699485951, 'gasoline': 3597822.1119810883, 'kerosene': 3668830.4830369875}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3264865.6478122035, 'gasoline': 3291761.3562861434, 'kerosene': 3356729.1630702107}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3571104.4089270527, 'gasoline': 3600522.8884215653, 'kerosene': 3671584.563317859}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3271927.7634337167, 'gasoline': 3298881.6490651434, 'kerosene': 3363989.985418474}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4141761.9347450263, 'gasoline': 4175881.446413143, 'kerosene': 4258298.678283752}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3792185.908290245, 'gasoline': 3823425.6399271972, 'kerosene': 3898886.632187066}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3948101.247185081, 'gasoline': 3980625.3972189557, 'kerosene': 4059188.9605199266}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2870484.4004888725, 'gasoline': 2894131.2270179437, 'kerosene': 2951251.211735419}</t>
+  </si>
+  <si>
+    <t>{'diesel': 5137872.3504328905, 'gasoline': 5180197.741986494, 'kerosene': 5282436.649847161}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4060243.1736936704, 'gasoline': 4093691.140168537, 'kerosene': 4174486.2240892574}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3416454.091424824, 'gasoline': 3444598.5736699468, 'kerosene': 3512582.850280858}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4886197.11871538, 'gasoline': 4926449.229346408, 'kerosene': 5023680.032865166}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3035335.1557862638, 'gasoline': 3060340.0099754203, 'kerosene': 3120740.372256225}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3343349.9242082597, 'gasoline': 3370892.180027616, 'kerosene': 3437421.7513234657}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2751646.0396753405, 'gasoline': 2774313.885060088, 'kerosene': 2829069.0963085406}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2946788.2440596414, 'gasoline': 2971063.6556986375, 'kerosene': 3029702.016331309}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4705668.2916246215, 'gasoline': 4744433.21986337, 'kerosene': 4838071.666690438}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2961328.691884868, 'gasoline': 2985723.886598568, 'kerosene': 3044651.5886947988}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4845588.294520355, 'gasoline': 4885505.872826061, 'kerosene': 4981928.598301609}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3726121.688271194, 'gasoline': 3756817.1880181204, 'kerosene': 3830963.563401054}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3012815.751980848, 'gasoline': 3037635.093078474, 'kerosene': 3097587.3400512864}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2815850.524243601, 'gasoline': 2839047.2811628315, 'kerosene': 2895080.10227278}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3030873.0687150233, 'gasoline': 3055841.164579029, 'kerosene': 3116152.735454009}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4176615.9936424885, 'gasoline': 4211022.630328405, 'kerosene': 4294133.425735268}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3796611.1908065532, 'gasoline': 3827887.3775756042, 'kerosene': 3903436.428864694}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3592310.8664760375, 'gasoline': 3621904.0431132596, 'kerosene': 3693387.7069013594}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3292832.477908698, 'gasoline': 3319958.5749469325, 'kerosene': 3385482.895783972}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3382108.2698606225, 'gasoline': 3409969.8139074435, 'kerosene': 3477270.6404349743}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3733127.4327198486, 'gasoline': 3763880.6452429374, 'kerosene': 3838166.4284609305}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3863224.602065654, 'gasoline': 3895049.5449193167, 'kerosene': 3971924.1414830824}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3605368.355897973, 'gasoline': 3635069.0991142774, 'kerosene': 3706812.594865268}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2932019.5285678664, 'gasoline': 2956173.2766809333, 'kerosene': 3014517.7535346006}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3372548.944778919, 'gasoline': 3400331.739851559, 'kerosene': 3467442.344651188}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2804515.8716635974, 'gasoline': 2827619.2545992313, 'kerosene': 2883426.5266060256}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3164473.817901448, 'gasoline': 3190542.5063133975, 'kerosene': 3253512.60853259}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4455624.851939539, 'gasoline': 4492329.9418311585, 'kerosene': 4580992.755468552}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2906874.4616030836, 'gasoline': 2930821.066616373, 'kerosene': 2988665.179893599}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3700074.47174939, 'gasoline': 3730555.3965588766, 'kerosene': 3804183.4564235634}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4716901.193990423, 'gasoline': 4755758.658002445, 'kerosene': 4849620.629197511}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3313329.5764378156, 'gasoline': 3340624.5269745006, 'kerosene': 3406556.7211149232}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4179888.2844141973, 'gasoline': 4214321.877976179, 'kerosene': 4297497.788942924}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3413376.212966138, 'gasoline': 3441495.3398886607, 'kerosene': 3509418.3695649127}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4259206.121776061, 'gasoline': 4294293.129493659, 'kerosene': 4379047.392064461}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4855840.520819935, 'gasoline': 4895842.556165994, 'kerosene': 4992469.291462828}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4304661.578801443, 'gasoline': 4340123.045027471, 'kerosene': 4425781.829152257}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3709612.55782583, 'gasoline': 3740172.0566442288, 'kerosene': 3813989.9156002565}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3003658.488837494, 'gasoline': 3028402.393115817, 'kerosene': 3088172.419021441}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4093811.4349669986, 'gasoline': 4127535.934159159, 'kerosene': 4208998.995432621}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3333437.031398355, 'gasoline': 3360897.625580172, 'kerosene': 3427229.9394773357}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4973888.414632486, 'gasoline': 5014862.919317389, 'kerosene': 5113838.698521014}</t>
+  </si>
+  <si>
+    <t>{'diesel': 4635258.52071405, 'gasoline': 4673443.418753579, 'kerosene': 4765680.776260083}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3744712.9682710096, 'gasoline': 3775561.621532037, 'kerosene': 3850077.9461922734}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3104086.0540630645, 'gasoline': 3129657.272788112, 'kerosene': 3191425.7143583274}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3254181.908219082, 'gasoline': 3280989.604879825, 'kerosene': 3345744.815127162}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3136745.5758051462, 'gasoline': 3162585.841122131, 'kerosene': 3225004.1769688902}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3756187.308525087, 'gasoline': 3787130.486505871, 'kerosene': 3861875.139924781}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3740092.2372535937, 'gasoline': 3770902.8252930203, 'kerosene': 3845327.2016796293}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3524683.4776060767, 'gasoline': 3553719.5450902414, 'kerosene': 3623857.4863870163}</t>
+  </si>
+  <si>
+    <t>{'diesel': 2970899.4868338844, 'gasoline': 2995373.5250096372, 'kerosene': 3054491.6770735215}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3391583.7071234933, 'gasoline': 3419523.3090831884, 'kerosene': 3487012.6880486133}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3078865.699166782, 'gasoline': 3104229.1545759477, 'kerosene': 3165495.734409517}</t>
+  </si>
+  <si>
+    <t>{'diesel': 3217752.2809332046, 'gasoline': 3244259.8731666943, 'kerosene': 3308290.1675240593}</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200035772.30962</v>
+        <v>14884218834.18415</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -913,10 +1213,10 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.3920002072203</v>
+        <v>368.408932697003</v>
       </c>
       <c r="G2">
-        <v>37.70093569372138</v>
+        <v>37.59416084173446</v>
       </c>
       <c r="H2">
         <v>858.4615384615383</v>
@@ -952,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.137863886377463</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>4.137863886377463</v>
       </c>
       <c r="U2">
-        <v>310.2248422797644</v>
+        <v>306.2399479110146</v>
       </c>
       <c r="V2">
-        <v>95.86809362117722</v>
+        <v>94.63665056972326</v>
       </c>
       <c r="W2">
-        <v>214.3567486585872</v>
+        <v>211.6032973412913</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -979,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>357.8960155509943</v>
+        <v>360.1905583154075</v>
       </c>
       <c r="AC2">
-        <v>357.8960155509943</v>
+        <v>360.1905583154075</v>
       </c>
       <c r="AD2">
-        <v>500.1039844490057</v>
+        <v>497.8094416845925</v>
       </c>
       <c r="AE2">
-        <v>500.1039844490057</v>
+        <v>497.8094416845925</v>
       </c>
       <c r="AF2">
         <v>7.5</v>
@@ -1015,31 +1315,31 @@
         <v>414.5</v>
       </c>
       <c r="AN2">
-        <v>453.3349530312595</v>
+        <v>456.2413738661829</v>
       </c>
       <c r="AO2">
-        <v>1172.562020396046</v>
+        <v>1169.80856907875</v>
       </c>
       <c r="AP2">
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>414.5</v>
+      </c>
+      <c r="AR2">
         <v>7.5</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>120</v>
       </c>
-      <c r="AS2">
-        <v>414.5</v>
-      </c>
       <c r="AT2">
-        <v>130.3</v>
+        <v>858</v>
       </c>
       <c r="AU2">
         <v>24.2</v>
       </c>
       <c r="AV2">
-        <v>858</v>
+        <v>130.3</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,7 +1398,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1112,8 +1412,8 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <v>3211279.34822684</v>
+      <c r="J2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1130,7 +1430,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1144,8 +1444,8 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>3120028.598903444</v>
+      <c r="J3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1162,7 +1462,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1176,8 +1476,8 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4">
-        <v>4640353.526253123</v>
+      <c r="J4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1194,7 +1494,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1208,8 +1508,8 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>4786474.22858194</v>
+      <c r="J5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1226,7 +1526,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1240,8 +1540,8 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6">
-        <v>3029585.493423196</v>
+      <c r="J6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1258,7 +1558,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1272,8 +1572,8 @@
       <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7">
-        <v>5004876.854845014</v>
+      <c r="J7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1290,7 +1590,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1304,8 +1604,8 @@
       <c r="I8">
         <v>100</v>
       </c>
-      <c r="J8">
-        <v>3591695.233391508</v>
+      <c r="J8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1322,7 +1622,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1336,8 +1636,8 @@
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9">
-        <v>2924239.357757165</v>
+      <c r="J9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1354,7 +1654,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1368,8 +1668,8 @@
       <c r="I10">
         <v>100</v>
       </c>
-      <c r="J10">
-        <v>3556025.558079649</v>
+      <c r="J10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1386,7 +1686,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1400,8 +1700,8 @@
       <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11">
-        <v>3516074.693055412</v>
+      <c r="J11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1418,7 +1718,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1432,8 +1732,8 @@
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12">
-        <v>3860032.27064468</v>
+      <c r="J12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1450,7 +1750,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1464,8 +1764,8 @@
       <c r="I13">
         <v>100</v>
       </c>
-      <c r="J13">
-        <v>3059058.228987825</v>
+      <c r="J13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1482,7 +1782,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1496,8 +1796,8 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14">
-        <v>3142515.846107772</v>
+      <c r="J14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1514,7 +1814,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1528,8 +1828,8 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15">
-        <v>4522964.437644095</v>
+      <c r="J15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1546,7 +1846,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1560,8 +1860,8 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16">
-        <v>3662634.134160224</v>
+      <c r="J16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1578,7 +1878,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1592,8 +1892,8 @@
       <c r="I17">
         <v>100</v>
       </c>
-      <c r="J17">
-        <v>3351059.927308201</v>
+      <c r="J17" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1610,7 +1910,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1624,8 +1924,8 @@
       <c r="I18">
         <v>100</v>
       </c>
-      <c r="J18">
-        <v>3665383.563029062</v>
+      <c r="J18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1639,10 +1939,10 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>1.784922680412372</v>
+        <v>1.784922680412371</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1656,8 +1956,8 @@
       <c r="I19">
         <v>100</v>
       </c>
-      <c r="J19">
-        <v>3358308.48673273</v>
+      <c r="J19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1674,7 +1974,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1688,8 +1988,8 @@
       <c r="I20">
         <v>100</v>
       </c>
-      <c r="J20">
-        <v>4251106.766759329</v>
+      <c r="J20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1706,7 +2006,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1720,8 +2020,8 @@
       <c r="I21">
         <v>100</v>
       </c>
-      <c r="J21">
-        <v>3892301.737650325</v>
+      <c r="J21" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1738,7 +2038,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1752,8 +2052,8 @@
       <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22">
-        <v>4052333.328712357</v>
+      <c r="J22" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1767,10 +2067,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1784,8 +2084,8 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23">
-        <v>3665383.563029062</v>
+      <c r="J23" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1799,10 +2099,10 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.039221649484535</v>
+        <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1816,8 +2116,8 @@
       <c r="I24">
         <v>100</v>
       </c>
-      <c r="J24">
-        <v>2946266.794435292</v>
+      <c r="J24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1834,7 +2134,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -1848,8 +2148,8 @@
       <c r="I25">
         <v>100</v>
       </c>
-      <c r="J25">
-        <v>5273515.054654035</v>
+      <c r="J25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1866,7 +2166,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -1880,8 +2180,8 @@
       <c r="I26">
         <v>100</v>
       </c>
-      <c r="J26">
-        <v>4167435.864813926</v>
+      <c r="J26" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1898,7 +2198,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -1912,8 +2212,8 @@
       <c r="I27">
         <v>100</v>
       </c>
-      <c r="J27">
-        <v>3506650.390632065</v>
+      <c r="J27" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1930,7 +2230,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1944,8 +2244,8 @@
       <c r="I28">
         <v>100</v>
       </c>
-      <c r="J28">
-        <v>5015195.456029908</v>
+      <c r="J28" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1962,7 +2262,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -1976,8 +2276,8 @@
       <c r="I29">
         <v>100</v>
       </c>
-      <c r="J29">
-        <v>3115469.701891457</v>
+      <c r="J29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1994,7 +2294,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2008,8 +2308,8 @@
       <c r="I30">
         <v>100</v>
       </c>
-      <c r="J30">
-        <v>3431616.232505888</v>
+      <c r="J30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2020,19 +2320,19 @@
         <v>85</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>1.158216494845361</v>
+        <v>0.8726288659793812</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2723021.589861078</v>
+        <v>2051752.656756106</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2040,8 +2340,8 @@
       <c r="I31">
         <v>100</v>
       </c>
-      <c r="J31">
-        <v>3024585.102161352</v>
+      <c r="J31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2052,19 +2352,19 @@
         <v>86</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>8.012319587628866</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>18801918.17235561</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2072,8 +2372,8 @@
       <c r="I32">
         <v>100</v>
       </c>
-      <c r="J32">
-        <v>4829900.566914583</v>
+      <c r="J32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2084,19 +2384,19 @@
         <v>87</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D33">
-        <v>1.182015463917526</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>2778955.910854831</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2104,8 +2404,8 @@
       <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33">
-        <v>3039509.425943215</v>
+      <c r="J33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2116,19 +2416,19 @@
         <v>88</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D34">
-        <v>9.04360824742268</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>21215963.57252571</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2136,8 +2436,8 @@
       <c r="I34">
         <v>100</v>
       </c>
-      <c r="J34">
-        <v>4973514.536159209</v>
+      <c r="J34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2148,19 +2448,19 @@
         <v>89</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D35">
-        <v>3.054201030927835</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>7176830.63573128</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2168,8 +2468,8 @@
       <c r="I35">
         <v>100</v>
       </c>
-      <c r="J35">
-        <v>3824493.385265881</v>
+      <c r="J35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2183,16 +2483,16 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.269278350515464</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>2984042.160773337</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2200,8 +2500,8 @@
       <c r="I36">
         <v>100</v>
       </c>
-      <c r="J36">
-        <v>3092355.773228031</v>
+      <c r="J36" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2212,28 +2512,28 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>31226</v>
+        <v>49824</v>
       </c>
       <c r="D37">
-        <v>1.30101030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G37">
-        <v>3058616.539902832</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H37">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
-      <c r="J37">
-        <v>3110889.813225406</v>
+      <c r="J37" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2244,19 +2544,19 @@
         <v>92</v>
       </c>
       <c r="C38">
-        <v>31319</v>
+        <v>31171</v>
       </c>
       <c r="D38">
-        <v>4.894654639175257</v>
+        <v>0.9598917525773197</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
       <c r="G38">
-        <v>11495757.65683257</v>
+        <v>2256873.78961794</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
@@ -2264,8 +2564,8 @@
       <c r="I38">
         <v>100</v>
       </c>
-      <c r="J38">
-        <v>4286880.992309345</v>
+      <c r="J38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2276,19 +2576,19 @@
         <v>93</v>
       </c>
       <c r="C39">
-        <v>31789</v>
+        <v>31226</v>
       </c>
       <c r="D39">
-        <v>3.300123711340206</v>
+        <v>1.30101030927835</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
       <c r="G39">
-        <v>7754181.439418147</v>
+        <v>3058616.539902832</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
@@ -2296,8 +2596,8 @@
       <c r="I39">
         <v>100</v>
       </c>
-      <c r="J39">
-        <v>3896843.850100604</v>
+      <c r="J39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2308,28 +2608,28 @@
         <v>94</v>
       </c>
       <c r="C40">
-        <v>38239</v>
+        <v>31319</v>
       </c>
       <c r="D40">
-        <v>11.52</v>
+        <v>4.894654639175258</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G40">
-        <v>27007138.60142434</v>
+        <v>11495757.65683257</v>
       </c>
       <c r="H40">
-        <v>38255392.02166688</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40">
-        <v>5273515.054654035</v>
+      <c r="J40" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2340,28 +2640,28 @@
         <v>95</v>
       </c>
       <c r="C41">
-        <v>31061</v>
+        <v>31789</v>
       </c>
       <c r="D41">
-        <v>2.625819587628866</v>
+        <v>3.300123711340206</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F41">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G41">
-        <v>6170936.453752637</v>
+        <v>7754181.439418147</v>
       </c>
       <c r="H41">
-        <v>38441090.93970785</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
-      <c r="J41">
-        <v>3687149.882920415</v>
+      <c r="J41" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2372,28 +2672,28 @@
         <v>96</v>
       </c>
       <c r="C42">
-        <v>33106</v>
+        <v>38239</v>
       </c>
       <c r="D42">
-        <v>1.832520618556702</v>
+        <v>11.52</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F42">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>4307544.049353574</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H42">
-        <v>38785844.374162</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
-      <c r="J42">
-        <v>3379765.097364126</v>
+      <c r="J42" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2404,28 +2704,28 @@
         <v>97</v>
       </c>
       <c r="C43">
-        <v>33332</v>
+        <v>31061</v>
       </c>
       <c r="D43">
-        <v>2.046711340206186</v>
+        <v>2.625819587628866</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F43">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G43">
-        <v>4810740.062798683</v>
+        <v>6170936.453752637</v>
       </c>
       <c r="H43">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
-      <c r="J43">
-        <v>3471397.820165223</v>
+      <c r="J43" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2436,19 +2736,19 @@
         <v>98</v>
       </c>
       <c r="C44">
-        <v>33609</v>
+        <v>33106</v>
       </c>
       <c r="D44">
-        <v>3.078</v>
+        <v>1.832520618556702</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44">
-        <v>7232706.703717464</v>
+        <v>4307544.049353574</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
@@ -2456,8 +2756,8 @@
       <c r="I44">
         <v>100</v>
       </c>
-      <c r="J44">
-        <v>3831684.085287054</v>
+      <c r="J44" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2468,19 +2768,19 @@
         <v>99</v>
       </c>
       <c r="C45">
-        <v>38372</v>
+        <v>33332</v>
       </c>
       <c r="D45">
-        <v>3.546046391752578</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45">
-        <v>8331454.23855985</v>
+        <v>4810740.062798683</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
@@ -2488,8 +2788,8 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45">
-        <v>3965215.892681056</v>
+      <c r="J45" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2500,19 +2800,19 @@
         <v>100</v>
       </c>
       <c r="C46">
-        <v>38723</v>
+        <v>33609</v>
       </c>
       <c r="D46">
-        <v>2.665484536082475</v>
+        <v>3.078</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F46">
         <v>2.3</v>
       </c>
       <c r="G46">
-        <v>6264084.751326288</v>
+        <v>7232706.703717464</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
@@ -2520,8 +2820,8 @@
       <c r="I46">
         <v>100</v>
       </c>
-      <c r="J46">
-        <v>3700552.097367561</v>
+      <c r="J46" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2532,19 +2832,19 @@
         <v>101</v>
       </c>
       <c r="C47">
-        <v>39596</v>
+        <v>38372</v>
       </c>
       <c r="D47">
-        <v>11.52</v>
+        <v>3.546046391752578</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F47">
         <v>2.3</v>
       </c>
       <c r="G47">
-        <v>27007138.60142434</v>
+        <v>8331454.23855985</v>
       </c>
       <c r="H47">
         <v>38785844.374162</v>
@@ -2552,8 +2852,8 @@
       <c r="I47">
         <v>100</v>
       </c>
-      <c r="J47">
-        <v>5273515.054654035</v>
+      <c r="J47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2564,28 +2864,28 @@
         <v>102</v>
       </c>
       <c r="C48">
-        <v>58710</v>
+        <v>38723</v>
       </c>
       <c r="D48">
-        <v>6.39398969072165</v>
+        <v>2.665484536082475</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G48">
-        <v>15010968.32739887</v>
+        <v>6264084.751326288</v>
       </c>
       <c r="H48">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
-      <c r="J48">
-        <v>4573255.840545377</v>
+      <c r="J48" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2596,28 +2896,28 @@
         <v>103</v>
       </c>
       <c r="C49">
-        <v>59075</v>
+        <v>39596</v>
       </c>
       <c r="D49">
-        <v>2.022912371134021</v>
+        <v>11.52</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F49">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G49">
-        <v>4754832.319820861</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H49">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
-      <c r="J49">
-        <v>3461586.123553794</v>
+      <c r="J49" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2628,28 +2928,28 @@
         <v>104</v>
       </c>
       <c r="C50">
-        <v>37218</v>
+        <v>39164</v>
       </c>
       <c r="D50">
-        <v>2.966938144329897</v>
+        <v>0.9598917525773196</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F50">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G50">
-        <v>6971945.468368442</v>
+        <v>2256873.78961794</v>
       </c>
       <c r="H50">
-        <v>39380047.41901974</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
-      <c r="J50">
-        <v>3797758.507656866</v>
+      <c r="J50" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2660,28 +2960,28 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>37355</v>
+        <v>39171</v>
       </c>
       <c r="D51">
-        <v>8.091649484536084</v>
+        <v>1.134417525773196</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F51">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G51">
-        <v>18987662.48066654</v>
+        <v>2667086.537107407</v>
       </c>
       <c r="H51">
-        <v>39635749.05499732</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
-      <c r="J51">
-        <v>4841430.024186624</v>
+      <c r="J51" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2692,28 +2992,28 @@
         <v>106</v>
       </c>
       <c r="C52">
-        <v>45329</v>
+        <v>39326</v>
       </c>
       <c r="D52">
-        <v>4.910520618556702</v>
+        <v>2.022912371134021</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G52">
-        <v>11532970.80719121</v>
+        <v>4754832.319820861</v>
       </c>
       <c r="H52">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
-      <c r="J52">
-        <v>4290239.673387973</v>
+      <c r="J52" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2724,28 +3024,28 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>45772</v>
+        <v>39340</v>
       </c>
       <c r="D53">
-        <v>11.52</v>
+        <v>0.9440257731958762</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G53">
-        <v>27007138.60142434</v>
+        <v>2219579.770081987</v>
       </c>
       <c r="H53">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
-      <c r="J53">
-        <v>5273515.054654035</v>
+      <c r="J53" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2756,28 +3056,28 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>45896</v>
+        <v>39418</v>
       </c>
       <c r="D54">
-        <v>11.52</v>
+        <v>1.554865979381444</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G54">
-        <v>27007138.60142434</v>
+        <v>3655164.748267355</v>
       </c>
       <c r="H54">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
-      <c r="J54">
-        <v>5273515.054654035</v>
+      <c r="J54" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2788,28 +3088,28 @@
         <v>109</v>
       </c>
       <c r="C55">
-        <v>45899</v>
+        <v>58710</v>
       </c>
       <c r="D55">
-        <v>9.122938144329895</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G55">
-        <v>21401602.79478948</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H55">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55">
-        <v>4984037.426968283</v>
+      <c r="J55" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2820,28 +3120,28 @@
         <v>110</v>
       </c>
       <c r="C56">
-        <v>46049</v>
+        <v>59075</v>
       </c>
       <c r="D56">
-        <v>5.545159793814434</v>
+        <v>2.022912371134021</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G56">
-        <v>13021230.96247917</v>
+        <v>4754832.319820861</v>
       </c>
       <c r="H56">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
-      <c r="J56">
-        <v>4418307.05254629</v>
+      <c r="J56" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2852,28 +3152,28 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>47053</v>
+        <v>14727</v>
       </c>
       <c r="D57">
-        <v>4.505938144329896</v>
+        <v>1.094752577319588</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G57">
-        <v>10583934.16780851</v>
+        <v>2573859.823014374</v>
       </c>
       <c r="H57">
-        <v>39754521.5981693</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
-      <c r="J57">
-        <v>4201890.346963244</v>
+      <c r="J57" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2884,28 +3184,28 @@
         <v>112</v>
       </c>
       <c r="C58">
-        <v>47166</v>
+        <v>37218</v>
       </c>
       <c r="D58">
-        <v>11.52</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G58">
-        <v>27007138.60142434</v>
+        <v>6971945.468368442</v>
       </c>
       <c r="H58">
-        <v>39754521.5981693</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
-      <c r="J58">
-        <v>5273515.054654035</v>
+      <c r="J58" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2916,28 +3216,28 @@
         <v>113</v>
       </c>
       <c r="C59">
-        <v>47166</v>
+        <v>37355</v>
       </c>
       <c r="D59">
-        <v>11.52</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G59">
-        <v>27007138.60142434</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H59">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
-      <c r="J59">
-        <v>5273515.054654035</v>
+      <c r="J59" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2948,19 +3248,19 @@
         <v>114</v>
       </c>
       <c r="C60">
-        <v>47166</v>
+        <v>44793</v>
       </c>
       <c r="D60">
-        <v>10.07489690721649</v>
+        <v>1.880118556701031</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>23628643.36424644</v>
+        <v>4419370.504935618</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
@@ -2968,8 +3268,8 @@
       <c r="I60">
         <v>100</v>
       </c>
-      <c r="J60">
-        <v>5105201.851214484</v>
+      <c r="J60" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2980,19 +3280,19 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>47166</v>
+        <v>45329</v>
       </c>
       <c r="D61">
-        <v>7.528407216494846</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>17668702.74772677</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
@@ -3000,8 +3300,8 @@
       <c r="I61">
         <v>100</v>
       </c>
-      <c r="J61">
-        <v>4757631.938664145</v>
+      <c r="J61" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3012,19 +3312,19 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>47259</v>
+        <v>45356</v>
       </c>
       <c r="D62">
-        <v>11.52</v>
+        <v>2.126041237113402</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>27007138.60142434</v>
+        <v>4997093.924883411</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
@@ -3032,8 +3332,8 @@
       <c r="I62">
         <v>100</v>
       </c>
-      <c r="J62">
-        <v>5273515.054654035</v>
+      <c r="J62" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3044,19 +3344,19 @@
         <v>117</v>
       </c>
       <c r="C63">
-        <v>47495</v>
+        <v>45699</v>
       </c>
       <c r="D63">
-        <v>6.39398969072165</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63">
-        <v>15010968.32739887</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H63">
         <v>39754521.5981693</v>
@@ -3064,8 +3364,8 @@
       <c r="I63">
         <v>100</v>
       </c>
-      <c r="J63">
-        <v>4573255.840545377</v>
+      <c r="J63" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3076,28 +3376,28 @@
         <v>118</v>
       </c>
       <c r="C64">
-        <v>42489</v>
+        <v>45772</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F64">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>27007138.60142434</v>
       </c>
       <c r="H64">
-        <v>39975550.38970821</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
-      <c r="J64">
-        <v>5273515.054654035</v>
+      <c r="J64" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3108,28 +3408,28 @@
         <v>119</v>
       </c>
       <c r="C65">
-        <v>15562</v>
+        <v>45896</v>
       </c>
       <c r="D65">
         <v>11.52</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F65">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>27007138.60142434</v>
       </c>
       <c r="H65">
-        <v>40176551.31533918</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
-      <c r="J65">
-        <v>5273515.054654035</v>
+      <c r="J65" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3140,28 +3440,28 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>6237</v>
+        <v>45899</v>
       </c>
       <c r="D66">
-        <v>11.52</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F66">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>27007138.60142434</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H66">
-        <v>40270228.28044015</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
-      <c r="J66">
-        <v>5273515.054654035</v>
+      <c r="J66" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3172,28 +3472,28 @@
         <v>121</v>
       </c>
       <c r="C67">
-        <v>6886</v>
+        <v>45966</v>
       </c>
       <c r="D67">
-        <v>11.52</v>
+        <v>1.880118556701031</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>27007138.60142434</v>
+        <v>4419370.504935618</v>
       </c>
       <c r="H67">
-        <v>40270228.28044015</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
-      <c r="J67">
-        <v>5273515.054654035</v>
+      <c r="J67" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3204,28 +3504,28 @@
         <v>122</v>
       </c>
       <c r="C68">
-        <v>50226</v>
+        <v>46049</v>
       </c>
       <c r="D68">
-        <v>11.39851051649873</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>27007138.60142434</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H68">
-        <v>40270228.28044015</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
-      <c r="J68">
-        <v>5273515.054654035</v>
+      <c r="J68" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3236,28 +3536,796 @@
         <v>123</v>
       </c>
       <c r="C69">
-        <v>50389</v>
+        <v>46147</v>
       </c>
       <c r="D69">
+        <v>1.356541237113402</v>
+      </c>
+      <c r="E69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3189118.573443136</v>
+      </c>
+      <c r="H69">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70">
+        <v>46236</v>
+      </c>
+      <c r="D70">
+        <v>2.998670103092783</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>7046450.302235504</v>
+      </c>
+      <c r="H70">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71">
+        <v>46562</v>
+      </c>
+      <c r="D71">
+        <v>1.253412371134021</v>
+      </c>
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>2946754.483413156</v>
+      </c>
+      <c r="H71">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72">
+        <v>47053</v>
+      </c>
+      <c r="D72">
+        <v>4.505938144329896</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>10583934.16780851</v>
+      </c>
+      <c r="H72">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73">
+        <v>47137</v>
+      </c>
+      <c r="D73">
+        <v>1.927716494845361</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>4531194.035134709</v>
+      </c>
+      <c r="H73">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74">
+        <v>47166</v>
+      </c>
+      <c r="D74">
         <v>11.52</v>
       </c>
-      <c r="E69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69">
-        <v>3.5</v>
-      </c>
-      <c r="G69">
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
         <v>27007138.60142434</v>
       </c>
-      <c r="H69">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I69">
-        <v>100</v>
-      </c>
-      <c r="J69">
-        <v>5273515.054654035</v>
+      <c r="H74">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75">
+        <v>47166</v>
+      </c>
+      <c r="D75">
+        <v>11.52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H75">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76">
+        <v>47166</v>
+      </c>
+      <c r="D76">
+        <v>10.07489690721649</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>23628643.36424644</v>
+      </c>
+      <c r="H76">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77">
+        <v>47166</v>
+      </c>
+      <c r="D77">
+        <v>7.528407216494846</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>17668702.74772677</v>
+      </c>
+      <c r="H77">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78">
+        <v>47166</v>
+      </c>
+      <c r="D78">
+        <v>3.879231958762888</v>
+      </c>
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>9113441.365831105</v>
+      </c>
+      <c r="H78">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79">
+        <v>47198</v>
+      </c>
+      <c r="D79">
+        <v>3.117664948453609</v>
+      </c>
+      <c r="E79" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>7325831.86001466</v>
+      </c>
+      <c r="H79">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80">
+        <v>47259</v>
+      </c>
+      <c r="D80">
+        <v>11.52</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H80">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>47443</v>
+      </c>
+      <c r="D81">
+        <v>1.435871134020619</v>
+      </c>
+      <c r="E81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3375543.13998122</v>
+      </c>
+      <c r="H81">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82">
+        <v>47475</v>
+      </c>
+      <c r="D82">
+        <v>1.745257731958763</v>
+      </c>
+      <c r="E82" t="s">
+        <v>147</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>4102521.282554456</v>
+      </c>
+      <c r="H82">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83">
+        <v>47495</v>
+      </c>
+      <c r="D83">
+        <v>6.39398969072165</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>15010968.32739887</v>
+      </c>
+      <c r="H83">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84">
+        <v>47829</v>
+      </c>
+      <c r="D84">
+        <v>2.554422680412372</v>
+      </c>
+      <c r="E84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>6003264.40165077</v>
+      </c>
+      <c r="H84">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85">
+        <v>47829</v>
+      </c>
+      <c r="D85">
+        <v>1.499335051546392</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>3524676.940382663</v>
+      </c>
+      <c r="H85">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86">
+        <v>13597</v>
+      </c>
+      <c r="D86">
+        <v>3.157329896907217</v>
+      </c>
+      <c r="E86" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86">
+        <v>3.1</v>
+      </c>
+      <c r="G86">
+        <v>7418954.986766862</v>
+      </c>
+      <c r="H86">
+        <v>39867684.89458863</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87">
+        <v>40235</v>
+      </c>
+      <c r="D87">
+        <v>3.101798969072166</v>
+      </c>
+      <c r="E87" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87">
+        <v>3.2</v>
+      </c>
+      <c r="G87">
+        <v>7288582.041044717</v>
+      </c>
+      <c r="H87">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88">
+        <v>41468</v>
+      </c>
+      <c r="D88">
+        <v>2.427494845360825</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88">
+        <v>3.2</v>
+      </c>
+      <c r="G88">
+        <v>5705164.509699306</v>
+      </c>
+      <c r="H88">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89">
+        <v>41468</v>
+      </c>
+      <c r="D89">
+        <v>1.197881443298969</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89">
+        <v>3.2</v>
+      </c>
+      <c r="G89">
+        <v>2816245.051657456</v>
+      </c>
+      <c r="H89">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90">
+        <v>42327</v>
+      </c>
+      <c r="D90">
+        <v>2.070510309278351</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90">
+        <v>3.2</v>
+      </c>
+      <c r="G90">
+        <v>4866647.074526319</v>
+      </c>
+      <c r="H90">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91">
+        <v>42489</v>
+      </c>
+      <c r="D91">
+        <v>11.52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91">
+        <v>3.2</v>
+      </c>
+      <c r="G91">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H91">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92">
+        <v>44532</v>
+      </c>
+      <c r="D92">
+        <v>1.388273195876289</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92">
+        <v>3.2</v>
+      </c>
+      <c r="G92">
+        <v>3263689.375558195</v>
+      </c>
+      <c r="H92">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93">
+        <v>44536</v>
+      </c>
+      <c r="D93">
+        <v>1.647195583601047</v>
+      </c>
+      <c r="E93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93">
+        <v>3.2</v>
+      </c>
+      <c r="G93">
+        <v>3916128.415848953</v>
+      </c>
+      <c r="H93">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
+    <t>tkm-SZMUsage</t>
   </si>
   <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -272,6 +272,9 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -287,9 +290,6 @@
     <t>EVI Abfallverwertung B.V. &amp; Co. KG</t>
   </si>
   <si>
-    <t>EBE Holzheizkraftwerk GmbH</t>
-  </si>
-  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -323,15 +323,9 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
-    <t>EUROGLAS AG</t>
-  </si>
-  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
-  </si>
-  <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
@@ -353,6 +347,9 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
+    <t>DK Recycling und Roheisen GmbH</t>
+  </si>
+  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -380,10 +377,10 @@
     <t>TOTAL Raffinerie Mitteldeutschland GmbH (Raffinerie/POX)</t>
   </si>
   <si>
-    <t>RWE Power AG-Fabrik Frechen</t>
-  </si>
-  <si>
-    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
+    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
+  </si>
+  <si>
+    <t>Basell Polyolefine GmbH Werk Wesseling</t>
   </si>
   <si>
     <t>INEOS Köln GmbH</t>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200224223.10327</v>
+        <v>15199917931.83626</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -913,10 +910,10 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.3920002072201</v>
+        <v>368.3920002072203</v>
       </c>
       <c r="G2">
-        <v>37.70093569372136</v>
+        <v>37.70093569372138</v>
       </c>
       <c r="H2">
         <v>858.4615384615383</v>
@@ -958,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>310.2248422797642</v>
+        <v>310.2248422797644</v>
       </c>
       <c r="V2">
-        <v>95.86809362117717</v>
+        <v>95.86809362117722</v>
       </c>
       <c r="W2">
-        <v>214.3567486585871</v>
+        <v>214.3567486585872</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -985,7 +982,7 @@
         <v>357.8960155509943</v>
       </c>
       <c r="AD2">
-        <v>500.1039844490057</v>
+        <v>500.1039844490058</v>
       </c>
       <c r="AE2">
         <v>500.1039844490057</v>
@@ -1015,7 +1012,7 @@
         <v>414.5</v>
       </c>
       <c r="AN2">
-        <v>453.3349530312595</v>
+        <v>453.3349530312594</v>
       </c>
       <c r="AO2">
         <v>1172.562020396046</v>
@@ -1024,22 +1021,22 @@
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>130.3</v>
+      </c>
+      <c r="AR2">
         <v>24.2</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
+        <v>7.5</v>
+      </c>
+      <c r="AT2">
         <v>858</v>
-      </c>
-      <c r="AS2">
-        <v>130.3</v>
-      </c>
-      <c r="AT2">
-        <v>120</v>
       </c>
       <c r="AU2">
         <v>414.5</v>
       </c>
       <c r="AV2">
-        <v>7.5</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,7 +1095,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1130,7 +1127,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1162,7 +1159,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1194,7 +1191,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1226,7 +1223,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1258,7 +1255,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1290,7 +1287,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1322,7 +1319,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1354,7 +1351,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1386,7 +1383,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1418,7 +1415,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1450,7 +1447,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1482,7 +1479,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1514,7 +1511,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1546,7 +1543,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1578,7 +1575,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1610,7 +1607,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1642,7 +1639,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1674,7 +1671,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1706,7 +1703,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1735,10 +1732,10 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762888</v>
+        <v>3.879231958762887</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1770,7 +1767,7 @@
         <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1799,10 +1796,10 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.039221649484536</v>
+        <v>1.039221649484535</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1834,7 +1831,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -1866,7 +1863,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -1898,7 +1895,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -1930,7 +1927,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1962,7 +1959,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -1994,7 +1991,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2020,19 +2017,19 @@
         <v>85</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>1.158216494845361</v>
+        <v>0.8726288659793813</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2723021.589861078</v>
+        <v>2051752.656756106</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2041,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>3024585.102161352</v>
+        <v>2824291.034417088</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2052,19 +2049,19 @@
         <v>86</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>8.012319587628866</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>18801918.17235561</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2073,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>4829900.566914583</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2084,19 +2081,19 @@
         <v>87</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D33">
-        <v>1.182015463917526</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>2778955.910854831</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2105,7 +2102,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>3039509.425943215</v>
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2116,19 +2113,19 @@
         <v>88</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D34">
-        <v>9.04360824742268</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>21215963.57252571</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2137,7 +2134,7 @@
         <v>100</v>
       </c>
       <c r="J34">
-        <v>4973514.536159209</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2148,19 +2145,19 @@
         <v>89</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D35">
-        <v>3.054201030927835</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>7176830.63573128</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2169,7 +2166,7 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>3824493.385265881</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2183,16 +2180,16 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.269278350515464</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>2984042.160773337</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2201,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="J36">
-        <v>3092355.773228031</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2218,7 +2215,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37">
         <v>1.9</v>
@@ -2250,7 +2247,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2282,7 +2279,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2314,7 +2311,7 @@
         <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2346,7 +2343,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41">
         <v>2.1</v>
@@ -2375,10 +2372,10 @@
         <v>33106</v>
       </c>
       <c r="D42">
-        <v>1.798294021653112</v>
+        <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42">
         <v>2.3</v>
@@ -2407,10 +2404,10 @@
         <v>33332</v>
       </c>
       <c r="D43">
-        <v>2.046711340206186</v>
+        <v>2.046711340206185</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43">
         <v>2.3</v>
@@ -2442,7 +2439,7 @@
         <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -2474,7 +2471,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>2.3</v>
@@ -2506,7 +2503,7 @@
         <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -2538,7 +2535,7 @@
         <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -2564,19 +2561,19 @@
         <v>102</v>
       </c>
       <c r="C48">
-        <v>39171</v>
+        <v>58710</v>
       </c>
       <c r="D48">
-        <v>1.134417525773196</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48">
         <v>2.5</v>
       </c>
       <c r="G48">
-        <v>2667086.537107407</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H48">
         <v>39097761.98338025</v>
@@ -2585,7 +2582,7 @@
         <v>100</v>
       </c>
       <c r="J48">
-        <v>3009426.484318849</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2596,28 +2593,28 @@
         <v>103</v>
       </c>
       <c r="C49">
-        <v>58710</v>
+        <v>37355</v>
       </c>
       <c r="D49">
-        <v>6.39398969072165</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F49">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G49">
-        <v>15010968.32739887</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H49">
-        <v>39097761.98338025</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>4573255.840545377</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2628,28 +2625,28 @@
         <v>104</v>
       </c>
       <c r="C50">
-        <v>37218</v>
+        <v>45329</v>
       </c>
       <c r="D50">
-        <v>2.966938144329897</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>6971945.468368442</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H50">
-        <v>39380047.41901974</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>3797758.507656866</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2660,28 +2657,28 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>37355</v>
+        <v>45699</v>
       </c>
       <c r="D51">
-        <v>8.091649484536084</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>18987662.48066654</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H51">
-        <v>39635749.05499732</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>4841430.024186624</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2692,19 +2689,19 @@
         <v>106</v>
       </c>
       <c r="C52">
-        <v>45329</v>
+        <v>45772</v>
       </c>
       <c r="D52">
-        <v>4.910520618556701</v>
+        <v>11.52</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52">
-        <v>11532970.80719121</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H52">
         <v>39754521.5981693</v>
@@ -2713,7 +2710,7 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>4290239.673387973</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2724,19 +2721,19 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>45699</v>
+        <v>45896</v>
       </c>
       <c r="D53">
-        <v>5.307170103092786</v>
+        <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53">
-        <v>12463194.18863161</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H53">
         <v>39754521.5981693</v>
@@ -2745,7 +2742,7 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <v>4371651.546027265</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2756,19 +2753,19 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>45772</v>
+        <v>45899</v>
       </c>
       <c r="D54">
-        <v>11.52</v>
+        <v>9.122938144329893</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
       <c r="G54">
-        <v>27007138.60142434</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H54">
         <v>39754521.5981693</v>
@@ -2777,7 +2774,7 @@
         <v>100</v>
       </c>
       <c r="J54">
-        <v>5273515.054654035</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2788,19 +2785,19 @@
         <v>109</v>
       </c>
       <c r="C55">
-        <v>45896</v>
+        <v>46049</v>
       </c>
       <c r="D55">
-        <v>11.52</v>
+        <v>5.545159793814432</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>27007138.60142434</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H55">
         <v>39754521.5981693</v>
@@ -2809,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="J55">
-        <v>5273515.054654035</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2820,19 +2817,19 @@
         <v>110</v>
       </c>
       <c r="C56">
-        <v>45899</v>
+        <v>47053</v>
       </c>
       <c r="D56">
-        <v>9.122938144329897</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>21401602.79478948</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
@@ -2841,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="J56">
-        <v>4984037.426968283</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2852,19 +2849,19 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>46049</v>
+        <v>47166</v>
       </c>
       <c r="D57">
-        <v>5.545159793814434</v>
+        <v>11.52</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="G57">
-        <v>13021230.96247917</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
@@ -2873,7 +2870,7 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>4418307.05254629</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2890,7 +2887,7 @@
         <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -2919,16 +2916,16 @@
         <v>47166</v>
       </c>
       <c r="D59">
-        <v>11.52</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>27007138.60142434</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
@@ -2937,7 +2934,7 @@
         <v>100</v>
       </c>
       <c r="J59">
-        <v>5273515.054654035</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2951,16 +2948,16 @@
         <v>47166</v>
       </c>
       <c r="D60">
-        <v>10.07489690721649</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>23628643.36424644</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
@@ -2969,7 +2966,7 @@
         <v>100</v>
       </c>
       <c r="J60">
-        <v>5105201.851214484</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2980,19 +2977,19 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>47166</v>
+        <v>47259</v>
       </c>
       <c r="D61">
-        <v>7.528407216494846</v>
+        <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>17668702.74772677</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
@@ -3001,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="J61">
-        <v>4757631.938664145</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3012,19 +3009,19 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>47259</v>
+        <v>47495</v>
       </c>
       <c r="D62">
-        <v>11.52</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>27007138.60142434</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
@@ -3033,7 +3030,7 @@
         <v>100</v>
       </c>
       <c r="J62">
-        <v>5273515.054654035</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3044,28 +3041,28 @@
         <v>117</v>
       </c>
       <c r="C63">
-        <v>47495</v>
+        <v>42489</v>
       </c>
       <c r="D63">
-        <v>6.39398969072165</v>
+        <v>11.52</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G63">
-        <v>15010968.32739887</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H63">
-        <v>39754521.5981693</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>4573255.840545377</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3076,22 +3073,22 @@
         <v>118</v>
       </c>
       <c r="C64">
-        <v>42489</v>
+        <v>15562</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G64">
         <v>27007138.60142434</v>
       </c>
       <c r="H64">
-        <v>39975550.38970821</v>
+        <v>40176551.31533918</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -3108,22 +3105,22 @@
         <v>119</v>
       </c>
       <c r="C65">
-        <v>15562</v>
+        <v>6237</v>
       </c>
       <c r="D65">
-        <v>11.52</v>
+        <v>11.4778404134059</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G65">
         <v>27007138.60142434</v>
       </c>
       <c r="H65">
-        <v>40176551.31533918</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I65">
         <v>100</v>
@@ -3140,13 +3137,13 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>6237</v>
+        <v>6886</v>
       </c>
       <c r="D66">
         <v>11.52</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66">
         <v>3.5</v>
@@ -3172,13 +3169,13 @@
         <v>121</v>
       </c>
       <c r="C67">
-        <v>50226</v>
+        <v>50389</v>
       </c>
       <c r="D67">
         <v>11.52</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F67">
         <v>3.5</v>
@@ -3204,13 +3201,13 @@
         <v>122</v>
       </c>
       <c r="C68">
-        <v>50389</v>
+        <v>50769</v>
       </c>
       <c r="D68">
         <v>11.52</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F68">
         <v>3.5</v>
@@ -3225,38 +3222,6 @@
         <v>100</v>
       </c>
       <c r="J68">
-        <v>5273515.054654035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69">
-        <v>50769</v>
-      </c>
-      <c r="D69">
-        <v>11.52</v>
-      </c>
-      <c r="E69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69">
-        <v>3.5</v>
-      </c>
-      <c r="G69">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H69">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I69">
-        <v>100</v>
-      </c>
-      <c r="J69">
         <v>5273515.054654035</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -272,9 +272,6 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
-    <t>Nordzucker AG Werk Nordstemmen</t>
-  </si>
-  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -329,45 +323,15 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
-    <t>Nordzucker AG, Werk Klein Wanzleben</t>
-  </si>
-  <si>
-    <t>EUROGLAS AG</t>
-  </si>
-  <si>
-    <t>Werk  Zielitz</t>
-  </si>
-  <si>
-    <t>EUROGLAS GmbH</t>
-  </si>
-  <si>
-    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
-  </si>
-  <si>
-    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
-  </si>
-  <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
-  </si>
-  <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>TRIMET Aluminium SE</t>
-  </si>
-  <si>
     <t>AGR mbH</t>
   </si>
   <si>
@@ -380,27 +344,12 @@
     <t>Ruhr Oel GmbH Werk Horst</t>
   </si>
   <si>
-    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
-  </si>
-  <si>
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
-    <t>Oxea GmbH Werk Ruhrchemie</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
-  </si>
-  <si>
-    <t>TRIMET Aluminium SE Niederlassung Voerde</t>
-  </si>
-  <si>
     <t>DK Recycling und Roheisen GmbH</t>
   </si>
   <si>
-    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
-  </si>
-  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -413,283 +362,187 @@
     <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
   </si>
   <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
-  </si>
-  <si>
-    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
-  </si>
-  <si>
     <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
-    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
-  </si>
-  <si>
     <t>Solvay Chemicals GmbH</t>
   </si>
   <si>
-    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
-  </si>
-  <si>
-    <t>BSR / MHKW</t>
-  </si>
-  <si>
-    <t>Stadtwerke Düsseldorf AG</t>
-  </si>
-  <si>
-    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
-  </si>
-  <si>
-    <t>Aluminium Norf GmbH</t>
-  </si>
-  <si>
-    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Rheinkalk GmbH</t>
   </si>
   <si>
-    <t>Biomassekraftwerk Lünen GmbH</t>
+    <t>CEMEX Zement GmbH</t>
+  </si>
+  <si>
+    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Frechen</t>
+  </si>
+  <si>
+    <t>Basell Polyolefine GmbH Werk Wesseling</t>
+  </si>
+  <si>
+    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
   </si>
   <si>
     <t>PtF-FT1</t>
   </si>
   <si>
-    <t>MtG</t>
-  </si>
-  <si>
-    <t>{'diesel': 3128680.4345442876, 'gasoline': 3154454.259856827, 'kerosene': 3216712.1068517794}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3039776.791140218, 'gasoline': 3064818.2351748724, 'kerosene': 3125306.9818912433}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4520996.684693031, 'gasoline': 4558240.302642405, 'kerosene': 4648203.955290522}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4663358.943744231, 'gasoline': 4701775.33087622, 'kerosene': 4794571.8608115185}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2951660.017770215, 'gasoline': 2975975.5627009314, 'kerosene': 3034710.867124639}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4876143.927404925, 'gasoline': 4916313.22063031, 'kerosene': 5013343.974939981}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3499311.453475024, 'gasoline': 3528138.508203984, 'kerosene': 3597771.5696866163}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2849023.542467886, 'gasoline': 2872493.5761230094, 'kerosene': 2929186.5096145757}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3464559.255627028, 'gasoline': 3493100.024461567, 'kerosene': 3562041.5493486216}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3425635.9866770804, 'gasoline': 3453856.1086588968, 'kerosene': 3522023.0964931822}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3760746.4602990635, 'gasoline': 3791727.1962164473, 'kerosene': 3866562.572538993}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2980374.6704411097, 'gasoline': 3004926.7644401425, 'kerosene': 3064233.463894407}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3061685.6326721106, 'gasoline': 3086907.560033924, 'kerosene': 3147832.2724337406}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4406627.019231556, 'gasoline': 4442928.468800257, 'kerosene': 4530616.270883854}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3568425.699485951, 'gasoline': 3597822.1119810883, 'kerosene': 3668830.4830369875}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3264865.6478122035, 'gasoline': 3291761.3562861434, 'kerosene': 3356729.1630702107}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3571104.4089270527, 'gasoline': 3600522.8884215653, 'kerosene': 3671584.563317859}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3271927.7634337167, 'gasoline': 3298881.6490651434, 'kerosene': 3363989.985418474}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4141761.9347450263, 'gasoline': 4175881.446413143, 'kerosene': 4258298.678283752}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3792185.908290245, 'gasoline': 3823425.6399271972, 'kerosene': 3898886.632187066}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3948101.247185081, 'gasoline': 3980625.3972189557, 'kerosene': 4059188.9605199266}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2870484.4004888725, 'gasoline': 2894131.2270179437, 'kerosene': 2951251.211735419}</t>
-  </si>
-  <si>
-    <t>{'diesel': 5137872.3504328905, 'gasoline': 5180197.741986494, 'kerosene': 5282436.649847161}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4060243.1736936704, 'gasoline': 4093691.140168537, 'kerosene': 4174486.2240892574}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3416454.091424824, 'gasoline': 3444598.5736699468, 'kerosene': 3512582.850280858}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4886197.11871538, 'gasoline': 4926449.229346408, 'kerosene': 5023680.032865166}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3035335.1557862638, 'gasoline': 3060340.0099754203, 'kerosene': 3120740.372256225}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3343349.9242082597, 'gasoline': 3370892.180027616, 'kerosene': 3437421.7513234657}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2751646.0396753405, 'gasoline': 2774313.885060088, 'kerosene': 2829069.0963085406}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2946788.2440596414, 'gasoline': 2971063.6556986375, 'kerosene': 3029702.016331309}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4705668.2916246215, 'gasoline': 4744433.21986337, 'kerosene': 4838071.666690438}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2961328.691884868, 'gasoline': 2985723.886598568, 'kerosene': 3044651.5886947988}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4845588.294520355, 'gasoline': 4885505.872826061, 'kerosene': 4981928.598301609}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3726121.688271194, 'gasoline': 3756817.1880181204, 'kerosene': 3830963.563401054}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3012815.751980848, 'gasoline': 3037635.093078474, 'kerosene': 3097587.3400512864}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2815850.524243601, 'gasoline': 2839047.2811628315, 'kerosene': 2895080.10227278}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3030873.0687150233, 'gasoline': 3055841.164579029, 'kerosene': 3116152.735454009}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4176615.9936424885, 'gasoline': 4211022.630328405, 'kerosene': 4294133.425735268}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3796611.1908065532, 'gasoline': 3827887.3775756042, 'kerosene': 3903436.428864694}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3592310.8664760375, 'gasoline': 3621904.0431132596, 'kerosene': 3693387.7069013594}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3292832.477908698, 'gasoline': 3319958.5749469325, 'kerosene': 3385482.895783972}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3382108.2698606225, 'gasoline': 3409969.8139074435, 'kerosene': 3477270.6404349743}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3733127.4327198486, 'gasoline': 3763880.6452429374, 'kerosene': 3838166.4284609305}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3863224.602065654, 'gasoline': 3895049.5449193167, 'kerosene': 3971924.1414830824}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3605368.355897973, 'gasoline': 3635069.0991142774, 'kerosene': 3706812.594865268}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2932019.5285678664, 'gasoline': 2956173.2766809333, 'kerosene': 3014517.7535346006}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3372548.944778919, 'gasoline': 3400331.739851559, 'kerosene': 3467442.344651188}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2804515.8716635974, 'gasoline': 2827619.2545992313, 'kerosene': 2883426.5266060256}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3164473.817901448, 'gasoline': 3190542.5063133975, 'kerosene': 3253512.60853259}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4455624.851939539, 'gasoline': 4492329.9418311585, 'kerosene': 4580992.755468552}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2906874.4616030836, 'gasoline': 2930821.066616373, 'kerosene': 2988665.179893599}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3700074.47174939, 'gasoline': 3730555.3965588766, 'kerosene': 3804183.4564235634}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4716901.193990423, 'gasoline': 4755758.658002445, 'kerosene': 4849620.629197511}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3313329.5764378156, 'gasoline': 3340624.5269745006, 'kerosene': 3406556.7211149232}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4179888.2844141973, 'gasoline': 4214321.877976179, 'kerosene': 4297497.788942924}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3413376.212966138, 'gasoline': 3441495.3398886607, 'kerosene': 3509418.3695649127}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4259206.121776061, 'gasoline': 4294293.129493659, 'kerosene': 4379047.392064461}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4855840.520819935, 'gasoline': 4895842.556165994, 'kerosene': 4992469.291462828}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4304661.578801443, 'gasoline': 4340123.045027471, 'kerosene': 4425781.829152257}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3709612.55782583, 'gasoline': 3740172.0566442288, 'kerosene': 3813989.9156002565}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3003658.488837494, 'gasoline': 3028402.393115817, 'kerosene': 3088172.419021441}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4093811.4349669986, 'gasoline': 4127535.934159159, 'kerosene': 4208998.995432621}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3333437.031398355, 'gasoline': 3360897.625580172, 'kerosene': 3427229.9394773357}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4973888.414632486, 'gasoline': 5014862.919317389, 'kerosene': 5113838.698521014}</t>
-  </si>
-  <si>
-    <t>{'diesel': 4635258.52071405, 'gasoline': 4673443.418753579, 'kerosene': 4765680.776260083}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3744712.9682710096, 'gasoline': 3775561.621532037, 'kerosene': 3850077.9461922734}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3104086.0540630645, 'gasoline': 3129657.272788112, 'kerosene': 3191425.7143583274}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3254181.908219082, 'gasoline': 3280989.604879825, 'kerosene': 3345744.815127162}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3136745.5758051462, 'gasoline': 3162585.841122131, 'kerosene': 3225004.1769688902}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3756187.308525087, 'gasoline': 3787130.486505871, 'kerosene': 3861875.139924781}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3740092.2372535937, 'gasoline': 3770902.8252930203, 'kerosene': 3845327.2016796293}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3524683.4776060767, 'gasoline': 3553719.5450902414, 'kerosene': 3623857.4863870163}</t>
-  </si>
-  <si>
-    <t>{'diesel': 2970899.4868338844, 'gasoline': 2995373.5250096372, 'kerosene': 3054491.6770735215}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3391583.7071234933, 'gasoline': 3419523.3090831884, 'kerosene': 3487012.6880486133}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3078865.699166782, 'gasoline': 3104229.1545759477, 'kerosene': 3165495.734409517}</t>
-  </si>
-  <si>
-    <t>{'diesel': 3217752.2809332046, 'gasoline': 3244259.8731666943, 'kerosene': 3308290.1675240593}</t>
+    <t>{165: 3211279.3482268397}</t>
+  </si>
+  <si>
+    <t>{165: 3120028.598903444}</t>
+  </si>
+  <si>
+    <t>{165: 4640353.526253123}</t>
+  </si>
+  <si>
+    <t>{165: 4786474.22858194}</t>
+  </si>
+  <si>
+    <t>{165: 3029585.4934231965}</t>
+  </si>
+  <si>
+    <t>{165: 5004876.854845014}</t>
+  </si>
+  <si>
+    <t>{165: 3591695.2333915075}</t>
+  </si>
+  <si>
+    <t>{165: 2924239.357757165}</t>
+  </si>
+  <si>
+    <t>{165: 3556025.558079649}</t>
+  </si>
+  <si>
+    <t>{165: 3516074.6930554123}</t>
+  </si>
+  <si>
+    <t>{165: 3860032.27064468}</t>
+  </si>
+  <si>
+    <t>{165: 3059058.228987825}</t>
+  </si>
+  <si>
+    <t>{165: 3142515.846107772}</t>
+  </si>
+  <si>
+    <t>{165: 4522964.437644095}</t>
+  </si>
+  <si>
+    <t>{165: 3662634.1341602243}</t>
+  </si>
+  <si>
+    <t>{165: 3351059.927308201}</t>
+  </si>
+  <si>
+    <t>{165: 3665383.563029062}</t>
+  </si>
+  <si>
+    <t>{165: 3358308.4867327297}</t>
+  </si>
+  <si>
+    <t>{165: 4251106.7667593295}</t>
+  </si>
+  <si>
+    <t>{165: 3892301.737650325}</t>
+  </si>
+  <si>
+    <t>{165: 4052333.328712357}</t>
+  </si>
+  <si>
+    <t>{165: 2946266.794435292}</t>
+  </si>
+  <si>
+    <t>{165: 5273515.054654035}</t>
+  </si>
+  <si>
+    <t>{165: 4167435.8648139257}</t>
+  </si>
+  <si>
+    <t>{165: 3506650.3906320655}</t>
+  </si>
+  <si>
+    <t>{165: 5015195.456029908}</t>
+  </si>
+  <si>
+    <t>{165: 3115469.701891457}</t>
+  </si>
+  <si>
+    <t>{165: 3431616.2325058877}</t>
+  </si>
+  <si>
+    <t>{165: 3024585.1021613516}</t>
+  </si>
+  <si>
+    <t>{165: 4829900.566914583}</t>
+  </si>
+  <si>
+    <t>{165: 3039509.425943215}</t>
+  </si>
+  <si>
+    <t>{165: 4973514.536159209}</t>
+  </si>
+  <si>
+    <t>{165: 3824493.385265881}</t>
+  </si>
+  <si>
+    <t>{165: 3092355.773228031}</t>
+  </si>
+  <si>
+    <t>{165: 3110889.8132254058}</t>
+  </si>
+  <si>
+    <t>{165: 4286880.992309345}</t>
+  </si>
+  <si>
+    <t>{165: 3896843.8501006044}</t>
+  </si>
+  <si>
+    <t>{165: 3687149.882920415}</t>
+  </si>
+  <si>
+    <t>{165: 3379765.097364126}</t>
+  </si>
+  <si>
+    <t>{165: 3471397.820165223}</t>
+  </si>
+  <si>
+    <t>{165: 3831684.0852870536}</t>
+  </si>
+  <si>
+    <t>{165: 3965215.892681056}</t>
+  </si>
+  <si>
+    <t>{165: 3700552.097367561}</t>
+  </si>
+  <si>
+    <t>{165: 4573255.840545377}</t>
+  </si>
+  <si>
+    <t>{165: 4841430.024186624}</t>
+  </si>
+  <si>
+    <t>{165: 4290239.673387973}</t>
+  </si>
+  <si>
+    <t>{165: 4371651.5460272655}</t>
+  </si>
+  <si>
+    <t>{165: 4984037.426968283}</t>
+  </si>
+  <si>
+    <t>{165: 4418307.05254629}</t>
+  </si>
+  <si>
+    <t>{165: 4201890.346963244}</t>
+  </si>
+  <si>
+    <t>{165: 5105201.851214484}</t>
+  </si>
+  <si>
+    <t>{165: 4757631.938664145}</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14884218834.18415</v>
+        <v>15200386757.43914</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1213,31 +1066,31 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.408932697003</v>
+        <v>368.3920002072203</v>
       </c>
       <c r="G2">
-        <v>37.59416084173446</v>
+        <v>37.70093569372138</v>
       </c>
       <c r="H2">
-        <v>858.4615384615383</v>
+        <v>858.4615384615386</v>
       </c>
       <c r="I2">
-        <v>240</v>
+        <v>240.0000000000001</v>
       </c>
       <c r="J2">
-        <v>498.4615384615384</v>
+        <v>498.4615384615385</v>
       </c>
       <c r="K2">
         <v>120</v>
       </c>
       <c r="L2">
-        <v>361.2105926860028</v>
+        <v>361.2105926860026</v>
       </c>
       <c r="M2">
         <v>117.4668594100822</v>
       </c>
       <c r="N2">
-        <v>243.7437332759206</v>
+        <v>243.7437332759204</v>
       </c>
       <c r="O2">
         <v>216</v>
@@ -1252,43 +1105,43 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>4.137863886377463</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.137863886377463</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>306.2399479110146</v>
+        <v>310.2248422797645</v>
       </c>
       <c r="V2">
-        <v>94.63665056972326</v>
+        <v>95.86809362117725</v>
       </c>
       <c r="W2">
-        <v>211.6032973412913</v>
+        <v>214.3567486585872</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.377501535670861e-14</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-1.317487876239361e-14</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-1.613250460701259e-15</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="AB2">
-        <v>360.1905583154075</v>
+        <v>357.8960155509943</v>
       </c>
       <c r="AC2">
-        <v>360.1905583154075</v>
+        <v>357.8960155509943</v>
       </c>
       <c r="AD2">
-        <v>497.8094416845925</v>
+        <v>500.1039844490058</v>
       </c>
       <c r="AE2">
-        <v>497.8094416845925</v>
+        <v>500.1039844490057</v>
       </c>
       <c r="AF2">
         <v>7.5</v>
@@ -1315,31 +1168,31 @@
         <v>414.5</v>
       </c>
       <c r="AN2">
-        <v>456.2413738661829</v>
+        <v>453.3349530312594</v>
       </c>
       <c r="AO2">
-        <v>1169.80856907875</v>
+        <v>1172.562020396046</v>
       </c>
       <c r="AP2">
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>120</v>
+      </c>
+      <c r="AR2">
+        <v>858</v>
+      </c>
+      <c r="AS2">
         <v>414.5</v>
       </c>
-      <c r="AR2">
-        <v>7.5</v>
-      </c>
-      <c r="AS2">
-        <v>120</v>
-      </c>
       <c r="AT2">
-        <v>858</v>
+        <v>130.3</v>
       </c>
       <c r="AU2">
         <v>24.2</v>
       </c>
       <c r="AV2">
-        <v>130.3</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1251,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1413,7 +1266,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1430,7 +1283,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1445,7 +1298,7 @@
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1462,7 +1315,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1477,7 +1330,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1494,7 +1347,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1509,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1526,7 +1379,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1541,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1558,7 +1411,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1573,7 +1426,7 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1590,7 +1443,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1605,7 +1458,7 @@
         <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1622,7 +1475,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1637,7 +1490,7 @@
         <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1654,7 +1507,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1669,7 +1522,7 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1686,7 +1539,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1701,7 +1554,7 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1718,7 +1571,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1733,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1750,7 +1603,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1765,7 +1618,7 @@
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1782,7 +1635,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1797,7 +1650,7 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1811,10 +1664,10 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>6.108402061855671</v>
+        <v>6.108402061855669</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1829,7 +1682,7 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1846,7 +1699,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1861,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1878,7 +1731,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1893,7 +1746,7 @@
         <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1907,10 +1760,10 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103094</v>
+        <v>2.562355670103093</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1925,7 +1778,7 @@
         <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1939,10 +1792,10 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>1.784922680412371</v>
+        <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1957,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1971,10 +1824,10 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670104</v>
+        <v>4.728061855670103</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1989,7 +1842,7 @@
         <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2006,7 +1859,7 @@
         <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -2021,7 +1874,7 @@
         <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2038,7 +1891,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -2053,7 +1906,7 @@
         <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2067,10 +1920,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103094</v>
+        <v>2.562355670103093</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -2085,7 +1938,7 @@
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2102,7 +1955,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -2117,7 +1970,7 @@
         <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2134,7 +1987,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2149,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2166,7 +2019,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2181,7 +2034,7 @@
         <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2198,7 +2051,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2213,7 +2066,7 @@
         <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2230,7 +2083,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2245,7 +2098,7 @@
         <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2262,7 +2115,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2277,7 +2130,7 @@
         <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2294,7 +2147,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2309,7 +2162,7 @@
         <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2320,19 +2173,19 @@
         <v>85</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>0.8726288659793812</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2051752.656756106</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2341,7 +2194,7 @@
         <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2352,19 +2205,19 @@
         <v>86</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>1.158216494845361</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>2723021.589861078</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2373,7 +2226,7 @@
         <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2384,19 +2237,19 @@
         <v>87</v>
       </c>
       <c r="C33">
-        <v>49525</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>8.012319587628866</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>18801918.17235561</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2405,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2416,19 +2269,19 @@
         <v>88</v>
       </c>
       <c r="C34">
-        <v>49536</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>1.182015463917526</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>2778955.910854831</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2437,7 +2290,7 @@
         <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2448,19 +2301,19 @@
         <v>89</v>
       </c>
       <c r="C35">
-        <v>49808</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>9.04360824742268</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>21215963.57252571</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2469,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2483,16 +2336,16 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.054201030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>7176830.63573128</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2501,7 +2354,7 @@
         <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2512,28 +2365,28 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>31226</v>
       </c>
       <c r="D37">
-        <v>1.269278350515464</v>
+        <v>1.30101030927835</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G37">
-        <v>2984042.160773337</v>
+        <v>3058616.539902832</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2544,19 +2397,19 @@
         <v>92</v>
       </c>
       <c r="C38">
-        <v>31171</v>
+        <v>31319</v>
       </c>
       <c r="D38">
-        <v>0.9598917525773197</v>
+        <v>4.894654639175258</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
       <c r="G38">
-        <v>2256873.78961794</v>
+        <v>11495757.65683257</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
@@ -2565,7 +2418,7 @@
         <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2576,19 +2429,19 @@
         <v>93</v>
       </c>
       <c r="C39">
-        <v>31226</v>
+        <v>31789</v>
       </c>
       <c r="D39">
-        <v>1.30101030927835</v>
+        <v>3.300123711340206</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
       <c r="G39">
-        <v>3058616.539902832</v>
+        <v>7754181.439418147</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
@@ -2597,7 +2450,7 @@
         <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2608,28 +2461,28 @@
         <v>94</v>
       </c>
       <c r="C40">
-        <v>31319</v>
+        <v>38239</v>
       </c>
       <c r="D40">
-        <v>4.894654639175258</v>
+        <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>11495757.65683257</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H40">
-        <v>38060293.37896816</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2640,28 +2493,28 @@
         <v>95</v>
       </c>
       <c r="C41">
-        <v>31789</v>
+        <v>31061</v>
       </c>
       <c r="D41">
-        <v>3.300123711340206</v>
+        <v>2.625819587628866</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F41">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G41">
-        <v>7754181.439418147</v>
+        <v>6170936.453752637</v>
       </c>
       <c r="H41">
-        <v>38060293.37896816</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2672,28 +2525,28 @@
         <v>96</v>
       </c>
       <c r="C42">
-        <v>38239</v>
+        <v>33106</v>
       </c>
       <c r="D42">
-        <v>11.52</v>
+        <v>1.832520618556702</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G42">
-        <v>27007138.60142434</v>
+        <v>4307544.049353574</v>
       </c>
       <c r="H42">
-        <v>38255392.02166688</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2704,28 +2557,28 @@
         <v>97</v>
       </c>
       <c r="C43">
-        <v>31061</v>
+        <v>33332</v>
       </c>
       <c r="D43">
-        <v>2.625819587628866</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G43">
-        <v>6170936.453752637</v>
+        <v>4810740.062798683</v>
       </c>
       <c r="H43">
-        <v>38441090.93970785</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2736,19 +2589,19 @@
         <v>98</v>
       </c>
       <c r="C44">
-        <v>33106</v>
+        <v>33609</v>
       </c>
       <c r="D44">
-        <v>1.832520618556702</v>
+        <v>3.078</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44">
-        <v>4307544.049353574</v>
+        <v>7232706.703717464</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
@@ -2757,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2768,19 +2621,19 @@
         <v>99</v>
       </c>
       <c r="C45">
-        <v>33332</v>
+        <v>38372</v>
       </c>
       <c r="D45">
-        <v>2.046711340206186</v>
+        <v>3.546046391752578</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45">
-        <v>4810740.062798683</v>
+        <v>8331454.23855985</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
@@ -2789,7 +2642,7 @@
         <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2800,19 +2653,19 @@
         <v>100</v>
       </c>
       <c r="C46">
-        <v>33609</v>
+        <v>38723</v>
       </c>
       <c r="D46">
-        <v>3.078</v>
+        <v>2.665484536082475</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F46">
         <v>2.3</v>
       </c>
       <c r="G46">
-        <v>7232706.703717464</v>
+        <v>6264084.751326288</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
@@ -2821,7 +2674,7 @@
         <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2832,19 +2685,19 @@
         <v>101</v>
       </c>
       <c r="C47">
-        <v>38372</v>
+        <v>39596</v>
       </c>
       <c r="D47">
-        <v>3.546046391752578</v>
+        <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F47">
         <v>2.3</v>
       </c>
       <c r="G47">
-        <v>8331454.23855985</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H47">
         <v>38785844.374162</v>
@@ -2853,7 +2706,7 @@
         <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2864,28 +2717,28 @@
         <v>102</v>
       </c>
       <c r="C48">
-        <v>38723</v>
+        <v>58710</v>
       </c>
       <c r="D48">
-        <v>2.665484536082475</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F48">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G48">
-        <v>6264084.751326288</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H48">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2896,28 +2749,28 @@
         <v>103</v>
       </c>
       <c r="C49">
-        <v>39596</v>
+        <v>37355</v>
       </c>
       <c r="D49">
-        <v>11.52</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F49">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G49">
-        <v>27007138.60142434</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H49">
-        <v>38785844.374162</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2928,28 +2781,28 @@
         <v>104</v>
       </c>
       <c r="C50">
-        <v>39164</v>
+        <v>45329</v>
       </c>
       <c r="D50">
-        <v>0.9598917525773196</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>2256873.78961794</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H50">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2960,28 +2813,28 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>39171</v>
+        <v>45699</v>
       </c>
       <c r="D51">
-        <v>1.134417525773196</v>
+        <v>4.868361031963745</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>2667086.537107407</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H51">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2992,28 +2845,28 @@
         <v>106</v>
       </c>
       <c r="C52">
-        <v>39326</v>
+        <v>45772</v>
       </c>
       <c r="D52">
-        <v>2.022912371134021</v>
+        <v>11.52</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>4754832.319820861</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H52">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3024,28 +2877,28 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>39340</v>
+        <v>45896</v>
       </c>
       <c r="D53">
-        <v>0.9440257731958762</v>
+        <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>2219579.770081987</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H53">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3056,28 +2909,28 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>39418</v>
+        <v>45899</v>
       </c>
       <c r="D54">
-        <v>1.554865979381444</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>3655164.748267355</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H54">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3088,28 +2941,28 @@
         <v>109</v>
       </c>
       <c r="C55">
-        <v>58710</v>
+        <v>46049</v>
       </c>
       <c r="D55">
-        <v>6.39398969072165</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>15010968.32739887</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H55">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3120,28 +2973,28 @@
         <v>110</v>
       </c>
       <c r="C56">
-        <v>59075</v>
+        <v>47053</v>
       </c>
       <c r="D56">
-        <v>2.022912371134021</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F56">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>4754832.319820861</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H56">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3152,28 +3005,28 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>14727</v>
+        <v>47166</v>
       </c>
       <c r="D57">
-        <v>1.094752577319588</v>
+        <v>11.52</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F57">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>2573859.823014374</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H57">
-        <v>39380047.41901974</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3184,28 +3037,28 @@
         <v>112</v>
       </c>
       <c r="C58">
-        <v>37218</v>
+        <v>47166</v>
       </c>
       <c r="D58">
-        <v>2.966938144329897</v>
+        <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F58">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>6971945.468368442</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H58">
-        <v>39380047.41901974</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3216,28 +3069,28 @@
         <v>113</v>
       </c>
       <c r="C59">
-        <v>37355</v>
+        <v>47166</v>
       </c>
       <c r="D59">
-        <v>8.091649484536084</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>18987662.48066654</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H59">
-        <v>39635749.05499732</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3248,19 +3101,19 @@
         <v>114</v>
       </c>
       <c r="C60">
-        <v>44793</v>
+        <v>47166</v>
       </c>
       <c r="D60">
-        <v>1.880118556701031</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>4419370.504935618</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
@@ -3269,7 +3122,7 @@
         <v>100</v>
       </c>
       <c r="J60" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3280,19 +3133,19 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>45329</v>
+        <v>47259</v>
       </c>
       <c r="D61">
-        <v>4.910520618556702</v>
+        <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>11532970.80719121</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
@@ -3301,7 +3154,7 @@
         <v>100</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3312,19 +3165,19 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>45356</v>
+        <v>47495</v>
       </c>
       <c r="D62">
-        <v>2.126041237113402</v>
+        <v>6.393989690721652</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>4997093.924883411</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
@@ -3333,7 +3186,7 @@
         <v>100</v>
       </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3344,28 +3197,28 @@
         <v>117</v>
       </c>
       <c r="C63">
-        <v>45699</v>
+        <v>42489</v>
       </c>
       <c r="D63">
-        <v>5.307170103092785</v>
+        <v>11.52</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G63">
-        <v>12463194.18863161</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H63">
-        <v>39754521.5981693</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3376,28 +3229,28 @@
         <v>118</v>
       </c>
       <c r="C64">
-        <v>45772</v>
+        <v>15562</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G64">
         <v>27007138.60142434</v>
       </c>
       <c r="H64">
-        <v>39754521.5981693</v>
+        <v>40176551.31533918</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3408,28 +3261,28 @@
         <v>119</v>
       </c>
       <c r="C65">
-        <v>45896</v>
+        <v>6886</v>
       </c>
       <c r="D65">
-        <v>11.52</v>
+        <v>11.51999999999888</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G65">
         <v>27007138.60142434</v>
       </c>
       <c r="H65">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3440,28 +3293,28 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>45899</v>
+        <v>50226</v>
       </c>
       <c r="D66">
-        <v>9.122938144329899</v>
+        <v>11.52</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G66">
-        <v>21401602.79478948</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H66">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3472,28 +3325,28 @@
         <v>121</v>
       </c>
       <c r="C67">
-        <v>45966</v>
+        <v>50389</v>
       </c>
       <c r="D67">
-        <v>1.880118556701031</v>
+        <v>11.52</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G67">
-        <v>4419370.504935618</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H67">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3504,828 +3357,28 @@
         <v>122</v>
       </c>
       <c r="C68">
-        <v>46049</v>
+        <v>50389</v>
       </c>
       <c r="D68">
-        <v>5.545159793814434</v>
+        <v>11.52</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G68">
-        <v>13021230.96247917</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H68">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69">
-        <v>46147</v>
-      </c>
-      <c r="D69">
-        <v>1.356541237113402</v>
-      </c>
-      <c r="E69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69">
-        <v>3189118.573443136</v>
-      </c>
-      <c r="H69">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I69">
-        <v>100</v>
-      </c>
-      <c r="J69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70">
-        <v>46236</v>
-      </c>
-      <c r="D70">
-        <v>2.998670103092783</v>
-      </c>
-      <c r="E70" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="G70">
-        <v>7046450.302235504</v>
-      </c>
-      <c r="H70">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I70">
-        <v>100</v>
-      </c>
-      <c r="J70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71">
-        <v>46562</v>
-      </c>
-      <c r="D71">
-        <v>1.253412371134021</v>
-      </c>
-      <c r="E71" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="G71">
-        <v>2946754.483413156</v>
-      </c>
-      <c r="H71">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I71">
-        <v>100</v>
-      </c>
-      <c r="J71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72">
-        <v>47053</v>
-      </c>
-      <c r="D72">
-        <v>4.505938144329896</v>
-      </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72">
-        <v>10583934.16780851</v>
-      </c>
-      <c r="H72">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I72">
-        <v>100</v>
-      </c>
-      <c r="J72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73">
-        <v>47137</v>
-      </c>
-      <c r="D73">
-        <v>1.927716494845361</v>
-      </c>
-      <c r="E73" t="s">
-        <v>147</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>4531194.035134709</v>
-      </c>
-      <c r="H73">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I73">
-        <v>100</v>
-      </c>
-      <c r="J73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74">
-        <v>47166</v>
-      </c>
-      <c r="D74">
-        <v>11.52</v>
-      </c>
-      <c r="E74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="G74">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H74">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I74">
-        <v>100</v>
-      </c>
-      <c r="J74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75">
-        <v>47166</v>
-      </c>
-      <c r="D75">
-        <v>11.52</v>
-      </c>
-      <c r="E75" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H75">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I75">
-        <v>100</v>
-      </c>
-      <c r="J75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76">
-        <v>47166</v>
-      </c>
-      <c r="D76">
-        <v>10.07489690721649</v>
-      </c>
-      <c r="E76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
-        <v>23628643.36424644</v>
-      </c>
-      <c r="H76">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I76">
-        <v>100</v>
-      </c>
-      <c r="J76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77">
-        <v>47166</v>
-      </c>
-      <c r="D77">
-        <v>7.528407216494846</v>
-      </c>
-      <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77">
-        <v>17668702.74772677</v>
-      </c>
-      <c r="H77">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I77">
-        <v>100</v>
-      </c>
-      <c r="J77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78">
-        <v>47166</v>
-      </c>
-      <c r="D78">
-        <v>3.879231958762888</v>
-      </c>
-      <c r="E78" t="s">
-        <v>147</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
-        <v>9113441.365831105</v>
-      </c>
-      <c r="H78">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I78">
-        <v>100</v>
-      </c>
-      <c r="J78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79">
-        <v>47198</v>
-      </c>
-      <c r="D79">
-        <v>3.117664948453609</v>
-      </c>
-      <c r="E79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>7325831.86001466</v>
-      </c>
-      <c r="H79">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I79">
-        <v>100</v>
-      </c>
-      <c r="J79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80">
-        <v>47259</v>
-      </c>
-      <c r="D80">
-        <v>11.52</v>
-      </c>
-      <c r="E80" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H80">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I80">
-        <v>100</v>
-      </c>
-      <c r="J80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81">
-        <v>47443</v>
-      </c>
-      <c r="D81">
-        <v>1.435871134020619</v>
-      </c>
-      <c r="E81" t="s">
-        <v>147</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81">
-        <v>3375543.13998122</v>
-      </c>
-      <c r="H81">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I81">
-        <v>100</v>
-      </c>
-      <c r="J81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82">
-        <v>47475</v>
-      </c>
-      <c r="D82">
-        <v>1.745257731958763</v>
-      </c>
-      <c r="E82" t="s">
-        <v>147</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>4102521.282554456</v>
-      </c>
-      <c r="H82">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I82">
-        <v>100</v>
-      </c>
-      <c r="J82" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83">
-        <v>47495</v>
-      </c>
-      <c r="D83">
-        <v>6.39398969072165</v>
-      </c>
-      <c r="E83" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <v>15010968.32739887</v>
-      </c>
-      <c r="H83">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I83">
-        <v>100</v>
-      </c>
-      <c r="J83" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84">
-        <v>47829</v>
-      </c>
-      <c r="D84">
-        <v>2.554422680412372</v>
-      </c>
-      <c r="E84" t="s">
-        <v>147</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
-        <v>6003264.40165077</v>
-      </c>
-      <c r="H84">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I84">
-        <v>100</v>
-      </c>
-      <c r="J84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85">
-        <v>47829</v>
-      </c>
-      <c r="D85">
-        <v>1.499335051546392</v>
-      </c>
-      <c r="E85" t="s">
-        <v>147</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <v>3524676.940382663</v>
-      </c>
-      <c r="H85">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I85">
-        <v>100</v>
-      </c>
-      <c r="J85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86">
-        <v>13597</v>
-      </c>
-      <c r="D86">
-        <v>3.157329896907217</v>
-      </c>
-      <c r="E86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86">
-        <v>3.1</v>
-      </c>
-      <c r="G86">
-        <v>7418954.986766862</v>
-      </c>
-      <c r="H86">
-        <v>39867684.89458863</v>
-      </c>
-      <c r="I86">
-        <v>100</v>
-      </c>
-      <c r="J86" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87">
-        <v>40235</v>
-      </c>
-      <c r="D87">
-        <v>3.101798969072166</v>
-      </c>
-      <c r="E87" t="s">
-        <v>148</v>
-      </c>
-      <c r="F87">
-        <v>3.2</v>
-      </c>
-      <c r="G87">
-        <v>7288582.041044717</v>
-      </c>
-      <c r="H87">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I87">
-        <v>100</v>
-      </c>
-      <c r="J87" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88">
-        <v>41468</v>
-      </c>
-      <c r="D88">
-        <v>2.427494845360825</v>
-      </c>
-      <c r="E88" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88">
-        <v>3.2</v>
-      </c>
-      <c r="G88">
-        <v>5705164.509699306</v>
-      </c>
-      <c r="H88">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I88">
-        <v>100</v>
-      </c>
-      <c r="J88" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89">
-        <v>41468</v>
-      </c>
-      <c r="D89">
-        <v>1.197881443298969</v>
-      </c>
-      <c r="E89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89">
-        <v>3.2</v>
-      </c>
-      <c r="G89">
-        <v>2816245.051657456</v>
-      </c>
-      <c r="H89">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I89">
-        <v>100</v>
-      </c>
-      <c r="J89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90">
-        <v>42327</v>
-      </c>
-      <c r="D90">
-        <v>2.070510309278351</v>
-      </c>
-      <c r="E90" t="s">
-        <v>147</v>
-      </c>
-      <c r="F90">
-        <v>3.2</v>
-      </c>
-      <c r="G90">
-        <v>4866647.074526319</v>
-      </c>
-      <c r="H90">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I90">
-        <v>100</v>
-      </c>
-      <c r="J90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91">
-        <v>42489</v>
-      </c>
-      <c r="D91">
-        <v>11.52</v>
-      </c>
-      <c r="E91" t="s">
-        <v>147</v>
-      </c>
-      <c r="F91">
-        <v>3.2</v>
-      </c>
-      <c r="G91">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H91">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I91">
-        <v>100</v>
-      </c>
-      <c r="J91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92">
-        <v>44532</v>
-      </c>
-      <c r="D92">
-        <v>1.388273195876289</v>
-      </c>
-      <c r="E92" t="s">
-        <v>147</v>
-      </c>
-      <c r="F92">
-        <v>3.2</v>
-      </c>
-      <c r="G92">
-        <v>3263689.375558195</v>
-      </c>
-      <c r="H92">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I92">
-        <v>100</v>
-      </c>
-      <c r="J92" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
         <v>146</v>
-      </c>
-      <c r="C93">
-        <v>44536</v>
-      </c>
-      <c r="D93">
-        <v>1.647195583601047</v>
-      </c>
-      <c r="E93" t="s">
-        <v>148</v>
-      </c>
-      <c r="F93">
-        <v>3.2</v>
-      </c>
-      <c r="G93">
-        <v>3916128.415848953</v>
-      </c>
-      <c r="H93">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I93">
-        <v>100</v>
-      </c>
-      <c r="J93" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,24 +140,24 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
+    <t>tkm-N1Usage</t>
   </si>
   <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -374,175 +374,19 @@
     <t>CEMEX Zement GmbH</t>
   </si>
   <si>
+    <t>TOTAL Raffinerie Mitteldeutschland GmbH (Raffinerie/POX)</t>
+  </si>
+  <si>
     <t>SKW Stickstoffwerke Piesteritz GmbH</t>
   </si>
   <si>
-    <t>RWE Power AG-Fabrik Frechen</t>
-  </si>
-  <si>
-    <t>Basell Polyolefine GmbH Werk Wesseling</t>
-  </si>
-  <si>
     <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
   </si>
   <si>
+    <t>INEOS Köln GmbH</t>
+  </si>
+  <si>
     <t>PtF-FT1</t>
-  </si>
-  <si>
-    <t>{165: 3211279.3482268397}</t>
-  </si>
-  <si>
-    <t>{165: 3120028.598903444}</t>
-  </si>
-  <si>
-    <t>{165: 4640353.526253123}</t>
-  </si>
-  <si>
-    <t>{165: 4786474.22858194}</t>
-  </si>
-  <si>
-    <t>{165: 3029585.4934231965}</t>
-  </si>
-  <si>
-    <t>{165: 5004876.854845014}</t>
-  </si>
-  <si>
-    <t>{165: 3591695.2333915075}</t>
-  </si>
-  <si>
-    <t>{165: 2924239.357757165}</t>
-  </si>
-  <si>
-    <t>{165: 3556025.558079649}</t>
-  </si>
-  <si>
-    <t>{165: 3516074.6930554123}</t>
-  </si>
-  <si>
-    <t>{165: 3860032.27064468}</t>
-  </si>
-  <si>
-    <t>{165: 3059058.228987825}</t>
-  </si>
-  <si>
-    <t>{165: 3142515.846107772}</t>
-  </si>
-  <si>
-    <t>{165: 4522964.437644095}</t>
-  </si>
-  <si>
-    <t>{165: 3662634.1341602243}</t>
-  </si>
-  <si>
-    <t>{165: 3351059.927308201}</t>
-  </si>
-  <si>
-    <t>{165: 3665383.563029062}</t>
-  </si>
-  <si>
-    <t>{165: 3358308.4867327297}</t>
-  </si>
-  <si>
-    <t>{165: 4251106.7667593295}</t>
-  </si>
-  <si>
-    <t>{165: 3892301.737650325}</t>
-  </si>
-  <si>
-    <t>{165: 4052333.328712357}</t>
-  </si>
-  <si>
-    <t>{165: 2946266.794435292}</t>
-  </si>
-  <si>
-    <t>{165: 5273515.054654035}</t>
-  </si>
-  <si>
-    <t>{165: 4167435.8648139257}</t>
-  </si>
-  <si>
-    <t>{165: 3506650.3906320655}</t>
-  </si>
-  <si>
-    <t>{165: 5015195.456029908}</t>
-  </si>
-  <si>
-    <t>{165: 3115469.701891457}</t>
-  </si>
-  <si>
-    <t>{165: 3431616.2325058877}</t>
-  </si>
-  <si>
-    <t>{165: 3024585.1021613516}</t>
-  </si>
-  <si>
-    <t>{165: 4829900.566914583}</t>
-  </si>
-  <si>
-    <t>{165: 3039509.425943215}</t>
-  </si>
-  <si>
-    <t>{165: 4973514.536159209}</t>
-  </si>
-  <si>
-    <t>{165: 3824493.385265881}</t>
-  </si>
-  <si>
-    <t>{165: 3092355.773228031}</t>
-  </si>
-  <si>
-    <t>{165: 3110889.8132254058}</t>
-  </si>
-  <si>
-    <t>{165: 4286880.992309345}</t>
-  </si>
-  <si>
-    <t>{165: 3896843.8501006044}</t>
-  </si>
-  <si>
-    <t>{165: 3687149.882920415}</t>
-  </si>
-  <si>
-    <t>{165: 3379765.097364126}</t>
-  </si>
-  <si>
-    <t>{165: 3471397.820165223}</t>
-  </si>
-  <si>
-    <t>{165: 3831684.0852870536}</t>
-  </si>
-  <si>
-    <t>{165: 3965215.892681056}</t>
-  </si>
-  <si>
-    <t>{165: 3700552.097367561}</t>
-  </si>
-  <si>
-    <t>{165: 4573255.840545377}</t>
-  </si>
-  <si>
-    <t>{165: 4841430.024186624}</t>
-  </si>
-  <si>
-    <t>{165: 4290239.673387973}</t>
-  </si>
-  <si>
-    <t>{165: 4371651.5460272655}</t>
-  </si>
-  <si>
-    <t>{165: 4984037.426968283}</t>
-  </si>
-  <si>
-    <t>{165: 4418307.05254629}</t>
-  </si>
-  <si>
-    <t>{165: 4201890.346963244}</t>
-  </si>
-  <si>
-    <t>{165: 5105201.851214484}</t>
-  </si>
-  <si>
-    <t>{165: 4757631.938664145}</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200386757.43914</v>
+        <v>15200201566.93848</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1066,31 +910,31 @@
         <v>400</v>
       </c>
       <c r="F2">
-        <v>368.3920002072203</v>
+        <v>368.3920002064119</v>
       </c>
       <c r="G2">
-        <v>37.70093569372138</v>
+        <v>37.70093569363865</v>
       </c>
       <c r="H2">
-        <v>858.4615384615386</v>
+        <v>858.4615384615383</v>
       </c>
       <c r="I2">
-        <v>240.0000000000001</v>
+        <v>240</v>
       </c>
       <c r="J2">
-        <v>498.4615384615385</v>
+        <v>498.4615384615384</v>
       </c>
       <c r="K2">
         <v>120</v>
       </c>
       <c r="L2">
-        <v>361.2105926860026</v>
+        <v>361.2105926860028</v>
       </c>
       <c r="M2">
         <v>117.4668594100822</v>
       </c>
       <c r="N2">
-        <v>243.7437332759204</v>
+        <v>243.7437332759206</v>
       </c>
       <c r="O2">
         <v>216</v>
@@ -1111,37 +955,37 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>310.2248422797645</v>
+        <v>310.2248422790836</v>
       </c>
       <c r="V2">
-        <v>95.86809362117725</v>
+        <v>95.86809362096685</v>
       </c>
       <c r="W2">
-        <v>214.3567486585872</v>
+        <v>214.3567486581168</v>
       </c>
       <c r="X2">
-        <v>-5.377501535670861e-14</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-1.317487876239361e-14</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1.613250460701259e-15</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>357.8960155509943</v>
+        <v>357.8960155508282</v>
       </c>
       <c r="AC2">
-        <v>357.8960155509943</v>
+        <v>357.8960155508282</v>
       </c>
       <c r="AD2">
-        <v>500.1039844490058</v>
+        <v>500.1039844491718</v>
       </c>
       <c r="AE2">
-        <v>500.1039844490057</v>
+        <v>500.1039844491718</v>
       </c>
       <c r="AF2">
         <v>7.5</v>
@@ -1150,49 +994,49 @@
         <v>7.5</v>
       </c>
       <c r="AH2">
-        <v>24.2</v>
+        <v>24.19999999973852</v>
       </c>
       <c r="AI2">
-        <v>24.2</v>
+        <v>24.19999999973852</v>
       </c>
       <c r="AJ2">
-        <v>130.3</v>
+        <v>130.2999999998167</v>
       </c>
       <c r="AK2">
-        <v>130.3</v>
+        <v>130.2999999998167</v>
       </c>
       <c r="AL2">
-        <v>414.5</v>
+        <v>414.499999999951</v>
       </c>
       <c r="AM2">
-        <v>414.5</v>
+        <v>414.499999999951</v>
       </c>
       <c r="AN2">
-        <v>453.3349530312594</v>
+        <v>453.3349530310491</v>
       </c>
       <c r="AO2">
-        <v>1172.562020396046</v>
+        <v>1172.562020395576</v>
       </c>
       <c r="AP2">
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>414.499999999951</v>
+      </c>
+      <c r="AR2">
+        <v>130.2999999998167</v>
+      </c>
+      <c r="AS2">
         <v>120</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>858</v>
       </c>
-      <c r="AS2">
-        <v>414.5</v>
-      </c>
-      <c r="AT2">
-        <v>130.3</v>
-      </c>
       <c r="AU2">
-        <v>24.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV2">
-        <v>7.5</v>
+        <v>24.19999999973852</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1109,8 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
-        <v>124</v>
+      <c r="J2">
+        <v>3211279.34822684</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1297,8 +1141,8 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3" t="s">
-        <v>125</v>
+      <c r="J3">
+        <v>3120028.598903444</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1329,8 +1173,8 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
-        <v>126</v>
+      <c r="J4">
+        <v>4640353.526253123</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1344,7 +1188,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072166</v>
+        <v>7.718798969072163</v>
       </c>
       <c r="E5" t="s">
         <v>123</v>
@@ -1361,8 +1205,8 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
-        <v>127</v>
+      <c r="J5">
+        <v>4786474.22858194</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1393,8 +1237,8 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" t="s">
-        <v>128</v>
+      <c r="J6">
+        <v>3029585.493423196</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1425,8 +1269,8 @@
       <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7" t="s">
-        <v>129</v>
+      <c r="J7">
+        <v>5004876.854845014</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1457,8 +1301,8 @@
       <c r="I8">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
-        <v>130</v>
+      <c r="J8">
+        <v>3591695.233391508</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1489,8 +1333,8 @@
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>131</v>
+      <c r="J9">
+        <v>2924239.357757165</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1521,8 +1365,8 @@
       <c r="I10">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>132</v>
+      <c r="J10">
+        <v>3556025.558079649</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1553,8 +1397,8 @@
       <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
-        <v>133</v>
+      <c r="J11">
+        <v>3516074.693055412</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1585,8 +1429,8 @@
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
+      <c r="J12">
+        <v>3860032.27064468</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1617,8 +1461,8 @@
       <c r="I13">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
-        <v>135</v>
+      <c r="J13">
+        <v>3059058.228987825</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1649,8 +1493,8 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" t="s">
-        <v>136</v>
+      <c r="J14">
+        <v>3142515.846107772</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1681,8 +1525,8 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" t="s">
-        <v>137</v>
+      <c r="J15">
+        <v>4522964.437644095</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1713,8 +1557,8 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" t="s">
-        <v>138</v>
+      <c r="J16">
+        <v>3662634.134160224</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1745,8 +1589,8 @@
       <c r="I17">
         <v>100</v>
       </c>
-      <c r="J17" t="s">
-        <v>139</v>
+      <c r="J17">
+        <v>3351059.927308201</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1760,7 +1604,7 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
         <v>123</v>
@@ -1777,8 +1621,8 @@
       <c r="I18">
         <v>100</v>
       </c>
-      <c r="J18" t="s">
-        <v>140</v>
+      <c r="J18">
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1809,8 +1653,8 @@
       <c r="I19">
         <v>100</v>
       </c>
-      <c r="J19" t="s">
-        <v>141</v>
+      <c r="J19">
+        <v>3358308.48673273</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1824,7 +1668,7 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670103</v>
+        <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
         <v>123</v>
@@ -1841,8 +1685,8 @@
       <c r="I20">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
-        <v>142</v>
+      <c r="J20">
+        <v>4251106.766759329</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1873,8 +1717,8 @@
       <c r="I21">
         <v>100</v>
       </c>
-      <c r="J21" t="s">
-        <v>143</v>
+      <c r="J21">
+        <v>3892301.737650325</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1888,7 +1732,7 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762888</v>
+        <v>3.879231958762887</v>
       </c>
       <c r="E22" t="s">
         <v>123</v>
@@ -1905,8 +1749,8 @@
       <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22" t="s">
-        <v>144</v>
+      <c r="J22">
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1920,7 +1764,7 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
         <v>123</v>
@@ -1937,8 +1781,8 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" t="s">
-        <v>140</v>
+      <c r="J23">
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1969,8 +1813,8 @@
       <c r="I24">
         <v>100</v>
       </c>
-      <c r="J24" t="s">
-        <v>145</v>
+      <c r="J24">
+        <v>2946266.794435292</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2001,8 +1845,8 @@
       <c r="I25">
         <v>100</v>
       </c>
-      <c r="J25" t="s">
-        <v>146</v>
+      <c r="J25">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2033,8 +1877,8 @@
       <c r="I26">
         <v>100</v>
       </c>
-      <c r="J26" t="s">
-        <v>147</v>
+      <c r="J26">
+        <v>4167435.864813926</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2065,8 +1909,8 @@
       <c r="I27">
         <v>100</v>
       </c>
-      <c r="J27" t="s">
-        <v>148</v>
+      <c r="J27">
+        <v>3506650.390632065</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2080,7 +1924,7 @@
         <v>26197</v>
       </c>
       <c r="D28">
-        <v>9.360927835051548</v>
+        <v>9.36092783505155</v>
       </c>
       <c r="E28" t="s">
         <v>123</v>
@@ -2097,8 +1941,8 @@
       <c r="I28">
         <v>100</v>
       </c>
-      <c r="J28" t="s">
-        <v>149</v>
+      <c r="J28">
+        <v>5015195.456029908</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2129,8 +1973,8 @@
       <c r="I29">
         <v>100</v>
       </c>
-      <c r="J29" t="s">
-        <v>150</v>
+      <c r="J29">
+        <v>3115469.701891457</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2161,8 +2005,8 @@
       <c r="I30">
         <v>100</v>
       </c>
-      <c r="J30" t="s">
-        <v>151</v>
+      <c r="J30">
+        <v>3431616.232505888</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2193,8 +2037,8 @@
       <c r="I31">
         <v>100</v>
       </c>
-      <c r="J31" t="s">
-        <v>152</v>
+      <c r="J31">
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2225,8 +2069,8 @@
       <c r="I32">
         <v>100</v>
       </c>
-      <c r="J32" t="s">
-        <v>153</v>
+      <c r="J32">
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2257,8 +2101,8 @@
       <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33" t="s">
-        <v>154</v>
+      <c r="J33">
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2289,8 +2133,8 @@
       <c r="I34">
         <v>100</v>
       </c>
-      <c r="J34" t="s">
-        <v>155</v>
+      <c r="J34">
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2321,8 +2165,8 @@
       <c r="I35">
         <v>100</v>
       </c>
-      <c r="J35" t="s">
-        <v>156</v>
+      <c r="J35">
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2353,8 +2197,8 @@
       <c r="I36">
         <v>100</v>
       </c>
-      <c r="J36" t="s">
-        <v>157</v>
+      <c r="J36">
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2385,8 +2229,8 @@
       <c r="I37">
         <v>100</v>
       </c>
-      <c r="J37" t="s">
-        <v>158</v>
+      <c r="J37">
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2417,8 +2261,8 @@
       <c r="I38">
         <v>100</v>
       </c>
-      <c r="J38" t="s">
-        <v>159</v>
+      <c r="J38">
+        <v>4286880.992309345</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2449,8 +2293,8 @@
       <c r="I39">
         <v>100</v>
       </c>
-      <c r="J39" t="s">
-        <v>160</v>
+      <c r="J39">
+        <v>3896843.850100604</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2481,8 +2325,8 @@
       <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40" t="s">
-        <v>146</v>
+      <c r="J40">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2513,8 +2357,8 @@
       <c r="I41">
         <v>100</v>
       </c>
-      <c r="J41" t="s">
-        <v>161</v>
+      <c r="J41">
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2545,8 +2389,8 @@
       <c r="I42">
         <v>100</v>
       </c>
-      <c r="J42" t="s">
-        <v>162</v>
+      <c r="J42">
+        <v>3379765.097364126</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2577,8 +2421,8 @@
       <c r="I43">
         <v>100</v>
       </c>
-      <c r="J43" t="s">
-        <v>163</v>
+      <c r="J43">
+        <v>3471397.820165223</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2609,8 +2453,8 @@
       <c r="I44">
         <v>100</v>
       </c>
-      <c r="J44" t="s">
-        <v>164</v>
+      <c r="J44">
+        <v>3831684.085287054</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2641,8 +2485,8 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" t="s">
-        <v>165</v>
+      <c r="J45">
+        <v>3965215.892681056</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2673,8 +2517,8 @@
       <c r="I46">
         <v>100</v>
       </c>
-      <c r="J46" t="s">
-        <v>166</v>
+      <c r="J46">
+        <v>3700552.097367561</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2705,8 +2549,8 @@
       <c r="I47">
         <v>100</v>
       </c>
-      <c r="J47" t="s">
-        <v>146</v>
+      <c r="J47">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2737,8 +2581,8 @@
       <c r="I48">
         <v>100</v>
       </c>
-      <c r="J48" t="s">
-        <v>167</v>
+      <c r="J48">
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2769,8 +2613,8 @@
       <c r="I49">
         <v>100</v>
       </c>
-      <c r="J49" t="s">
-        <v>168</v>
+      <c r="J49">
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2801,8 +2645,8 @@
       <c r="I50">
         <v>100</v>
       </c>
-      <c r="J50" t="s">
-        <v>169</v>
+      <c r="J50">
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2816,7 +2660,7 @@
         <v>45699</v>
       </c>
       <c r="D51">
-        <v>4.868361031963745</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -2833,8 +2677,8 @@
       <c r="I51">
         <v>100</v>
       </c>
-      <c r="J51" t="s">
-        <v>170</v>
+      <c r="J51">
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2848,7 +2692,7 @@
         <v>45772</v>
       </c>
       <c r="D52">
-        <v>11.52</v>
+        <v>11.51999999999999</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
@@ -2865,8 +2709,8 @@
       <c r="I52">
         <v>100</v>
       </c>
-      <c r="J52" t="s">
-        <v>146</v>
+      <c r="J52">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2897,8 +2741,8 @@
       <c r="I53">
         <v>100</v>
       </c>
-      <c r="J53" t="s">
-        <v>146</v>
+      <c r="J53">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2929,8 +2773,8 @@
       <c r="I54">
         <v>100</v>
       </c>
-      <c r="J54" t="s">
-        <v>171</v>
+      <c r="J54">
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2961,8 +2805,8 @@
       <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55" t="s">
-        <v>172</v>
+      <c r="J55">
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2976,7 +2820,7 @@
         <v>47053</v>
       </c>
       <c r="D56">
-        <v>4.505938144329896</v>
+        <v>4.505938144329895</v>
       </c>
       <c r="E56" t="s">
         <v>123</v>
@@ -2993,8 +2837,8 @@
       <c r="I56">
         <v>100</v>
       </c>
-      <c r="J56" t="s">
-        <v>173</v>
+      <c r="J56">
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3025,8 +2869,8 @@
       <c r="I57">
         <v>100</v>
       </c>
-      <c r="J57" t="s">
-        <v>146</v>
+      <c r="J57">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3057,8 +2901,8 @@
       <c r="I58">
         <v>100</v>
       </c>
-      <c r="J58" t="s">
-        <v>146</v>
+      <c r="J58">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3089,8 +2933,8 @@
       <c r="I59">
         <v>100</v>
       </c>
-      <c r="J59" t="s">
-        <v>174</v>
+      <c r="J59">
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3121,8 +2965,8 @@
       <c r="I60">
         <v>100</v>
       </c>
-      <c r="J60" t="s">
-        <v>175</v>
+      <c r="J60">
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3153,8 +2997,8 @@
       <c r="I61">
         <v>100</v>
       </c>
-      <c r="J61" t="s">
-        <v>146</v>
+      <c r="J61">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3168,7 +3012,7 @@
         <v>47495</v>
       </c>
       <c r="D62">
-        <v>6.393989690721652</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
         <v>123</v>
@@ -3185,8 +3029,8 @@
       <c r="I62">
         <v>100</v>
       </c>
-      <c r="J62" t="s">
-        <v>167</v>
+      <c r="J62">
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3217,8 +3061,8 @@
       <c r="I63">
         <v>100</v>
       </c>
-      <c r="J63" t="s">
-        <v>146</v>
+      <c r="J63">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3232,7 +3076,7 @@
         <v>15562</v>
       </c>
       <c r="D64">
-        <v>11.52</v>
+        <v>11.08119092806143</v>
       </c>
       <c r="E64" t="s">
         <v>123</v>
@@ -3249,8 +3093,8 @@
       <c r="I64">
         <v>100</v>
       </c>
-      <c r="J64" t="s">
-        <v>146</v>
+      <c r="J64">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3261,10 +3105,10 @@
         <v>119</v>
       </c>
       <c r="C65">
-        <v>6886</v>
+        <v>6237</v>
       </c>
       <c r="D65">
-        <v>11.51999999999888</v>
+        <v>11.52</v>
       </c>
       <c r="E65" t="s">
         <v>123</v>
@@ -3281,8 +3125,8 @@
       <c r="I65">
         <v>100</v>
       </c>
-      <c r="J65" t="s">
-        <v>146</v>
+      <c r="J65">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3293,7 +3137,7 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>50226</v>
+        <v>6886</v>
       </c>
       <c r="D66">
         <v>11.52</v>
@@ -3313,8 +3157,8 @@
       <c r="I66">
         <v>100</v>
       </c>
-      <c r="J66" t="s">
-        <v>146</v>
+      <c r="J66">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3345,8 +3189,8 @@
       <c r="I67">
         <v>100</v>
       </c>
-      <c r="J67" t="s">
-        <v>146</v>
+      <c r="J67">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3357,7 +3201,7 @@
         <v>122</v>
       </c>
       <c r="C68">
-        <v>50389</v>
+        <v>50769</v>
       </c>
       <c r="D68">
         <v>11.52</v>
@@ -3377,8 +3221,8 @@
       <c r="I68">
         <v>100</v>
       </c>
-      <c r="J68" t="s">
-        <v>146</v>
+      <c r="J68">
+        <v>5273515.054654035</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -140,22 +140,22 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
   </si>
   <si>
     <t>Name</t>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200386757.43914</v>
+        <v>15200201566.97096</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1069,13 +1069,13 @@
         <v>368.3920002072203</v>
       </c>
       <c r="G2">
-        <v>37.70093569372138</v>
+        <v>37.70093569372139</v>
       </c>
       <c r="H2">
-        <v>858.4615384615386</v>
+        <v>858.4615384615385</v>
       </c>
       <c r="I2">
-        <v>240.0000000000001</v>
+        <v>240</v>
       </c>
       <c r="J2">
         <v>498.4615384615385</v>
@@ -1084,13 +1084,13 @@
         <v>120</v>
       </c>
       <c r="L2">
-        <v>361.2105926860026</v>
+        <v>361.2105926860027</v>
       </c>
       <c r="M2">
         <v>117.4668594100822</v>
       </c>
       <c r="N2">
-        <v>243.7437332759204</v>
+        <v>243.7437332759205</v>
       </c>
       <c r="O2">
         <v>216</v>
@@ -1120,28 +1120,28 @@
         <v>214.3567486585872</v>
       </c>
       <c r="X2">
-        <v>-5.377501535670861e-14</v>
+        <v>-2.68875076783543e-14</v>
       </c>
       <c r="Y2">
-        <v>-1.317487876239361e-14</v>
+        <v>-6.587439381196804e-15</v>
       </c>
       <c r="Z2">
-        <v>-1.613250460701259e-15</v>
+        <v>-8.066252303506293e-16</v>
       </c>
       <c r="AA2">
-        <v>-2.842170943040401e-14</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="AB2">
-        <v>357.8960155509943</v>
+        <v>357.8960155509944</v>
       </c>
       <c r="AC2">
-        <v>357.8960155509943</v>
+        <v>357.8960155509944</v>
       </c>
       <c r="AD2">
-        <v>500.1039844490058</v>
+        <v>500.1039844490057</v>
       </c>
       <c r="AE2">
-        <v>500.1039844490057</v>
+        <v>500.1039844490056</v>
       </c>
       <c r="AF2">
         <v>7.5</v>
@@ -1168,7 +1168,7 @@
         <v>414.5</v>
       </c>
       <c r="AN2">
-        <v>453.3349530312594</v>
+        <v>453.3349530312595</v>
       </c>
       <c r="AO2">
         <v>1172.562020396046</v>
@@ -1177,22 +1177,22 @@
         <v>120</v>
       </c>
       <c r="AQ2">
+        <v>414.5</v>
+      </c>
+      <c r="AR2">
+        <v>130.3</v>
+      </c>
+      <c r="AS2">
+        <v>7.5</v>
+      </c>
+      <c r="AT2">
         <v>120</v>
       </c>
-      <c r="AR2">
+      <c r="AU2">
         <v>858</v>
       </c>
-      <c r="AS2">
-        <v>414.5</v>
-      </c>
-      <c r="AT2">
-        <v>130.3</v>
-      </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>24.2</v>
-      </c>
-      <c r="AV2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1760,7 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
         <v>123</v>
@@ -1824,7 +1824,7 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670103</v>
+        <v>4.728061855670105</v>
       </c>
       <c r="E20" t="s">
         <v>123</v>
@@ -1888,7 +1888,7 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762888</v>
+        <v>3.879231958762889</v>
       </c>
       <c r="E22" t="s">
         <v>123</v>
@@ -2528,7 +2528,7 @@
         <v>33106</v>
       </c>
       <c r="D42">
-        <v>1.832520618556702</v>
+        <v>1.832520618556701</v>
       </c>
       <c r="E42" t="s">
         <v>123</v>
@@ -2560,7 +2560,7 @@
         <v>33332</v>
       </c>
       <c r="D43">
-        <v>2.046711340206186</v>
+        <v>2.046711340206185</v>
       </c>
       <c r="E43" t="s">
         <v>123</v>
@@ -2784,7 +2784,7 @@
         <v>45329</v>
       </c>
       <c r="D50">
-        <v>4.910520618556702</v>
+        <v>4.910520618556701</v>
       </c>
       <c r="E50" t="s">
         <v>123</v>
@@ -2816,7 +2816,7 @@
         <v>45699</v>
       </c>
       <c r="D51">
-        <v>4.868361031963745</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -2976,7 +2976,7 @@
         <v>47053</v>
       </c>
       <c r="D56">
-        <v>4.505938144329896</v>
+        <v>4.505938144329945</v>
       </c>
       <c r="E56" t="s">
         <v>123</v>
@@ -3168,7 +3168,7 @@
         <v>47495</v>
       </c>
       <c r="D62">
-        <v>6.393989690721652</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
         <v>123</v>
@@ -3232,7 +3232,7 @@
         <v>15562</v>
       </c>
       <c r="D64">
-        <v>11.52</v>
+        <v>11.08119092886987</v>
       </c>
       <c r="E64" t="s">
         <v>123</v>
@@ -3264,7 +3264,7 @@
         <v>6886</v>
       </c>
       <c r="D65">
-        <v>11.51999999999888</v>
+        <v>11.52</v>
       </c>
       <c r="E65" t="s">
         <v>123</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
   <si>
     <t>Total Cost</t>
   </si>
@@ -26,6 +26,9 @@
     <t>crudeoil</t>
   </si>
   <si>
+    <t>natgas</t>
+  </si>
+  <si>
     <t>biomass</t>
   </si>
   <si>
@@ -56,6 +59,12 @@
     <t>Refinery2-diesel</t>
   </si>
   <si>
+    <t>NGCondProduction</t>
+  </si>
+  <si>
+    <t>NGCond-cng</t>
+  </si>
+  <si>
     <t>BtDProduction</t>
   </si>
   <si>
@@ -68,6 +77,12 @@
     <t>BtL-gasoline</t>
   </si>
   <si>
+    <t>BM-MethProduction</t>
+  </si>
+  <si>
+    <t>BM-Meth-cng</t>
+  </si>
+  <si>
     <t>MtGProduction</t>
   </si>
   <si>
@@ -95,6 +110,12 @@
     <t>PtF-FT2-kerosene</t>
   </si>
   <si>
+    <t>PtF-MethProduction</t>
+  </si>
+  <si>
+    <t>PtF-Meth-cng</t>
+  </si>
+  <si>
     <t>PVGasProduction</t>
   </si>
   <si>
@@ -131,6 +152,36 @@
     <t>TruckSZM-tkm</t>
   </si>
   <si>
+    <t>PVcngProduction</t>
+  </si>
+  <si>
+    <t>PVcng-pkm</t>
+  </si>
+  <si>
+    <t>TruckN1_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN1_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckN2_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN2_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckN3_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN3_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckSZM_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckSZM_ng-tkm</t>
+  </si>
+  <si>
     <t>GasolineHubUsage</t>
   </si>
   <si>
@@ -140,24 +191,27 @@
     <t>KeroseneHubUsage</t>
   </si>
   <si>
+    <t>MethaneHubUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -272,6 +326,9 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -347,9 +404,6 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
-    <t>DK Recycling und Roheisen GmbH</t>
-  </si>
-  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -377,172 +431,7 @@
     <t>SKW Stickstoffwerke Piesteritz GmbH</t>
   </si>
   <si>
-    <t>RWE Power AG-Fabrik Frechen</t>
-  </si>
-  <si>
-    <t>Basell Polyolefine GmbH Werk Wesseling</t>
-  </si>
-  <si>
-    <t>Shell Deutschland Oil GmbH Rheinland Raffinerie, Werk Süd</t>
-  </si>
-  <si>
     <t>PtF-FT1</t>
-  </si>
-  <si>
-    <t>{165: 3211279.3482268397}</t>
-  </si>
-  <si>
-    <t>{165: 3120028.598903444}</t>
-  </si>
-  <si>
-    <t>{165: 4640353.526253123}</t>
-  </si>
-  <si>
-    <t>{165: 4786474.22858194}</t>
-  </si>
-  <si>
-    <t>{165: 3029585.4934231965}</t>
-  </si>
-  <si>
-    <t>{165: 5004876.854845014}</t>
-  </si>
-  <si>
-    <t>{165: 3591695.2333915075}</t>
-  </si>
-  <si>
-    <t>{165: 2924239.357757165}</t>
-  </si>
-  <si>
-    <t>{165: 3556025.558079649}</t>
-  </si>
-  <si>
-    <t>{165: 3516074.6930554123}</t>
-  </si>
-  <si>
-    <t>{165: 3860032.27064468}</t>
-  </si>
-  <si>
-    <t>{165: 3059058.228987825}</t>
-  </si>
-  <si>
-    <t>{165: 3142515.846107772}</t>
-  </si>
-  <si>
-    <t>{165: 4522964.437644095}</t>
-  </si>
-  <si>
-    <t>{165: 3662634.1341602243}</t>
-  </si>
-  <si>
-    <t>{165: 3351059.927308201}</t>
-  </si>
-  <si>
-    <t>{165: 3665383.563029062}</t>
-  </si>
-  <si>
-    <t>{165: 3358308.4867327297}</t>
-  </si>
-  <si>
-    <t>{165: 4251106.7667593295}</t>
-  </si>
-  <si>
-    <t>{165: 3892301.737650325}</t>
-  </si>
-  <si>
-    <t>{165: 4052333.328712357}</t>
-  </si>
-  <si>
-    <t>{165: 2946266.794435292}</t>
-  </si>
-  <si>
-    <t>{165: 5273515.054654035}</t>
-  </si>
-  <si>
-    <t>{165: 4167435.8648139257}</t>
-  </si>
-  <si>
-    <t>{165: 3506650.3906320655}</t>
-  </si>
-  <si>
-    <t>{165: 5015195.456029908}</t>
-  </si>
-  <si>
-    <t>{165: 3115469.701891457}</t>
-  </si>
-  <si>
-    <t>{165: 3431616.2325058877}</t>
-  </si>
-  <si>
-    <t>{165: 3024585.1021613516}</t>
-  </si>
-  <si>
-    <t>{165: 4829900.566914583}</t>
-  </si>
-  <si>
-    <t>{165: 3039509.425943215}</t>
-  </si>
-  <si>
-    <t>{165: 4973514.536159209}</t>
-  </si>
-  <si>
-    <t>{165: 3824493.385265881}</t>
-  </si>
-  <si>
-    <t>{165: 3092355.773228031}</t>
-  </si>
-  <si>
-    <t>{165: 3110889.8132254058}</t>
-  </si>
-  <si>
-    <t>{165: 4286880.992309345}</t>
-  </si>
-  <si>
-    <t>{165: 3896843.8501006044}</t>
-  </si>
-  <si>
-    <t>{165: 3687149.882920415}</t>
-  </si>
-  <si>
-    <t>{165: 3379765.097364126}</t>
-  </si>
-  <si>
-    <t>{165: 3471397.820165223}</t>
-  </si>
-  <si>
-    <t>{165: 3831684.0852870536}</t>
-  </si>
-  <si>
-    <t>{165: 3965215.892681056}</t>
-  </si>
-  <si>
-    <t>{165: 3700552.097367561}</t>
-  </si>
-  <si>
-    <t>{165: 4573255.840545377}</t>
-  </si>
-  <si>
-    <t>{165: 4841430.024186624}</t>
-  </si>
-  <si>
-    <t>{165: 4290239.673387973}</t>
-  </si>
-  <si>
-    <t>{165: 4371651.5460272655}</t>
-  </si>
-  <si>
-    <t>{165: 4984037.426968283}</t>
-  </si>
-  <si>
-    <t>{165: 4418307.05254629}</t>
-  </si>
-  <si>
-    <t>{165: 4201890.346963244}</t>
-  </si>
-  <si>
-    <t>{165: 5105201.851214484}</t>
-  </si>
-  <si>
-    <t>{165: 4757631.938664145}</t>
   </si>
 </sst>
 </file>
@@ -900,13 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:66">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,151 +937,259 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15200201566.97096</v>
+        <v>13567537369.02723</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2">
-        <v>1311.475409836066</v>
+        <v>1190.511948111309</v>
       </c>
       <c r="E2">
+        <v>157.5538327091136</v>
+      </c>
+      <c r="F2">
         <v>400</v>
       </c>
-      <c r="F2">
-        <v>368.3920002072203</v>
-      </c>
       <c r="G2">
-        <v>37.70093569372139</v>
+        <v>330.4949195865013</v>
       </c>
       <c r="H2">
-        <v>858.4615384615385</v>
+        <v>33.82257948984662</v>
       </c>
       <c r="I2">
+        <v>858.4615384615383</v>
+      </c>
+      <c r="J2">
         <v>240</v>
       </c>
-      <c r="J2">
-        <v>498.4615384615385</v>
-      </c>
       <c r="K2">
+        <v>498.4615384615384</v>
+      </c>
+      <c r="L2">
         <v>120</v>
       </c>
-      <c r="L2">
-        <v>361.2105926860027</v>
-      </c>
       <c r="M2">
-        <v>117.4668594100822</v>
+        <v>248.7145732819791</v>
       </c>
       <c r="N2">
-        <v>243.7437332759205</v>
+        <v>80.88278805918021</v>
       </c>
       <c r="O2">
+        <v>167.8317852227989</v>
+      </c>
+      <c r="P2">
+        <v>154.0911111111111</v>
+      </c>
+      <c r="Q2">
+        <v>154.0911111111111</v>
+      </c>
+      <c r="R2">
         <v>216</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>216</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>310.2248422797645</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>95.86809362117725</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>214.3567486585872</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-2.68875076783543e-14</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-6.587439381196804e-15</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-8.066252303506293e-16</v>
+        <v>278.3115112307378</v>
       </c>
       <c r="AA2">
-        <v>-1.4210854715202e-14</v>
+        <v>86.00598784560998</v>
       </c>
       <c r="AB2">
-        <v>357.8960155509944</v>
+        <v>192.3055233851279</v>
       </c>
       <c r="AC2">
-        <v>357.8960155509944</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>500.1039844490057</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>500.1039844490056</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>24.2</v>
+        <v>321.227980977466</v>
       </c>
       <c r="AJ2">
+        <v>321.227980977466</v>
+      </c>
+      <c r="AK2">
+        <v>450.772019022534</v>
+      </c>
+      <c r="AL2">
+        <v>450.772019022534</v>
+      </c>
+      <c r="AM2">
+        <v>6.75</v>
+      </c>
+      <c r="AN2">
+        <v>6.75</v>
+      </c>
+      <c r="AO2">
+        <v>21.78</v>
+      </c>
+      <c r="AP2">
+        <v>21.78</v>
+      </c>
+      <c r="AQ2">
         <v>130.3</v>
-      </c>
-      <c r="AK2">
-        <v>130.3</v>
-      </c>
-      <c r="AL2">
-        <v>414.5</v>
-      </c>
-      <c r="AM2">
-        <v>414.5</v>
-      </c>
-      <c r="AN2">
-        <v>453.3349530312595</v>
-      </c>
-      <c r="AO2">
-        <v>1172.562020396046</v>
-      </c>
-      <c r="AP2">
-        <v>120</v>
-      </c>
-      <c r="AQ2">
-        <v>414.5</v>
       </c>
       <c r="AR2">
         <v>130.3</v>
       </c>
       <c r="AS2">
+        <v>373.05</v>
+      </c>
+      <c r="AT2">
+        <v>373.05</v>
+      </c>
+      <c r="AU2">
+        <v>86</v>
+      </c>
+      <c r="AV2">
+        <v>86</v>
+      </c>
+      <c r="AW2">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="AX2">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="AY2">
+        <v>2.42</v>
+      </c>
+      <c r="AZ2">
+        <v>2.42</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>41.45</v>
+      </c>
+      <c r="BD2">
+        <v>41.45</v>
+      </c>
+      <c r="BE2">
+        <v>406.8887759047902</v>
+      </c>
+      <c r="BF2">
+        <v>1074.598847069465</v>
+      </c>
+      <c r="BG2">
+        <v>120</v>
+      </c>
+      <c r="BH2">
+        <v>154.0911111111111</v>
+      </c>
+      <c r="BI2">
+        <v>414.5</v>
+      </c>
+      <c r="BJ2">
+        <v>24.2</v>
+      </c>
+      <c r="BK2">
+        <v>858</v>
+      </c>
+      <c r="BL2">
+        <v>120</v>
+      </c>
+      <c r="BM2">
+        <v>130.3</v>
+      </c>
+      <c r="BN2">
         <v>7.5</v>
-      </c>
-      <c r="AT2">
-        <v>120</v>
-      </c>
-      <c r="AU2">
-        <v>858</v>
-      </c>
-      <c r="AV2">
-        <v>24.2</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1210,31 +1207,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -1251,7 +1248,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1265,8 +1262,8 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
-        <v>124</v>
+      <c r="J2">
+        <v>3211279.34822684</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1274,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>25541</v>
@@ -1283,7 +1280,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1297,8 +1294,8 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3" t="s">
-        <v>125</v>
+      <c r="J3">
+        <v>3120028.598903444</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1306,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>25572</v>
@@ -1315,7 +1312,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1329,8 +1326,8 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
-        <v>126</v>
+      <c r="J4">
+        <v>4640353.526253123</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1338,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1347,7 +1344,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1361,8 +1358,8 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
-        <v>127</v>
+      <c r="J5">
+        <v>4786474.22858194</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1370,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>26388</v>
@@ -1379,7 +1376,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1393,8 +1390,8 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" t="s">
-        <v>128</v>
+      <c r="J6">
+        <v>3029585.493423196</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1402,16 +1399,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>25566</v>
       </c>
       <c r="D7">
-        <v>9.28159793814433</v>
+        <v>9.281597938144325</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1425,8 +1422,8 @@
       <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7" t="s">
-        <v>129</v>
+      <c r="J7">
+        <v>5004876.854845014</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1434,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>26316</v>
@@ -1443,7 +1440,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1457,8 +1454,8 @@
       <c r="I8">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
-        <v>130</v>
+      <c r="J8">
+        <v>3591695.233391508</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1466,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>26954</v>
@@ -1475,7 +1472,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1489,8 +1486,8 @@
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>131</v>
+      <c r="J9">
+        <v>2924239.357757165</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1498,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>27570</v>
@@ -1507,7 +1504,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1521,8 +1518,8 @@
       <c r="I10">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>132</v>
+      <c r="J10">
+        <v>3556025.558079649</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1530,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>26892</v>
@@ -1539,7 +1536,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1553,8 +1550,8 @@
       <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
-        <v>133</v>
+      <c r="J11">
+        <v>3516074.693055412</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1562,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>24534</v>
@@ -1571,7 +1568,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1585,8 +1582,8 @@
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
+      <c r="J12">
+        <v>3860032.27064468</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1594,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>20457</v>
@@ -1603,7 +1600,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1617,8 +1614,8 @@
       <c r="I13">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
-        <v>135</v>
+      <c r="J13">
+        <v>3059058.228987825</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1626,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1635,7 +1632,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1649,8 +1646,8 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" t="s">
-        <v>136</v>
+      <c r="J14">
+        <v>3142515.846107772</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1658,16 +1655,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>6.108402061855669</v>
+        <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1681,8 +1678,8 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" t="s">
-        <v>137</v>
+      <c r="J15">
+        <v>4522964.437644095</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1690,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1699,7 +1696,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1713,8 +1710,8 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" t="s">
-        <v>138</v>
+      <c r="J16">
+        <v>3662634.134160224</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1722,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -1731,7 +1728,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1745,8 +1742,8 @@
       <c r="I17">
         <v>100</v>
       </c>
-      <c r="J17" t="s">
-        <v>139</v>
+      <c r="J17">
+        <v>3351059.927308201</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1754,16 +1751,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103094</v>
+        <v>2.562355670103092</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1777,8 +1774,8 @@
       <c r="I18">
         <v>100</v>
       </c>
-      <c r="J18" t="s">
-        <v>140</v>
+      <c r="J18">
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1786,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -1795,7 +1792,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1809,8 +1806,8 @@
       <c r="I19">
         <v>100</v>
       </c>
-      <c r="J19" t="s">
-        <v>141</v>
+      <c r="J19">
+        <v>3358308.48673273</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1818,16 +1815,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670105</v>
+        <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1841,8 +1838,8 @@
       <c r="I20">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
-        <v>142</v>
+      <c r="J20">
+        <v>4251106.766759329</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1850,16 +1847,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>3.284257731958763</v>
+        <v>3.284257731958761</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1873,8 +1870,8 @@
       <c r="I21">
         <v>100</v>
       </c>
-      <c r="J21" t="s">
-        <v>143</v>
+      <c r="J21">
+        <v>3892301.737650325</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1882,16 +1879,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762889</v>
+        <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1905,8 +1902,8 @@
       <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22" t="s">
-        <v>144</v>
+      <c r="J22">
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1914,7 +1911,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>22145</v>
@@ -1923,7 +1920,7 @@
         <v>2.562355670103093</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1937,8 +1934,8 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" t="s">
-        <v>140</v>
+      <c r="J23">
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1946,7 +1943,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>24114</v>
@@ -1955,7 +1952,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1969,8 +1966,8 @@
       <c r="I24">
         <v>100</v>
       </c>
-      <c r="J24" t="s">
-        <v>145</v>
+      <c r="J24">
+        <v>2946266.794435292</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1978,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -1987,7 +1984,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2001,8 +1998,8 @@
       <c r="I25">
         <v>100</v>
       </c>
-      <c r="J25" t="s">
-        <v>146</v>
+      <c r="J25">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2010,7 +2007,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>28237</v>
@@ -2019,7 +2016,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2033,8 +2030,8 @@
       <c r="I26">
         <v>100</v>
       </c>
-      <c r="J26" t="s">
-        <v>147</v>
+      <c r="J26">
+        <v>4167435.864813926</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2042,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>28237</v>
@@ -2051,7 +2048,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2065,8 +2062,8 @@
       <c r="I27">
         <v>100</v>
       </c>
-      <c r="J27" t="s">
-        <v>148</v>
+      <c r="J27">
+        <v>3506650.390632065</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2074,7 +2071,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -2083,7 +2080,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2097,8 +2094,8 @@
       <c r="I28">
         <v>100</v>
       </c>
-      <c r="J28" t="s">
-        <v>149</v>
+      <c r="J28">
+        <v>5015195.456029908</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2106,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -2115,7 +2112,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2129,8 +2126,8 @@
       <c r="I29">
         <v>100</v>
       </c>
-      <c r="J29" t="s">
-        <v>150</v>
+      <c r="J29">
+        <v>3115469.701891457</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2138,7 +2135,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -2147,7 +2144,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2161,8 +2158,8 @@
       <c r="I30">
         <v>100</v>
       </c>
-      <c r="J30" t="s">
-        <v>151</v>
+      <c r="J30">
+        <v>3431616.232505888</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2170,22 +2167,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>1.158216494845361</v>
+        <v>0.8726288659793813</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2723021.589861078</v>
+        <v>2051752.656756106</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2193,8 +2190,8 @@
       <c r="I31">
         <v>100</v>
       </c>
-      <c r="J31" t="s">
-        <v>152</v>
+      <c r="J31">
+        <v>2824291.034417088</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2202,22 +2199,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>8.012319587628866</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>18801918.17235561</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2225,8 +2222,8 @@
       <c r="I32">
         <v>100</v>
       </c>
-      <c r="J32" t="s">
-        <v>153</v>
+      <c r="J32">
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2234,22 +2231,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D33">
-        <v>1.182015463917526</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>2778955.910854831</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2257,8 +2254,8 @@
       <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33" t="s">
-        <v>154</v>
+      <c r="J33">
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2266,22 +2263,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D34">
-        <v>9.04360824742268</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>21215963.57252571</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2289,8 +2286,8 @@
       <c r="I34">
         <v>100</v>
       </c>
-      <c r="J34" t="s">
-        <v>155</v>
+      <c r="J34">
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2298,22 +2295,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D35">
-        <v>3.054201030927835</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>7176830.63573128</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2321,8 +2318,8 @@
       <c r="I35">
         <v>100</v>
       </c>
-      <c r="J35" t="s">
-        <v>156</v>
+      <c r="J35">
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2330,22 +2327,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C36">
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.269278350515464</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>2984042.160773337</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2353,8 +2350,8 @@
       <c r="I36">
         <v>100</v>
       </c>
-      <c r="J36" t="s">
-        <v>157</v>
+      <c r="J36">
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2362,31 +2359,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C37">
-        <v>31226</v>
+        <v>49824</v>
       </c>
       <c r="D37">
-        <v>1.30101030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G37">
-        <v>3058616.539902832</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H37">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
-      <c r="J37" t="s">
-        <v>158</v>
+      <c r="J37">
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2394,22 +2391,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C38">
-        <v>31319</v>
+        <v>31226</v>
       </c>
       <c r="D38">
-        <v>4.894654639175258</v>
+        <v>1.30101030927835</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
       <c r="G38">
-        <v>11495757.65683257</v>
+        <v>3058616.539902832</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
@@ -2417,8 +2414,8 @@
       <c r="I38">
         <v>100</v>
       </c>
-      <c r="J38" t="s">
-        <v>159</v>
+      <c r="J38">
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2426,22 +2423,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>31789</v>
+        <v>31319</v>
       </c>
       <c r="D39">
-        <v>3.300123711340206</v>
+        <v>4.894654639175258</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
       <c r="G39">
-        <v>7754181.439418147</v>
+        <v>11495757.65683257</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
@@ -2449,8 +2446,8 @@
       <c r="I39">
         <v>100</v>
       </c>
-      <c r="J39" t="s">
-        <v>160</v>
+      <c r="J39">
+        <v>4286880.992309345</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2458,31 +2455,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C40">
-        <v>38239</v>
+        <v>31789</v>
       </c>
       <c r="D40">
-        <v>11.52</v>
+        <v>3.300123711340206</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G40">
-        <v>27007138.60142434</v>
+        <v>7754181.439418147</v>
       </c>
       <c r="H40">
-        <v>38255392.02166688</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40" t="s">
-        <v>146</v>
+      <c r="J40">
+        <v>3896843.850100604</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2490,31 +2487,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C41">
-        <v>31061</v>
+        <v>38239</v>
       </c>
       <c r="D41">
-        <v>2.625819587628866</v>
+        <v>11.52</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>6170936.453752637</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H41">
-        <v>38441090.93970785</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
-      <c r="J41" t="s">
-        <v>161</v>
+      <c r="J41">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2522,31 +2519,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C42">
-        <v>33106</v>
+        <v>31061</v>
       </c>
       <c r="D42">
-        <v>1.832520618556701</v>
+        <v>2.625819587628866</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F42">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G42">
-        <v>4307544.049353574</v>
+        <v>6170936.453752637</v>
       </c>
       <c r="H42">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
-      <c r="J42" t="s">
-        <v>162</v>
+      <c r="J42">
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2554,22 +2551,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>33332</v>
+        <v>33106</v>
       </c>
       <c r="D43">
-        <v>2.046711340206185</v>
+        <v>1.832520618556702</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F43">
         <v>2.3</v>
       </c>
       <c r="G43">
-        <v>4810740.062798683</v>
+        <v>4307544.049353574</v>
       </c>
       <c r="H43">
         <v>38785844.374162</v>
@@ -2577,8 +2574,8 @@
       <c r="I43">
         <v>100</v>
       </c>
-      <c r="J43" t="s">
-        <v>163</v>
+      <c r="J43">
+        <v>3379765.097364126</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2586,22 +2583,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C44">
-        <v>33609</v>
+        <v>33332</v>
       </c>
       <c r="D44">
-        <v>3.078</v>
+        <v>2.046711340206186</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44">
-        <v>7232706.703717464</v>
+        <v>4810740.062798683</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
@@ -2609,8 +2606,8 @@
       <c r="I44">
         <v>100</v>
       </c>
-      <c r="J44" t="s">
-        <v>164</v>
+      <c r="J44">
+        <v>3471397.820165223</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2618,22 +2615,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C45">
-        <v>38372</v>
+        <v>33609</v>
       </c>
       <c r="D45">
-        <v>3.546046391752578</v>
+        <v>3.078</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45">
-        <v>8331454.23855985</v>
+        <v>7232706.703717464</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
@@ -2641,8 +2638,8 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" t="s">
-        <v>165</v>
+      <c r="J45">
+        <v>3831684.085287054</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2650,22 +2647,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C46">
-        <v>38723</v>
+        <v>38372</v>
       </c>
       <c r="D46">
-        <v>2.665484536082475</v>
+        <v>3.546046391752578</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F46">
         <v>2.3</v>
       </c>
       <c r="G46">
-        <v>6264084.751326288</v>
+        <v>8331454.23855985</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
@@ -2673,8 +2670,8 @@
       <c r="I46">
         <v>100</v>
       </c>
-      <c r="J46" t="s">
-        <v>166</v>
+      <c r="J46">
+        <v>3965215.892681056</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2682,22 +2679,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C47">
-        <v>39596</v>
+        <v>38723</v>
       </c>
       <c r="D47">
-        <v>11.52</v>
+        <v>2.665484536082474</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F47">
         <v>2.3</v>
       </c>
       <c r="G47">
-        <v>27007138.60142434</v>
+        <v>6264084.751326288</v>
       </c>
       <c r="H47">
         <v>38785844.374162</v>
@@ -2705,8 +2702,8 @@
       <c r="I47">
         <v>100</v>
       </c>
-      <c r="J47" t="s">
-        <v>146</v>
+      <c r="J47">
+        <v>3700552.097367561</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2714,31 +2711,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C48">
-        <v>58710</v>
+        <v>39596</v>
       </c>
       <c r="D48">
-        <v>6.39398969072165</v>
+        <v>11.52</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G48">
-        <v>15010968.32739887</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H48">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
-      <c r="J48" t="s">
-        <v>167</v>
+      <c r="J48">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2746,31 +2743,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C49">
-        <v>37355</v>
+        <v>58710</v>
       </c>
       <c r="D49">
-        <v>8.091649484536084</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F49">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G49">
-        <v>18987662.48066654</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H49">
-        <v>39635749.05499732</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
-      <c r="J49" t="s">
-        <v>168</v>
+      <c r="J49">
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2778,31 +2775,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C50">
-        <v>45329</v>
+        <v>37355</v>
       </c>
       <c r="D50">
-        <v>4.910520618556701</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G50">
-        <v>11532970.80719121</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H50">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
-      <c r="J50" t="s">
-        <v>169</v>
+      <c r="J50">
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2810,22 +2807,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C51">
-        <v>45699</v>
+        <v>45329</v>
       </c>
       <c r="D51">
-        <v>5.307170103092785</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>12463194.18863161</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H51">
         <v>39754521.5981693</v>
@@ -2833,8 +2830,8 @@
       <c r="I51">
         <v>100</v>
       </c>
-      <c r="J51" t="s">
-        <v>170</v>
+      <c r="J51">
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2842,22 +2839,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>45772</v>
+        <v>45699</v>
       </c>
       <c r="D52">
-        <v>11.52</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52">
-        <v>27007138.60142434</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H52">
         <v>39754521.5981693</v>
@@ -2865,8 +2862,8 @@
       <c r="I52">
         <v>100</v>
       </c>
-      <c r="J52" t="s">
-        <v>146</v>
+      <c r="J52">
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2874,16 +2871,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C53">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D53">
         <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -2897,8 +2894,8 @@
       <c r="I53">
         <v>100</v>
       </c>
-      <c r="J53" t="s">
-        <v>146</v>
+      <c r="J53">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2906,22 +2903,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C54">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D54">
-        <v>9.122938144329899</v>
+        <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
       <c r="G54">
-        <v>21401602.79478948</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H54">
         <v>39754521.5981693</v>
@@ -2929,8 +2926,8 @@
       <c r="I54">
         <v>100</v>
       </c>
-      <c r="J54" t="s">
-        <v>171</v>
+      <c r="J54">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2938,22 +2935,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C55">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D55">
-        <v>5.545159793814434</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>13021230.96247917</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H55">
         <v>39754521.5981693</v>
@@ -2961,8 +2958,8 @@
       <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55" t="s">
-        <v>172</v>
+      <c r="J55">
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2970,22 +2967,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C56">
-        <v>47053</v>
+        <v>46049</v>
       </c>
       <c r="D56">
-        <v>4.505938144329945</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>10583934.16780851</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
@@ -2993,8 +2990,8 @@
       <c r="I56">
         <v>100</v>
       </c>
-      <c r="J56" t="s">
-        <v>173</v>
+      <c r="J56">
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3002,7 +2999,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C57">
         <v>47166</v>
@@ -3011,7 +3008,7 @@
         <v>11.52</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -3025,8 +3022,8 @@
       <c r="I57">
         <v>100</v>
       </c>
-      <c r="J57" t="s">
-        <v>146</v>
+      <c r="J57">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3034,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C58">
         <v>47166</v>
@@ -3043,7 +3040,7 @@
         <v>11.52</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -3057,8 +3054,8 @@
       <c r="I58">
         <v>100</v>
       </c>
-      <c r="J58" t="s">
-        <v>146</v>
+      <c r="J58">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3066,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C59">
         <v>47166</v>
@@ -3075,7 +3072,7 @@
         <v>10.07489690721649</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3089,8 +3086,8 @@
       <c r="I59">
         <v>100</v>
       </c>
-      <c r="J59" t="s">
-        <v>174</v>
+      <c r="J59">
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3098,7 +3095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C60">
         <v>47166</v>
@@ -3107,7 +3104,7 @@
         <v>7.528407216494846</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -3121,8 +3118,8 @@
       <c r="I60">
         <v>100</v>
       </c>
-      <c r="J60" t="s">
-        <v>175</v>
+      <c r="J60">
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3130,7 +3127,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C61">
         <v>47259</v>
@@ -3139,7 +3136,7 @@
         <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3153,8 +3150,8 @@
       <c r="I61">
         <v>100</v>
       </c>
-      <c r="J61" t="s">
-        <v>146</v>
+      <c r="J61">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3162,7 +3159,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C62">
         <v>47495</v>
@@ -3171,7 +3168,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -3185,8 +3182,8 @@
       <c r="I62">
         <v>100</v>
       </c>
-      <c r="J62" t="s">
-        <v>167</v>
+      <c r="J62">
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3194,16 +3191,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>42489</v>
       </c>
       <c r="D63">
-        <v>11.52</v>
+        <v>11.51999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F63">
         <v>3.2</v>
@@ -3217,8 +3214,8 @@
       <c r="I63">
         <v>100</v>
       </c>
-      <c r="J63" t="s">
-        <v>146</v>
+      <c r="J63">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3226,16 +3223,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C64">
         <v>15562</v>
       </c>
       <c r="D64">
-        <v>11.08119092886987</v>
+        <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F64">
         <v>3.4</v>
@@ -3249,8 +3246,8 @@
       <c r="I64">
         <v>100</v>
       </c>
-      <c r="J64" t="s">
-        <v>146</v>
+      <c r="J64">
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3258,16 +3255,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C65">
         <v>6886</v>
       </c>
       <c r="D65">
-        <v>11.52</v>
+        <v>11.37741958650125</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F65">
         <v>3.5</v>
@@ -3281,104 +3278,8 @@
       <c r="I65">
         <v>100</v>
       </c>
-      <c r="J65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66">
-        <v>50226</v>
-      </c>
-      <c r="D66">
-        <v>11.52</v>
-      </c>
-      <c r="E66" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66">
-        <v>3.5</v>
-      </c>
-      <c r="G66">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H66">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I66">
-        <v>100</v>
-      </c>
-      <c r="J66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67">
-        <v>50389</v>
-      </c>
-      <c r="D67">
-        <v>11.52</v>
-      </c>
-      <c r="E67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F67">
-        <v>3.5</v>
-      </c>
-      <c r="G67">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H67">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I67">
-        <v>100</v>
-      </c>
-      <c r="J67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68">
-        <v>50389</v>
-      </c>
-      <c r="D68">
-        <v>11.52</v>
-      </c>
-      <c r="E68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68">
-        <v>3.5</v>
-      </c>
-      <c r="G68">
-        <v>27007138.60142434</v>
-      </c>
-      <c r="H68">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I68">
-        <v>100</v>
-      </c>
-      <c r="J68" t="s">
-        <v>146</v>
+      <c r="J65">
+        <v>5273515.054654035</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
   <si>
     <t>Total Cost</t>
   </si>
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -326,9 +326,6 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -383,6 +383,9 @@
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
+    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
+  </si>
+  <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
+    <t>DK Recycling und Roheisen GmbH</t>
+  </si>
+  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -416,6 +422,9 @@
     <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
   </si>
   <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
+  </si>
+  <si>
     <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
@@ -426,9 +435,6 @@
   </si>
   <si>
     <t>CEMEX Zement GmbH</t>
-  </si>
-  <si>
-    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13567537369.02723</v>
+        <v>13567275360.45065</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1090,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>5.048873565027988e-18</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5.048873565027988e-18</v>
       </c>
       <c r="AI2">
         <v>321.227980977466</v>
@@ -1174,22 +1180,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>858</v>
+      </c>
+      <c r="BJ2">
+        <v>130.3</v>
+      </c>
+      <c r="BK2">
+        <v>7.5</v>
+      </c>
+      <c r="BL2">
         <v>414.5</v>
       </c>
-      <c r="BJ2">
+      <c r="BM2">
         <v>24.2</v>
       </c>
-      <c r="BK2">
-        <v>858</v>
-      </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>120</v>
-      </c>
-      <c r="BM2">
-        <v>130.3</v>
-      </c>
-      <c r="BN2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1254,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1280,7 +1286,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1312,7 +1318,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1344,7 +1350,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1376,7 +1382,7 @@
         <v>1.166149484536083</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1405,10 +1411,10 @@
         <v>25566</v>
       </c>
       <c r="D7">
-        <v>9.281597938144325</v>
+        <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1440,7 +1446,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1472,7 +1478,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1504,7 +1510,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1536,7 +1542,7 @@
         <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1568,7 +1574,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1600,7 +1606,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1632,7 +1638,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1664,7 +1670,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1696,7 +1702,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1728,7 +1734,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1757,10 +1763,10 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103092</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1792,7 +1798,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1821,10 +1827,10 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670104</v>
+        <v>4.728061855670103</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1856,7 +1862,7 @@
         <v>3.284257731958761</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1888,7 +1894,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1917,10 +1923,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1952,7 +1958,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1984,7 +1990,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2016,7 +2022,7 @@
         <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2048,7 +2054,7 @@
         <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2080,7 +2086,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2112,7 +2118,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2144,7 +2150,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2170,19 +2176,19 @@
         <v>103</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>0.8726288659793813</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2051752.656756106</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2191,7 +2197,7 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>2824291.034417088</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2202,19 +2208,19 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>1.158216494845361</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>2723021.589861078</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2223,7 +2229,7 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>3024585.102161352</v>
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2234,19 +2240,19 @@
         <v>105</v>
       </c>
       <c r="C33">
-        <v>49525</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>8.012319587628866</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>18801918.17235561</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2255,7 +2261,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>4829900.566914583</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2266,19 +2272,19 @@
         <v>106</v>
       </c>
       <c r="C34">
-        <v>49536</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>1.182015463917526</v>
+        <v>9.043608247422679</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>2778955.910854831</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2287,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="J34">
-        <v>3039509.425943215</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2298,19 +2304,19 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>49808</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>9.04360824742268</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>21215963.57252571</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2319,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>4973514.536159209</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2333,16 +2339,16 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.054201030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>7176830.63573128</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2351,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="J36">
-        <v>3824493.385265881</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2362,28 +2368,28 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>31171</v>
       </c>
       <c r="D37">
-        <v>1.269278350515464</v>
+        <v>0.9598917525773196</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G37">
-        <v>2984042.160773337</v>
+        <v>2256873.78961794</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>3092355.773228031</v>
+        <v>2890190.553294488</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2400,7 +2406,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2432,7 +2438,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2464,7 +2470,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40">
         <v>1.9</v>
@@ -2496,7 +2502,7 @@
         <v>11.52</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2528,7 +2534,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F42">
         <v>2.1</v>
@@ -2557,10 +2563,10 @@
         <v>33106</v>
       </c>
       <c r="D43">
-        <v>1.832520618556702</v>
+        <v>1.832520618556701</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>2.3</v>
@@ -2592,7 +2598,7 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -2624,7 +2630,7 @@
         <v>3.078</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45">
         <v>2.3</v>
@@ -2656,7 +2662,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -2685,10 +2691,10 @@
         <v>38723</v>
       </c>
       <c r="D47">
-        <v>2.665484536082474</v>
+        <v>2.665484536082475</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -2720,7 +2726,7 @@
         <v>11.52</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -2752,7 +2758,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49">
         <v>2.5</v>
@@ -2778,28 +2784,28 @@
         <v>122</v>
       </c>
       <c r="C50">
-        <v>37355</v>
+        <v>37218</v>
       </c>
       <c r="D50">
-        <v>8.091649484536084</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G50">
-        <v>18987662.48066654</v>
+        <v>6971945.468368442</v>
       </c>
       <c r="H50">
-        <v>39635749.05499732</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>4841430.024186624</v>
+        <v>3797758.507656866</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2810,28 +2816,28 @@
         <v>123</v>
       </c>
       <c r="C51">
-        <v>45329</v>
+        <v>37355</v>
       </c>
       <c r="D51">
-        <v>4.910520618556702</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G51">
-        <v>11532970.80719121</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H51">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>4290239.673387973</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2842,19 +2848,19 @@
         <v>124</v>
       </c>
       <c r="C52">
-        <v>45699</v>
+        <v>45329</v>
       </c>
       <c r="D52">
-        <v>5.307170103092785</v>
+        <v>4.910520618556702</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52">
-        <v>12463194.18863161</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H52">
         <v>39754521.5981693</v>
@@ -2863,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>4371651.546027265</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2874,19 +2880,19 @@
         <v>125</v>
       </c>
       <c r="C53">
-        <v>45772</v>
+        <v>45699</v>
       </c>
       <c r="D53">
-        <v>11.52</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53">
-        <v>27007138.60142434</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H53">
         <v>39754521.5981693</v>
@@ -2895,7 +2901,7 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <v>5273515.054654035</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2906,13 +2912,13 @@
         <v>126</v>
       </c>
       <c r="C54">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D54">
         <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -2938,19 +2944,19 @@
         <v>127</v>
       </c>
       <c r="C55">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D55">
-        <v>9.122938144329899</v>
+        <v>11.52</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>21401602.79478948</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H55">
         <v>39754521.5981693</v>
@@ -2959,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="J55">
-        <v>4984037.426968283</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2970,19 +2976,19 @@
         <v>128</v>
       </c>
       <c r="C56">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D56">
-        <v>5.545159793814434</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>13021230.96247917</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
@@ -2991,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="J56">
-        <v>4418307.05254629</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3002,19 +3008,19 @@
         <v>129</v>
       </c>
       <c r="C57">
-        <v>47166</v>
+        <v>46049</v>
       </c>
       <c r="D57">
-        <v>11.52</v>
+        <v>5.545159793814403</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="G57">
-        <v>27007138.60142434</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
@@ -3023,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>5273515.054654035</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3034,19 +3040,19 @@
         <v>130</v>
       </c>
       <c r="C58">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D58">
-        <v>11.52</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58">
-        <v>27007138.60142434</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
@@ -3055,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="J58">
-        <v>5273515.054654035</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3069,16 +3075,16 @@
         <v>47166</v>
       </c>
       <c r="D59">
-        <v>10.07489690721649</v>
+        <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>23628643.36424644</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
@@ -3087,7 +3093,7 @@
         <v>100</v>
       </c>
       <c r="J59">
-        <v>5105201.851214484</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3101,16 +3107,16 @@
         <v>47166</v>
       </c>
       <c r="D60">
-        <v>7.528407216494846</v>
+        <v>11.52</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>17668702.74772677</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
@@ -3119,7 +3125,7 @@
         <v>100</v>
       </c>
       <c r="J60">
-        <v>4757631.938664145</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3130,19 +3136,19 @@
         <v>133</v>
       </c>
       <c r="C61">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D61">
-        <v>11.52</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>27007138.60142434</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
@@ -3151,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="J61">
-        <v>5273515.054654035</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3162,19 +3168,19 @@
         <v>134</v>
       </c>
       <c r="C62">
-        <v>47495</v>
+        <v>47166</v>
       </c>
       <c r="D62">
-        <v>6.39398969072165</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>15010968.32739887</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
@@ -3183,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="J62">
-        <v>4573255.840545377</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3194,28 +3200,28 @@
         <v>135</v>
       </c>
       <c r="C63">
-        <v>42489</v>
+        <v>47166</v>
       </c>
       <c r="D63">
-        <v>11.51999999999999</v>
+        <v>3.879231958762886</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F63">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>27007138.60142434</v>
+        <v>9113441.365831105</v>
       </c>
       <c r="H63">
-        <v>39975550.38970821</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>5273515.054654035</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3226,22 +3232,22 @@
         <v>136</v>
       </c>
       <c r="C64">
-        <v>15562</v>
+        <v>47259</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F64">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>27007138.60142434</v>
       </c>
       <c r="H64">
-        <v>40176551.31533918</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -3258,27 +3264,91 @@
         <v>137</v>
       </c>
       <c r="C65">
-        <v>6886</v>
+        <v>47495</v>
       </c>
       <c r="D65">
-        <v>11.37741958650125</v>
+        <v>6.393989690721648</v>
       </c>
       <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>15010968.32739887</v>
+      </c>
+      <c r="H65">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>4573255.840545377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>138</v>
       </c>
-      <c r="F65">
-        <v>3.5</v>
-      </c>
-      <c r="G65">
+      <c r="C66">
+        <v>42489</v>
+      </c>
+      <c r="D66">
+        <v>11.52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66">
+        <v>3.2</v>
+      </c>
+      <c r="G66">
         <v>27007138.60142434</v>
       </c>
-      <c r="H65">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I65">
-        <v>100</v>
-      </c>
-      <c r="J65">
+      <c r="H66">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>15562</v>
+      </c>
+      <c r="D67">
+        <v>11.45804845248064</v>
+      </c>
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67">
+        <v>3.4</v>
+      </c>
+      <c r="G67">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H67">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
         <v>5273515.054654035</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
   <si>
     <t>Total Cost</t>
   </si>
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
+    <t>tkm-N1Usage</t>
   </si>
   <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -326,9 +326,6 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -383,6 +383,9 @@
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
+    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
+  </si>
+  <si>
     <t>Deuna Zement GmbH</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
+    <t>DK Recycling und Roheisen GmbH</t>
+  </si>
+  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
@@ -416,6 +422,9 @@
     <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
   </si>
   <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
+  </si>
+  <si>
     <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
@@ -426,9 +435,6 @@
   </si>
   <si>
     <t>CEMEX Zement GmbH</t>
-  </si>
-  <si>
-    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -997,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13567537369.02723</v>
+        <v>13567275360.45065</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>95.99999999999997</v>
       </c>
       <c r="D2">
         <v>1190.511948111309</v>
@@ -1012,10 +1018,10 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>330.4949195865013</v>
+        <v>330.4949195865016</v>
       </c>
       <c r="H2">
-        <v>33.82257948984662</v>
+        <v>33.82257948984665</v>
       </c>
       <c r="I2">
         <v>858.4615384615383</v>
@@ -1030,13 +1036,13 @@
         <v>120</v>
       </c>
       <c r="M2">
-        <v>248.7145732819791</v>
+        <v>248.7145732819787</v>
       </c>
       <c r="N2">
-        <v>80.88278805918021</v>
+        <v>80.88278805918009</v>
       </c>
       <c r="O2">
-        <v>167.8317852227989</v>
+        <v>167.8317852227987</v>
       </c>
       <c r="P2">
         <v>154.0911111111111</v>
@@ -1069,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>278.3115112307378</v>
+        <v>278.3115112307381</v>
       </c>
       <c r="AA2">
-        <v>86.00598784560998</v>
+        <v>86.00598784561005</v>
       </c>
       <c r="AB2">
-        <v>192.3055233851279</v>
+        <v>192.305523385128</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1096,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>321.227980977466</v>
+        <v>321.2279809774659</v>
       </c>
       <c r="AJ2">
-        <v>321.227980977466</v>
+        <v>321.2279809774659</v>
       </c>
       <c r="AK2">
         <v>450.772019022534</v>
@@ -1162,7 +1168,7 @@
         <v>41.45</v>
       </c>
       <c r="BE2">
-        <v>406.8887759047902</v>
+        <v>406.8887759047901</v>
       </c>
       <c r="BF2">
         <v>1074.598847069465</v>
@@ -1174,22 +1180,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>24.2</v>
+      </c>
+      <c r="BJ2">
+        <v>120</v>
+      </c>
+      <c r="BK2">
+        <v>857.9999999999999</v>
+      </c>
+      <c r="BL2">
         <v>414.5</v>
       </c>
-      <c r="BJ2">
-        <v>24.2</v>
-      </c>
-      <c r="BK2">
-        <v>858</v>
-      </c>
-      <c r="BL2">
-        <v>120</v>
-      </c>
       <c r="BM2">
+        <v>7.5</v>
+      </c>
+      <c r="BN2">
         <v>130.3</v>
-      </c>
-      <c r="BN2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1254,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1280,7 +1286,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1312,7 +1318,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1344,7 +1350,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1373,10 +1379,10 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>1.166149484536083</v>
+        <v>1.166149484536082</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1405,10 +1411,10 @@
         <v>25566</v>
       </c>
       <c r="D7">
-        <v>9.281597938144325</v>
+        <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1440,7 +1446,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1472,7 +1478,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1504,7 +1510,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1533,10 +1539,10 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.15777319587629</v>
+        <v>2.157773195876289</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1568,7 +1574,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1600,7 +1606,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1632,7 +1638,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1664,7 +1670,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1696,7 +1702,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1728,7 +1734,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1757,10 +1763,10 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103092</v>
+        <v>2.562355670103093</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1792,7 +1798,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1824,7 +1830,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1853,10 +1859,10 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>3.284257731958761</v>
+        <v>3.284257731958762</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1888,7 +1894,7 @@
         <v>3.879231958762888</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1917,10 +1923,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1952,7 +1958,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1984,7 +1990,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2013,10 +2019,10 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>4.355211340206187</v>
+        <v>4.35521134020618</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2045,10 +2051,10 @@
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.133974226804124</v>
+        <v>2.1339742268041</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2080,7 +2086,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2112,7 +2118,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2144,7 +2150,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2170,19 +2176,19 @@
         <v>103</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>0.8726288659793813</v>
+        <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2051752.656756106</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2191,7 +2197,7 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>2824291.034417088</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2202,19 +2208,19 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>1.158216494845361</v>
+        <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>2723021.589861078</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
@@ -2223,7 +2229,7 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>3024585.102161352</v>
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2234,19 +2240,19 @@
         <v>105</v>
       </c>
       <c r="C33">
-        <v>49525</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>8.012319587628866</v>
+        <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>18801918.17235561</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2255,7 +2261,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>4829900.566914583</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2266,19 +2272,19 @@
         <v>106</v>
       </c>
       <c r="C34">
-        <v>49536</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>1.182015463917526</v>
+        <v>9.043608247422679</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>2778955.910854831</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
@@ -2287,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="J34">
-        <v>3039509.425943215</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2298,19 +2304,19 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>49808</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>9.04360824742268</v>
+        <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>21215963.57252571</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
@@ -2319,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>4973514.536159209</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2333,16 +2339,16 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.054201030927835</v>
+        <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>7176830.63573128</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
@@ -2351,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="J36">
-        <v>3824493.385265881</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2362,28 +2368,28 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>31171</v>
       </c>
       <c r="D37">
-        <v>1.269278350515464</v>
+        <v>0.9598917525773194</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G37">
-        <v>2984042.160773337</v>
+        <v>2256873.78961794</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>3092355.773228031</v>
+        <v>2890190.553294488</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2400,7 +2406,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2432,7 +2438,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2464,7 +2470,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40">
         <v>1.9</v>
@@ -2496,7 +2502,7 @@
         <v>11.52</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2528,7 +2534,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F42">
         <v>2.1</v>
@@ -2560,7 +2566,7 @@
         <v>1.832520618556702</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>2.3</v>
@@ -2592,7 +2598,7 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -2624,7 +2630,7 @@
         <v>3.078</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45">
         <v>2.3</v>
@@ -2656,7 +2662,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -2685,10 +2691,10 @@
         <v>38723</v>
       </c>
       <c r="D47">
-        <v>2.665484536082474</v>
+        <v>2.665484536082475</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -2720,7 +2726,7 @@
         <v>11.52</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -2752,7 +2758,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49">
         <v>2.5</v>
@@ -2778,28 +2784,28 @@
         <v>122</v>
       </c>
       <c r="C50">
-        <v>37355</v>
+        <v>37218</v>
       </c>
       <c r="D50">
-        <v>8.091649484536084</v>
+        <v>2.966938144329896</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G50">
-        <v>18987662.48066654</v>
+        <v>6971945.468368442</v>
       </c>
       <c r="H50">
-        <v>39635749.05499732</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>4841430.024186624</v>
+        <v>3797758.507656866</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2810,28 +2816,28 @@
         <v>123</v>
       </c>
       <c r="C51">
-        <v>45329</v>
+        <v>37355</v>
       </c>
       <c r="D51">
-        <v>4.910520618556702</v>
+        <v>8.091649484536084</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G51">
-        <v>11532970.80719121</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H51">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>4290239.673387973</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2842,19 +2848,19 @@
         <v>124</v>
       </c>
       <c r="C52">
-        <v>45699</v>
+        <v>45329</v>
       </c>
       <c r="D52">
-        <v>5.307170103092785</v>
+        <v>4.910520618556698</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52">
-        <v>12463194.18863161</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H52">
         <v>39754521.5981693</v>
@@ -2863,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>4371651.546027265</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2874,19 +2880,19 @@
         <v>125</v>
       </c>
       <c r="C53">
-        <v>45772</v>
+        <v>45699</v>
       </c>
       <c r="D53">
-        <v>11.52</v>
+        <v>5.307170103092782</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53">
-        <v>27007138.60142434</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H53">
         <v>39754521.5981693</v>
@@ -2895,7 +2901,7 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <v>5273515.054654035</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2906,13 +2912,13 @@
         <v>126</v>
       </c>
       <c r="C54">
-        <v>45896</v>
+        <v>45772</v>
       </c>
       <c r="D54">
         <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -2938,19 +2944,19 @@
         <v>127</v>
       </c>
       <c r="C55">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="D55">
-        <v>9.122938144329899</v>
+        <v>11.52</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>21401602.79478948</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H55">
         <v>39754521.5981693</v>
@@ -2959,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="J55">
-        <v>4984037.426968283</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2970,19 +2976,19 @@
         <v>128</v>
       </c>
       <c r="C56">
-        <v>46049</v>
+        <v>45899</v>
       </c>
       <c r="D56">
-        <v>5.545159793814434</v>
+        <v>9.122938144329899</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>13021230.96247917</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
@@ -2991,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="J56">
-        <v>4418307.05254629</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3002,19 +3008,19 @@
         <v>129</v>
       </c>
       <c r="C57">
-        <v>47166</v>
+        <v>46049</v>
       </c>
       <c r="D57">
-        <v>11.52</v>
+        <v>5.545159793814434</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="G57">
-        <v>27007138.60142434</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
@@ -3023,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>5273515.054654035</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3034,19 +3040,19 @@
         <v>130</v>
       </c>
       <c r="C58">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D58">
-        <v>11.52</v>
+        <v>4.505938144329896</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58">
-        <v>27007138.60142434</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
@@ -3055,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="J58">
-        <v>5273515.054654035</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3069,16 +3075,16 @@
         <v>47166</v>
       </c>
       <c r="D59">
-        <v>10.07489690721649</v>
+        <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>23628643.36424644</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
@@ -3087,7 +3093,7 @@
         <v>100</v>
       </c>
       <c r="J59">
-        <v>5105201.851214484</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3101,16 +3107,16 @@
         <v>47166</v>
       </c>
       <c r="D60">
-        <v>7.528407216494846</v>
+        <v>11.52</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>17668702.74772677</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
@@ -3119,7 +3125,7 @@
         <v>100</v>
       </c>
       <c r="J60">
-        <v>4757631.938664145</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3130,19 +3136,19 @@
         <v>133</v>
       </c>
       <c r="C61">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D61">
-        <v>11.52</v>
+        <v>10.07489690721649</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>27007138.60142434</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
@@ -3151,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="J61">
-        <v>5273515.054654035</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3162,19 +3168,19 @@
         <v>134</v>
       </c>
       <c r="C62">
-        <v>47495</v>
+        <v>47166</v>
       </c>
       <c r="D62">
-        <v>6.39398969072165</v>
+        <v>7.528407216494846</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>15010968.32739887</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
@@ -3183,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="J62">
-        <v>4573255.840545377</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3194,28 +3200,28 @@
         <v>135</v>
       </c>
       <c r="C63">
-        <v>42489</v>
+        <v>47166</v>
       </c>
       <c r="D63">
-        <v>11.51999999999999</v>
+        <v>3.879231958762886</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F63">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>27007138.60142434</v>
+        <v>9113441.365831105</v>
       </c>
       <c r="H63">
-        <v>39975550.38970821</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>5273515.054654035</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3226,22 +3232,22 @@
         <v>136</v>
       </c>
       <c r="C64">
-        <v>15562</v>
+        <v>47259</v>
       </c>
       <c r="D64">
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F64">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>27007138.60142434</v>
       </c>
       <c r="H64">
-        <v>40176551.31533918</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -3258,27 +3264,91 @@
         <v>137</v>
       </c>
       <c r="C65">
-        <v>6886</v>
+        <v>47495</v>
       </c>
       <c r="D65">
-        <v>11.37741958650125</v>
+        <v>6.39398969072165</v>
       </c>
       <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>15010968.32739887</v>
+      </c>
+      <c r="H65">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>4573255.840545377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>138</v>
       </c>
-      <c r="F65">
-        <v>3.5</v>
-      </c>
-      <c r="G65">
+      <c r="C66">
+        <v>42489</v>
+      </c>
+      <c r="D66">
+        <v>11.52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66">
+        <v>3.2</v>
+      </c>
+      <c r="G66">
         <v>27007138.60142434</v>
       </c>
-      <c r="H65">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I65">
-        <v>100</v>
-      </c>
-      <c r="J65">
+      <c r="H66">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>5273515.054654035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>15562</v>
+      </c>
+      <c r="D67">
+        <v>11.45804845248085</v>
+      </c>
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67">
+        <v>3.4</v>
+      </c>
+      <c r="G67">
+        <v>27007138.60142434</v>
+      </c>
+      <c r="H67">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
         <v>5273515.054654035</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="143">
   <si>
     <t>Total Cost</t>
   </si>
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -230,13 +230,19 @@
     <t>K Value</t>
   </si>
   <si>
-    <t>H2 Opex</t>
-  </si>
-  <si>
-    <t>CO2 Opex</t>
-  </si>
-  <si>
-    <t>Indirect Opex</t>
+    <t>H2 Opex (per unit)</t>
+  </si>
+  <si>
+    <t>H2 Total Cost</t>
+  </si>
+  <si>
+    <t>CO2 Opex (per unit)</t>
+  </si>
+  <si>
+    <t>CO2 Total Cost</t>
+  </si>
+  <si>
+    <t>Indirect Opex (total)</t>
   </si>
   <si>
     <t>Sasol Germany GmbH</t>
@@ -1006,7 +1012,7 @@
         <v>13567275360.45065</v>
       </c>
       <c r="C2">
-        <v>95.99999999999997</v>
+        <v>95.99999999999999</v>
       </c>
       <c r="D2">
         <v>1190.511948111309</v>
@@ -1018,10 +1024,10 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>330.4949195865016</v>
+        <v>330.4949195865013</v>
       </c>
       <c r="H2">
-        <v>33.82257948984665</v>
+        <v>33.82257948984662</v>
       </c>
       <c r="I2">
         <v>858.4615384615383</v>
@@ -1036,13 +1042,13 @@
         <v>120</v>
       </c>
       <c r="M2">
-        <v>248.7145732819787</v>
+        <v>248.7145732819789</v>
       </c>
       <c r="N2">
-        <v>80.88278805918009</v>
+        <v>80.88278805918016</v>
       </c>
       <c r="O2">
-        <v>167.8317852227987</v>
+        <v>167.8317852227988</v>
       </c>
       <c r="P2">
         <v>154.0911111111111</v>
@@ -1075,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>278.3115112307381</v>
+        <v>278.3115112307378</v>
       </c>
       <c r="AA2">
-        <v>86.00598784561005</v>
+        <v>86.00598784560998</v>
       </c>
       <c r="AB2">
-        <v>192.305523385128</v>
+        <v>192.3055233851279</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1108,10 +1114,10 @@
         <v>321.2279809774659</v>
       </c>
       <c r="AK2">
-        <v>450.772019022534</v>
+        <v>450.7720190225339</v>
       </c>
       <c r="AL2">
-        <v>450.772019022534</v>
+        <v>450.7720190225339</v>
       </c>
       <c r="AM2">
         <v>6.75</v>
@@ -1180,22 +1186,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>120</v>
+      </c>
+      <c r="BJ2">
+        <v>7.5</v>
+      </c>
+      <c r="BK2">
+        <v>130.3</v>
+      </c>
+      <c r="BL2">
+        <v>857.9999999999998</v>
+      </c>
+      <c r="BM2">
         <v>24.2</v>
       </c>
-      <c r="BJ2">
-        <v>120</v>
-      </c>
-      <c r="BK2">
-        <v>857.9999999999999</v>
-      </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>414.5</v>
-      </c>
-      <c r="BM2">
-        <v>7.5</v>
-      </c>
-      <c r="BN2">
-        <v>130.3</v>
       </c>
     </row>
   </sheetData>
@@ -1205,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1239,13 +1245,19 @@
       <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -1254,7 +1266,7 @@
         <v>1.483469072164948</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1266,18 +1278,24 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>49446447.17474227</v>
       </c>
       <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>14.83469072164948</v>
+      </c>
+      <c r="L2">
         <v>3211279.34822684</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>25541</v>
@@ -1286,7 +1304,7 @@
         <v>1.316876288659794</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1298,18 +1316,24 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>43893637.59896907</v>
       </c>
       <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>13.16876288659794</v>
+      </c>
+      <c r="L3">
         <v>3120028.598903444</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>25572</v>
@@ -1318,7 +1342,7 @@
         <v>6.790639175257732</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1330,18 +1354,24 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>227006071.1951085</v>
       </c>
       <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>67.90639175257732</v>
+      </c>
+      <c r="L4">
         <v>4640353.526253123</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1350,7 +1380,7 @@
         <v>7.718798969072166</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1362,18 +1392,24 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>258033770.1785522</v>
       </c>
       <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>77.18798969072166</v>
+      </c>
+      <c r="L5">
         <v>4786474.22858194</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>26388</v>
@@ -1382,7 +1418,7 @@
         <v>1.166149484536082</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1394,18 +1430,24 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>38983519.23560859</v>
       </c>
       <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>11.66149484536082</v>
+      </c>
+      <c r="L6">
         <v>3029585.493423196</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>25566</v>
@@ -1414,7 +1456,7 @@
         <v>9.28159793814433</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1426,18 +1468,24 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>311947289.2043841</v>
       </c>
       <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>92.8159793814433</v>
+      </c>
+      <c r="L7">
         <v>5004876.854845014</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>26316</v>
@@ -1446,7 +1494,7 @@
         <v>2.35609793814433</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1458,18 +1506,24 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>79186619.56726673</v>
       </c>
       <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>23.5609793814433</v>
+      </c>
+      <c r="L8">
         <v>3591695.233391508</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>26954</v>
@@ -1478,7 +1532,7 @@
         <v>1.00748969072165</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1490,18 +1544,24 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>33860945.06748443</v>
       </c>
       <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>10.07489690721649</v>
+      </c>
+      <c r="L9">
         <v>2924239.357757165</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>27570</v>
@@ -1510,7 +1570,7 @@
         <v>2.26090206185567</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1522,27 +1582,33 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>75987160.19081151</v>
       </c>
       <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>22.6090206185567</v>
+      </c>
+      <c r="L10">
         <v>3556025.558079649</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.157773195876289</v>
+        <v>2.15777319587629</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1554,18 +1620,24 @@
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>74171461.74487484</v>
       </c>
       <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>21.5777319587629</v>
+      </c>
+      <c r="L11">
         <v>3516074.693055412</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>24534</v>
@@ -1574,7 +1646,7 @@
         <v>3.173195876288661</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1586,18 +1658,24 @@
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>110943450.6056614</v>
       </c>
       <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>31.73195876288661</v>
+      </c>
+      <c r="L12">
         <v>3860032.27064468</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>20457</v>
@@ -1606,7 +1684,7 @@
         <v>1.213747422680412</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1618,18 +1696,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>42617258.66392379</v>
       </c>
       <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>12.13747422680412</v>
+      </c>
+      <c r="L13">
         <v>3059058.228987825</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1638,7 +1722,7 @@
         <v>1.356541237113402</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1650,18 +1734,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>47631053.80085601</v>
       </c>
       <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>13.56541237113402</v>
+      </c>
+      <c r="L14">
         <v>3142515.846107772</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>21079</v>
@@ -1670,7 +1760,7 @@
         <v>6.108402061855671</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1682,18 +1772,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>214479014.1909891</v>
       </c>
       <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>61.08402061855671</v>
+      </c>
+      <c r="L15">
         <v>4522964.437644095</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1702,7 +1798,7 @@
         <v>2.554422680412372</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1714,18 +1810,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>89691224.1162318</v>
       </c>
       <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>25.54422680412372</v>
+      </c>
+      <c r="L16">
         <v>3662634.134160224</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -1734,7 +1836,7 @@
         <v>1.769056701030928</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1746,27 +1848,33 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>62115350.86310463</v>
       </c>
       <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>17.69056701030928</v>
+      </c>
+      <c r="L17">
         <v>3351059.927308201</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103093</v>
+        <v>2.562355670103094</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1778,18 +1886,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>89969768.29050583</v>
       </c>
       <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>25.62355670103094</v>
+      </c>
+      <c r="L18">
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -1798,7 +1912,7 @@
         <v>1.784922680412372</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1810,18 +1924,24 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>62672439.21165267</v>
       </c>
       <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>17.84922680412372</v>
+      </c>
+      <c r="L19">
         <v>3358308.48673273</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>21683</v>
@@ -1830,7 +1950,7 @@
         <v>4.728061855670104</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1842,27 +1962,33 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>166012327.8673111</v>
       </c>
       <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>47.28061855670104</v>
+      </c>
+      <c r="L20">
         <v>4251106.766759329</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>3.284257731958762</v>
+        <v>3.284257731958763</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -1874,27 +2000,33 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>115317288.1494409</v>
       </c>
       <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>32.84257731958763</v>
+      </c>
+      <c r="L21">
         <v>3892301.737650325</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762888</v>
+        <v>3.879231958762887</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -1906,27 +2038,33 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>136208101.2199918</v>
       </c>
       <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>38.79231958762887</v>
+      </c>
+      <c r="L22">
         <v>4052333.328712357</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103094</v>
+        <v>2.562355670103093</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -1938,18 +2076,24 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>90352299.31686766</v>
       </c>
       <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>25.62355670103093</v>
+      </c>
+      <c r="L23">
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>24114</v>
@@ -1958,7 +2102,7 @@
         <v>1.039221649484536</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -1970,18 +2114,24 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>36644430.99228998</v>
       </c>
       <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>10.39221649484536</v>
+      </c>
+      <c r="L24">
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -1990,7 +2140,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2002,27 +2152,33 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>406211557.6985601</v>
       </c>
       <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>115.2</v>
+      </c>
+      <c r="L25">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>4.35521134020618</v>
+        <v>4.355211340206187</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2034,27 +2190,33 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>153570935.9905894</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>43.55211340206188</v>
+      </c>
+      <c r="L26">
         <v>4167435.864813926</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.1339742268041</v>
+        <v>2.133974226804124</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2066,18 +2228,24 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>75246961.35058019</v>
       </c>
       <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>21.33974226804124</v>
+      </c>
+      <c r="L27">
         <v>3506650.390632065</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -2086,7 +2254,7 @@
         <v>9.360927835051548</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2098,18 +2266,24 @@
         <v>35849408.31499194</v>
       </c>
       <c r="I28">
-        <v>100</v>
+        <v>335583724.1659365</v>
       </c>
       <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>93.60927835051548</v>
+      </c>
+      <c r="L28">
         <v>5015195.456029908</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -2118,7 +2292,7 @@
         <v>1.308943298969072</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2130,18 +2304,24 @@
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>48343594.63265957</v>
       </c>
       <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>13.08943298969072</v>
+      </c>
+      <c r="L29">
         <v>3115469.701891457</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -2150,7 +2330,7 @@
         <v>1.951515463917526</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2162,18 +2342,24 @@
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>73456040.42593816</v>
       </c>
       <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>19.51515463917526</v>
+      </c>
+      <c r="L30">
         <v>3431616.232505888</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31">
         <v>49124</v>
@@ -2182,7 +2368,7 @@
         <v>1.158216494845361</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F31">
         <v>1.8</v>
@@ -2194,18 +2380,24 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>43844792.44791586</v>
       </c>
       <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>11.58216494845361</v>
+      </c>
+      <c r="L31">
         <v>3024585.102161352</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32">
         <v>49525</v>
@@ -2214,7 +2406,7 @@
         <v>8.012319587628866</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32">
         <v>1.8</v>
@@ -2226,18 +2418,24 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>303309865.5643494</v>
       </c>
       <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>80.12319587628866</v>
+      </c>
+      <c r="L32">
         <v>4829900.566914583</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33">
         <v>49536</v>
@@ -2246,7 +2444,7 @@
         <v>1.182015463917526</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F33">
         <v>1.8</v>
@@ -2258,27 +2456,33 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>44745712.84068125</v>
       </c>
       <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>11.82015463917526</v>
+      </c>
+      <c r="L33">
         <v>3039509.425943215</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34">
         <v>49808</v>
       </c>
       <c r="D34">
-        <v>9.043608247422679</v>
+        <v>9.04360824742268</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F34">
         <v>1.8</v>
@@ -2290,18 +2494,24 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>342349749.2508498</v>
       </c>
       <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>90.43608247422681</v>
+      </c>
+      <c r="L34">
         <v>4973514.536159209</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35">
         <v>49824</v>
@@ -2310,7 +2520,7 @@
         <v>3.054201030927835</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F35">
         <v>1.8</v>
@@ -2322,18 +2532,24 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>115618117.0715589</v>
       </c>
       <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>30.54201030927835</v>
+      </c>
+      <c r="L35">
         <v>3824493.385265881</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>49824</v>
@@ -2342,7 +2558,7 @@
         <v>1.269278350515464</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36">
         <v>1.8</v>
@@ -2354,27 +2570,33 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>48049087.61415436</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>12.69278350515464</v>
+      </c>
+      <c r="L36">
         <v>3092355.773228031</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>31171</v>
       </c>
       <c r="D37">
-        <v>0.9598917525773194</v>
+        <v>0.9598917525773196</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F37">
         <v>1.9</v>
@@ -2386,18 +2608,24 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>36533761.71514471</v>
       </c>
       <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>9.598917525773196</v>
+      </c>
+      <c r="L37">
         <v>2890190.553294488</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38">
         <v>31226</v>
@@ -2406,7 +2634,7 @@
         <v>1.30101030927835</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2418,18 +2646,24 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>49516834.06019612</v>
       </c>
       <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>13.0101030927835</v>
+      </c>
+      <c r="L38">
         <v>3110889.813225406</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39">
         <v>31319</v>
@@ -2438,7 +2672,7 @@
         <v>4.894654639175258</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2450,18 +2684,24 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>186291991.5557379</v>
       </c>
       <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>48.94654639175258</v>
+      </c>
+      <c r="L39">
         <v>4286880.992309345</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40">
         <v>31789</v>
@@ -2470,7 +2710,7 @@
         <v>3.300123711340206</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F40">
         <v>1.9</v>
@@ -2482,18 +2722,24 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>125603676.6404975</v>
       </c>
       <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>33.00123711340206</v>
+      </c>
+      <c r="L40">
         <v>3896843.850100604</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>38239</v>
@@ -2502,7 +2748,7 @@
         <v>11.52</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2514,18 +2760,24 @@
         <v>38255392.02166688</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>440702116.0896024</v>
       </c>
       <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>115.2</v>
+      </c>
+      <c r="L41">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>31061</v>
@@ -2534,7 +2786,7 @@
         <v>2.625819587628866</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F42">
         <v>2.1</v>
@@ -2546,27 +2798,33 @@
         <v>38441090.93970785</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>100939369.5593074</v>
       </c>
       <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>26.25819587628866</v>
+      </c>
+      <c r="L42">
         <v>3687149.882920415</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C43">
         <v>33106</v>
       </c>
       <c r="D43">
-        <v>1.832520618556702</v>
+        <v>1.832520618556701</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43">
         <v>2.3</v>
@@ -2578,18 +2836,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>71075859.52378328</v>
       </c>
       <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>18.32520618556701</v>
+      </c>
+      <c r="L43">
         <v>3379765.097364126</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>33332</v>
@@ -2598,7 +2862,7 @@
         <v>2.046711340206186</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -2610,18 +2874,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>79383427.52006964</v>
       </c>
       <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>20.46711340206186</v>
+      </c>
+      <c r="L44">
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45">
         <v>33609</v>
@@ -2630,7 +2900,7 @@
         <v>3.078</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F45">
         <v>2.3</v>
@@ -2642,18 +2912,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>119382828.9836706</v>
       </c>
       <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>30.78</v>
+      </c>
+      <c r="L45">
         <v>3831684.085287054</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46">
         <v>38372</v>
@@ -2662,7 +2938,7 @@
         <v>3.546046391752578</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -2674,18 +2950,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>137536403.4940742</v>
       </c>
       <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>35.46046391752579</v>
+      </c>
+      <c r="L46">
         <v>3965215.892681056</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>38723</v>
@@ -2694,7 +2976,7 @@
         <v>2.665484536082475</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -2706,18 +2988,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>103383068.3982303</v>
       </c>
       <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>26.65484536082475</v>
+      </c>
+      <c r="L47">
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C48">
         <v>39596</v>
@@ -2726,7 +3014,7 @@
         <v>11.52</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -2738,18 +3026,24 @@
         <v>38785844.374162</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>446812927.1903462</v>
       </c>
       <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>115.2</v>
+      </c>
+      <c r="L48">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>58710</v>
@@ -2758,7 +3052,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F49">
         <v>2.5</v>
@@ -2770,27 +3064,33 @@
         <v>39097761.98338025</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>249990687.0520222</v>
       </c>
       <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>63.9398969072165</v>
+      </c>
+      <c r="L49">
         <v>4573255.840545377</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C50">
         <v>37218</v>
       </c>
       <c r="D50">
-        <v>2.966938144329896</v>
+        <v>2.966938144329897</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F50">
         <v>2.7</v>
@@ -2802,18 +3102,24 @@
         <v>39380047.41901974</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>116838164.8130098</v>
       </c>
       <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>29.66938144329897</v>
+      </c>
+      <c r="L50">
         <v>3797758.507656866</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>37355</v>
@@ -2822,7 +3128,7 @@
         <v>8.091649484536084</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F51">
         <v>2.9</v>
@@ -2834,27 +3140,33 @@
         <v>39635749.05499732</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>320718588.4100707</v>
       </c>
       <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>80.91649484536084</v>
+      </c>
+      <c r="L51">
         <v>4841430.024186624</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>45329</v>
       </c>
       <c r="D52">
-        <v>4.910520618556698</v>
+        <v>4.910520618556701</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -2866,27 +3178,33 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I52">
-        <v>100</v>
+        <v>195215397.988668</v>
       </c>
       <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>49.10520618556701</v>
+      </c>
+      <c r="L52">
         <v>4290239.673387973</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C53">
         <v>45699</v>
       </c>
       <c r="D53">
-        <v>5.307170103092782</v>
+        <v>5.307170103092785</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -2898,18 +3216,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>210984008.4885605</v>
       </c>
       <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>53.07170103092785</v>
+      </c>
+      <c r="L53">
         <v>4371651.546027265</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C54">
         <v>45772</v>
@@ -2918,7 +3242,7 @@
         <v>11.52</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -2930,27 +3254,33 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>457972088.8109103</v>
       </c>
       <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>115.2</v>
+      </c>
+      <c r="L54">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C55">
         <v>45896</v>
       </c>
       <c r="D55">
-        <v>11.52</v>
+        <v>11.51999999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -2962,27 +3292,33 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>457972088.81091</v>
       </c>
       <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>115.1999999999999</v>
+      </c>
+      <c r="L55">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C56">
         <v>45899</v>
       </c>
       <c r="D56">
-        <v>9.122938144329899</v>
+        <v>9.122938144329895</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -2994,18 +3330,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>362678041.4975253</v>
       </c>
       <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>91.22938144329895</v>
+      </c>
+      <c r="L56">
         <v>4984037.426968283</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C57">
         <v>46049</v>
@@ -3014,7 +3356,7 @@
         <v>5.545159793814434</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -3026,18 +3368,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>220445174.7884959</v>
       </c>
       <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>55.45159793814434</v>
+      </c>
+      <c r="L57">
         <v>4418307.05254629</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58">
         <v>47053</v>
@@ -3046,7 +3394,7 @@
         <v>4.505938144329896</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -3058,18 +3406,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>179131415.2787777</v>
       </c>
       <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>45.05938144329896</v>
+      </c>
+      <c r="L58">
         <v>4201890.346963244</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>47166</v>
@@ -3078,7 +3432,7 @@
         <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3090,18 +3444,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>457972088.8109103</v>
       </c>
       <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>115.2</v>
+      </c>
+      <c r="L59">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C60">
         <v>47166</v>
@@ -3110,7 +3470,7 @@
         <v>11.52</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -3122,18 +3482,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>457972088.8109102</v>
       </c>
       <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>115.2</v>
+      </c>
+      <c r="L60">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61">
         <v>47166</v>
@@ -3142,7 +3508,7 @@
         <v>10.07489690721649</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3154,27 +3520,33 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>400522706.6972671</v>
       </c>
       <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>100.7489690721649</v>
+      </c>
+      <c r="L61">
         <v>5105201.851214484</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>47166</v>
       </c>
       <c r="D62">
-        <v>7.528407216494846</v>
+        <v>7.528407216494845</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -3186,27 +3558,33 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>299288227.2879579</v>
       </c>
       <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>75.28407216494844</v>
+      </c>
+      <c r="L62">
         <v>4757631.938664145</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63">
         <v>47166</v>
       </c>
       <c r="D63">
-        <v>3.879231958762886</v>
+        <v>3.879231958762888</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -3218,18 +3596,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I63">
-        <v>100</v>
+        <v>154217010.6889478</v>
       </c>
       <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>38.79231958762887</v>
+      </c>
+      <c r="L63">
         <v>4052333.328712357</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C64">
         <v>47259</v>
@@ -3238,7 +3622,7 @@
         <v>11.52</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -3250,18 +3634,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>457972088.8109103</v>
       </c>
       <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64">
+        <v>115.2</v>
+      </c>
+      <c r="L64">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C65">
         <v>47495</v>
@@ -3270,7 +3660,7 @@
         <v>6.39398969072165</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -3282,18 +3672,24 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>254190001.2582656</v>
       </c>
       <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>63.9398969072165</v>
+      </c>
+      <c r="L65">
         <v>4573255.840545377</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C66">
         <v>42489</v>
@@ -3302,7 +3698,7 @@
         <v>11.52</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F66">
         <v>3.2</v>
@@ -3314,27 +3710,33 @@
         <v>39975550.38970821</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>460518340.4894385</v>
       </c>
       <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>115.2</v>
+      </c>
+      <c r="L66">
         <v>5273515.054654035</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67">
         <v>15562</v>
       </c>
       <c r="D67">
-        <v>11.45804845248085</v>
+        <v>11.4580484524807</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F67">
         <v>3.4</v>
@@ -3346,9 +3748,15 @@
         <v>40176551.31533918</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>460344871.6247333</v>
       </c>
       <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67">
+        <v>114.580484524807</v>
+      </c>
+      <c r="L67">
         <v>5273515.054654035</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -332,6 +332,9 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -386,9 +389,18 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>Werk  Zielitz</t>
+  </si>
+  <si>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
+    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
+  </si>
+  <si>
     <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
   </si>
   <si>
@@ -398,12 +410,12 @@
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
     <t>AGR mbH</t>
   </si>
   <si>
-    <t>Evonik Degussa GmbH</t>
-  </si>
-  <si>
     <t>Ruhr Oel GmbH Werk Scholven</t>
   </si>
   <si>
@@ -416,12 +428,6 @@
     <t>DK Recycling und Roheisen GmbH</t>
   </si>
   <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
-  </si>
-  <si>
-    <t>Pruna Betreiber GmbH vertreten durch die KBS GmbH Werk Schwelgern</t>
-  </si>
-  <si>
     <t>ThyssenKrupp Steel Europe AG Werk Hamborn</t>
   </si>
   <si>
@@ -431,16 +437,10 @@
     <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
   </si>
   <si>
-    <t>Hüttenwerke Krupp Mannesmann GmbH</t>
+    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
   </si>
   <si>
     <t>Solvay Chemicals GmbH</t>
-  </si>
-  <si>
-    <t>Rheinkalk GmbH</t>
-  </si>
-  <si>
-    <t>CEMEX Zement GmbH</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13567275360.45065</v>
+        <v>13267234387.58621</v>
       </c>
       <c r="C2">
-        <v>95.99999999999999</v>
+        <v>96.00000000000001</v>
       </c>
       <c r="D2">
         <v>1190.511948111309</v>
@@ -1024,31 +1024,31 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>330.4949195865013</v>
+        <v>330.4949195865012</v>
       </c>
       <c r="H2">
         <v>33.82257948984662</v>
       </c>
       <c r="I2">
-        <v>858.4615384615383</v>
+        <v>858.4615384615399</v>
       </c>
       <c r="J2">
-        <v>240</v>
+        <v>240.0000000000005</v>
       </c>
       <c r="K2">
-        <v>498.4615384615384</v>
+        <v>498.4615384615393</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>120.0000000000002</v>
       </c>
       <c r="M2">
-        <v>248.7145732819789</v>
+        <v>248.7145732819777</v>
       </c>
       <c r="N2">
-        <v>80.88278805918016</v>
+        <v>80.88278805917975</v>
       </c>
       <c r="O2">
-        <v>167.8317852227988</v>
+        <v>167.8317852227979</v>
       </c>
       <c r="P2">
         <v>154.0911111111111</v>
@@ -1084,10 +1084,10 @@
         <v>278.3115112307378</v>
       </c>
       <c r="AA2">
-        <v>86.00598784560998</v>
+        <v>86.00598784560997</v>
       </c>
       <c r="AB2">
-        <v>192.3055233851279</v>
+        <v>192.3055233851278</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>321.2279809774659</v>
+        <v>321.227980977466</v>
       </c>
       <c r="AJ2">
-        <v>321.2279809774659</v>
+        <v>321.227980977466</v>
       </c>
       <c r="AK2">
-        <v>450.7720190225339</v>
+        <v>450.772019022534</v>
       </c>
       <c r="AL2">
-        <v>450.7720190225339</v>
+        <v>450.772019022534</v>
       </c>
       <c r="AM2">
         <v>6.75</v>
@@ -1174,7 +1174,7 @@
         <v>41.45</v>
       </c>
       <c r="BE2">
-        <v>406.8887759047901</v>
+        <v>406.8887759047903</v>
       </c>
       <c r="BF2">
         <v>1074.598847069465</v>
@@ -1186,22 +1186,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>858</v>
+      </c>
+      <c r="BJ2">
+        <v>414.5</v>
+      </c>
+      <c r="BK2">
+        <v>7.5</v>
+      </c>
+      <c r="BL2">
+        <v>24.2</v>
+      </c>
+      <c r="BM2">
         <v>120</v>
       </c>
-      <c r="BJ2">
-        <v>7.5</v>
-      </c>
-      <c r="BK2">
+      <c r="BN2">
         <v>130.3</v>
-      </c>
-      <c r="BL2">
-        <v>857.9999999999998</v>
-      </c>
-      <c r="BM2">
-        <v>24.2</v>
-      </c>
-      <c r="BN2">
-        <v>414.5</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1263,7 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>1.483469072164948</v>
+        <v>1.870000000000004</v>
       </c>
       <c r="E2" t="s">
         <v>142</v>
@@ -1278,13 +1278,13 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>49446447.17474227</v>
+        <v>62330154.33333347</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>14.83469072164948</v>
+        <v>18.70000000000004</v>
       </c>
       <c r="L2">
         <v>3211279.34822684</v>
@@ -1301,7 +1301,7 @@
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>1.316876288659794</v>
+        <v>1.659999999999997</v>
       </c>
       <c r="E3" t="s">
         <v>142</v>
@@ -1316,13 +1316,13 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>43893637.59896907</v>
+        <v>55330511.33333322</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>13.16876288659794</v>
+        <v>16.59999999999997</v>
       </c>
       <c r="L3">
         <v>3120028.598903444</v>
@@ -1339,7 +1339,7 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.790639175257732</v>
+        <v>8.560000000000002</v>
       </c>
       <c r="E4" t="s">
         <v>142</v>
@@ -1354,13 +1354,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>227006071.1951085</v>
+        <v>286154501.7014364</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>67.90639175257732</v>
+        <v>85.60000000000002</v>
       </c>
       <c r="L4">
         <v>4640353.526253123</v>
@@ -1377,7 +1377,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>7.718798969072166</v>
+        <v>9.72999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>142</v>
@@ -1392,13 +1392,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>258033770.1785522</v>
+        <v>325266740.8358613</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>77.18798969072166</v>
+        <v>97.2999999999999</v>
       </c>
       <c r="L5">
         <v>4786474.22858194</v>
@@ -1415,7 +1415,7 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>1.166149484536082</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>142</v>
@@ -1430,13 +1430,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>38983519.23560859</v>
+        <v>49141018.39966252</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>11.66149484536082</v>
+        <v>14.69999999999999</v>
       </c>
       <c r="L6">
         <v>3029585.493423196</v>
@@ -1453,7 +1453,7 @@
         <v>25566</v>
       </c>
       <c r="D7">
-        <v>9.28159793814433</v>
+        <v>11.51999999999974</v>
       </c>
       <c r="E7" t="s">
         <v>142</v>
@@ -1468,13 +1468,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>311947289.2043841</v>
+        <v>387178241.8914925</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
-        <v>92.8159793814433</v>
+        <v>115.1999999999974</v>
       </c>
       <c r="L7">
         <v>5004876.854845014</v>
@@ -1491,7 +1491,7 @@
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.35609793814433</v>
+        <v>2.969999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>142</v>
@@ -1506,13 +1506,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>79186619.56726673</v>
+        <v>99819390.4876526</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>23.5609793814433</v>
+        <v>29.69999999999998</v>
       </c>
       <c r="L8">
         <v>3591695.233391508</v>
@@ -1529,7 +1529,7 @@
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.00748969072165</v>
+        <v>1.270000000000011</v>
       </c>
       <c r="E9" t="s">
         <v>142</v>
@@ -1544,13 +1544,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>33860945.06748443</v>
+        <v>42683712.43074746</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>10.07489690721649</v>
+        <v>12.70000000000011</v>
       </c>
       <c r="L9">
         <v>2924239.357757165</v>
@@ -1567,7 +1567,7 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>2.26090206185567</v>
+        <v>2.849999999999995</v>
       </c>
       <c r="E10" t="s">
         <v>142</v>
@@ -1582,13 +1582,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>75987160.19081151</v>
+        <v>95786283.8012827</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>22.6090206185567</v>
+        <v>28.49999999999995</v>
       </c>
       <c r="L10">
         <v>3556025.558079649</v>
@@ -1605,7 +1605,7 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.15777319587629</v>
+        <v>2.719999999999996</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
@@ -1620,13 +1620,13 @@
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>74171461.74487484</v>
+        <v>93497489.1390883</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>21.5777319587629</v>
+        <v>27.19999999999996</v>
       </c>
       <c r="L11">
         <v>3516074.693055412</v>
@@ -1643,7 +1643,7 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>3.173195876288661</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>142</v>
@@ -1658,13 +1658,13 @@
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>110943450.6056614</v>
+        <v>139850743.4535303</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>31.73195876288661</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1681,7 +1681,7 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>1.213747422680412</v>
+        <v>1.530000000000001</v>
       </c>
       <c r="E13" t="s">
         <v>142</v>
@@ -1696,13 +1696,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>42617258.66392379</v>
+        <v>53721560.62898781</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>12.13747422680412</v>
+        <v>15.30000000000001</v>
       </c>
       <c r="L13">
         <v>3059058.228987825</v>
@@ -1719,7 +1719,7 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>1.356541237113402</v>
+        <v>1.710000000000008</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
@@ -1734,13 +1734,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>47631053.80085601</v>
+        <v>60041744.23239836</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>13.56541237113402</v>
+        <v>17.10000000000008</v>
       </c>
       <c r="L14">
         <v>3142515.846107772</v>
@@ -1757,7 +1757,7 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>6.108402061855671</v>
+        <v>7.69999999999999</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
@@ -1772,13 +1772,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>214479014.1909891</v>
+        <v>270363409.7014413</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>61.08402061855671</v>
+        <v>76.9999999999999</v>
       </c>
       <c r="L15">
         <v>4522964.437644095</v>
@@ -1795,7 +1795,7 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>2.554422680412372</v>
+        <v>3.219999999999998</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -1810,13 +1810,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>89691224.1162318</v>
+        <v>113061062.2387846</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>25.54422680412372</v>
+        <v>32.19999999999998</v>
       </c>
       <c r="L16">
         <v>3662634.134160224</v>
@@ -1833,7 +1833,7 @@
         <v>21107</v>
       </c>
       <c r="D17">
-        <v>1.769056701030928</v>
+        <v>2.22999999999999</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
@@ -1848,13 +1848,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>62115350.86310463</v>
+        <v>78300052.42002758</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>17.69056701030928</v>
+        <v>22.2999999999999</v>
       </c>
       <c r="L17">
         <v>3351059.927308201</v>
@@ -1871,7 +1871,7 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>2.562355670103094</v>
+        <v>3.22999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
@@ -1886,13 +1886,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>89969768.29050583</v>
+        <v>113412183.5500849</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>25.62355670103094</v>
+        <v>32.2999999999999</v>
       </c>
       <c r="L18">
         <v>3665383.563029062</v>
@@ -1909,7 +1909,7 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>1.784922680412372</v>
+        <v>2.25</v>
       </c>
       <c r="E19" t="s">
         <v>142</v>
@@ -1924,13 +1924,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>62672439.21165267</v>
+        <v>79002295.04262909</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>17.84922680412372</v>
+        <v>22.5</v>
       </c>
       <c r="L19">
         <v>3358308.48673273</v>
@@ -1947,7 +1947,7 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>4.728061855670104</v>
+        <v>5.960000000000004</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
@@ -1962,13 +1962,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>166012327.8673111</v>
+        <v>209268301.535142</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>47.28061855670104</v>
+        <v>59.60000000000004</v>
       </c>
       <c r="L20">
         <v>4251106.766759329</v>
@@ -1985,7 +1985,7 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>3.284257731958763</v>
+        <v>4.139999999999986</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -2000,13 +2000,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>115317288.1494409</v>
+        <v>145364222.878437</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>32.84257731958763</v>
+        <v>41.39999999999986</v>
       </c>
       <c r="L21">
         <v>3892301.737650325</v>
@@ -2023,7 +2023,7 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>3.879231958762887</v>
+        <v>4.889999999999985</v>
       </c>
       <c r="E22" t="s">
         <v>142</v>
@@ -2038,13 +2038,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>136208101.2199918</v>
+        <v>171698321.22598</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>38.79231958762887</v>
+        <v>48.89999999999986</v>
       </c>
       <c r="L22">
         <v>4052333.328712357</v>
@@ -2061,7 +2061,7 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>2.562355670103093</v>
+        <v>3.229999999999991</v>
       </c>
       <c r="E23" t="s">
         <v>142</v>
@@ -2076,13 +2076,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>90352299.31686766</v>
+        <v>113894386.4033286</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>25.62355670103093</v>
+        <v>32.2999999999999</v>
       </c>
       <c r="L23">
         <v>3665383.563029062</v>
@@ -2099,7 +2099,7 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.039221649484536</v>
+        <v>1.310000000000002</v>
       </c>
       <c r="E24" t="s">
         <v>142</v>
@@ -2114,13 +2114,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>36644430.99228998</v>
+        <v>46192460.12023566</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>10.39221649484536</v>
+        <v>13.10000000000002</v>
       </c>
       <c r="L24">
         <v>2946266.794435292</v>
@@ -2137,7 +2137,7 @@
         <v>28237</v>
       </c>
       <c r="D25">
-        <v>11.52</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E25" t="s">
         <v>142</v>
@@ -2152,13 +2152,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>406211557.6985601</v>
+        <v>406211557.6985605</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>115.2</v>
+        <v>115.2000000000001</v>
       </c>
       <c r="L25">
         <v>5273515.054654035</v>
@@ -2175,7 +2175,7 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>4.355211340206187</v>
+        <v>5.490000000000009</v>
       </c>
       <c r="E26" t="s">
         <v>142</v>
@@ -2190,13 +2190,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>153570935.9905894</v>
+        <v>193585195.4657204</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>43.55211340206188</v>
+        <v>54.90000000000009</v>
       </c>
       <c r="L26">
         <v>4167435.864813926</v>
@@ -2213,7 +2213,7 @@
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.133974226804124</v>
+        <v>2.689999999999959</v>
       </c>
       <c r="E27" t="s">
         <v>142</v>
@@ -2228,13 +2228,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>75246961.35058019</v>
+        <v>94853219.63620749</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>21.33974226804124</v>
+        <v>26.89999999999959</v>
       </c>
       <c r="L27">
         <v>3506650.390632065</v>
@@ -2251,7 +2251,7 @@
         <v>26197</v>
       </c>
       <c r="D28">
-        <v>9.360927835051548</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E28" t="s">
         <v>142</v>
@@ -2266,13 +2266,13 @@
         <v>35849408.31499194</v>
       </c>
       <c r="I28">
-        <v>335583724.1659365</v>
+        <v>412985183.7887076</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>93.60927835051548</v>
+        <v>115.2000000000001</v>
       </c>
       <c r="L28">
         <v>5015195.456029908</v>
@@ -2289,7 +2289,7 @@
         <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.308943298969072</v>
+        <v>1.650000000000005</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -2304,13 +2304,13 @@
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>48343594.63265957</v>
+        <v>60939943.85143591</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>13.08943298969072</v>
+        <v>16.50000000000005</v>
       </c>
       <c r="L29">
         <v>3115469.701891457</v>
@@ -2327,7 +2327,7 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>1.951515463917526</v>
+        <v>2.460000000000005</v>
       </c>
       <c r="E30" t="s">
         <v>142</v>
@@ -2342,13 +2342,13 @@
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>73456040.42593816</v>
+        <v>92595658.49663435</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>19.51515463917526</v>
+        <v>24.60000000000005</v>
       </c>
       <c r="L30">
         <v>3431616.232505888</v>
@@ -2362,10 +2362,10 @@
         <v>105</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>1.158216494845361</v>
+        <v>1.099999999999995</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -2374,22 +2374,22 @@
         <v>1.8</v>
       </c>
       <c r="G31">
-        <v>2723021.589861078</v>
+        <v>2051752.656756106</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>43844792.44791586</v>
+        <v>41640981.54995326</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>11.58216494845361</v>
+        <v>10.99999999999995</v>
       </c>
       <c r="L31">
-        <v>3024585.102161352</v>
+        <v>2824291.034417088</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2400,10 +2400,10 @@
         <v>106</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>8.012319587628866</v>
+        <v>1.460000000000009</v>
       </c>
       <c r="E32" t="s">
         <v>142</v>
@@ -2412,22 +2412,22 @@
         <v>1.8</v>
       </c>
       <c r="G32">
-        <v>18801918.17235561</v>
+        <v>2723021.589861078</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>303309865.5643494</v>
+        <v>55268939.14812037</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>80.12319587628866</v>
+        <v>14.60000000000009</v>
       </c>
       <c r="L32">
-        <v>4829900.566914583</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2438,10 +2438,10 @@
         <v>107</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D33">
-        <v>1.182015463917526</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="E33" t="s">
         <v>142</v>
@@ -2450,22 +2450,22 @@
         <v>1.8</v>
       </c>
       <c r="G33">
-        <v>2778955.910854831</v>
+        <v>18801918.17235561</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>44745712.84068125</v>
+        <v>382339921.5041179</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>11.82015463917526</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="L33">
-        <v>3039509.425943215</v>
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2476,10 +2476,10 @@
         <v>108</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D34">
-        <v>9.04360824742268</v>
+        <v>1.49000000000001</v>
       </c>
       <c r="E34" t="s">
         <v>142</v>
@@ -2488,22 +2488,22 @@
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>21215963.57252571</v>
+        <v>2778955.910854831</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>342349749.2508498</v>
+        <v>56404602.28130095</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>90.43608247422681</v>
+        <v>14.90000000000009</v>
       </c>
       <c r="L34">
-        <v>4973514.536159209</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2514,10 +2514,10 @@
         <v>109</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D35">
-        <v>3.054201030927835</v>
+        <v>11.40000000000001</v>
       </c>
       <c r="E35" t="s">
         <v>142</v>
@@ -2526,22 +2526,22 @@
         <v>1.8</v>
       </c>
       <c r="G35">
-        <v>7176830.63573128</v>
+        <v>21215963.57252571</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>115618117.0715589</v>
+        <v>431551990.6086088</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>30.54201030927835</v>
+        <v>114.0000000000001</v>
       </c>
       <c r="L35">
-        <v>3824493.385265881</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2555,7 +2555,7 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.269278350515464</v>
+        <v>3.849999999999994</v>
       </c>
       <c r="E36" t="s">
         <v>142</v>
@@ -2564,22 +2564,22 @@
         <v>1.8</v>
       </c>
       <c r="G36">
-        <v>2984042.160773337</v>
+        <v>7176830.63573128</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>48049087.61415436</v>
+        <v>145743435.4248369</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>12.69278350515464</v>
+        <v>38.49999999999994</v>
       </c>
       <c r="L36">
-        <v>3092355.773228031</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2590,34 +2590,34 @@
         <v>111</v>
       </c>
       <c r="C37">
-        <v>31171</v>
+        <v>49824</v>
       </c>
       <c r="D37">
-        <v>0.9598917525773196</v>
+        <v>1.599999999999977</v>
       </c>
       <c r="E37" t="s">
         <v>142</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G37">
-        <v>2256873.78961794</v>
+        <v>2984042.160773337</v>
       </c>
       <c r="H37">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>36533761.71514471</v>
+        <v>60568700.43629505</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>9.598917525773196</v>
+        <v>15.99999999999977</v>
       </c>
       <c r="L37">
-        <v>2890190.553294488</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2628,10 +2628,10 @@
         <v>112</v>
       </c>
       <c r="C38">
-        <v>31226</v>
+        <v>31171</v>
       </c>
       <c r="D38">
-        <v>1.30101030927835</v>
+        <v>1.210000000000012</v>
       </c>
       <c r="E38" t="s">
         <v>142</v>
@@ -2640,22 +2640,22 @@
         <v>1.9</v>
       </c>
       <c r="G38">
-        <v>3058616.539902832</v>
+        <v>2256873.78961794</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>49516834.06019612</v>
+        <v>46052954.98855191</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>13.0101030927835</v>
+        <v>12.10000000000012</v>
       </c>
       <c r="L38">
-        <v>3110889.813225406</v>
+        <v>2890190.553294488</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2666,10 +2666,10 @@
         <v>113</v>
       </c>
       <c r="C39">
-        <v>31319</v>
+        <v>31226</v>
       </c>
       <c r="D39">
-        <v>4.894654639175258</v>
+        <v>1.639999999999986</v>
       </c>
       <c r="E39" t="s">
         <v>142</v>
@@ -2678,22 +2678,22 @@
         <v>1.9</v>
       </c>
       <c r="G39">
-        <v>11495757.65683257</v>
+        <v>3058616.539902832</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>186291991.5557379</v>
+        <v>62418881.14150725</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>48.94654639175258</v>
+        <v>16.39999999999986</v>
       </c>
       <c r="L39">
-        <v>4286880.992309345</v>
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2704,10 +2704,10 @@
         <v>114</v>
       </c>
       <c r="C40">
-        <v>31789</v>
+        <v>31319</v>
       </c>
       <c r="D40">
-        <v>3.300123711340206</v>
+        <v>6.169999999999987</v>
       </c>
       <c r="E40" t="s">
         <v>142</v>
@@ -2716,22 +2716,22 @@
         <v>1.9</v>
       </c>
       <c r="G40">
-        <v>7754181.439418147</v>
+        <v>11495757.65683257</v>
       </c>
       <c r="H40">
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>125603676.6404975</v>
+        <v>234832010.1482331</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>33.00123711340206</v>
+        <v>61.69999999999987</v>
       </c>
       <c r="L40">
-        <v>3896843.850100604</v>
+        <v>4286880.992309345</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2742,34 +2742,34 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>38239</v>
+        <v>31789</v>
       </c>
       <c r="D41">
-        <v>11.52</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="E41" t="s">
         <v>142</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G41">
-        <v>27007138.60142434</v>
+        <v>7754181.439418147</v>
       </c>
       <c r="H41">
-        <v>38255392.02166688</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I41">
-        <v>440702116.0896024</v>
+        <v>158330820.4565074</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>115.2</v>
+        <v>41.59999999999997</v>
       </c>
       <c r="L41">
-        <v>5273515.054654035</v>
+        <v>3896843.850100604</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2780,34 +2780,34 @@
         <v>116</v>
       </c>
       <c r="C42">
-        <v>31061</v>
+        <v>38239</v>
       </c>
       <c r="D42">
-        <v>2.625819587628866</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E42" t="s">
         <v>142</v>
       </c>
       <c r="F42">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>6170936.453752637</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H42">
-        <v>38441090.93970785</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I42">
-        <v>100939369.5593074</v>
+        <v>440702116.0896028</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>26.25819587628866</v>
+        <v>115.2000000000001</v>
       </c>
       <c r="L42">
-        <v>3687149.882920415</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2818,34 +2818,34 @@
         <v>117</v>
       </c>
       <c r="C43">
-        <v>33106</v>
+        <v>31061</v>
       </c>
       <c r="D43">
-        <v>1.832520618556701</v>
+        <v>3.31</v>
       </c>
       <c r="E43" t="s">
         <v>142</v>
       </c>
       <c r="F43">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G43">
-        <v>4307544.049353574</v>
+        <v>6170936.453752637</v>
       </c>
       <c r="H43">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I43">
-        <v>71075859.52378328</v>
+        <v>127240011.010433</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>18.32520618556701</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="L43">
-        <v>3379765.097364126</v>
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2856,10 +2856,10 @@
         <v>118</v>
       </c>
       <c r="C44">
-        <v>33332</v>
+        <v>33106</v>
       </c>
       <c r="D44">
-        <v>2.046711340206186</v>
+        <v>2.310000000000001</v>
       </c>
       <c r="E44" t="s">
         <v>142</v>
@@ -2868,22 +2868,22 @@
         <v>2.3</v>
       </c>
       <c r="G44">
-        <v>4810740.062798683</v>
+        <v>4307544.049353574</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>79383427.52006964</v>
+        <v>89595300.50431426</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>20.46711340206186</v>
+        <v>23.10000000000002</v>
       </c>
       <c r="L44">
-        <v>3471397.820165223</v>
+        <v>3379765.097364126</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2894,10 +2894,10 @@
         <v>119</v>
       </c>
       <c r="C45">
-        <v>33609</v>
+        <v>33332</v>
       </c>
       <c r="D45">
-        <v>3.078</v>
+        <v>2.580000000000013</v>
       </c>
       <c r="E45" t="s">
         <v>142</v>
@@ -2906,22 +2906,22 @@
         <v>2.3</v>
       </c>
       <c r="G45">
-        <v>7232706.703717464</v>
+        <v>4810740.062798683</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>119382828.9836706</v>
+        <v>100067478.4853384</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>30.78</v>
+        <v>25.80000000000013</v>
       </c>
       <c r="L45">
-        <v>3831684.085287054</v>
+        <v>3471397.820165223</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2932,10 +2932,10 @@
         <v>120</v>
       </c>
       <c r="C46">
-        <v>38372</v>
+        <v>33609</v>
       </c>
       <c r="D46">
-        <v>3.546046391752578</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="E46" t="s">
         <v>142</v>
@@ -2944,22 +2944,22 @@
         <v>2.3</v>
       </c>
       <c r="G46">
-        <v>8331454.23855985</v>
+        <v>7232706.703717464</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
       </c>
       <c r="I46">
-        <v>137536403.4940742</v>
+        <v>150489076.1717485</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>35.46046391752579</v>
+        <v>38.79999999999999</v>
       </c>
       <c r="L46">
-        <v>3965215.892681056</v>
+        <v>3831684.085287054</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2970,10 +2970,10 @@
         <v>121</v>
       </c>
       <c r="C47">
-        <v>38723</v>
+        <v>38372</v>
       </c>
       <c r="D47">
-        <v>2.665484536082475</v>
+        <v>4.469999999999999</v>
       </c>
       <c r="E47" t="s">
         <v>142</v>
@@ -2982,22 +2982,22 @@
         <v>2.3</v>
       </c>
       <c r="G47">
-        <v>6264084.751326288</v>
+        <v>8331454.23855985</v>
       </c>
       <c r="H47">
         <v>38785844.374162</v>
       </c>
       <c r="I47">
-        <v>103383068.3982303</v>
+        <v>173372724.3525041</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>26.65484536082475</v>
+        <v>44.69999999999999</v>
       </c>
       <c r="L47">
-        <v>3700552.097367561</v>
+        <v>3965215.892681056</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3008,10 +3008,10 @@
         <v>122</v>
       </c>
       <c r="C48">
-        <v>39596</v>
+        <v>38723</v>
       </c>
       <c r="D48">
-        <v>11.52</v>
+        <v>3.360000000000013</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -3020,22 +3020,22 @@
         <v>2.3</v>
       </c>
       <c r="G48">
-        <v>27007138.60142434</v>
+        <v>6264084.751326288</v>
       </c>
       <c r="H48">
         <v>38785844.374162</v>
       </c>
       <c r="I48">
-        <v>446812927.1903462</v>
+        <v>130320437.0971848</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>115.2</v>
+        <v>33.60000000000013</v>
       </c>
       <c r="L48">
-        <v>5273515.054654035</v>
+        <v>3700552.097367561</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3046,34 +3046,34 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>58710</v>
+        <v>39596</v>
       </c>
       <c r="D49">
-        <v>6.39398969072165</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E49" t="s">
         <v>142</v>
       </c>
       <c r="F49">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G49">
-        <v>15010968.32739887</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H49">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I49">
-        <v>249990687.0520222</v>
+        <v>446812927.1903466</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49">
-        <v>63.9398969072165</v>
+        <v>115.2000000000001</v>
       </c>
       <c r="L49">
-        <v>4573255.840545377</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3084,34 +3084,34 @@
         <v>124</v>
       </c>
       <c r="C50">
-        <v>37218</v>
+        <v>39326</v>
       </c>
       <c r="D50">
-        <v>2.966938144329897</v>
+        <v>2.55000000000001</v>
       </c>
       <c r="E50" t="s">
         <v>142</v>
       </c>
       <c r="F50">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G50">
-        <v>6971945.468368442</v>
+        <v>4754832.319820861</v>
       </c>
       <c r="H50">
-        <v>39380047.41901974</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I50">
-        <v>116838164.8130098</v>
+        <v>99699293.05762005</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>29.66938144329897</v>
+        <v>25.50000000000011</v>
       </c>
       <c r="L50">
-        <v>3797758.507656866</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3122,34 +3122,34 @@
         <v>125</v>
       </c>
       <c r="C51">
-        <v>37355</v>
+        <v>39418</v>
       </c>
       <c r="D51">
-        <v>8.091649484536084</v>
+        <v>1.960000000000008</v>
       </c>
       <c r="E51" t="s">
         <v>142</v>
       </c>
       <c r="F51">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G51">
-        <v>18987662.48066654</v>
+        <v>3655164.748267355</v>
       </c>
       <c r="H51">
-        <v>39635749.05499732</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I51">
-        <v>320718588.4100707</v>
+        <v>76631613.4874256</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51">
-        <v>80.91649484536084</v>
+        <v>19.60000000000008</v>
       </c>
       <c r="L51">
-        <v>4841430.024186624</v>
+        <v>3248017.696927753</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3160,34 +3160,34 @@
         <v>126</v>
       </c>
       <c r="C52">
-        <v>45329</v>
+        <v>58710</v>
       </c>
       <c r="D52">
-        <v>4.910520618556701</v>
+        <v>8.060000000000002</v>
       </c>
       <c r="E52" t="s">
         <v>142</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G52">
-        <v>11532970.80719121</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H52">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I52">
-        <v>195215397.988668</v>
+        <v>315127961.5860449</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52">
-        <v>49.10520618556701</v>
+        <v>80.60000000000002</v>
       </c>
       <c r="L52">
-        <v>4290239.673387973</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3198,34 +3198,34 @@
         <v>127</v>
       </c>
       <c r="C53">
-        <v>45699</v>
+        <v>59075</v>
       </c>
       <c r="D53">
-        <v>5.307170103092785</v>
+        <v>2.55000000000001</v>
       </c>
       <c r="E53" t="s">
         <v>142</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G53">
-        <v>12463194.18863161</v>
+        <v>4754832.319820861</v>
       </c>
       <c r="H53">
-        <v>39754521.5981693</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I53">
-        <v>210984008.4885605</v>
+        <v>99699293.05762005</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53">
-        <v>53.07170103092785</v>
+        <v>25.50000000000011</v>
       </c>
       <c r="L53">
-        <v>4371651.546027265</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3236,34 +3236,34 @@
         <v>128</v>
       </c>
       <c r="C54">
-        <v>45772</v>
+        <v>37218</v>
       </c>
       <c r="D54">
-        <v>11.52</v>
+        <v>3.740000000000009</v>
       </c>
       <c r="E54" t="s">
         <v>142</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G54">
-        <v>27007138.60142434</v>
+        <v>6971945.468368442</v>
       </c>
       <c r="H54">
-        <v>39754521.5981693</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I54">
-        <v>457972088.8109103</v>
+        <v>147281377.3471342</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54">
-        <v>115.2</v>
+        <v>37.40000000000009</v>
       </c>
       <c r="L54">
-        <v>5273515.054654035</v>
+        <v>3797758.507656866</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3274,34 +3274,34 @@
         <v>129</v>
       </c>
       <c r="C55">
-        <v>45896</v>
+        <v>37355</v>
       </c>
       <c r="D55">
-        <v>11.51999999999999</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="E55" t="s">
         <v>142</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G55">
-        <v>27007138.60142434</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H55">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I55">
-        <v>457972088.81091</v>
+        <v>404284640.3609723</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55">
-        <v>115.1999999999999</v>
+        <v>101.9999999999999</v>
       </c>
       <c r="L55">
-        <v>5273515.054654035</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3312,10 +3312,10 @@
         <v>130</v>
       </c>
       <c r="C56">
-        <v>45899</v>
+        <v>45329</v>
       </c>
       <c r="D56">
-        <v>9.122938144329895</v>
+        <v>6.189999999999999</v>
       </c>
       <c r="E56" t="s">
         <v>142</v>
@@ -3324,22 +3324,22 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>21401602.79478948</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>362678041.4975253</v>
+        <v>246080488.6926679</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
-        <v>91.22938144329895</v>
+        <v>61.89999999999998</v>
       </c>
       <c r="L56">
-        <v>4984037.426968283</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3350,10 +3350,10 @@
         <v>131</v>
       </c>
       <c r="C57">
-        <v>46049</v>
+        <v>45356</v>
       </c>
       <c r="D57">
-        <v>5.545159793814434</v>
+        <v>2.494919586501069</v>
       </c>
       <c r="E57" t="s">
         <v>142</v>
@@ -3362,22 +3362,22 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>13021230.96247917</v>
+        <v>4997093.924883411</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
       </c>
       <c r="I57">
-        <v>220445174.7884959</v>
+        <v>99184334.58725238</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57">
-        <v>55.45159793814434</v>
+        <v>24.94919586501069</v>
       </c>
       <c r="L57">
-        <v>4418307.05254629</v>
+        <v>3503491.254460279</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3388,10 +3388,10 @@
         <v>132</v>
       </c>
       <c r="C58">
-        <v>47053</v>
+        <v>45699</v>
       </c>
       <c r="D58">
-        <v>4.505938144329896</v>
+        <v>6.689999999999998</v>
       </c>
       <c r="E58" t="s">
         <v>142</v>
@@ -3400,22 +3400,22 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>10583934.16780851</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>179131415.2787777</v>
+        <v>265957749.4917525</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
-        <v>45.05938144329896</v>
+        <v>66.89999999999998</v>
       </c>
       <c r="L58">
-        <v>4201890.346963244</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3426,10 +3426,10 @@
         <v>133</v>
       </c>
       <c r="C59">
-        <v>47166</v>
+        <v>45896</v>
       </c>
       <c r="D59">
-        <v>11.52</v>
+        <v>11.51999999999998</v>
       </c>
       <c r="E59" t="s">
         <v>142</v>
@@ -3444,13 +3444,13 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>457972088.8109103</v>
+        <v>457972088.8109096</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
-        <v>115.2</v>
+        <v>115.1999999999998</v>
       </c>
       <c r="L59">
         <v>5273515.054654035</v>
@@ -3464,10 +3464,10 @@
         <v>134</v>
       </c>
       <c r="C60">
-        <v>47166</v>
+        <v>45899</v>
       </c>
       <c r="D60">
-        <v>11.52</v>
+        <v>11.50000000000002</v>
       </c>
       <c r="E60" t="s">
         <v>142</v>
@@ -3476,22 +3476,22 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>27007138.60142434</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>457972088.8109102</v>
+        <v>457176998.3789477</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
-        <v>115.2</v>
+        <v>115.0000000000002</v>
       </c>
       <c r="L60">
-        <v>5273515.054654035</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3502,10 +3502,10 @@
         <v>135</v>
       </c>
       <c r="C61">
-        <v>47166</v>
+        <v>46049</v>
       </c>
       <c r="D61">
-        <v>10.07489690721649</v>
+        <v>6.99000000000001</v>
       </c>
       <c r="E61" t="s">
         <v>142</v>
@@ -3514,22 +3514,22 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>23628643.36424644</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>400522706.6972671</v>
+        <v>277884105.9712038</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
-        <v>100.7489690721649</v>
+        <v>69.90000000000011</v>
       </c>
       <c r="L61">
-        <v>5105201.851214484</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3540,10 +3540,10 @@
         <v>136</v>
       </c>
       <c r="C62">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D62">
-        <v>7.528407216494845</v>
+        <v>5.680000000000001</v>
       </c>
       <c r="E62" t="s">
         <v>142</v>
@@ -3552,22 +3552,22 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>17668702.74772677</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>299288227.2879579</v>
+        <v>225805682.6776016</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
-        <v>75.28407216494844</v>
+        <v>56.8</v>
       </c>
       <c r="L62">
-        <v>4757631.938664145</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3581,7 +3581,7 @@
         <v>47166</v>
       </c>
       <c r="D63">
-        <v>3.879231958762888</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="E63" t="s">
         <v>142</v>
@@ -3590,22 +3590,22 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>9113441.365831105</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H63">
         <v>39754521.5981693</v>
       </c>
       <c r="I63">
-        <v>154217010.6889478</v>
+        <v>457972088.8109106</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63">
-        <v>38.79231958762887</v>
+        <v>115.2000000000001</v>
       </c>
       <c r="L63">
-        <v>4052333.328712357</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3616,10 +3616,10 @@
         <v>138</v>
       </c>
       <c r="C64">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D64">
-        <v>11.52</v>
+        <v>9.490000000000011</v>
       </c>
       <c r="E64" t="s">
         <v>142</v>
@@ -3628,22 +3628,22 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>27007138.60142434</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H64">
         <v>39754521.5981693</v>
       </c>
       <c r="I64">
-        <v>457972088.8109103</v>
+        <v>377270409.9666271</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64">
-        <v>115.2</v>
+        <v>94.90000000000011</v>
       </c>
       <c r="L64">
-        <v>5273515.054654035</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3654,10 +3654,10 @@
         <v>139</v>
       </c>
       <c r="C65">
-        <v>47495</v>
+        <v>47166</v>
       </c>
       <c r="D65">
-        <v>6.39398969072165</v>
+        <v>4.889999999999986</v>
       </c>
       <c r="E65" t="s">
         <v>142</v>
@@ -3666,22 +3666,22 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>15010968.32739887</v>
+        <v>9113441.365831105</v>
       </c>
       <c r="H65">
         <v>39754521.5981693</v>
       </c>
       <c r="I65">
-        <v>254190001.2582656</v>
+        <v>194399610.6150473</v>
       </c>
       <c r="J65">
         <v>100</v>
       </c>
       <c r="K65">
-        <v>63.9398969072165</v>
+        <v>48.89999999999986</v>
       </c>
       <c r="L65">
-        <v>4573255.840545377</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3692,34 +3692,34 @@
         <v>140</v>
       </c>
       <c r="C66">
-        <v>42489</v>
+        <v>47198</v>
       </c>
       <c r="D66">
-        <v>11.52</v>
+        <v>3.930000000000007</v>
       </c>
       <c r="E66" t="s">
         <v>142</v>
       </c>
       <c r="F66">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>27007138.60142434</v>
+        <v>7325831.86001466</v>
       </c>
       <c r="H66">
-        <v>39975550.38970821</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I66">
-        <v>460518340.4894385</v>
+        <v>156235269.8808056</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66">
-        <v>115.2</v>
+        <v>39.30000000000007</v>
       </c>
       <c r="L66">
-        <v>5273515.054654035</v>
+        <v>3843575.485457812</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3730,34 +3730,34 @@
         <v>141</v>
       </c>
       <c r="C67">
-        <v>15562</v>
+        <v>47495</v>
       </c>
       <c r="D67">
-        <v>11.4580484524807</v>
+        <v>8.060000000000002</v>
       </c>
       <c r="E67" t="s">
         <v>142</v>
       </c>
       <c r="F67">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>27007138.60142434</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H67">
-        <v>40176551.31533918</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I67">
-        <v>460344871.6247333</v>
+        <v>320421444.0812446</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67">
-        <v>114.580484524807</v>
+        <v>80.60000000000002</v>
       </c>
       <c r="L67">
-        <v>5273515.054654035</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
   <si>
     <t>Total Cost</t>
   </si>
@@ -197,21 +197,21 @@
     <t>pkmUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -389,12 +389,6 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
-    <t>Werk  Zielitz</t>
-  </si>
-  <si>
-    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
@@ -410,15 +404,9 @@
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>TRIMET Aluminium SE</t>
-  </si>
-  <si>
     <t>AGR mbH</t>
   </si>
   <si>
-    <t>Ruhr Oel GmbH Werk Scholven</t>
-  </si>
-  <si>
     <t>Ruhr Oel GmbH Werk Horst</t>
   </si>
   <si>
@@ -437,10 +425,13 @@
     <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
   </si>
   <si>
-    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
+    <t>Hüttenwerke Krupp Mannesmann GmbH</t>
   </si>
   <si>
     <t>Solvay Chemicals GmbH</t>
+  </si>
+  <si>
+    <t>Dow Olefinverbund GmbH Werk Böhlen</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -1009,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13267234387.58621</v>
+        <v>13267039228.84912</v>
       </c>
       <c r="C2">
-        <v>96.00000000000001</v>
+        <v>95.99999999999999</v>
       </c>
       <c r="D2">
         <v>1190.511948111309</v>
@@ -1030,25 +1021,25 @@
         <v>33.82257948984662</v>
       </c>
       <c r="I2">
-        <v>858.4615384615399</v>
+        <v>858.4615384615383</v>
       </c>
       <c r="J2">
-        <v>240.0000000000005</v>
+        <v>240</v>
       </c>
       <c r="K2">
-        <v>498.4615384615393</v>
+        <v>498.4615384615384</v>
       </c>
       <c r="L2">
-        <v>120.0000000000002</v>
+        <v>120</v>
       </c>
       <c r="M2">
-        <v>248.7145732819777</v>
+        <v>248.7145732819791</v>
       </c>
       <c r="N2">
-        <v>80.88278805917975</v>
+        <v>80.88278805918019</v>
       </c>
       <c r="O2">
-        <v>167.8317852227979</v>
+        <v>167.8317852227989</v>
       </c>
       <c r="P2">
         <v>154.0911111111111</v>
@@ -1189,19 +1180,19 @@
         <v>858</v>
       </c>
       <c r="BJ2">
+        <v>24.2</v>
+      </c>
+      <c r="BK2">
+        <v>130.3</v>
+      </c>
+      <c r="BL2">
+        <v>7.5</v>
+      </c>
+      <c r="BM2">
         <v>414.5</v>
       </c>
-      <c r="BK2">
-        <v>7.5</v>
-      </c>
-      <c r="BL2">
-        <v>24.2</v>
-      </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>120</v>
-      </c>
-      <c r="BN2">
-        <v>130.3</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1263,10 +1254,10 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>1.870000000000004</v>
+        <v>1.870000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1278,13 +1269,13 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>62330154.33333347</v>
+        <v>62330154.33333339</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>18.70000000000004</v>
+        <v>18.70000000000002</v>
       </c>
       <c r="L2">
         <v>3211279.34822684</v>
@@ -1301,10 +1292,10 @@
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>1.659999999999997</v>
+        <v>1.66</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1316,13 +1307,13 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>55330511.33333322</v>
+        <v>55330511.33333334</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>16.59999999999997</v>
+        <v>16.6</v>
       </c>
       <c r="L3">
         <v>3120028.598903444</v>
@@ -1339,10 +1330,10 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>8.560000000000002</v>
+        <v>8.560000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1354,13 +1345,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>286154501.7014364</v>
+        <v>286154501.7014365</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>85.60000000000002</v>
+        <v>85.60000000000004</v>
       </c>
       <c r="L4">
         <v>4640353.526253123</v>
@@ -1377,10 +1368,10 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>9.72999999999999</v>
+        <v>9.729999999999993</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1392,13 +1383,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>325266740.8358613</v>
+        <v>325266740.8358614</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>97.2999999999999</v>
+        <v>97.29999999999993</v>
       </c>
       <c r="L5">
         <v>4786474.22858194</v>
@@ -1418,7 +1409,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -1453,10 +1444,10 @@
         <v>25566</v>
       </c>
       <c r="D7">
-        <v>11.51999999999974</v>
+        <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1468,13 +1459,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>387178241.8914925</v>
+        <v>387178241.8915013</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
-        <v>115.1999999999974</v>
+        <v>115.2</v>
       </c>
       <c r="L7">
         <v>5004876.854845014</v>
@@ -1491,10 +1482,10 @@
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.969999999999998</v>
+        <v>2.969999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1506,13 +1497,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>99819390.4876526</v>
+        <v>99819390.48765253</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>29.69999999999998</v>
+        <v>29.69999999999996</v>
       </c>
       <c r="L8">
         <v>3591695.233391508</v>
@@ -1529,10 +1520,10 @@
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.270000000000011</v>
+        <v>1.27</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1544,13 +1535,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>42683712.43074746</v>
+        <v>42683712.4307471</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.70000000000011</v>
+        <v>12.7</v>
       </c>
       <c r="L9">
         <v>2924239.357757165</v>
@@ -1567,10 +1558,10 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>2.849999999999995</v>
+        <v>2.849999999999997</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1582,13 +1573,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>95786283.8012827</v>
+        <v>95786283.80128276</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>28.49999999999995</v>
+        <v>28.49999999999997</v>
       </c>
       <c r="L10">
         <v>3556025.558079649</v>
@@ -1605,10 +1596,10 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.719999999999996</v>
+        <v>2.719999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -1620,13 +1611,13 @@
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>93497489.1390883</v>
+        <v>93497489.13908842</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.19999999999996</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="L11">
         <v>3516074.693055412</v>
@@ -1646,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1681,10 +1672,10 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>1.530000000000001</v>
+        <v>1.529999999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1696,13 +1687,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>53721560.62898781</v>
+        <v>53721560.62898773</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.30000000000001</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="L13">
         <v>3059058.228987825</v>
@@ -1719,10 +1710,10 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>1.710000000000008</v>
+        <v>1.710000000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1734,13 +1725,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>60041744.23239836</v>
+        <v>60041744.23239815</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.10000000000008</v>
+        <v>17.10000000000002</v>
       </c>
       <c r="L14">
         <v>3142515.846107772</v>
@@ -1757,10 +1748,10 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>7.69999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>0.75</v>
@@ -1772,13 +1763,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>270363409.7014413</v>
+        <v>270363409.7014417</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>76.9999999999999</v>
+        <v>77</v>
       </c>
       <c r="L15">
         <v>4522964.437644095</v>
@@ -1795,10 +1786,10 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>3.219999999999998</v>
+        <v>3.219999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>0.75</v>
@@ -1810,13 +1801,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>113061062.2387846</v>
+        <v>113061062.2387847</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>32.19999999999998</v>
+        <v>32.19999999999999</v>
       </c>
       <c r="L16">
         <v>3662634.134160224</v>
@@ -1833,10 +1824,10 @@
         <v>21107</v>
       </c>
       <c r="D17">
-        <v>2.22999999999999</v>
+        <v>2.230000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -1848,13 +1839,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>78300052.42002758</v>
+        <v>78300052.42002796</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>22.2999999999999</v>
+        <v>22.30000000000001</v>
       </c>
       <c r="L17">
         <v>3351059.927308201</v>
@@ -1871,10 +1862,10 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>3.22999999999999</v>
+        <v>3.229999999999997</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -1886,13 +1877,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>113412183.5500849</v>
+        <v>113412183.5500852</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>32.2999999999999</v>
+        <v>32.29999999999998</v>
       </c>
       <c r="L18">
         <v>3665383.563029062</v>
@@ -1909,10 +1900,10 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>2.25</v>
+        <v>2.249999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -1924,13 +1915,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>79002295.04262909</v>
+        <v>79002295.04262903</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>22.5</v>
+        <v>22.49999999999999</v>
       </c>
       <c r="L19">
         <v>3358308.48673273</v>
@@ -1947,10 +1938,10 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>5.960000000000004</v>
+        <v>5.960000000000008</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -1962,13 +1953,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>209268301.535142</v>
+        <v>209268301.5351422</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.60000000000004</v>
+        <v>59.60000000000008</v>
       </c>
       <c r="L20">
         <v>4251106.766759329</v>
@@ -1985,10 +1976,10 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>4.139999999999986</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -2000,13 +1991,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>145364222.878437</v>
+        <v>145364222.8784375</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.39999999999986</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="L21">
         <v>3892301.737650325</v>
@@ -2023,10 +2014,10 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>4.889999999999985</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -2038,13 +2029,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>171698321.22598</v>
+        <v>171698321.2259805</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>48.89999999999986</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L22">
         <v>4052333.328712357</v>
@@ -2061,10 +2052,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>3.229999999999991</v>
+        <v>3.229999999999997</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -2076,13 +2067,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>113894386.4033286</v>
+        <v>113894386.4033289</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>32.2999999999999</v>
+        <v>32.29999999999998</v>
       </c>
       <c r="L23">
         <v>3665383.563029062</v>
@@ -2099,10 +2090,10 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.310000000000002</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -2114,13 +2105,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>46192460.12023566</v>
+        <v>46192460.12023554</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>13.10000000000002</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="L24">
         <v>2946266.794435292</v>
@@ -2137,10 +2128,10 @@
         <v>28237</v>
       </c>
       <c r="D25">
-        <v>11.52000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2152,13 +2143,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>406211557.6985605</v>
+        <v>406211557.6985603</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>115.2000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L25">
         <v>5273515.054654035</v>
@@ -2175,10 +2166,10 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>5.490000000000009</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26">
         <v>0.8</v>
@@ -2190,13 +2181,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>193585195.4657204</v>
+        <v>193585195.4657201</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.90000000000009</v>
+        <v>54.89999999999999</v>
       </c>
       <c r="L26">
         <v>4167435.864813926</v>
@@ -2213,10 +2204,10 @@
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.689999999999959</v>
+        <v>2.690000000000004</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27">
         <v>0.8</v>
@@ -2228,13 +2219,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>94853219.63620749</v>
+        <v>94853219.63620909</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>26.89999999999959</v>
+        <v>26.90000000000004</v>
       </c>
       <c r="L27">
         <v>3506650.390632065</v>
@@ -2251,10 +2242,10 @@
         <v>26197</v>
       </c>
       <c r="D28">
-        <v>11.52000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2266,13 +2257,13 @@
         <v>35849408.31499194</v>
       </c>
       <c r="I28">
-        <v>412985183.7887076</v>
+        <v>412985183.7887073</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>115.2000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L28">
         <v>5015195.456029908</v>
@@ -2289,10 +2280,10 @@
         <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.650000000000005</v>
+        <v>1.649999999999996</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F29">
         <v>1.4</v>
@@ -2304,13 +2295,13 @@
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>60939943.85143591</v>
+        <v>60939943.85143556</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>16.50000000000005</v>
+        <v>16.49999999999996</v>
       </c>
       <c r="L29">
         <v>3115469.701891457</v>
@@ -2327,10 +2318,10 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>2.460000000000005</v>
+        <v>2.460000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2342,13 +2333,13 @@
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>92595658.49663435</v>
+        <v>92595658.4966342</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.60000000000005</v>
+        <v>24.60000000000001</v>
       </c>
       <c r="L30">
         <v>3431616.232505888</v>
@@ -2365,10 +2356,10 @@
         <v>49086</v>
       </c>
       <c r="D31">
-        <v>1.099999999999995</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>1.8</v>
@@ -2380,13 +2371,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>41640981.54995326</v>
+        <v>41640981.54995351</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>10.99999999999995</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="L31">
         <v>2824291.034417088</v>
@@ -2403,10 +2394,10 @@
         <v>49124</v>
       </c>
       <c r="D32">
-        <v>1.460000000000009</v>
+        <v>1.460000000000003</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32">
         <v>1.8</v>
@@ -2418,13 +2409,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>55268939.14812037</v>
+        <v>55268939.14812016</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>14.60000000000009</v>
+        <v>14.60000000000003</v>
       </c>
       <c r="L32">
         <v>3024585.102161352</v>
@@ -2441,10 +2432,10 @@
         <v>49525</v>
       </c>
       <c r="D33">
-        <v>10.09999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F33">
         <v>1.8</v>
@@ -2456,13 +2447,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>382339921.5041179</v>
+        <v>382339921.5041181</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>100.9999999999999</v>
+        <v>101</v>
       </c>
       <c r="L33">
         <v>4829900.566914583</v>
@@ -2479,10 +2470,10 @@
         <v>49536</v>
       </c>
       <c r="D34">
-        <v>1.49000000000001</v>
+        <v>1.489999999999998</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F34">
         <v>1.8</v>
@@ -2494,13 +2485,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>56404602.28130095</v>
+        <v>56404602.28130051</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>14.90000000000009</v>
+        <v>14.89999999999998</v>
       </c>
       <c r="L34">
         <v>3039509.425943215</v>
@@ -2517,10 +2508,10 @@
         <v>49808</v>
       </c>
       <c r="D35">
-        <v>11.40000000000001</v>
+        <v>11.40000000000002</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F35">
         <v>1.8</v>
@@ -2532,13 +2523,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>431551990.6086088</v>
+        <v>431551990.6086094</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>114.0000000000001</v>
+        <v>114.0000000000002</v>
       </c>
       <c r="L35">
         <v>4973514.536159209</v>
@@ -2555,10 +2546,10 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.849999999999994</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F36">
         <v>1.8</v>
@@ -2570,13 +2561,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>145743435.4248369</v>
+        <v>145743435.4248371</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>38.49999999999994</v>
+        <v>38.50000000000001</v>
       </c>
       <c r="L36">
         <v>3824493.385265881</v>
@@ -2593,10 +2584,10 @@
         <v>49824</v>
       </c>
       <c r="D37">
-        <v>1.599999999999977</v>
+        <v>1.599999999999992</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F37">
         <v>1.8</v>
@@ -2608,13 +2599,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>60568700.43629505</v>
+        <v>60568700.43629565</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>15.99999999999977</v>
+        <v>15.99999999999992</v>
       </c>
       <c r="L37">
         <v>3092355.773228031</v>
@@ -2631,10 +2622,10 @@
         <v>31171</v>
       </c>
       <c r="D38">
-        <v>1.210000000000012</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2646,13 +2637,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>46052954.98855191</v>
+        <v>46052954.98855151</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>12.10000000000012</v>
+        <v>12.10000000000001</v>
       </c>
       <c r="L38">
         <v>2890190.553294488</v>
@@ -2669,10 +2660,10 @@
         <v>31226</v>
       </c>
       <c r="D39">
-        <v>1.639999999999986</v>
+        <v>1.640000000000002</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2684,13 +2675,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>62418881.14150725</v>
+        <v>62418881.14150786</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>16.39999999999986</v>
+        <v>16.40000000000002</v>
       </c>
       <c r="L39">
         <v>3110889.813225406</v>
@@ -2707,10 +2698,10 @@
         <v>31319</v>
       </c>
       <c r="D40">
-        <v>6.169999999999987</v>
+        <v>6.170000000000002</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40">
         <v>1.9</v>
@@ -2722,13 +2713,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>234832010.1482331</v>
+        <v>234832010.1482337</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>61.69999999999987</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="L40">
         <v>4286880.992309345</v>
@@ -2745,10 +2736,10 @@
         <v>31789</v>
       </c>
       <c r="D41">
-        <v>4.159999999999997</v>
+        <v>4.16</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F41">
         <v>1.9</v>
@@ -2760,13 +2751,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I41">
-        <v>158330820.4565074</v>
+        <v>158330820.4565076</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>41.59999999999997</v>
+        <v>41.6</v>
       </c>
       <c r="L41">
         <v>3896843.850100604</v>
@@ -2783,10 +2774,10 @@
         <v>38239</v>
       </c>
       <c r="D42">
-        <v>11.52000000000001</v>
+        <v>11.51999999999999</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2798,13 +2789,13 @@
         <v>38255392.02166688</v>
       </c>
       <c r="I42">
-        <v>440702116.0896028</v>
+        <v>440702116.0896021</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>115.2000000000001</v>
+        <v>115.1999999999999</v>
       </c>
       <c r="L42">
         <v>5273515.054654035</v>
@@ -2821,10 +2812,10 @@
         <v>31061</v>
       </c>
       <c r="D43">
-        <v>3.31</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F43">
         <v>2.1</v>
@@ -2836,7 +2827,7 @@
         <v>38441090.93970785</v>
       </c>
       <c r="I43">
-        <v>127240011.010433</v>
+        <v>127240011.0104329</v>
       </c>
       <c r="J43">
         <v>100</v>
@@ -2859,10 +2850,10 @@
         <v>33106</v>
       </c>
       <c r="D44">
-        <v>2.310000000000001</v>
+        <v>2.309999999999997</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -2874,13 +2865,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>89595300.50431426</v>
+        <v>89595300.50431411</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>23.10000000000002</v>
+        <v>23.09999999999997</v>
       </c>
       <c r="L44">
         <v>3379765.097364126</v>
@@ -2897,10 +2888,10 @@
         <v>33332</v>
       </c>
       <c r="D45">
-        <v>2.580000000000013</v>
+        <v>2.579999999999999</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F45">
         <v>2.3</v>
@@ -2912,13 +2903,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>100067478.4853384</v>
+        <v>100067478.4853379</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>25.80000000000013</v>
+        <v>25.79999999999999</v>
       </c>
       <c r="L45">
         <v>3471397.820165223</v>
@@ -2938,7 +2929,7 @@
         <v>3.879999999999999</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -2956,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="K46">
-        <v>38.79999999999999</v>
+        <v>38.79999999999998</v>
       </c>
       <c r="L46">
         <v>3831684.085287054</v>
@@ -2976,7 +2967,7 @@
         <v>4.469999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -3011,10 +3002,10 @@
         <v>38723</v>
       </c>
       <c r="D48">
-        <v>3.360000000000013</v>
+        <v>3.360000000000001</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -3026,13 +3017,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I48">
-        <v>130320437.0971848</v>
+        <v>130320437.0971844</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>33.60000000000013</v>
+        <v>33.60000000000001</v>
       </c>
       <c r="L48">
         <v>3700552.097367561</v>
@@ -3052,7 +3043,7 @@
         <v>11.52000000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F49">
         <v>2.3</v>
@@ -3064,7 +3055,7 @@
         <v>38785844.374162</v>
       </c>
       <c r="I49">
-        <v>446812927.1903466</v>
+        <v>446812927.1903465</v>
       </c>
       <c r="J49">
         <v>100</v>
@@ -3084,34 +3075,34 @@
         <v>124</v>
       </c>
       <c r="C50">
-        <v>39326</v>
+        <v>58710</v>
       </c>
       <c r="D50">
-        <v>2.55000000000001</v>
+        <v>8.060000000000009</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F50">
         <v>2.5</v>
       </c>
       <c r="G50">
-        <v>4754832.319820861</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H50">
         <v>39097761.98338025</v>
       </c>
       <c r="I50">
-        <v>99699293.05762005</v>
+        <v>315127961.5860452</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>25.50000000000011</v>
+        <v>80.60000000000009</v>
       </c>
       <c r="L50">
-        <v>3461586.123553794</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3122,34 +3113,34 @@
         <v>125</v>
       </c>
       <c r="C51">
-        <v>39418</v>
+        <v>59075</v>
       </c>
       <c r="D51">
-        <v>1.960000000000008</v>
+        <v>2.550000000000002</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F51">
         <v>2.5</v>
       </c>
       <c r="G51">
-        <v>3655164.748267355</v>
+        <v>4754832.319820861</v>
       </c>
       <c r="H51">
         <v>39097761.98338025</v>
       </c>
       <c r="I51">
-        <v>76631613.4874256</v>
+        <v>99699293.05761971</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51">
-        <v>19.60000000000008</v>
+        <v>25.50000000000001</v>
       </c>
       <c r="L51">
-        <v>3248017.696927753</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3160,34 +3151,34 @@
         <v>126</v>
       </c>
       <c r="C52">
-        <v>58710</v>
+        <v>37218</v>
       </c>
       <c r="D52">
-        <v>8.060000000000002</v>
+        <v>3.740000000000001</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F52">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G52">
-        <v>15010968.32739887</v>
+        <v>6971945.468368442</v>
       </c>
       <c r="H52">
-        <v>39097761.98338025</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I52">
-        <v>315127961.5860449</v>
+        <v>147281377.3471339</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52">
-        <v>80.60000000000002</v>
+        <v>37.40000000000001</v>
       </c>
       <c r="L52">
-        <v>4573255.840545377</v>
+        <v>3797758.507656866</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3198,34 +3189,34 @@
         <v>127</v>
       </c>
       <c r="C53">
-        <v>59075</v>
+        <v>37355</v>
       </c>
       <c r="D53">
-        <v>2.55000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F53">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G53">
-        <v>4754832.319820861</v>
+        <v>18987662.48066654</v>
       </c>
       <c r="H53">
-        <v>39097761.98338025</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I53">
-        <v>99699293.05762005</v>
+        <v>404284640.3609725</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53">
-        <v>25.50000000000011</v>
+        <v>102</v>
       </c>
       <c r="L53">
-        <v>3461586.123553794</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3236,34 +3227,34 @@
         <v>128</v>
       </c>
       <c r="C54">
-        <v>37218</v>
+        <v>45329</v>
       </c>
       <c r="D54">
-        <v>3.740000000000009</v>
+        <v>6.19</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F54">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>6971945.468368442</v>
+        <v>11532970.80719121</v>
       </c>
       <c r="H54">
-        <v>39380047.41901974</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I54">
-        <v>147281377.3471342</v>
+        <v>246080488.6926679</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54">
-        <v>37.40000000000009</v>
+        <v>61.89999999999999</v>
       </c>
       <c r="L54">
-        <v>3797758.507656866</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3274,34 +3265,34 @@
         <v>129</v>
       </c>
       <c r="C55">
-        <v>37355</v>
+        <v>45699</v>
       </c>
       <c r="D55">
-        <v>10.19999999999999</v>
+        <v>6.690000000000076</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F55">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>18987662.48066654</v>
+        <v>12463194.18863161</v>
       </c>
       <c r="H55">
-        <v>39635749.05499732</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I55">
-        <v>404284640.3609723</v>
+        <v>265957749.4917556</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55">
-        <v>101.9999999999999</v>
+        <v>66.90000000000076</v>
       </c>
       <c r="L55">
-        <v>4841430.024186624</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3312,34 +3303,34 @@
         <v>130</v>
       </c>
       <c r="C56">
-        <v>45329</v>
+        <v>45899</v>
       </c>
       <c r="D56">
-        <v>6.189999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>11532970.80719121</v>
+        <v>21401602.79478948</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>246080488.6926679</v>
+        <v>457176998.3789469</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
-        <v>61.89999999999998</v>
+        <v>115</v>
       </c>
       <c r="L56">
-        <v>4290239.673387973</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3350,34 +3341,34 @@
         <v>131</v>
       </c>
       <c r="C57">
-        <v>45356</v>
+        <v>46049</v>
       </c>
       <c r="D57">
-        <v>2.494919586501069</v>
+        <v>6.990000000000002</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="G57">
-        <v>4997093.924883411</v>
+        <v>13021230.96247917</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
       </c>
       <c r="I57">
-        <v>99184334.58725238</v>
+        <v>277884105.9712034</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57">
-        <v>24.94919586501069</v>
+        <v>69.90000000000002</v>
       </c>
       <c r="L57">
-        <v>3503491.254460279</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3388,34 +3379,34 @@
         <v>132</v>
       </c>
       <c r="C58">
-        <v>45699</v>
+        <v>47053</v>
       </c>
       <c r="D58">
-        <v>6.689999999999998</v>
+        <v>5.679999999999998</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58">
-        <v>12463194.18863161</v>
+        <v>10583934.16780851</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>265957749.4917525</v>
+        <v>225805682.6776015</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
-        <v>66.89999999999998</v>
+        <v>56.79999999999998</v>
       </c>
       <c r="L58">
-        <v>4371651.546027265</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3426,34 +3417,34 @@
         <v>133</v>
       </c>
       <c r="C59">
-        <v>45896</v>
+        <v>47166</v>
       </c>
       <c r="D59">
-        <v>11.51999999999998</v>
+        <v>11.52</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>27007138.60142434</v>
+        <v>23628643.36424644</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>457972088.8109096</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
-        <v>115.1999999999998</v>
+        <v>115.2</v>
       </c>
       <c r="L59">
-        <v>5273515.054654035</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3464,34 +3455,34 @@
         <v>134</v>
       </c>
       <c r="C60">
-        <v>45899</v>
+        <v>47166</v>
       </c>
       <c r="D60">
-        <v>11.50000000000002</v>
+        <v>9.490000000000002</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>21401602.79478948</v>
+        <v>17668702.74772677</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>457176998.3789477</v>
+        <v>377270409.9666267</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
-        <v>115.0000000000002</v>
+        <v>94.90000000000002</v>
       </c>
       <c r="L60">
-        <v>4984037.426968283</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3502,34 +3493,34 @@
         <v>135</v>
       </c>
       <c r="C61">
-        <v>46049</v>
+        <v>47166</v>
       </c>
       <c r="D61">
-        <v>6.99000000000001</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>13021230.96247917</v>
+        <v>9113441.365831105</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>277884105.9712038</v>
+        <v>194399610.6150479</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
-        <v>69.90000000000011</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L61">
-        <v>4418307.05254629</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3540,34 +3531,34 @@
         <v>136</v>
       </c>
       <c r="C62">
-        <v>47053</v>
+        <v>47259</v>
       </c>
       <c r="D62">
-        <v>5.680000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>10583934.16780851</v>
+        <v>27007138.60142434</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>225805682.6776016</v>
+        <v>457972088.8109105</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
-        <v>56.8</v>
+        <v>115.2</v>
       </c>
       <c r="L62">
-        <v>4201890.346963244</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3578,34 +3569,34 @@
         <v>137</v>
       </c>
       <c r="C63">
-        <v>47166</v>
+        <v>47495</v>
       </c>
       <c r="D63">
-        <v>11.52000000000001</v>
+        <v>8.059999999999997</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63">
-        <v>23628643.36424644</v>
+        <v>15010968.32739887</v>
       </c>
       <c r="H63">
         <v>39754521.5981693</v>
       </c>
       <c r="I63">
-        <v>457972088.8109106</v>
+        <v>320421444.0812444</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63">
-        <v>115.2000000000001</v>
+        <v>80.59999999999997</v>
       </c>
       <c r="L63">
-        <v>5105201.851214484</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3616,148 +3607,34 @@
         <v>138</v>
       </c>
       <c r="C64">
-        <v>47166</v>
+        <v>4564</v>
       </c>
       <c r="D64">
-        <v>9.490000000000011</v>
+        <v>10.93491958650111</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G64">
-        <v>17668702.74772677</v>
+        <v>21030316.26973897</v>
       </c>
       <c r="H64">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I64">
-        <v>377270409.9666271</v>
+        <v>440351707.9766559</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64">
-        <v>94.90000000000011</v>
+        <v>109.3491958650111</v>
       </c>
       <c r="L64">
-        <v>4757631.938664145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65">
-        <v>47166</v>
-      </c>
-      <c r="D65">
-        <v>4.889999999999986</v>
-      </c>
-      <c r="E65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>9113441.365831105</v>
-      </c>
-      <c r="H65">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I65">
-        <v>194399610.6150473</v>
-      </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65">
-        <v>48.89999999999986</v>
-      </c>
-      <c r="L65">
-        <v>4052333.328712357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66">
-        <v>47198</v>
-      </c>
-      <c r="D66">
-        <v>3.930000000000007</v>
-      </c>
-      <c r="E66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>7325831.86001466</v>
-      </c>
-      <c r="H66">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I66">
-        <v>156235269.8808056</v>
-      </c>
-      <c r="J66">
-        <v>100</v>
-      </c>
-      <c r="K66">
-        <v>39.30000000000007</v>
-      </c>
-      <c r="L66">
-        <v>3843575.485457812</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67">
-        <v>47495</v>
-      </c>
-      <c r="D67">
-        <v>8.060000000000002</v>
-      </c>
-      <c r="E67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <v>15010968.32739887</v>
-      </c>
-      <c r="H67">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I67">
-        <v>320421444.0812446</v>
-      </c>
-      <c r="J67">
-        <v>100</v>
-      </c>
-      <c r="K67">
-        <v>80.60000000000002</v>
-      </c>
-      <c r="L67">
-        <v>4573255.840545377</v>
+        <v>4962921.442981876</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="204">
   <si>
     <t>Total Cost</t>
   </si>
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -389,6 +389,12 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>Werk  Zielitz</t>
+  </si>
+  <si>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
@@ -425,16 +431,202 @@
     <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
   </si>
   <si>
-    <t>Hüttenwerke Krupp Mannesmann GmbH</t>
+    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
   </si>
   <si>
     <t>Solvay Chemicals GmbH</t>
   </si>
   <si>
-    <t>Dow Olefinverbund GmbH Werk Böhlen</t>
+    <t>BSR / MHKW</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Ville/Berrenrath</t>
+  </si>
+  <si>
+    <t>MtG</t>
   </si>
   <si>
     <t>PtF-FT1</t>
+  </si>
+  <si>
+    <t>{'Meth': 3487393.97800187, 'MtG': 4444727.840108303, 'FT': 4879006.727884552}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3095903.241680239, 'MtG': 3945587.280523948, 'FT': 4331096.881437624}</t>
+  </si>
+  <si>
+    <t>{'Meth': 15940434.284553453, 'MtG': 20345919.952581324, 'FT': 22333848.978979554}</t>
+  </si>
+  <si>
+    <t>{'Meth': 18114593.910633203, 'MtG': 23126845.927408446, 'FT': 25386489.552041017}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2741666.4448316456, 'MtG': 3493983.9170904844, 'FT': 3835368.9251284986}</t>
+  </si>
+  <si>
+    <t>{'Meth': 21772856.99976025, 'MtG': 27809259.748271197, 'FT': 30526405.730614576}</t>
+  </si>
+  <si>
+    <t>{'Meth': 5537474.182711428, 'MtG': 7059273.628407304, 'FT': 7749010.6854637}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2368753.8965786793, 'MtG': 3018611.9555815747, 'FT': 3313550.0237504714}</t>
+  </si>
+  <si>
+    <t>{'Meth': 5313876.844978522, 'MtG': 6774050.451501959, 'FT': 7435919.344636883}</t>
+  </si>
+  <si>
+    <t>{'Meth': 5071633.194829957, 'MtG': 6465058.676521169, 'FT': 7096737.058741168}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7456203.6692092875, 'MtG': 9507439.23017819, 'FT': 10436378.027560541}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2853533.867243568, 'MtG': 3636595.5055431565, 'FT': 3991914.5955419056}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3189118.573443136, 'MtG': 4064430.2709011757, 'FT': 4461551.60678213}</t>
+  </si>
+  <si>
+    <t>{'Meth': 14341627.495048827, 'MtG': 18301820.518093012, 'FT': 20090027.70305404}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6003264.40165077, 'MtG': 7653488.580293442, 'FT': 8401284.312186236}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4158437.5577930594, 'MtG': 5300397.37082434, 'FT': 5818280.750365}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6021894.954526041, 'MtG': 7677257.178368888, 'FT': 8427375.257255137}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4195714.668279373, 'MtG': 5347934.566975232, 'FT': 5870462.640502805}</t>
+  </si>
+  <si>
+    <t>{'Meth': 11104999.999200322, 'MtG': 14166084.452965502, 'FT': 15550203.261065204}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7716935.3545670165, 'MtG': 9840199.603234423, 'FT': 10801651.25852516}</t>
+  </si>
+  <si>
+    <t>{'Meth': 9113441.365831105, 'MtG': 11622844.458892835, 'FT': 12758472.13869276}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2443339.008220378, 'MtG': 3113686.3478833577, 'FT': 3417913.8040260775}</t>
+  </si>
+  <si>
+    <t>{'Meth': 27007138.60142434, 'MtG': 34515896.339734614, 'FT': 37888324.4415765}</t>
+  </si>
+  <si>
+    <t>{'Meth': 10230317.574675746, 'MtG': 13048960.343419567, 'FT': 14323928.842826845}</t>
+  </si>
+  <si>
+    <t>{'Meth': 5015728.864236233, 'MtG': 6393752.882294831, 'FT': 7018464.223534462}</t>
+  </si>
+  <si>
+    <t>{'Meth': 21958471.983473293, 'MtG': 28046945.729025654, 'FT': 30787315.18130359}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3077259.9314400596, 'MtG': 3921818.6824485026, 'FT': 4305005.936368723}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4587104.703249776, 'MtG': 5847075.126559586, 'FT': 6418372.486949732}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2051752.656756106, 'MtG': 2614545.7882990018, 'FT': 2870003.957579148}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2723021.589861078, 'MtG': 3470215.3190150387, 'FT': 3809277.9800595967}</t>
+  </si>
+  <si>
+    <t>{'Meth': 18801918.172355607, 'MtG': 24006284.056199927, 'FT': 26351854.519590363}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2778955.9108548313, 'MtG': 3541521.1132413754, 'FT': 3887550.815266301}</t>
+  </si>
+  <si>
+    <t>{'Meth': 21215963.57252571, 'MtG': 27096201.806007836, 'FT': 29743677.37854753}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7176830.63573128, 'MtG': 9150910.259046506, 'FT': 10045013.85152702}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2984042.160773337, 'MtG': 3802975.692071275, 'FT': 4174551.211024216}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2256873.78961794, 'MtG': 2876000.3671289016, 'FT': 3157004.353337063}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3058616.539902832, 'MtG': 3898050.084373057, 'FT': 4278914.991299821}</t>
+  </si>
+  <si>
+    <t>{'Meth': 11495757.656832574, 'MtG': 14665225.012549855, 'FT': 16098113.107512131}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7754181.439418147, 'MtG': 9887736.799385315, 'FT': 10853833.14866296}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6170936.453752637, 'MtG': 7867405.96297245, 'FT': 8636102.817806346}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4307544.049353574, 'MtG': 5490546.155427906, 'FT': 6027008.310916212}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4810740.062798683, 'MtG': 6132298.3034649305, 'FT': 6731463.8277765475}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7232706.703717464, 'MtG': 9222216.053272843, 'FT': 10123286.686733723}</t>
+  </si>
+  <si>
+    <t>{'Meth': 8331454.2385598505, 'MtG': 10624563.339724127, 'FT': 11662652.445798906}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6264084.751326288, 'MtG': 7986248.953349681, 'FT': 8766557.543150855}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4754832.319820861, 'MtG': 6060992.509238595, 'FT': 6653190.992569845}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3655164.7482673554, 'MtG': 4658645.222787313, 'FT': 5113825.233504665}</t>
+  </si>
+  <si>
+    <t>{'Meth': 15010968.327398868, 'MtG': 19157490.04880905, 'FT': 21029301.725534488}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6971945.468368442, 'MtG': 8889455.680216607, 'FT': 9758013.455769105}</t>
+  </si>
+  <si>
+    <t>{'Meth': 18987662.48066654, 'MtG': 24243970.03695438, 'FT': 26612763.97027938}</t>
+  </si>
+  <si>
+    <t>{'Meth': 11532970.807191214, 'MtG': 14712762.208700748, 'FT': 16150294.997649936}</t>
+  </si>
+  <si>
+    <t>{'Meth': 12463194.188631605, 'MtG': 15901192.112473022, 'FT': 17454842.251095004}</t>
+  </si>
+  <si>
+    <t>{'Meth': 21401602.794789482, 'MtG': 27333887.786762293, 'FT': 30004586.829236556}</t>
+  </si>
+  <si>
+    <t>{'Meth': 13021230.962479174, 'MtG': 16614250.054736383, 'FT': 18237570.603162043}</t>
+  </si>
+  <si>
+    <t>{'Meth': 10583934.167808509, 'MtG': 13500563.706853025, 'FT': 14819656.799135963}</t>
+  </si>
+  <si>
+    <t>{'Meth': 23628643.364246435, 'MtG': 30186119.555815745, 'FT': 33135500.23750471}</t>
+  </si>
+  <si>
+    <t>{'Meth': 17668702.747726772, 'MtG': 22556399.573597748, 'FT': 24760306.870387375}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7325831.86001466, 'MtG': 9341059.04365007, 'FT': 10253741.41207823}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7418954.986766862, 'MtG': 9459902.034027299, 'FT': 10384196.137422739}</t>
+  </si>
+  <si>
+    <t>{'Meth': 20101958.5303517, 'MtG': 25670085.921481106, 'FT': 28178220.674413458}</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13267039228.84912</v>
+        <v>13506690818.90995</v>
       </c>
       <c r="C2">
-        <v>95.99999999999999</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>1190.511948111309</v>
@@ -1015,10 +1207,10 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>330.4949195865012</v>
+        <v>331.0757941250727</v>
       </c>
       <c r="H2">
-        <v>33.82257948984662</v>
+        <v>30.15963365760841</v>
       </c>
       <c r="I2">
         <v>858.4615384615383</v>
@@ -1036,7 +1228,7 @@
         <v>248.7145732819791</v>
       </c>
       <c r="N2">
-        <v>80.88278805918019</v>
+        <v>80.8827880591802</v>
       </c>
       <c r="O2">
         <v>167.8317852227989</v>
@@ -1066,31 +1258,31 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>141.9507589561625</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>141.9507589561625</v>
       </c>
       <c r="Z2">
-        <v>278.3115112307378</v>
+        <v>141.6084210526316</v>
       </c>
       <c r="AA2">
-        <v>86.00598784560997</v>
+        <v>43.76093567251463</v>
       </c>
       <c r="AB2">
-        <v>192.3055233851278</v>
+        <v>97.84748538011695</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-6.564332929285719e-18</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-1.608261567675001e-18</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-1.969299878785716e-19</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-4.759141373732146e-18</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1099,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>321.227980977466</v>
+        <v>399.9430126483085</v>
       </c>
       <c r="AJ2">
-        <v>321.227980977466</v>
+        <v>399.9430126483085</v>
       </c>
       <c r="AK2">
-        <v>450.772019022534</v>
+        <v>372.0569873516916</v>
       </c>
       <c r="AL2">
-        <v>450.772019022534</v>
+        <v>372.0569873516916</v>
       </c>
       <c r="AM2">
         <v>6.75</v>
@@ -1165,10 +1357,10 @@
         <v>41.45</v>
       </c>
       <c r="BE2">
-        <v>406.8887759047903</v>
+        <v>506.5944826878574</v>
       </c>
       <c r="BF2">
-        <v>1074.598847069465</v>
+        <v>980.1408090644542</v>
       </c>
       <c r="BG2">
         <v>120</v>
@@ -1177,22 +1369,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>130.3</v>
+      </c>
+      <c r="BJ2">
+        <v>414.5</v>
+      </c>
+      <c r="BK2">
         <v>858</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
+        <v>120</v>
+      </c>
+      <c r="BM2">
+        <v>7.5</v>
+      </c>
+      <c r="BN2">
         <v>24.2</v>
-      </c>
-      <c r="BK2">
-        <v>130.3</v>
-      </c>
-      <c r="BL2">
-        <v>7.5</v>
-      </c>
-      <c r="BM2">
-        <v>414.5</v>
-      </c>
-      <c r="BN2">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,28 +1446,28 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>1.870000000000002</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>3487393.97800187</v>
+      <c r="G2" t="s">
+        <v>144</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>62330154.33333339</v>
+        <v>62330154.33333338</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>18.70000000000002</v>
+        <v>18.70000000000001</v>
       </c>
       <c r="L2">
         <v>3211279.34822684</v>
@@ -1292,28 +1484,28 @@
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>1.66</v>
+        <v>1.660000000000003</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>3095903.241680239</v>
+      <c r="G3" t="s">
+        <v>145</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>55330511.33333334</v>
+        <v>55330511.33333343</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>16.6</v>
+        <v>16.60000000000003</v>
       </c>
       <c r="L3">
         <v>3120028.598903444</v>
@@ -1330,28 +1522,28 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>8.560000000000004</v>
+        <v>8.560000000000009</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4">
-        <v>15940434.28455345</v>
+      <c r="G4" t="s">
+        <v>146</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>286154501.7014365</v>
+        <v>286154501.7014366</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>85.60000000000004</v>
+        <v>85.60000000000009</v>
       </c>
       <c r="L4">
         <v>4640353.526253123</v>
@@ -1368,28 +1560,28 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>9.729999999999993</v>
+        <v>9.729999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="G5">
-        <v>18114593.9106332</v>
+      <c r="G5" t="s">
+        <v>147</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>325266740.8358614</v>
+        <v>325266740.8358616</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>97.29999999999993</v>
+        <v>97.29999999999998</v>
       </c>
       <c r="L5">
         <v>4786474.22858194</v>
@@ -1406,28 +1598,28 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>1.469999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6">
-        <v>2741666.444831646</v>
+      <c r="G6" t="s">
+        <v>148</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>49141018.39966252</v>
+        <v>49141018.39966254</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>14.69999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="L6">
         <v>3029585.493423196</v>
@@ -1447,19 +1639,19 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
-      <c r="G7">
-        <v>21772856.99976025</v>
+      <c r="G7" t="s">
+        <v>149</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>387178241.8915013</v>
+        <v>387178241.8915014</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1482,28 +1674,28 @@
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.969999999999996</v>
+        <v>2.969999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
-      <c r="G8">
-        <v>5537474.182711428</v>
+      <c r="G8" t="s">
+        <v>150</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>99819390.48765253</v>
+        <v>99819390.48765258</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>29.69999999999996</v>
+        <v>29.69999999999997</v>
       </c>
       <c r="L8">
         <v>3591695.233391508</v>
@@ -1520,28 +1712,28 @@
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.27</v>
+        <v>1.269999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
-      <c r="G9">
-        <v>2368753.896578679</v>
+      <c r="G9" t="s">
+        <v>151</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>42683712.4307471</v>
+        <v>42683712.43074708</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.7</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="L9">
         <v>2924239.357757165</v>
@@ -1558,28 +1750,28 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>2.849999999999997</v>
+        <v>2.850000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>0.2</v>
       </c>
-      <c r="G10">
-        <v>5313876.844978522</v>
+      <c r="G10" t="s">
+        <v>152</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>95786283.80128276</v>
+        <v>95786283.80128293</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>28.49999999999997</v>
+        <v>28.50000000000002</v>
       </c>
       <c r="L10">
         <v>3556025.558079649</v>
@@ -1596,28 +1788,28 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.719999999999999</v>
+        <v>2.720000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <v>5071633.194829957</v>
+      <c r="G11" t="s">
+        <v>153</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>93497489.13908842</v>
+        <v>93497489.1390886</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.19999999999999</v>
+        <v>27.20000000000004</v>
       </c>
       <c r="L11">
         <v>3516074.693055412</v>
@@ -1637,13 +1829,13 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>0.7</v>
       </c>
-      <c r="G12">
-        <v>7456203.669209288</v>
+      <c r="G12" t="s">
+        <v>154</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
@@ -1672,28 +1864,28 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>1.529999999999999</v>
+        <v>1.530000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
-      <c r="G13">
-        <v>2853533.867243568</v>
+      <c r="G13" t="s">
+        <v>155</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>53721560.62898773</v>
+        <v>53721560.62898779</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.29999999999999</v>
+        <v>15.30000000000001</v>
       </c>
       <c r="L13">
         <v>3059058.228987825</v>
@@ -1713,19 +1905,19 @@
         <v>1.710000000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
-      <c r="G14">
-        <v>3189118.573443136</v>
+      <c r="G14" t="s">
+        <v>156</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>60041744.23239815</v>
+        <v>60041744.23239816</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -1748,28 +1940,28 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>7.7</v>
+        <v>7.700000000000006</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F15">
         <v>0.75</v>
       </c>
-      <c r="G15">
-        <v>14341627.49504883</v>
+      <c r="G15" t="s">
+        <v>157</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>270363409.7014417</v>
+        <v>270363409.7014419</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>77</v>
+        <v>77.00000000000006</v>
       </c>
       <c r="L15">
         <v>4522964.437644095</v>
@@ -1786,16 +1978,16 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>3.219999999999999</v>
+        <v>3.219999999999998</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>0.75</v>
       </c>
-      <c r="G16">
-        <v>6003264.40165077</v>
+      <c r="G16" t="s">
+        <v>158</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
@@ -1807,7 +1999,7 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>32.19999999999999</v>
+        <v>32.19999999999998</v>
       </c>
       <c r="L16">
         <v>3662634.134160224</v>
@@ -1824,28 +2016,28 @@
         <v>21107</v>
       </c>
       <c r="D17">
-        <v>2.230000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F17">
         <v>0.75</v>
       </c>
-      <c r="G17">
-        <v>4158437.557793059</v>
+      <c r="G17" t="s">
+        <v>159</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>78300052.42002796</v>
+        <v>78300052.42002793</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>22.30000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="L17">
         <v>3351059.927308201</v>
@@ -1862,28 +2054,28 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>3.229999999999997</v>
+        <v>3.23</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F18">
         <v>0.75</v>
       </c>
-      <c r="G18">
-        <v>6021894.954526041</v>
+      <c r="G18" t="s">
+        <v>160</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>113412183.5500852</v>
+        <v>113412183.5500853</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>32.29999999999998</v>
+        <v>32.3</v>
       </c>
       <c r="L18">
         <v>3665383.563029062</v>
@@ -1900,28 +2092,28 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>2.249999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>0.75</v>
       </c>
-      <c r="G19">
-        <v>4195714.668279373</v>
+      <c r="G19" t="s">
+        <v>161</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>79002295.04262903</v>
+        <v>79002295.04262909</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>22.49999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="L19">
         <v>3358308.48673273</v>
@@ -1938,28 +2130,28 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>5.960000000000008</v>
+        <v>5.960000000000003</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F20">
         <v>0.75</v>
       </c>
-      <c r="G20">
-        <v>11104999.99920032</v>
+      <c r="G20" t="s">
+        <v>162</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>209268301.5351422</v>
+        <v>209268301.535142</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.60000000000008</v>
+        <v>59.60000000000002</v>
       </c>
       <c r="L20">
         <v>4251106.766759329</v>
@@ -1976,28 +2168,28 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>4.140000000000001</v>
+        <v>4.140000000000014</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21">
         <v>0.75</v>
       </c>
-      <c r="G21">
-        <v>7716935.354567016</v>
+      <c r="G21" t="s">
+        <v>163</v>
       </c>
       <c r="H21">
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>145364222.8784375</v>
+        <v>145364222.878438</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.40000000000001</v>
+        <v>41.40000000000014</v>
       </c>
       <c r="L21">
         <v>3892301.737650325</v>
@@ -2017,13 +2209,13 @@
         <v>4.890000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22">
         <v>0.75</v>
       </c>
-      <c r="G22">
-        <v>9113441.365831105</v>
+      <c r="G22" t="s">
+        <v>164</v>
       </c>
       <c r="H22">
         <v>35112131.13005736</v>
@@ -2052,28 +2244,28 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>3.229999999999997</v>
+        <v>3.230000000000002</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F23">
         <v>0.8</v>
       </c>
-      <c r="G23">
-        <v>6021894.954526041</v>
+      <c r="G23" t="s">
+        <v>160</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>113894386.4033289</v>
+        <v>113894386.403329</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>32.29999999999998</v>
+        <v>32.30000000000003</v>
       </c>
       <c r="L23">
         <v>3665383.563029062</v>
@@ -2093,19 +2285,19 @@
         <v>1.309999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <v>0.8</v>
       </c>
-      <c r="G24">
-        <v>2443339.008220378</v>
+      <c r="G24" t="s">
+        <v>165</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>46192460.12023554</v>
+        <v>46192460.12023553</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2131,19 +2323,19 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F25">
         <v>0.8</v>
       </c>
-      <c r="G25">
-        <v>27007138.60142434</v>
+      <c r="G25" t="s">
+        <v>166</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>406211557.6985603</v>
+        <v>406211557.6985604</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -2166,16 +2358,16 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>5.489999999999999</v>
+        <v>5.490000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F26">
         <v>0.8</v>
       </c>
-      <c r="G26">
-        <v>10230317.57467575</v>
+      <c r="G26" t="s">
+        <v>167</v>
       </c>
       <c r="H26">
         <v>35261419.93911113</v>
@@ -2187,7 +2379,7 @@
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.89999999999999</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="L26">
         <v>4167435.864813926</v>
@@ -2204,28 +2396,28 @@
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.690000000000004</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F27">
         <v>0.8</v>
       </c>
-      <c r="G27">
-        <v>5015728.864236233</v>
+      <c r="G27" t="s">
+        <v>168</v>
       </c>
       <c r="H27">
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>94853219.63620909</v>
+        <v>94853219.63620897</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>26.90000000000004</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="L27">
         <v>3506650.390632065</v>
@@ -2245,13 +2437,13 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>21958471.98347329</v>
+      <c r="G28" t="s">
+        <v>169</v>
       </c>
       <c r="H28">
         <v>35849408.31499194</v>
@@ -2280,28 +2472,28 @@
         <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.649999999999996</v>
+        <v>1.649999999999998</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>1.4</v>
       </c>
-      <c r="G29">
-        <v>3077259.93144006</v>
+      <c r="G29" t="s">
+        <v>170</v>
       </c>
       <c r="H29">
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>60939943.85143556</v>
+        <v>60939943.85143565</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>16.49999999999996</v>
+        <v>16.49999999999998</v>
       </c>
       <c r="L29">
         <v>3115469.701891457</v>
@@ -2318,28 +2510,28 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>2.460000000000001</v>
+        <v>2.460000000000003</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F30">
         <v>1.7</v>
       </c>
-      <c r="G30">
-        <v>4587104.703249776</v>
+      <c r="G30" t="s">
+        <v>171</v>
       </c>
       <c r="H30">
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>92595658.4966342</v>
+        <v>92595658.49663429</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.60000000000001</v>
+        <v>24.60000000000003</v>
       </c>
       <c r="L30">
         <v>3431616.232505888</v>
@@ -2359,13 +2551,13 @@
         <v>1.100000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
-      <c r="G31">
-        <v>2051752.656756106</v>
+      <c r="G31" t="s">
+        <v>172</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2397,19 +2589,19 @@
         <v>1.460000000000003</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
-      <c r="G32">
-        <v>2723021.589861078</v>
+      <c r="G32" t="s">
+        <v>173</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>55268939.14812016</v>
+        <v>55268939.14812015</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -2435,19 +2627,19 @@
         <v>10.1</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
-      <c r="G33">
-        <v>18801918.17235561</v>
+      <c r="G33" t="s">
+        <v>174</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>382339921.5041181</v>
+        <v>382339921.5041182</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -2470,28 +2662,28 @@
         <v>49536</v>
       </c>
       <c r="D34">
-        <v>1.489999999999998</v>
+        <v>1.489999999999995</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
-      <c r="G34">
-        <v>2778955.910854831</v>
+      <c r="G34" t="s">
+        <v>175</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>56404602.28130051</v>
+        <v>56404602.2813004</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>14.89999999999998</v>
+        <v>14.89999999999995</v>
       </c>
       <c r="L34">
         <v>3039509.425943215</v>
@@ -2508,28 +2700,28 @@
         <v>49808</v>
       </c>
       <c r="D35">
-        <v>11.40000000000002</v>
+        <v>11.39999999999998</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
-      <c r="G35">
-        <v>21215963.57252571</v>
+      <c r="G35" t="s">
+        <v>176</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>431551990.6086094</v>
+        <v>431551990.6086079</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>114.0000000000002</v>
+        <v>113.9999999999998</v>
       </c>
       <c r="L35">
         <v>4973514.536159209</v>
@@ -2546,28 +2738,28 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.850000000000001</v>
+        <v>3.850000000000002</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
-      <c r="G36">
-        <v>7176830.63573128</v>
+      <c r="G36" t="s">
+        <v>177</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>145743435.4248371</v>
+        <v>145743435.4248372</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>38.50000000000001</v>
+        <v>38.50000000000002</v>
       </c>
       <c r="L36">
         <v>3824493.385265881</v>
@@ -2584,28 +2776,28 @@
         <v>49824</v>
       </c>
       <c r="D37">
-        <v>1.599999999999992</v>
+        <v>1.600000000000003</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F37">
         <v>1.8</v>
       </c>
-      <c r="G37">
-        <v>2984042.160773337</v>
+      <c r="G37" t="s">
+        <v>178</v>
       </c>
       <c r="H37">
         <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>60568700.43629565</v>
+        <v>60568700.43629605</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>15.99999999999992</v>
+        <v>16.00000000000003</v>
       </c>
       <c r="L37">
         <v>3092355.773228031</v>
@@ -2625,13 +2817,13 @@
         <v>1.210000000000001</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
-      <c r="G38">
-        <v>2256873.78961794</v>
+      <c r="G38" t="s">
+        <v>179</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
@@ -2660,28 +2852,28 @@
         <v>31226</v>
       </c>
       <c r="D39">
-        <v>1.640000000000002</v>
+        <v>1.640000000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
-      <c r="G39">
-        <v>3058616.539902832</v>
+      <c r="G39" t="s">
+        <v>180</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>62418881.14150786</v>
+        <v>62418881.14150781</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>16.40000000000002</v>
+        <v>16.40000000000001</v>
       </c>
       <c r="L39">
         <v>3110889.813225406</v>
@@ -2698,28 +2890,28 @@
         <v>31319</v>
       </c>
       <c r="D40">
-        <v>6.170000000000002</v>
+        <v>6.17</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <v>1.9</v>
       </c>
-      <c r="G40">
-        <v>11495757.65683257</v>
+      <c r="G40" t="s">
+        <v>181</v>
       </c>
       <c r="H40">
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>234832010.1482337</v>
+        <v>234832010.1482336</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>61.70000000000002</v>
+        <v>61.7</v>
       </c>
       <c r="L40">
         <v>4286880.992309345</v>
@@ -2736,28 +2928,28 @@
         <v>31789</v>
       </c>
       <c r="D41">
-        <v>4.16</v>
+        <v>4.159999999999991</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F41">
         <v>1.9</v>
       </c>
-      <c r="G41">
-        <v>7754181.439418147</v>
+      <c r="G41" t="s">
+        <v>182</v>
       </c>
       <c r="H41">
         <v>38060293.37896816</v>
       </c>
       <c r="I41">
-        <v>158330820.4565076</v>
+        <v>158330820.4565072</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>41.6</v>
+        <v>41.59999999999991</v>
       </c>
       <c r="L41">
         <v>3896843.850100604</v>
@@ -2774,28 +2966,28 @@
         <v>38239</v>
       </c>
       <c r="D42">
-        <v>11.51999999999999</v>
+        <v>11.52</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42">
-        <v>27007138.60142434</v>
+      <c r="G42" t="s">
+        <v>166</v>
       </c>
       <c r="H42">
         <v>38255392.02166688</v>
       </c>
       <c r="I42">
-        <v>440702116.0896021</v>
+        <v>440702116.0896024</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>115.1999999999999</v>
+        <v>115.2</v>
       </c>
       <c r="L42">
         <v>5273515.054654035</v>
@@ -2812,28 +3004,28 @@
         <v>31061</v>
       </c>
       <c r="D43">
-        <v>3.309999999999999</v>
+        <v>3.310000000000006</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F43">
         <v>2.1</v>
       </c>
-      <c r="G43">
-        <v>6170936.453752637</v>
+      <c r="G43" t="s">
+        <v>183</v>
       </c>
       <c r="H43">
         <v>38441090.93970785</v>
       </c>
       <c r="I43">
-        <v>127240011.0104329</v>
+        <v>127240011.0104332</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>33.09999999999999</v>
+        <v>33.10000000000006</v>
       </c>
       <c r="L43">
         <v>3687149.882920415</v>
@@ -2850,28 +3042,28 @@
         <v>33106</v>
       </c>
       <c r="D44">
-        <v>2.309999999999997</v>
+        <v>2.309999999999998</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
-      <c r="G44">
-        <v>4307544.049353574</v>
+      <c r="G44" t="s">
+        <v>184</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>89595300.50431411</v>
+        <v>89595300.50431414</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>23.09999999999997</v>
+        <v>23.09999999999998</v>
       </c>
       <c r="L44">
         <v>3379765.097364126</v>
@@ -2891,13 +3083,13 @@
         <v>2.579999999999999</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
-      <c r="G45">
-        <v>4810740.062798683</v>
+      <c r="G45" t="s">
+        <v>185</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
@@ -2926,16 +3118,16 @@
         <v>33609</v>
       </c>
       <c r="D46">
-        <v>3.879999999999999</v>
+        <v>3.879999999999998</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F46">
         <v>2.3</v>
       </c>
-      <c r="G46">
-        <v>7232706.703717464</v>
+      <c r="G46" t="s">
+        <v>186</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
@@ -2964,28 +3156,28 @@
         <v>38372</v>
       </c>
       <c r="D47">
-        <v>4.469999999999999</v>
+        <v>4.469999999999998</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F47">
         <v>2.3</v>
       </c>
-      <c r="G47">
-        <v>8331454.23855985</v>
+      <c r="G47" t="s">
+        <v>187</v>
       </c>
       <c r="H47">
         <v>38785844.374162</v>
       </c>
       <c r="I47">
-        <v>173372724.3525041</v>
+        <v>173372724.352504</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>44.69999999999999</v>
+        <v>44.69999999999998</v>
       </c>
       <c r="L47">
         <v>3965215.892681056</v>
@@ -3002,28 +3194,28 @@
         <v>38723</v>
       </c>
       <c r="D48">
-        <v>3.360000000000001</v>
+        <v>3.359999999999998</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F48">
         <v>2.3</v>
       </c>
-      <c r="G48">
-        <v>6264084.751326288</v>
+      <c r="G48" t="s">
+        <v>188</v>
       </c>
       <c r="H48">
         <v>38785844.374162</v>
       </c>
       <c r="I48">
-        <v>130320437.0971844</v>
+        <v>130320437.0971842</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>33.60000000000001</v>
+        <v>33.59999999999998</v>
       </c>
       <c r="L48">
         <v>3700552.097367561</v>
@@ -3040,28 +3232,28 @@
         <v>39596</v>
       </c>
       <c r="D49">
-        <v>11.52000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F49">
         <v>2.3</v>
       </c>
-      <c r="G49">
-        <v>27007138.60142434</v>
+      <c r="G49" t="s">
+        <v>166</v>
       </c>
       <c r="H49">
         <v>38785844.374162</v>
       </c>
       <c r="I49">
-        <v>446812927.1903465</v>
+        <v>446812927.1903463</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49">
-        <v>115.2000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L49">
         <v>5273515.054654035</v>
@@ -3075,34 +3267,34 @@
         <v>124</v>
       </c>
       <c r="C50">
-        <v>58710</v>
+        <v>39326</v>
       </c>
       <c r="D50">
-        <v>8.060000000000009</v>
+        <v>2.550000000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F50">
         <v>2.5</v>
       </c>
-      <c r="G50">
-        <v>15010968.32739887</v>
+      <c r="G50" t="s">
+        <v>189</v>
       </c>
       <c r="H50">
         <v>39097761.98338025</v>
       </c>
       <c r="I50">
-        <v>315127961.5860452</v>
+        <v>99699293.05761966</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>80.60000000000009</v>
+        <v>25.50000000000001</v>
       </c>
       <c r="L50">
-        <v>4573255.840545377</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3113,34 +3305,34 @@
         <v>125</v>
       </c>
       <c r="C51">
-        <v>59075</v>
+        <v>39418</v>
       </c>
       <c r="D51">
-        <v>2.550000000000002</v>
+        <v>1.960000000000001</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F51">
         <v>2.5</v>
       </c>
-      <c r="G51">
-        <v>4754832.319820861</v>
+      <c r="G51" t="s">
+        <v>190</v>
       </c>
       <c r="H51">
         <v>39097761.98338025</v>
       </c>
       <c r="I51">
-        <v>99699293.05761971</v>
+        <v>76631613.48742531</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51">
-        <v>25.50000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="L51">
-        <v>3461586.123553794</v>
+        <v>3248017.696927753</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3151,34 +3343,34 @@
         <v>126</v>
       </c>
       <c r="C52">
-        <v>37218</v>
+        <v>58710</v>
       </c>
       <c r="D52">
-        <v>3.740000000000001</v>
+        <v>8.059999999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F52">
-        <v>2.7</v>
-      </c>
-      <c r="G52">
-        <v>6971945.468368442</v>
+        <v>2.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>191</v>
       </c>
       <c r="H52">
-        <v>39380047.41901974</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I52">
-        <v>147281377.3471339</v>
+        <v>315127961.5860448</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52">
-        <v>37.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L52">
-        <v>3797758.507656866</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3189,34 +3381,34 @@
         <v>127</v>
       </c>
       <c r="C53">
-        <v>37355</v>
+        <v>59075</v>
       </c>
       <c r="D53">
-        <v>10.2</v>
+        <v>2.550000000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F53">
-        <v>2.9</v>
-      </c>
-      <c r="G53">
-        <v>18987662.48066654</v>
+        <v>2.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>189</v>
       </c>
       <c r="H53">
-        <v>39635749.05499732</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I53">
-        <v>404284640.3609725</v>
+        <v>99699293.05761966</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53">
-        <v>102</v>
+        <v>25.50000000000001</v>
       </c>
       <c r="L53">
-        <v>4841430.024186624</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3227,34 +3419,34 @@
         <v>128</v>
       </c>
       <c r="C54">
-        <v>45329</v>
+        <v>37218</v>
       </c>
       <c r="D54">
-        <v>6.19</v>
+        <v>3.740000000000002</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>11532970.80719121</v>
+        <v>2.7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>192</v>
       </c>
       <c r="H54">
-        <v>39754521.5981693</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I54">
-        <v>246080488.6926679</v>
+        <v>147281377.3471339</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54">
-        <v>61.89999999999999</v>
+        <v>37.40000000000003</v>
       </c>
       <c r="L54">
-        <v>4290239.673387973</v>
+        <v>3797758.507656866</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3265,34 +3457,34 @@
         <v>129</v>
       </c>
       <c r="C55">
-        <v>45699</v>
+        <v>37355</v>
       </c>
       <c r="D55">
-        <v>6.690000000000076</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>12463194.18863161</v>
+        <v>2.9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>193</v>
       </c>
       <c r="H55">
-        <v>39754521.5981693</v>
+        <v>39635749.05499732</v>
       </c>
       <c r="I55">
-        <v>265957749.4917556</v>
+        <v>404284640.3609722</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55">
-        <v>66.90000000000076</v>
+        <v>101.9999999999999</v>
       </c>
       <c r="L55">
-        <v>4371651.546027265</v>
+        <v>4841430.024186624</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3303,34 +3495,34 @@
         <v>130</v>
       </c>
       <c r="C56">
-        <v>45899</v>
+        <v>45329</v>
       </c>
       <c r="D56">
-        <v>11.5</v>
+        <v>6.190000000000005</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
-      <c r="G56">
-        <v>21401602.79478948</v>
+      <c r="G56" t="s">
+        <v>194</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>457176998.3789469</v>
+        <v>246080488.6926681</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
-        <v>115</v>
+        <v>61.90000000000005</v>
       </c>
       <c r="L56">
-        <v>4984037.426968283</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3341,34 +3533,34 @@
         <v>131</v>
       </c>
       <c r="C57">
-        <v>46049</v>
+        <v>45699</v>
       </c>
       <c r="D57">
-        <v>6.990000000000002</v>
+        <v>6.690000000000002</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57">
-        <v>13021230.96247917</v>
+      <c r="G57" t="s">
+        <v>195</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
       </c>
       <c r="I57">
-        <v>277884105.9712034</v>
+        <v>265957749.4917527</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57">
-        <v>69.90000000000002</v>
+        <v>66.90000000000002</v>
       </c>
       <c r="L57">
-        <v>4418307.05254629</v>
+        <v>4371651.546027265</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3379,34 +3571,34 @@
         <v>132</v>
       </c>
       <c r="C58">
-        <v>47053</v>
+        <v>45899</v>
       </c>
       <c r="D58">
-        <v>5.679999999999998</v>
+        <v>11.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>10583934.16780851</v>
+      <c r="G58" t="s">
+        <v>196</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>225805682.6776015</v>
+        <v>457176998.3789468</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
-        <v>56.79999999999998</v>
+        <v>115</v>
       </c>
       <c r="L58">
-        <v>4201890.346963244</v>
+        <v>4984037.426968283</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3417,34 +3609,34 @@
         <v>133</v>
       </c>
       <c r="C59">
-        <v>47166</v>
+        <v>46049</v>
       </c>
       <c r="D59">
-        <v>11.52</v>
+        <v>6.990000000000005</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
-      <c r="G59">
-        <v>23628643.36424644</v>
+      <c r="G59" t="s">
+        <v>197</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>457972088.8109104</v>
+        <v>277884105.9712036</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
-        <v>115.2</v>
+        <v>69.90000000000005</v>
       </c>
       <c r="L59">
-        <v>5105201.851214484</v>
+        <v>4418307.05254629</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3455,34 +3647,34 @@
         <v>134</v>
       </c>
       <c r="C60">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D60">
-        <v>9.490000000000002</v>
+        <v>5.680000000000002</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>17668702.74772677</v>
+      <c r="G60" t="s">
+        <v>198</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>377270409.9666267</v>
+        <v>225805682.6776017</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
-        <v>94.90000000000002</v>
+        <v>56.80000000000003</v>
       </c>
       <c r="L60">
-        <v>4757631.938664145</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3496,31 +3688,31 @@
         <v>47166</v>
       </c>
       <c r="D61">
-        <v>4.890000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>9113441.365831105</v>
+      <c r="G61" t="s">
+        <v>199</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>194399610.6150479</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
-        <v>48.90000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L61">
-        <v>4052333.328712357</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3531,34 +3723,34 @@
         <v>136</v>
       </c>
       <c r="C62">
-        <v>47259</v>
+        <v>47166</v>
       </c>
       <c r="D62">
-        <v>11.52</v>
+        <v>9.490000000000038</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>27007138.60142434</v>
+      <c r="G62" t="s">
+        <v>200</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>457972088.8109105</v>
+        <v>377270409.9666281</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
-        <v>115.2</v>
+        <v>94.90000000000038</v>
       </c>
       <c r="L62">
-        <v>5273515.054654035</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3569,34 +3761,34 @@
         <v>137</v>
       </c>
       <c r="C63">
-        <v>47495</v>
+        <v>47166</v>
       </c>
       <c r="D63">
-        <v>8.059999999999997</v>
+        <v>4.889999999999994</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>15010968.32739887</v>
+      <c r="G63" t="s">
+        <v>164</v>
       </c>
       <c r="H63">
         <v>39754521.5981693</v>
       </c>
       <c r="I63">
-        <v>320421444.0812444</v>
+        <v>194399610.6150476</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63">
-        <v>80.59999999999997</v>
+        <v>48.89999999999994</v>
       </c>
       <c r="L63">
-        <v>4573255.840545377</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3607,34 +3799,148 @@
         <v>138</v>
       </c>
       <c r="C64">
-        <v>4564</v>
+        <v>47198</v>
       </c>
       <c r="D64">
-        <v>10.93491958650111</v>
+        <v>3.93</v>
       </c>
       <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I64">
+        <v>156235269.8808053</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64">
+        <v>39.3</v>
+      </c>
+      <c r="L64">
+        <v>3843575.485457812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>139</v>
       </c>
-      <c r="F64">
+      <c r="C65">
+        <v>47495</v>
+      </c>
+      <c r="D65">
+        <v>8.060000000000004</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I65">
+        <v>320421444.0812447</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>80.60000000000004</v>
+      </c>
+      <c r="L65">
+        <v>4573255.840545377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66">
+        <v>13597</v>
+      </c>
+      <c r="D66">
+        <v>3.98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66">
+        <v>3.1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66">
+        <v>39867684.89458863</v>
+      </c>
+      <c r="I66">
+        <v>158673385.8804628</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>39.8</v>
+      </c>
+      <c r="L66">
+        <v>3855352.754713441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67">
+        <v>50354</v>
+      </c>
+      <c r="D67">
+        <v>10.61579412507253</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67">
         <v>3.5</v>
       </c>
-      <c r="G64">
-        <v>21030316.26973897</v>
-      </c>
-      <c r="H64">
+      <c r="G67" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67">
         <v>40270228.28044015</v>
       </c>
-      <c r="I64">
-        <v>440351707.9766559</v>
-      </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64">
-        <v>109.3491958650111</v>
-      </c>
-      <c r="L64">
-        <v>4962921.442981876</v>
+      <c r="I67">
+        <v>427500452.7948263</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67">
+        <v>106.1579412507253</v>
+      </c>
+      <c r="L67">
+        <v>4908863.618608388</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -194,24 +194,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -419,6 +419,9 @@
     <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
   </si>
   <si>
+    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
+  </si>
+  <si>
     <t>DK Recycling und Roheisen GmbH</t>
   </si>
   <si>
@@ -437,18 +440,15 @@
     <t>Solvay Chemicals GmbH</t>
   </si>
   <si>
-    <t>BSR / MHKW</t>
-  </si>
-  <si>
     <t>RWE Power AG-Fabrik Ville/Berrenrath</t>
   </si>
   <si>
+    <t>PtF-FT1</t>
+  </si>
+  <si>
     <t>MtG</t>
   </si>
   <si>
-    <t>PtF-FT1</t>
-  </si>
-  <si>
     <t>{'Meth': 3487393.97800187, 'MtG': 4444727.840108303, 'FT': 4879006.727884552}</t>
   </si>
   <si>
@@ -611,6 +611,9 @@
     <t>{'Meth': 13021230.962479174, 'MtG': 16614250.054736383, 'FT': 18237570.603162043}</t>
   </si>
   <si>
+    <t>{'Meth': 7046450.302235504, 'MtG': 8984530.072518388, 'FT': 9862377.23604471}</t>
+  </si>
+  <si>
     <t>{'Meth': 10583934.167808509, 'MtG': 13500563.706853025, 'FT': 14819656.799135963}</t>
   </si>
   <si>
@@ -621,9 +624,6 @@
   </si>
   <si>
     <t>{'Meth': 7325831.86001466, 'MtG': 9341059.04365007, 'FT': 10253741.41207823}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7418954.986766862, 'MtG': 9459902.034027299, 'FT': 10384196.137422739}</t>
   </si>
   <si>
     <t>{'Meth': 20101958.5303517, 'MtG': 25670085.921481106, 'FT': 28178220.674413458}</t>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13506690818.90995</v>
+        <v>13506213488.67132</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1204,34 +1204,34 @@
         <v>157.5538327091136</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>399.9999999999999</v>
       </c>
       <c r="G2">
-        <v>331.0757941250727</v>
+        <v>331.0598351407165</v>
       </c>
       <c r="H2">
-        <v>30.15963365760841</v>
+        <v>30.26026966650523</v>
       </c>
       <c r="I2">
-        <v>858.4615384615383</v>
+        <v>858.4615384615339</v>
       </c>
       <c r="J2">
-        <v>240</v>
+        <v>239.9999999999987</v>
       </c>
       <c r="K2">
-        <v>498.4615384615384</v>
+        <v>498.4615384615358</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>119.9999999999994</v>
       </c>
       <c r="M2">
-        <v>248.7145732819791</v>
+        <v>248.7145732819835</v>
       </c>
       <c r="N2">
-        <v>80.8827880591802</v>
+        <v>80.88278805918165</v>
       </c>
       <c r="O2">
-        <v>167.8317852227989</v>
+        <v>167.8317852228019</v>
       </c>
       <c r="P2">
         <v>154.0911111111111</v>
@@ -1240,10 +1240,10 @@
         <v>154.0911111111111</v>
       </c>
       <c r="R2">
-        <v>216</v>
+        <v>215.9999999999999</v>
       </c>
       <c r="S2">
-        <v>216</v>
+        <v>215.9999999999999</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1258,31 +1258,31 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>141.9507589561625</v>
+        <v>138.0507946936537</v>
       </c>
       <c r="Y2">
-        <v>141.9507589561625</v>
+        <v>138.0507946936537</v>
       </c>
       <c r="Z2">
-        <v>141.6084210526316</v>
+        <v>145.3642105263158</v>
       </c>
       <c r="AA2">
-        <v>43.76093567251463</v>
+        <v>44.92157894736842</v>
       </c>
       <c r="AB2">
-        <v>97.84748538011695</v>
+        <v>100.4426315789473</v>
       </c>
       <c r="AC2">
-        <v>-6.564332929285719e-18</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-1.608261567675001e-18</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.969299878785716e-19</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-4.759141373732146e-18</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>399.9430126483085</v>
+        <v>397.7803908159494</v>
       </c>
       <c r="AJ2">
-        <v>399.9430126483085</v>
+        <v>397.7803908159494</v>
       </c>
       <c r="AK2">
-        <v>372.0569873516916</v>
+        <v>374.2196091840507</v>
       </c>
       <c r="AL2">
-        <v>372.0569873516916</v>
+        <v>374.2196091840507</v>
       </c>
       <c r="AM2">
         <v>6.75</v>
@@ -1357,10 +1357,10 @@
         <v>41.45</v>
       </c>
       <c r="BE2">
-        <v>506.5944826878574</v>
+        <v>503.8551617002026</v>
       </c>
       <c r="BF2">
-        <v>980.1408090644542</v>
+        <v>982.7359552632849</v>
       </c>
       <c r="BG2">
         <v>120</v>
@@ -1369,22 +1369,22 @@
         <v>154.0911111111111</v>
       </c>
       <c r="BI2">
+        <v>414.5</v>
+      </c>
+      <c r="BJ2">
+        <v>858.0000000000001</v>
+      </c>
+      <c r="BK2">
+        <v>24.2</v>
+      </c>
+      <c r="BL2">
         <v>130.3</v>
       </c>
-      <c r="BJ2">
-        <v>414.5</v>
-      </c>
-      <c r="BK2">
-        <v>858</v>
-      </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>120</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>7.5</v>
-      </c>
-      <c r="BN2">
-        <v>24.2</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1461,7 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>62330154.33333338</v>
+        <v>62330154.33333337</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1484,10 +1484,10 @@
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>1.660000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>55330511.33333343</v>
+        <v>55330511.33333334</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>16.60000000000003</v>
+        <v>16.6</v>
       </c>
       <c r="L3">
         <v>3120028.598903444</v>
@@ -1522,10 +1522,10 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>8.560000000000009</v>
+        <v>8.559999999999995</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -1537,13 +1537,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>286154501.7014366</v>
+        <v>286154501.7014362</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>85.60000000000009</v>
+        <v>85.59999999999995</v>
       </c>
       <c r="L4">
         <v>4640353.526253123</v>
@@ -1560,7 +1560,7 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>9.729999999999999</v>
+        <v>9.729999999999997</v>
       </c>
       <c r="E5" t="s">
         <v>142</v>
@@ -1581,7 +1581,7 @@
         <v>100</v>
       </c>
       <c r="K5">
-        <v>97.29999999999998</v>
+        <v>97.29999999999997</v>
       </c>
       <c r="L5">
         <v>4786474.22858194</v>
@@ -1598,7 +1598,7 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>1.47</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>142</v>
@@ -1613,13 +1613,13 @@
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>49141018.39966254</v>
+        <v>49141018.39966252</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>14.7</v>
+        <v>14.69999999999999</v>
       </c>
       <c r="L6">
         <v>3029585.493423196</v>
@@ -1639,7 +1639,7 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1651,7 +1651,7 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>387178241.8915014</v>
+        <v>387178241.8915013</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1674,10 +1674,10 @@
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.969999999999998</v>
+        <v>2.969999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1689,13 +1689,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>99819390.48765258</v>
+        <v>99819390.48765263</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>29.69999999999997</v>
+        <v>29.69999999999999</v>
       </c>
       <c r="L8">
         <v>3591695.233391508</v>
@@ -1712,10 +1712,10 @@
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.269999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>0.2</v>
@@ -1727,13 +1727,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>42683712.43074708</v>
+        <v>42683712.43074709</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.69999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="L9">
         <v>2924239.357757165</v>
@@ -1750,10 +1750,10 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>2.850000000000002</v>
+        <v>2.850000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>0.2</v>
@@ -1765,13 +1765,13 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>95786283.80128293</v>
+        <v>95786283.80128291</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>28.50000000000002</v>
+        <v>28.50000000000001</v>
       </c>
       <c r="L10">
         <v>3556025.558079649</v>
@@ -1788,7 +1788,7 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.720000000000004</v>
+        <v>2.719999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -1803,13 +1803,13 @@
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>93497489.1390886</v>
+        <v>93497489.13908841</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.20000000000004</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="L11">
         <v>3516074.693055412</v>
@@ -1826,10 +1826,10 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3.999999999999998</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>0.7</v>
@@ -1841,13 +1841,13 @@
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>139850743.4535303</v>
+        <v>139850743.4535302</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>39.99999999999999</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1879,7 +1879,7 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>53721560.62898779</v>
+        <v>53721560.62898781</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1902,10 +1902,10 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>1.710000000000002</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -1917,13 +1917,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>60041744.23239816</v>
+        <v>60041744.23239812</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.10000000000002</v>
+        <v>17.10000000000001</v>
       </c>
       <c r="L14">
         <v>3142515.846107772</v>
@@ -1940,7 +1940,7 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>7.700000000000006</v>
+        <v>7.699999999999998</v>
       </c>
       <c r="E15" t="s">
         <v>143</v>
@@ -1955,13 +1955,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>270363409.7014419</v>
+        <v>270363409.7014416</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>77.00000000000006</v>
+        <v>76.99999999999999</v>
       </c>
       <c r="L15">
         <v>4522964.437644095</v>
@@ -1978,7 +1978,7 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>3.219999999999998</v>
+        <v>3.219999999999999</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -1999,7 +1999,7 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>32.19999999999998</v>
+        <v>32.19999999999999</v>
       </c>
       <c r="L16">
         <v>3662634.134160224</v>
@@ -2019,7 +2019,7 @@
         <v>2.23</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -2057,7 +2057,7 @@
         <v>3.23</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -2095,7 +2095,7 @@
         <v>2.25</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -2107,7 +2107,7 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>79002295.04262909</v>
+        <v>79002295.04262906</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -2130,10 +2130,10 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>5.960000000000003</v>
+        <v>5.960000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20">
         <v>0.75</v>
@@ -2145,13 +2145,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>209268301.535142</v>
+        <v>209268301.5351419</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.60000000000002</v>
+        <v>59.60000000000001</v>
       </c>
       <c r="L20">
         <v>4251106.766759329</v>
@@ -2168,10 +2168,10 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>4.140000000000014</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21">
         <v>0.75</v>
@@ -2183,13 +2183,13 @@
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>145364222.878438</v>
+        <v>145364222.8784375</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.40000000000014</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="L21">
         <v>3892301.737650325</v>
@@ -2209,7 +2209,7 @@
         <v>4.890000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22">
         <v>0.75</v>
@@ -2244,10 +2244,10 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>3.230000000000002</v>
+        <v>3.23</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23">
         <v>0.8</v>
@@ -2265,7 +2265,7 @@
         <v>100</v>
       </c>
       <c r="K23">
-        <v>32.30000000000003</v>
+        <v>32.3</v>
       </c>
       <c r="L23">
         <v>3665383.563029062</v>
@@ -2285,7 +2285,7 @@
         <v>1.309999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24">
         <v>0.8</v>
@@ -2323,7 +2323,7 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <v>0.8</v>
@@ -2335,7 +2335,7 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>406211557.6985604</v>
+        <v>406211557.6985603</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -2358,7 +2358,7 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>5.490000000000001</v>
+        <v>5.490000000000002</v>
       </c>
       <c r="E26" t="s">
         <v>142</v>
@@ -2373,13 +2373,13 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>193585195.4657201</v>
+        <v>193585195.4657202</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.90000000000001</v>
+        <v>54.90000000000002</v>
       </c>
       <c r="L26">
         <v>4167435.864813926</v>
@@ -2411,7 +2411,7 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>94853219.63620897</v>
+        <v>94853219.63620898</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -2437,7 +2437,7 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.649999999999998</v>
+        <v>1.649999999999999</v>
       </c>
       <c r="E29" t="s">
         <v>142</v>
@@ -2493,7 +2493,7 @@
         <v>100</v>
       </c>
       <c r="K29">
-        <v>16.49999999999998</v>
+        <v>16.49999999999999</v>
       </c>
       <c r="L29">
         <v>3115469.701891457</v>
@@ -2510,10 +2510,10 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>2.460000000000003</v>
+        <v>2.460000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -2525,13 +2525,13 @@
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>92595658.49663429</v>
+        <v>92595658.4966342</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.60000000000003</v>
+        <v>24.60000000000001</v>
       </c>
       <c r="L30">
         <v>3431616.232505888</v>
@@ -2551,7 +2551,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31">
         <v>1.8</v>
@@ -2586,10 +2586,10 @@
         <v>49124</v>
       </c>
       <c r="D32">
-        <v>1.460000000000003</v>
+        <v>1.460000000000001</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32">
         <v>1.8</v>
@@ -2601,13 +2601,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>55268939.14812015</v>
+        <v>55268939.14812008</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>14.60000000000003</v>
+        <v>14.60000000000001</v>
       </c>
       <c r="L32">
         <v>3024585.102161352</v>
@@ -2627,7 +2627,7 @@
         <v>10.1</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <v>1.8</v>
@@ -2639,7 +2639,7 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>382339921.5041182</v>
+        <v>382339921.5041181</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -2662,7 +2662,7 @@
         <v>49536</v>
       </c>
       <c r="D34">
-        <v>1.489999999999995</v>
+        <v>1.489999999999998</v>
       </c>
       <c r="E34" t="s">
         <v>143</v>
@@ -2677,13 +2677,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>56404602.2813004</v>
+        <v>56404602.28130053</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>14.89999999999995</v>
+        <v>14.89999999999998</v>
       </c>
       <c r="L34">
         <v>3039509.425943215</v>
@@ -2700,10 +2700,10 @@
         <v>49808</v>
       </c>
       <c r="D35">
-        <v>11.39999999999998</v>
+        <v>11.4</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35">
         <v>1.8</v>
@@ -2715,13 +2715,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>431551990.6086079</v>
+        <v>431551990.6086085</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>113.9999999999998</v>
+        <v>114</v>
       </c>
       <c r="L35">
         <v>4973514.536159209</v>
@@ -2738,7 +2738,7 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.850000000000002</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="E36" t="s">
         <v>143</v>
@@ -2753,13 +2753,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>145743435.4248372</v>
+        <v>145743435.4248371</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>38.50000000000002</v>
+        <v>38.50000000000001</v>
       </c>
       <c r="L36">
         <v>3824493.385265881</v>
@@ -2776,10 +2776,10 @@
         <v>49824</v>
       </c>
       <c r="D37">
-        <v>1.600000000000003</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37">
         <v>1.8</v>
@@ -2791,13 +2791,13 @@
         <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>60568700.43629605</v>
+        <v>60568700.43629599</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>16.00000000000003</v>
+        <v>16.00000000000001</v>
       </c>
       <c r="L37">
         <v>3092355.773228031</v>
@@ -2814,10 +2814,10 @@
         <v>31171</v>
       </c>
       <c r="D38">
-        <v>1.210000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38">
         <v>1.9</v>
@@ -2829,13 +2829,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>46052954.98855151</v>
+        <v>46052954.9885515</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>12.10000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="L38">
         <v>2890190.553294488</v>
@@ -2855,7 +2855,7 @@
         <v>1.640000000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39">
         <v>1.9</v>
@@ -2890,10 +2890,10 @@
         <v>31319</v>
       </c>
       <c r="D40">
-        <v>6.17</v>
+        <v>6.170000000000002</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40">
         <v>1.9</v>
@@ -2905,13 +2905,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>234832010.1482336</v>
+        <v>234832010.1482337</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>61.7</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="L40">
         <v>4286880.992309345</v>
@@ -2928,10 +2928,10 @@
         <v>31789</v>
       </c>
       <c r="D41">
-        <v>4.159999999999991</v>
+        <v>4.16</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41">
         <v>1.9</v>
@@ -2943,13 +2943,13 @@
         <v>38060293.37896816</v>
       </c>
       <c r="I41">
-        <v>158330820.4565072</v>
+        <v>158330820.4565076</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>41.59999999999991</v>
+        <v>41.6</v>
       </c>
       <c r="L41">
         <v>3896843.850100604</v>
@@ -2969,7 +2969,7 @@
         <v>11.52</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2981,7 +2981,7 @@
         <v>38255392.02166688</v>
       </c>
       <c r="I42">
-        <v>440702116.0896024</v>
+        <v>440702116.0896025</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -3004,10 +3004,10 @@
         <v>31061</v>
       </c>
       <c r="D43">
-        <v>3.310000000000006</v>
+        <v>3.309999999999998</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <v>2.1</v>
@@ -3019,13 +3019,13 @@
         <v>38441090.93970785</v>
       </c>
       <c r="I43">
-        <v>127240011.0104332</v>
+        <v>127240011.0104329</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>33.10000000000006</v>
+        <v>33.09999999999998</v>
       </c>
       <c r="L43">
         <v>3687149.882920415</v>
@@ -3042,10 +3042,10 @@
         <v>33106</v>
       </c>
       <c r="D44">
-        <v>2.309999999999998</v>
+        <v>2.309999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44">
         <v>2.3</v>
@@ -3057,13 +3057,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>89595300.50431414</v>
+        <v>89595300.50431415</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>23.09999999999998</v>
+        <v>23.09999999999999</v>
       </c>
       <c r="L44">
         <v>3379765.097364126</v>
@@ -3080,7 +3080,7 @@
         <v>33332</v>
       </c>
       <c r="D45">
-        <v>2.579999999999999</v>
+        <v>2.579999999999998</v>
       </c>
       <c r="E45" t="s">
         <v>143</v>
@@ -3101,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="K45">
-        <v>25.79999999999999</v>
+        <v>25.79999999999998</v>
       </c>
       <c r="L45">
         <v>3471397.820165223</v>
@@ -3118,10 +3118,10 @@
         <v>33609</v>
       </c>
       <c r="D46">
-        <v>3.879999999999998</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46">
         <v>2.3</v>
@@ -3139,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="K46">
-        <v>38.79999999999998</v>
+        <v>38.79999999999999</v>
       </c>
       <c r="L46">
         <v>3831684.085287054</v>
@@ -3156,10 +3156,10 @@
         <v>38372</v>
       </c>
       <c r="D47">
-        <v>4.469999999999998</v>
+        <v>4.469999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>2.3</v>
@@ -3171,13 +3171,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I47">
-        <v>173372724.352504</v>
+        <v>173372724.3525041</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>44.69999999999998</v>
+        <v>44.69999999999999</v>
       </c>
       <c r="L47">
         <v>3965215.892681056</v>
@@ -3194,10 +3194,10 @@
         <v>38723</v>
       </c>
       <c r="D48">
-        <v>3.359999999999998</v>
+        <v>3.359999999999999</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48">
         <v>2.3</v>
@@ -3209,13 +3209,13 @@
         <v>38785844.374162</v>
       </c>
       <c r="I48">
-        <v>130320437.0971842</v>
+        <v>130320437.0971843</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>33.59999999999998</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="L48">
         <v>3700552.097367561</v>
@@ -3235,7 +3235,7 @@
         <v>11.52</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49">
         <v>2.3</v>
@@ -3273,7 +3273,7 @@
         <v>2.550000000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50">
         <v>2.5</v>
@@ -3323,13 +3323,13 @@
         <v>39097761.98338025</v>
       </c>
       <c r="I51">
-        <v>76631613.48742531</v>
+        <v>76631613.48742533</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51">
-        <v>19.6</v>
+        <v>19.60000000000001</v>
       </c>
       <c r="L51">
         <v>3248017.696927753</v>
@@ -3346,10 +3346,10 @@
         <v>58710</v>
       </c>
       <c r="D52">
-        <v>8.059999999999999</v>
+        <v>8.060000000000002</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52">
         <v>2.5</v>
@@ -3361,13 +3361,13 @@
         <v>39097761.98338025</v>
       </c>
       <c r="I52">
-        <v>315127961.5860448</v>
+        <v>315127961.5860449</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52">
-        <v>80.59999999999999</v>
+        <v>80.60000000000002</v>
       </c>
       <c r="L52">
         <v>4573255.840545377</v>
@@ -3387,7 +3387,7 @@
         <v>2.550000000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53">
         <v>2.5</v>
@@ -3443,7 +3443,7 @@
         <v>100</v>
       </c>
       <c r="K54">
-        <v>37.40000000000003</v>
+        <v>37.40000000000002</v>
       </c>
       <c r="L54">
         <v>3797758.507656866</v>
@@ -3460,7 +3460,7 @@
         <v>37355</v>
       </c>
       <c r="D55">
-        <v>10.19999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E55" t="s">
         <v>143</v>
@@ -3475,13 +3475,13 @@
         <v>39635749.05499732</v>
       </c>
       <c r="I55">
-        <v>404284640.3609722</v>
+        <v>404284640.3609725</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55">
-        <v>101.9999999999999</v>
+        <v>102</v>
       </c>
       <c r="L55">
         <v>4841430.024186624</v>
@@ -3498,7 +3498,7 @@
         <v>45329</v>
       </c>
       <c r="D56">
-        <v>6.190000000000005</v>
+        <v>6.190000000000001</v>
       </c>
       <c r="E56" t="s">
         <v>143</v>
@@ -3513,13 +3513,13 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>246080488.6926681</v>
+        <v>246080488.692668</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
-        <v>61.90000000000005</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="L56">
         <v>4290239.673387973</v>
@@ -3536,10 +3536,10 @@
         <v>45699</v>
       </c>
       <c r="D57">
-        <v>6.690000000000002</v>
+        <v>6.690000000000001</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -3557,7 +3557,7 @@
         <v>100</v>
       </c>
       <c r="K57">
-        <v>66.90000000000002</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L57">
         <v>4371651.546027265</v>
@@ -3589,7 +3589,7 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>457176998.3789468</v>
+        <v>457176998.3789469</v>
       </c>
       <c r="J58">
         <v>100</v>
@@ -3612,10 +3612,10 @@
         <v>46049</v>
       </c>
       <c r="D59">
-        <v>6.990000000000005</v>
+        <v>6.990000000000002</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -3627,13 +3627,13 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>277884105.9712036</v>
+        <v>277884105.9712034</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
-        <v>69.90000000000005</v>
+        <v>69.90000000000002</v>
       </c>
       <c r="L59">
         <v>4418307.05254629</v>
@@ -3647,13 +3647,13 @@
         <v>134</v>
       </c>
       <c r="C60">
-        <v>47053</v>
+        <v>46236</v>
       </c>
       <c r="D60">
-        <v>5.680000000000002</v>
+        <v>3.780000000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -3665,16 +3665,16 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>225805682.6776017</v>
+        <v>150272091.64108</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
-        <v>56.80000000000003</v>
+        <v>37.80000000000001</v>
       </c>
       <c r="L60">
-        <v>4201890.346963244</v>
+        <v>3807548.40454141</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3685,13 +3685,13 @@
         <v>135</v>
       </c>
       <c r="C61">
-        <v>47166</v>
+        <v>47053</v>
       </c>
       <c r="D61">
-        <v>11.52</v>
+        <v>5.68</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3703,16 +3703,16 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>457972088.8109104</v>
+        <v>225805682.6776016</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
-        <v>115.2</v>
+        <v>56.8</v>
       </c>
       <c r="L61">
-        <v>5105201.851214484</v>
+        <v>4201890.346963244</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3726,10 +3726,10 @@
         <v>47166</v>
       </c>
       <c r="D62">
-        <v>9.490000000000038</v>
+        <v>11.52</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -3741,16 +3741,16 @@
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>377270409.9666281</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
-        <v>94.90000000000038</v>
+        <v>115.2</v>
       </c>
       <c r="L62">
-        <v>4757631.938664145</v>
+        <v>5105201.851214484</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3764,31 +3764,31 @@
         <v>47166</v>
       </c>
       <c r="D63">
-        <v>4.889999999999994</v>
+        <v>9.490000000000002</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="H63">
         <v>39754521.5981693</v>
       </c>
       <c r="I63">
-        <v>194399610.6150476</v>
+        <v>377270409.9666267</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63">
-        <v>48.89999999999994</v>
+        <v>94.90000000000002</v>
       </c>
       <c r="L63">
-        <v>4052333.328712357</v>
+        <v>4757631.938664145</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3799,10 +3799,10 @@
         <v>138</v>
       </c>
       <c r="C64">
-        <v>47198</v>
+        <v>47166</v>
       </c>
       <c r="D64">
-        <v>3.93</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="E64" t="s">
         <v>143</v>
@@ -3811,22 +3811,22 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="H64">
         <v>39754521.5981693</v>
       </c>
       <c r="I64">
-        <v>156235269.8808053</v>
+        <v>194399610.6150479</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64">
-        <v>39.3</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L64">
-        <v>3843575.485457812</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3837,34 +3837,34 @@
         <v>139</v>
       </c>
       <c r="C65">
-        <v>47495</v>
+        <v>47198</v>
       </c>
       <c r="D65">
-        <v>8.060000000000004</v>
+        <v>3.93</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H65">
         <v>39754521.5981693</v>
       </c>
       <c r="I65">
-        <v>320421444.0812447</v>
+        <v>156235269.8808053</v>
       </c>
       <c r="J65">
         <v>100</v>
       </c>
       <c r="K65">
-        <v>80.60000000000004</v>
+        <v>39.3</v>
       </c>
       <c r="L65">
-        <v>4573255.840545377</v>
+        <v>3843575.485457812</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3875,34 +3875,34 @@
         <v>140</v>
       </c>
       <c r="C66">
-        <v>13597</v>
+        <v>47495</v>
       </c>
       <c r="D66">
-        <v>3.98</v>
+        <v>8.06</v>
       </c>
       <c r="E66" t="s">
         <v>142</v>
       </c>
       <c r="F66">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H66">
-        <v>39867684.89458863</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I66">
-        <v>158673385.8804628</v>
+        <v>320421444.0812445</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66">
-        <v>39.8</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="L66">
-        <v>3855352.754713441</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3916,10 +3916,10 @@
         <v>50354</v>
       </c>
       <c r="D67">
-        <v>10.61579412507253</v>
+        <v>10.79983514071649</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <v>3.5</v>
@@ -3931,13 +3931,13 @@
         <v>40270228.28044015</v>
       </c>
       <c r="I67">
-        <v>427500452.7948263</v>
+        <v>434911826.5077725</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67">
-        <v>106.1579412507253</v>
+        <v>107.9983514071649</v>
       </c>
       <c r="L67">
         <v>4908863.618608388</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="214">
   <si>
     <t>Total Cost</t>
   </si>
@@ -83,6 +83,18 @@
     <t>BM-Meth-cng</t>
   </si>
   <si>
+    <t>BM-MeOHProduction</t>
+  </si>
+  <si>
+    <t>BM-MeOH-gasoline</t>
+  </si>
+  <si>
+    <t>BM-DMEProduction</t>
+  </si>
+  <si>
+    <t>BM-DME-diesel</t>
+  </si>
+  <si>
     <t>MtGProduction</t>
   </si>
   <si>
@@ -116,6 +128,18 @@
     <t>PtF-Meth-cng</t>
   </si>
   <si>
+    <t>PtF-MeOHProduction</t>
+  </si>
+  <si>
+    <t>PtF-MeOH-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-DMEProduction</t>
+  </si>
+  <si>
+    <t>PtF-DME-diesel</t>
+  </si>
+  <si>
     <t>PVGasProduction</t>
   </si>
   <si>
@@ -194,24 +218,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -338,9 +362,6 @@
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
-    <t>Dyckerhoff GmbH, werk Lengerich</t>
-  </si>
-  <si>
     <t>Calcis Lienen GmbH &amp; Co.KG</t>
   </si>
   <si>
@@ -368,12 +389,6 @@
     <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
   </si>
   <si>
-    <t>Sappi Alfeld GmbH</t>
-  </si>
-  <si>
-    <t>Heidelberg Cement AG Zementwerk Paderborn</t>
-  </si>
-  <si>
     <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
   </si>
   <si>
@@ -383,52 +398,40 @@
     <t>EEW Energy from Waste Helmstedt GmbH</t>
   </si>
   <si>
-    <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
-  </si>
-  <si>
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
     <t>Werk  Zielitz</t>
   </si>
   <si>
-    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
     <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
   </si>
   <si>
-    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
-  </si>
-  <si>
-    <t>Deuna Zement GmbH</t>
+    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
   </si>
   <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>AGR mbH</t>
-  </si>
-  <si>
-    <t>Ruhr Oel GmbH Werk Horst</t>
-  </si>
-  <si>
-    <t>GMVA Gemeinschafts-Müllverbrennungsanlage Niederrhein GmbH</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
-  </si>
-  <si>
-    <t>DK Recycling und Roheisen GmbH</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Hamborn</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Beeckerwerth</t>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
+    <t>Evonik Degussa GmbH</t>
+  </si>
+  <si>
+    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
   </si>
   <si>
     <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
@@ -437,12 +440,45 @@
     <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
   </si>
   <si>
-    <t>Solvay Chemicals GmbH</t>
+    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+  </si>
+  <si>
+    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
+  </si>
+  <si>
+    <t>Stadtwerke Düsseldorf AG</t>
+  </si>
+  <si>
+    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>AWG Abfallwirtschaftsgesellschaft mbH Wuppertal</t>
+  </si>
+  <si>
+    <t>SUEZ Energie und Verwertung GmbH</t>
+  </si>
+  <si>
+    <t>CropEnergies Bioethanol GmbH</t>
   </si>
   <si>
     <t>RWE Power AG-Fabrik Ville/Berrenrath</t>
   </si>
   <si>
+    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
+  </si>
+  <si>
+    <t>PtF-DME</t>
+  </si>
+  <si>
+    <t>PtF-MeOH</t>
+  </si>
+  <si>
     <t>PtF-FT1</t>
   </si>
   <si>
@@ -539,9 +575,6 @@
     <t>{'Meth': 2723021.589861078, 'MtG': 3470215.3190150387, 'FT': 3809277.9800595967}</t>
   </si>
   <si>
-    <t>{'Meth': 18801918.172355607, 'MtG': 24006284.056199927, 'FT': 26351854.519590363}</t>
-  </si>
-  <si>
     <t>{'Meth': 2778955.9108548313, 'MtG': 3541521.1132413754, 'FT': 3887550.815266301}</t>
   </si>
   <si>
@@ -566,12 +599,6 @@
     <t>{'Meth': 7754181.439418147, 'MtG': 9887736.799385315, 'FT': 10853833.14866296}</t>
   </si>
   <si>
-    <t>{'Meth': 6170936.453752637, 'MtG': 7867405.96297245, 'FT': 8636102.817806346}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4307544.049353574, 'MtG': 5490546.155427906, 'FT': 6027008.310916212}</t>
-  </si>
-  <si>
     <t>{'Meth': 4810740.062798683, 'MtG': 6132298.3034649305, 'FT': 6731463.8277765475}</t>
   </si>
   <si>
@@ -581,49 +608,52 @@
     <t>{'Meth': 8331454.2385598505, 'MtG': 10624563.339724127, 'FT': 11662652.445798906}</t>
   </si>
   <si>
-    <t>{'Meth': 6264084.751326288, 'MtG': 7986248.953349681, 'FT': 8766557.543150855}</t>
+    <t>{'Meth': 2667086.537107407, 'MtG': 3398909.5247887024, 'FT': 3731005.144852893}</t>
   </si>
   <si>
     <t>{'Meth': 4754832.319820861, 'MtG': 6060992.509238595, 'FT': 6653190.992569845}</t>
   </si>
   <si>
-    <t>{'Meth': 3655164.7482673554, 'MtG': 4658645.222787313, 'FT': 5113825.233504665}</t>
-  </si>
-  <si>
     <t>{'Meth': 15010968.327398868, 'MtG': 19157490.04880905, 'FT': 21029301.725534488}</t>
   </si>
   <si>
-    <t>{'Meth': 6971945.468368442, 'MtG': 8889455.680216607, 'FT': 9758013.455769105}</t>
-  </si>
-  <si>
-    <t>{'Meth': 18987662.48066654, 'MtG': 24243970.03695438, 'FT': 26612763.97027938}</t>
+    <t>{'Meth': 4419370.504935618, 'MtG': 5633157.743880576, 'FT': 6183553.98132962}</t>
   </si>
   <si>
     <t>{'Meth': 11532970.807191214, 'MtG': 14712762.208700748, 'FT': 16150294.997649936}</t>
   </si>
   <si>
-    <t>{'Meth': 12463194.188631605, 'MtG': 15901192.112473022, 'FT': 17454842.251095004}</t>
-  </si>
-  <si>
-    <t>{'Meth': 21401602.794789482, 'MtG': 27333887.786762293, 'FT': 30004586.829236556}</t>
-  </si>
-  <si>
-    <t>{'Meth': 13021230.962479174, 'MtG': 16614250.054736383, 'FT': 18237570.603162043}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7046450.302235504, 'MtG': 8984530.072518388, 'FT': 9862377.23604471}</t>
-  </si>
-  <si>
-    <t>{'Meth': 10583934.167808509, 'MtG': 13500563.706853025, 'FT': 14819656.799135963}</t>
-  </si>
-  <si>
-    <t>{'Meth': 23628643.364246435, 'MtG': 30186119.555815745, 'FT': 33135500.23750471}</t>
-  </si>
-  <si>
-    <t>{'Meth': 17668702.747726772, 'MtG': 22556399.573597748, 'FT': 24760306.870387375}</t>
+    <t>{'Meth': 4997093.924883411, 'MtG': 6369984.284219386, 'FT': 6992373.278465562}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4531194.035134709, 'MtG': 5775769.33233325, 'FT': 6340099.651743028}</t>
   </si>
   <si>
     <t>{'Meth': 7325831.86001466, 'MtG': 9341059.04365007, 'FT': 10253741.41207823}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3375543.13998122, 'MtG': 4302116.25165563, 'FT': 4722461.057471144}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4102521.2825544556, 'MtG': 5229091.5765980035, 'FT': 5740007.915158296}</t>
+  </si>
+  <si>
+    <t>{'Meth': 3524676.9403826627, 'MtG': 4492265.036259194, 'FT': 4931188.618022355}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7288582.041044717, 'MtG': 9293521.847499179, 'FT': 10201559.521940427}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4866647.074526319, 'MtG': 6203604.097691269, 'FT': 6809736.662983253}</t>
+  </si>
+  <si>
+    <t>{'Meth': 6822931.9034148725, 'MtG': 8699306.895613043, 'FT': 9549285.895217892}</t>
+  </si>
+  <si>
+    <t>{'Meth': 5574739.268419025, 'MtG': 7106810.824558194, 'FT': 7801192.575601502}</t>
+  </si>
+  <si>
+    <t>{'Meth': 7065076.307727562, 'MtG': 9008298.670593834, 'FT': 9888468.181113614}</t>
   </si>
   <si>
     <t>{'Meth': 20101958.5303517, 'MtG': 25670085.921481106, 'FT': 28178220.674413458}</t>
@@ -984,13 +1014,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:74">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,64 +1216,88 @@
       <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:66">
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13506213488.67132</v>
+        <v>13053297229.48265</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2">
-        <v>1190.511948111309</v>
+        <v>1169.451249822471</v>
       </c>
       <c r="E2">
-        <v>157.5538327091136</v>
+        <v>184.9852048575644</v>
       </c>
       <c r="F2">
-        <v>399.9999999999999</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>331.0598351407165</v>
+        <v>325.1242189293825</v>
       </c>
       <c r="H2">
-        <v>30.26026966650523</v>
+        <v>25.04542193843381</v>
       </c>
       <c r="I2">
-        <v>858.4615384615339</v>
+        <v>858.4615384615383</v>
       </c>
       <c r="J2">
-        <v>239.9999999999987</v>
+        <v>240</v>
       </c>
       <c r="K2">
-        <v>498.4615384615358</v>
+        <v>498.4615384615384</v>
       </c>
       <c r="L2">
-        <v>119.9999999999994</v>
+        <v>120</v>
       </c>
       <c r="M2">
-        <v>248.7145732819835</v>
+        <v>229.1281238733598</v>
       </c>
       <c r="N2">
-        <v>80.88278805918165</v>
+        <v>74.51321101572677</v>
       </c>
       <c r="O2">
-        <v>167.8317852228019</v>
+        <v>154.614912857633</v>
       </c>
       <c r="P2">
-        <v>154.0911111111111</v>
+        <v>180.9195959595959</v>
       </c>
       <c r="Q2">
-        <v>154.0911111111111</v>
+        <v>180.9195959595959</v>
       </c>
       <c r="R2">
-        <v>215.9999999999999</v>
+        <v>166.8193217440867</v>
       </c>
       <c r="S2">
-        <v>215.9999999999999</v>
+        <v>166.8193217440867</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1258,31 +1312,31 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>138.0507946936537</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>138.0507946936537</v>
+        <v>-0</v>
       </c>
       <c r="Z2">
-        <v>145.3642105263158</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AA2">
-        <v>44.92157894736842</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>100.4426315789473</v>
+        <v>117.0317448142757</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>117.0317448142756</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>66.77894736842104</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>20.63654970760234</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>46.1423976608187</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1291,100 +1345,124 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>397.7803908159494</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>397.7803908159494</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>374.2196091840507</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>374.2196091840507</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>49.99999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>49.99999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
+        <v>50</v>
+      </c>
+      <c r="AQ2">
+        <v>396.4590833191616</v>
+      </c>
+      <c r="AR2">
+        <v>396.4590833191616</v>
+      </c>
+      <c r="AS2">
+        <v>375.5409166808383</v>
+      </c>
+      <c r="AT2">
+        <v>375.5409166808383</v>
+      </c>
+      <c r="AU2">
         <v>6.75</v>
       </c>
-      <c r="AN2">
+      <c r="AV2">
         <v>6.75</v>
       </c>
-      <c r="AO2">
+      <c r="AW2">
         <v>21.78</v>
       </c>
-      <c r="AP2">
+      <c r="AX2">
         <v>21.78</v>
       </c>
-      <c r="AQ2">
+      <c r="AY2">
+        <v>117.27</v>
+      </c>
+      <c r="AZ2">
+        <v>117.27</v>
+      </c>
+      <c r="BA2">
+        <v>373.35</v>
+      </c>
+      <c r="BB2">
+        <v>373.35</v>
+      </c>
+      <c r="BC2">
+        <v>86</v>
+      </c>
+      <c r="BD2">
+        <v>86</v>
+      </c>
+      <c r="BE2">
+        <v>0.75</v>
+      </c>
+      <c r="BF2">
+        <v>0.75</v>
+      </c>
+      <c r="BG2">
+        <v>2.42</v>
+      </c>
+      <c r="BH2">
+        <v>2.42</v>
+      </c>
+      <c r="BI2">
+        <v>13.03</v>
+      </c>
+      <c r="BJ2">
+        <v>13.03</v>
+      </c>
+      <c r="BK2">
+        <v>41.15</v>
+      </c>
+      <c r="BL2">
+        <v>41.15</v>
+      </c>
+      <c r="BM2">
+        <v>502.1815055376047</v>
+      </c>
+      <c r="BN2">
+        <v>966.0381707240767</v>
+      </c>
+      <c r="BO2">
+        <v>120</v>
+      </c>
+      <c r="BP2">
+        <v>180.9195959595959</v>
+      </c>
+      <c r="BQ2">
         <v>130.3</v>
       </c>
-      <c r="AR2">
-        <v>130.3</v>
-      </c>
-      <c r="AS2">
-        <v>373.05</v>
-      </c>
-      <c r="AT2">
-        <v>373.05</v>
-      </c>
-      <c r="AU2">
-        <v>86</v>
-      </c>
-      <c r="AV2">
-        <v>86</v>
-      </c>
-      <c r="AW2">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="AX2">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="AY2">
-        <v>2.42</v>
-      </c>
-      <c r="AZ2">
-        <v>2.42</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>41.45</v>
-      </c>
-      <c r="BD2">
-        <v>41.45</v>
-      </c>
-      <c r="BE2">
-        <v>503.8551617002026</v>
-      </c>
-      <c r="BF2">
-        <v>982.7359552632849</v>
-      </c>
-      <c r="BG2">
+      <c r="BR2">
+        <v>858</v>
+      </c>
+      <c r="BS2">
+        <v>7.5</v>
+      </c>
+      <c r="BT2">
+        <v>24.2</v>
+      </c>
+      <c r="BU2">
         <v>120</v>
       </c>
-      <c r="BH2">
-        <v>154.0911111111111</v>
-      </c>
-      <c r="BI2">
+      <c r="BV2">
         <v>414.5</v>
-      </c>
-      <c r="BJ2">
-        <v>858.0000000000001</v>
-      </c>
-      <c r="BK2">
-        <v>24.2</v>
-      </c>
-      <c r="BL2">
-        <v>130.3</v>
-      </c>
-      <c r="BM2">
-        <v>120</v>
-      </c>
-      <c r="BN2">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1402,37 +1480,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1440,37 +1518,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>1.870000000000001</v>
+        <v>2.794341968911915</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>62330154.33333337</v>
+        <v>93139981.91571669</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>18.70000000000001</v>
+        <v>18.69999999999999</v>
       </c>
       <c r="L2">
-        <v>3211279.34822684</v>
+        <v>3539329.178328279</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1478,37 +1556,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>1.66</v>
+        <v>2.480538860103628</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>55330511.33333334</v>
+        <v>82680411.75405876</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>16.6</v>
+        <v>16.60000000000001</v>
       </c>
       <c r="L3">
-        <v>3120028.598903444</v>
+        <v>3438756.663575569</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1516,37 +1594,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>8.559999999999995</v>
+        <v>11.52</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>286154501.7014362</v>
+        <v>385105123.7851107</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>85.59999999999995</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L4">
-        <v>4640353.526253123</v>
+        <v>5594639.70924738</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1554,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>25734</v>
@@ -1563,13 +1641,13 @@
         <v>9.729999999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
@@ -1592,28 +1670,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>1.469999999999999</v>
+        <v>2.196621761658029</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>49141018.39966252</v>
+        <v>73431449.25628327</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1622,7 +1700,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="L6">
-        <v>3029585.493423196</v>
+        <v>3339074.297922262</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1630,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>25566</v>
@@ -1639,19 +1717,19 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
       </c>
       <c r="I7">
-        <v>387178241.8915013</v>
+        <v>387178241.8915014</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1668,37 +1746,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>2.969999999999999</v>
+        <v>4.314087591240877</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>99819390.48765263</v>
+        <v>144993129.2484882</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>29.69999999999999</v>
+        <v>29.70000000000001</v>
       </c>
       <c r="L8">
-        <v>3591695.233391508</v>
+        <v>4330325.407872935</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1706,37 +1784,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.27</v>
+        <v>1.897761658031086</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>42683712.43074709</v>
+        <v>63782293.60117851</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.7</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="L9">
-        <v>2924239.357757165</v>
+        <v>3222966.475663574</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1744,28 +1822,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>2.850000000000001</v>
+        <v>4.139781021897811</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F10">
         <v>0.2</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>95786283.80128291</v>
+        <v>139134820.996024</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1774,7 +1852,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="L10">
-        <v>3556025.558079649</v>
+        <v>4287320.283201578</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1782,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>26892</v>
@@ -1791,13 +1869,13 @@
         <v>2.719999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
@@ -1820,34 +1898,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>3.999999999999998</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F12">
         <v>0.7</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>139850743.4535302</v>
+        <v>139850743.4535303</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>39.99999999999999</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1858,37 +1936,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>1.530000000000001</v>
+        <v>2.286279792746114</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>53721560.62898781</v>
+        <v>80276155.88290195</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.30000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="L13">
-        <v>3059058.228987825</v>
+        <v>3371557.835365569</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1896,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>20539</v>
@@ -1905,13 +1983,13 @@
         <v>1.710000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
@@ -1923,7 +2001,7 @@
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.10000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="L14">
         <v>3142515.846107772</v>
@@ -1934,37 +2012,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>7.699999999999998</v>
+        <v>11.18467153284671</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F15">
         <v>0.75</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>270363409.7014416</v>
+        <v>392717653.5079336</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>76.99999999999999</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>4522964.437644095</v>
+        <v>5453109.618307365</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1972,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>21107</v>
@@ -1981,13 +2059,13 @@
         <v>3.219999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>0.75</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
@@ -2010,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>21107</v>
@@ -2019,19 +2097,19 @@
         <v>2.23</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F17">
         <v>0.75</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>78300052.42002793</v>
+        <v>78300052.42002794</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -2048,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>21119</v>
@@ -2057,13 +2135,13 @@
         <v>3.23</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F18">
         <v>0.75</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
@@ -2086,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>21129</v>
@@ -2095,13 +2173,13 @@
         <v>2.25</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F19">
         <v>0.75</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
@@ -2124,37 +2202,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>5.960000000000001</v>
+        <v>8.906031088082901</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F20">
         <v>0.75</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>209268301.5351419</v>
+        <v>312709731.4131343</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.60000000000001</v>
+        <v>59.6</v>
       </c>
       <c r="L20">
-        <v>4251106.766759329</v>
+        <v>4685380.681094596</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2162,37 +2240,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>4.140000000000001</v>
+        <v>6.18640414507772</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F21">
         <v>0.75</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H21">
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>145364222.8784375</v>
+        <v>217217833.5654993</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.40000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="L21">
-        <v>3892301.737650325</v>
+        <v>4289921.74677372</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2200,37 +2278,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>4.890000000000001</v>
+        <v>7.102992700729924</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F22">
         <v>0.75</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H22">
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>171698321.2259805</v>
+        <v>249401211.1238694</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>48.90000000000001</v>
+        <v>48.89999999999999</v>
       </c>
       <c r="L22">
-        <v>4052333.328712357</v>
+        <v>4885693.477373235</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2238,28 +2316,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C23">
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>3.23</v>
+        <v>4.826590673575129</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F23">
         <v>0.8</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>113894386.403329</v>
+        <v>170192440.6151299</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -2268,7 +2346,7 @@
         <v>32.3</v>
       </c>
       <c r="L23">
-        <v>3665383.563029062</v>
+        <v>4039822.633791384</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2276,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>24114</v>
@@ -2285,13 +2363,13 @@
         <v>1.309999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F24">
         <v>0.8</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
@@ -2314,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>28237</v>
@@ -2323,13 +2401,13 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F25">
         <v>0.8</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
@@ -2352,37 +2430,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>5.490000000000002</v>
+        <v>8.203709844559583</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F26">
         <v>0.8</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H26">
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>193585195.4657202</v>
+        <v>289274457.8876355</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.90000000000002</v>
+        <v>54.89999999999998</v>
       </c>
       <c r="L26">
-        <v>4167435.864813926</v>
+        <v>4593162.336777735</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2390,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C27">
         <v>28237</v>
@@ -2399,13 +2477,13 @@
         <v>2.690000000000001</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F27">
         <v>0.8</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H27">
         <v>35261419.93911113</v>
@@ -2428,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C28">
         <v>26197</v>
@@ -2437,13 +2515,13 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H28">
         <v>35849408.31499194</v>
@@ -2455,10 +2533,10 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>115.2</v>
+        <v>77.09292649098477</v>
       </c>
       <c r="L28">
-        <v>5015195.456029908</v>
+        <v>5527525.228332203</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2466,7 +2544,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C29">
         <v>29525</v>
@@ -2475,19 +2553,19 @@
         <v>1.649999999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F29">
         <v>1.4</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H29">
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>60939943.85143565</v>
+        <v>60939943.85143567</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -2504,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C30">
         <v>30659</v>
@@ -2513,13 +2591,13 @@
         <v>2.460000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F30">
         <v>1.7</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H30">
         <v>37640511.58399763</v>
@@ -2542,7 +2620,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C31">
         <v>49086</v>
@@ -2551,13 +2629,13 @@
         <v>1.100000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
@@ -2580,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C32">
         <v>49124</v>
@@ -2589,19 +2667,19 @@
         <v>1.460000000000001</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>55268939.14812008</v>
+        <v>55268939.14812007</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -2618,37 +2696,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>49525</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>10.1</v>
+        <v>1.489999999999998</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>382339921.5041181</v>
+        <v>56404602.28130053</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>101</v>
+        <v>14.89999999999998</v>
       </c>
       <c r="L33">
-        <v>4829900.566914583</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2656,37 +2734,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C34">
-        <v>49536</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>1.489999999999998</v>
+        <v>11.4</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>56404602.28130053</v>
+        <v>431551990.6086085</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>14.89999999999998</v>
+        <v>114</v>
       </c>
       <c r="L34">
-        <v>3039509.425943215</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2694,37 +2772,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>49808</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>11.4</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>431551990.6086085</v>
+        <v>145743435.4248371</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>114</v>
+        <v>38.50000000000001</v>
       </c>
       <c r="L35">
-        <v>4973514.536159209</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2732,37 +2810,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C36">
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>3.850000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>145743435.4248371</v>
+        <v>60568700.43629599</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>38.50000000000001</v>
+        <v>16.00000000000001</v>
       </c>
       <c r="L36">
-        <v>3824493.385265881</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2770,37 +2848,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>31171</v>
       </c>
       <c r="D37">
-        <v>1.600000000000001</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I37">
-        <v>60568700.43629599</v>
+        <v>46052954.98855151</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>16.00000000000001</v>
+        <v>12.10000000000001</v>
       </c>
       <c r="L37">
-        <v>3092355.773228031</v>
+        <v>2890190.553294488</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2808,37 +2886,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C38">
-        <v>31171</v>
+        <v>31226</v>
       </c>
       <c r="D38">
-        <v>1.21</v>
+        <v>1.640000000000001</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>46052954.9885515</v>
+        <v>62418881.14150781</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>12.1</v>
+        <v>16.40000000000001</v>
       </c>
       <c r="L38">
-        <v>2890190.553294488</v>
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2846,37 +2924,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>31226</v>
+        <v>31319</v>
       </c>
       <c r="D39">
-        <v>1.640000000000001</v>
+        <v>8.962262773722628</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>62418881.14150781</v>
+        <v>341106350.5072882</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>16.40000000000001</v>
+        <v>61.70000000000001</v>
       </c>
       <c r="L39">
-        <v>3110889.813225406</v>
+        <v>5168475.740631191</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2884,37 +2962,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C40">
-        <v>31319</v>
+        <v>31789</v>
       </c>
       <c r="D40">
-        <v>6.170000000000002</v>
+        <v>3.608100234993144</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <v>1.9</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H40">
         <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>234832010.1482337</v>
+        <v>137325353.484563</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>61.70000000000002</v>
+        <v>24.14574706496799</v>
       </c>
       <c r="L40">
-        <v>4286880.992309345</v>
+        <v>4294927.860967864</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2922,37 +3000,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C41">
-        <v>31789</v>
+        <v>38239</v>
       </c>
       <c r="D41">
-        <v>4.16</v>
+        <v>11.52</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H41">
-        <v>38060293.37896816</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I41">
-        <v>158330820.4565076</v>
+        <v>440702116.0896025</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>41.6</v>
+        <v>115.2</v>
       </c>
       <c r="L41">
-        <v>3896843.850100604</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2960,37 +3038,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C42">
-        <v>38239</v>
+        <v>33332</v>
       </c>
       <c r="D42">
-        <v>11.52</v>
+        <v>2.579999999999998</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="H42">
-        <v>38255392.02166688</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I42">
-        <v>440702116.0896025</v>
+        <v>100067478.4853379</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>115.2</v>
+        <v>25.79999999999998</v>
       </c>
       <c r="L42">
-        <v>5273515.054654035</v>
+        <v>3471397.820165223</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2998,37 +3076,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C43">
-        <v>31061</v>
+        <v>33609</v>
       </c>
       <c r="D43">
-        <v>3.309999999999998</v>
+        <v>3.88</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H43">
-        <v>38441090.93970785</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I43">
-        <v>127240011.0104329</v>
+        <v>150489076.1717485</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>33.09999999999998</v>
+        <v>38.8</v>
       </c>
       <c r="L43">
-        <v>3687149.882920415</v>
+        <v>3831684.085287054</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3036,37 +3114,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C44">
-        <v>33106</v>
+        <v>38372</v>
       </c>
       <c r="D44">
-        <v>2.309999999999999</v>
+        <v>4.469999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>89595300.50431415</v>
+        <v>173372724.3525041</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>23.09999999999999</v>
+        <v>44.69999999999999</v>
       </c>
       <c r="L44">
-        <v>3379765.097364126</v>
+        <v>3965215.892681056</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3074,37 +3152,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C45">
-        <v>33332</v>
+        <v>39596</v>
       </c>
       <c r="D45">
-        <v>2.579999999999998</v>
+        <v>11.52</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>100067478.4853379</v>
+        <v>446812927.1903463</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>25.79999999999998</v>
+        <v>115.2</v>
       </c>
       <c r="L45">
-        <v>3471397.820165223</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3112,37 +3190,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C46">
-        <v>33609</v>
+        <v>39171</v>
       </c>
       <c r="D46">
-        <v>3.879999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F46">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H46">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I46">
-        <v>150489076.1717485</v>
+        <v>55909799.63623375</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>38.79999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="L46">
-        <v>3831684.085287054</v>
+        <v>3009426.484318849</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3150,37 +3228,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C47">
-        <v>38372</v>
+        <v>39326</v>
       </c>
       <c r="D47">
-        <v>4.469999999999999</v>
+        <v>3.704014598540144</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F47">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H47">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I47">
-        <v>173372724.3525041</v>
+        <v>144818681.1566883</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>44.69999999999999</v>
+        <v>25.49999999999999</v>
       </c>
       <c r="L47">
-        <v>3965215.892681056</v>
+        <v>4173459.430245438</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3188,37 +3266,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C48">
-        <v>38723</v>
+        <v>58710</v>
       </c>
       <c r="D48">
-        <v>3.359999999999999</v>
+        <v>8.060000000000002</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F48">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H48">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I48">
-        <v>130320437.0971843</v>
+        <v>315127961.5860449</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>33.59999999999999</v>
+        <v>80.60000000000002</v>
       </c>
       <c r="L48">
-        <v>3700552.097367561</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3226,37 +3304,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C49">
-        <v>39596</v>
+        <v>59075</v>
       </c>
       <c r="D49">
-        <v>11.52</v>
+        <v>2.550000000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F49">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="H49">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I49">
-        <v>446812927.1903463</v>
+        <v>99699293.05761966</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49">
-        <v>115.2</v>
+        <v>25.50000000000001</v>
       </c>
       <c r="L49">
-        <v>5273515.054654035</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3264,37 +3342,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C50">
-        <v>39326</v>
+        <v>44793</v>
       </c>
       <c r="D50">
-        <v>2.550000000000001</v>
+        <v>2.370000000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H50">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I50">
-        <v>99699293.05761966</v>
+        <v>94218216.18766128</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>25.50000000000001</v>
+        <v>23.70000000000001</v>
       </c>
       <c r="L50">
-        <v>3461586.123553794</v>
+        <v>3400803.330760665</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3302,37 +3380,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C51">
-        <v>39418</v>
+        <v>45329</v>
       </c>
       <c r="D51">
-        <v>1.960000000000001</v>
+        <v>6.190000000000001</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H51">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I51">
-        <v>76631613.48742533</v>
+        <v>246080488.692668</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51">
-        <v>19.60000000000001</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="L51">
-        <v>3248017.696927753</v>
+        <v>4290239.673387973</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3340,37 +3418,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C52">
-        <v>58710</v>
+        <v>45356</v>
       </c>
       <c r="D52">
-        <v>8.060000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H52">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I52">
-        <v>315127961.5860449</v>
+        <v>106542117.8830937</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52">
-        <v>80.60000000000002</v>
+        <v>26.8</v>
       </c>
       <c r="L52">
-        <v>4573255.840545377</v>
+        <v>3503491.254460279</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3378,37 +3456,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C53">
-        <v>59075</v>
+        <v>45772</v>
       </c>
       <c r="D53">
-        <v>2.550000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H53">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I53">
-        <v>99699293.05761966</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53">
-        <v>25.50000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L53">
-        <v>3461586.123553794</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3416,37 +3494,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C54">
-        <v>37218</v>
+        <v>45966</v>
       </c>
       <c r="D54">
-        <v>3.740000000000002</v>
+        <v>2.370000000000001</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F54">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H54">
-        <v>39380047.41901974</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I54">
-        <v>147281377.3471339</v>
+        <v>94218216.18766128</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54">
-        <v>37.40000000000002</v>
+        <v>23.70000000000001</v>
       </c>
       <c r="L54">
-        <v>3797758.507656866</v>
+        <v>3400803.330760665</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3454,37 +3532,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C55">
-        <v>37355</v>
+        <v>47137</v>
       </c>
       <c r="D55">
-        <v>10.2</v>
+        <v>2.43</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F55">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H55">
-        <v>39635749.05499732</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I55">
-        <v>404284640.3609725</v>
+        <v>96603487.48355138</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55">
-        <v>102</v>
+        <v>24.3</v>
       </c>
       <c r="L55">
-        <v>4841430.024186624</v>
+        <v>3421441.633780445</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3492,37 +3570,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C56">
-        <v>45329</v>
+        <v>47166</v>
       </c>
       <c r="D56">
-        <v>6.190000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H56">
         <v>39754521.5981693</v>
       </c>
       <c r="I56">
-        <v>246080488.692668</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56">
-        <v>61.90000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="L56">
-        <v>4290239.673387973</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3530,37 +3608,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C57">
-        <v>45699</v>
+        <v>47166</v>
       </c>
       <c r="D57">
-        <v>6.690000000000001</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H57">
         <v>39754521.5981693</v>
       </c>
       <c r="I57">
-        <v>265957749.4917527</v>
+        <v>194399610.6150479</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57">
-        <v>66.90000000000001</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L57">
-        <v>4371651.546027265</v>
+        <v>4052333.328712357</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3568,37 +3646,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C58">
-        <v>45899</v>
+        <v>47198</v>
       </c>
       <c r="D58">
-        <v>11.5</v>
+        <v>5.673595403511847</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H58">
         <v>39754521.5981693</v>
       </c>
       <c r="I58">
-        <v>457176998.3789469</v>
+        <v>225551071.0081858</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
-        <v>115</v>
+        <v>39.05942564226749</v>
       </c>
       <c r="L58">
-        <v>4984037.426968283</v>
+        <v>4634004.69700745</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3606,37 +3684,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C59">
-        <v>46049</v>
+        <v>47443</v>
       </c>
       <c r="D59">
-        <v>6.990000000000002</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H59">
         <v>39754521.5981693</v>
       </c>
       <c r="I59">
-        <v>277884105.9712034</v>
+        <v>71955684.09268637</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
-        <v>69.90000000000002</v>
+        <v>18.09999999999999</v>
       </c>
       <c r="L59">
-        <v>4418307.05254629</v>
+        <v>3186035.662342605</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3644,37 +3722,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C60">
-        <v>46236</v>
+        <v>47475</v>
       </c>
       <c r="D60">
-        <v>3.780000000000001</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H60">
         <v>39754521.5981693</v>
       </c>
       <c r="I60">
-        <v>150272091.64108</v>
+        <v>87459947.51597242</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
-        <v>37.80000000000001</v>
+        <v>21.99999999999999</v>
       </c>
       <c r="L60">
-        <v>3807548.40454141</v>
+        <v>3340094.131013245</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3682,37 +3760,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C61">
-        <v>47053</v>
+        <v>47829</v>
       </c>
       <c r="D61">
-        <v>5.68</v>
+        <v>3.219999999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H61">
         <v>39754521.5981693</v>
       </c>
       <c r="I61">
-        <v>225805682.6776016</v>
+        <v>128009559.5461051</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
-        <v>56.8</v>
+        <v>32.19999999999999</v>
       </c>
       <c r="L61">
-        <v>4201890.346963244</v>
+        <v>3662634.134160224</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3720,37 +3798,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C62">
-        <v>47166</v>
+        <v>47829</v>
       </c>
       <c r="D62">
-        <v>11.52</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H62">
         <v>39754521.5981693</v>
       </c>
       <c r="I62">
-        <v>457972088.8109104</v>
+        <v>75136045.82054</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
-        <v>115.2</v>
+        <v>18.90000000000001</v>
       </c>
       <c r="L62">
-        <v>5105201.851214484</v>
+        <v>3219557.413728694</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3758,37 +3836,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C63">
-        <v>47166</v>
+        <v>40235</v>
       </c>
       <c r="D63">
-        <v>9.490000000000002</v>
+        <v>3.91</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H63">
-        <v>39754521.5981693</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="I63">
-        <v>377270409.9666267</v>
+        <v>156304402.0237591</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63">
-        <v>94.90000000000002</v>
+        <v>39.1</v>
       </c>
       <c r="L63">
-        <v>4757631.938664145</v>
+        <v>3838832.76455666</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3796,37 +3874,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C64">
-        <v>47166</v>
+        <v>42327</v>
       </c>
       <c r="D64">
-        <v>4.890000000000001</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G64" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="H64">
-        <v>39754521.5981693</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="I64">
-        <v>194399610.6150479</v>
+        <v>104336186.5171384</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64">
-        <v>48.90000000000001</v>
+        <v>26.09999999999999</v>
       </c>
       <c r="L64">
-        <v>4052333.328712357</v>
+        <v>3481123.414272474</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3834,37 +3912,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C65">
-        <v>47198</v>
+        <v>42349</v>
       </c>
       <c r="D65">
-        <v>3.93</v>
+        <v>3.66</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H65">
-        <v>39754521.5981693</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="I65">
-        <v>156235269.8808053</v>
+        <v>146310514.426332</v>
       </c>
       <c r="J65">
         <v>100</v>
       </c>
       <c r="K65">
-        <v>39.3</v>
+        <v>36.6</v>
       </c>
       <c r="L65">
-        <v>3843575.485457812</v>
+        <v>3777938.120327855</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3872,37 +3950,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C66">
-        <v>47495</v>
+        <v>6686</v>
       </c>
       <c r="D66">
-        <v>8.06</v>
+        <v>2.786433279153138</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G66" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H66">
-        <v>39754521.5981693</v>
+        <v>40270228.28044015</v>
       </c>
       <c r="I66">
-        <v>320421444.0812445</v>
+        <v>112210304.2397123</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66">
-        <v>80.60000000000001</v>
+        <v>27.86433279153137</v>
       </c>
       <c r="L66">
-        <v>4573255.840545377</v>
+        <v>3597533.486741587</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3910,37 +3988,113 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C67">
-        <v>50354</v>
+        <v>6712</v>
       </c>
       <c r="D67">
-        <v>10.79983514071649</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F67">
         <v>3.5</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H67">
         <v>40270228.28044015</v>
       </c>
       <c r="I67">
-        <v>434911826.5077725</v>
+        <v>152624165.1828682</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67">
-        <v>107.9983514071649</v>
+        <v>37.89999999999999</v>
       </c>
       <c r="L67">
+        <v>3809983.601047164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68">
+        <v>50354</v>
+      </c>
+      <c r="D68">
+        <v>10.8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68">
+        <v>3.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I68">
+        <v>434918465.4287538</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>108</v>
+      </c>
+      <c r="L68">
         <v>4908863.618608388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69">
+        <v>50997</v>
+      </c>
+      <c r="D69">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69">
+        <v>3.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I69">
+        <v>119602577.9929072</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69">
+        <v>29.69999999999999</v>
+      </c>
+      <c r="L69">
+        <v>3591695.233391508</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,24 +218,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -356,12 +356,12 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
+    <t>Dyckerhoff GmbH, werk Lengerich</t>
+  </si>
+  <si>
     <t>Calcis Lienen GmbH &amp; Co.KG</t>
   </si>
   <si>
@@ -374,9 +374,6 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
-    <t>Nordzucker AG Werk Nordstemmen</t>
-  </si>
-  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
     <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
   </si>
   <si>
+    <t>Sappi Alfeld GmbH</t>
+  </si>
+  <si>
     <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
   </si>
   <si>
@@ -398,93 +398,30 @@
     <t>EEW Energy from Waste Helmstedt GmbH</t>
   </si>
   <si>
-    <t>Zellstoff Stendal GmbH</t>
-  </si>
-  <si>
-    <t>EUROGLAS AG</t>
-  </si>
-  <si>
-    <t>Werk  Zielitz</t>
+    <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
+  </si>
+  <si>
+    <t>EUROGLAS GmbH</t>
   </si>
   <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
-  </si>
-  <si>
     <t>RWE Generation SE MHKW Karnap</t>
   </si>
   <si>
-    <t>TRIMET Aluminium SE</t>
-  </si>
-  <si>
-    <t>Evonik Degussa GmbH</t>
-  </si>
-  <si>
-    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Schwelgern</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Bruckhausen</t>
-  </si>
-  <si>
-    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
-  </si>
-  <si>
-    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
-  </si>
-  <si>
-    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
-  </si>
-  <si>
-    <t>Stadtwerke Düsseldorf AG</t>
-  </si>
-  <si>
-    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>AWG Abfallwirtschaftsgesellschaft mbH Wuppertal</t>
-  </si>
-  <si>
-    <t>SUEZ Energie und Verwertung GmbH</t>
-  </si>
-  <si>
-    <t>CropEnergies Bioethanol GmbH</t>
-  </si>
-  <si>
-    <t>RWE Power AG-Fabrik Ville/Berrenrath</t>
-  </si>
-  <si>
-    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
+    <t>MtG</t>
+  </si>
+  <si>
+    <t>PtF-MeOH</t>
   </si>
   <si>
     <t>PtF-DME</t>
   </si>
   <si>
-    <t>PtF-MeOH</t>
-  </si>
-  <si>
     <t>PtF-FT1</t>
   </si>
   <si>
-    <t>MtG</t>
-  </si>
-  <si>
     <t>{'Meth': 3487393.97800187, 'MtG': 4444727.840108303, 'FT': 4879006.727884552}</t>
   </si>
   <si>
@@ -569,12 +506,12 @@
     <t>{'Meth': 4587104.703249776, 'MtG': 5847075.126559586, 'FT': 6418372.486949732}</t>
   </si>
   <si>
-    <t>{'Meth': 2051752.656756106, 'MtG': 2614545.7882990018, 'FT': 2870003.957579148}</t>
-  </si>
-  <si>
     <t>{'Meth': 2723021.589861078, 'MtG': 3470215.3190150387, 'FT': 3809277.9800595967}</t>
   </si>
   <si>
+    <t>{'Meth': 18801918.172355607, 'MtG': 24006284.056199927, 'FT': 26351854.519590363}</t>
+  </si>
+  <si>
     <t>{'Meth': 2778955.9108548313, 'MtG': 3541521.1132413754, 'FT': 3887550.815266301}</t>
   </si>
   <si>
@@ -587,9 +524,6 @@
     <t>{'Meth': 2984042.160773337, 'MtG': 3802975.692071275, 'FT': 4174551.211024216}</t>
   </si>
   <si>
-    <t>{'Meth': 2256873.78961794, 'MtG': 2876000.3671289016, 'FT': 3157004.353337063}</t>
-  </si>
-  <si>
     <t>{'Meth': 3058616.539902832, 'MtG': 3898050.084373057, 'FT': 4278914.991299821}</t>
   </si>
   <si>
@@ -599,6 +533,9 @@
     <t>{'Meth': 7754181.439418147, 'MtG': 9887736.799385315, 'FT': 10853833.14866296}</t>
   </si>
   <si>
+    <t>{'Meth': 6170936.453752637, 'MtG': 7867405.96297245, 'FT': 8636102.817806346}</t>
+  </si>
+  <si>
     <t>{'Meth': 4810740.062798683, 'MtG': 6132298.3034649305, 'FT': 6731463.8277765475}</t>
   </si>
   <si>
@@ -608,55 +545,16 @@
     <t>{'Meth': 8331454.2385598505, 'MtG': 10624563.339724127, 'FT': 11662652.445798906}</t>
   </si>
   <si>
-    <t>{'Meth': 2667086.537107407, 'MtG': 3398909.5247887024, 'FT': 3731005.144852893}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4754832.319820861, 'MtG': 6060992.509238595, 'FT': 6653190.992569845}</t>
+    <t>{'Meth': 6264084.751326288, 'MtG': 7986248.953349681, 'FT': 8766557.543150855}</t>
+  </si>
+  <si>
+    <t>{'Meth': 2219579.770081987, 'MtG': 2828463.1709780106, 'FT': 3104822.46319926}</t>
   </si>
   <si>
     <t>{'Meth': 15010968.327398868, 'MtG': 19157490.04880905, 'FT': 21029301.725534488}</t>
   </si>
   <si>
-    <t>{'Meth': 4419370.504935618, 'MtG': 5633157.743880576, 'FT': 6183553.98132962}</t>
-  </si>
-  <si>
     <t>{'Meth': 11532970.807191214, 'MtG': 14712762.208700748, 'FT': 16150294.997649936}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4997093.924883411, 'MtG': 6369984.284219386, 'FT': 6992373.278465562}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4531194.035134709, 'MtG': 5775769.33233325, 'FT': 6340099.651743028}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7325831.86001466, 'MtG': 9341059.04365007, 'FT': 10253741.41207823}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3375543.13998122, 'MtG': 4302116.25165563, 'FT': 4722461.057471144}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4102521.2825544556, 'MtG': 5229091.5765980035, 'FT': 5740007.915158296}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3524676.9403826627, 'MtG': 4492265.036259194, 'FT': 4931188.618022355}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7288582.041044717, 'MtG': 9293521.847499179, 'FT': 10201559.521940427}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4866647.074526319, 'MtG': 6203604.097691269, 'FT': 6809736.662983253}</t>
-  </si>
-  <si>
-    <t>{'Meth': 6822931.9034148725, 'MtG': 8699306.895613043, 'FT': 9549285.895217892}</t>
-  </si>
-  <si>
-    <t>{'Meth': 5574739.268419025, 'MtG': 7106810.824558194, 'FT': 7801192.575601502}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7065076.307727562, 'MtG': 9008298.670593834, 'FT': 9888468.181113614}</t>
-  </si>
-  <si>
-    <t>{'Meth': 20101958.5303517, 'MtG': 25670085.921481106, 'FT': 28178220.674413458}</t>
   </si>
 </sst>
 </file>
@@ -1246,52 +1144,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13053297229.48265</v>
+        <v>10731280224.48027</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>96.00000000000001</v>
       </c>
       <c r="D2">
-        <v>1169.451249822471</v>
+        <v>1173.26177594295</v>
       </c>
       <c r="E2">
-        <v>184.9852048575644</v>
+        <v>180.0220284871184</v>
       </c>
       <c r="F2">
         <v>400</v>
       </c>
       <c r="G2">
-        <v>325.1242189293825</v>
+        <v>277.8919766312965</v>
       </c>
       <c r="H2">
-        <v>25.04542193843381</v>
+        <v>19.74285655014018</v>
       </c>
       <c r="I2">
-        <v>858.4615384615383</v>
+        <v>865.6153846153844</v>
       </c>
       <c r="J2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K2">
-        <v>498.4615384615384</v>
+        <v>502.6153846153845</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M2">
-        <v>229.1281238733598</v>
+        <v>225.5180670115593</v>
       </c>
       <c r="N2">
-        <v>74.51321101572677</v>
+        <v>73.33920878424694</v>
       </c>
       <c r="O2">
-        <v>154.614912857633</v>
+        <v>152.1788582273124</v>
       </c>
       <c r="P2">
-        <v>180.9195959595959</v>
+        <v>176.2915151515151</v>
       </c>
       <c r="Q2">
-        <v>180.9195959595959</v>
+        <v>176.2915151515151</v>
       </c>
       <c r="R2">
         <v>166.8193217440867</v>
@@ -1315,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>50.00000000000001</v>
@@ -1324,145 +1222,145 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>117.0317448142757</v>
+        <v>134.9724819155903</v>
       </c>
       <c r="AC2">
-        <v>117.0317448142756</v>
+        <v>134.9724819155903</v>
       </c>
       <c r="AD2">
-        <v>66.77894736842104</v>
+        <v>9.701052631578948</v>
       </c>
       <c r="AE2">
-        <v>20.63654970760234</v>
+        <v>2.997894736842106</v>
       </c>
       <c r="AF2">
-        <v>46.1423976608187</v>
+        <v>6.703157894736841</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>6.564332929285719e-18</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.608261567675001e-18</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.969299878785716e-19</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>4.759141373732146e-18</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.330724898794558e-17</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.330724898794558e-17</v>
       </c>
       <c r="AM2">
-        <v>49.99999999999999</v>
+        <v>49.99566329486787</v>
       </c>
       <c r="AN2">
-        <v>49.99999999999999</v>
+        <v>49.99566329486787</v>
       </c>
       <c r="AO2">
-        <v>50</v>
+        <v>49.9655969019896</v>
       </c>
       <c r="AP2">
-        <v>50</v>
+        <v>49.96559690198959</v>
       </c>
       <c r="AQ2">
-        <v>396.4590833191616</v>
+        <v>397.3462489985899</v>
       </c>
       <c r="AR2">
-        <v>396.4590833191616</v>
+        <v>397.3462489985899</v>
       </c>
       <c r="AS2">
-        <v>375.5409166808383</v>
+        <v>357.5737510014097</v>
       </c>
       <c r="AT2">
-        <v>375.5409166808383</v>
+        <v>357.5737510014097</v>
       </c>
       <c r="AU2">
-        <v>6.75</v>
+        <v>7.2</v>
       </c>
       <c r="AV2">
-        <v>6.75</v>
+        <v>7.2</v>
       </c>
       <c r="AW2">
-        <v>21.78</v>
+        <v>23.58</v>
       </c>
       <c r="AX2">
-        <v>21.78</v>
+        <v>23.58</v>
       </c>
       <c r="AY2">
-        <v>117.27</v>
+        <v>111.42</v>
       </c>
       <c r="AZ2">
-        <v>117.27</v>
+        <v>111.42</v>
       </c>
       <c r="BA2">
-        <v>373.35</v>
+        <v>349.65</v>
       </c>
       <c r="BB2">
-        <v>373.35</v>
+        <v>349.65</v>
       </c>
       <c r="BC2">
-        <v>86</v>
+        <v>83.88</v>
       </c>
       <c r="BD2">
-        <v>86</v>
+        <v>83.88</v>
       </c>
       <c r="BE2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="BF2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="BG2">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BH2">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BI2">
-        <v>13.03</v>
+        <v>12.38</v>
       </c>
       <c r="BJ2">
-        <v>13.03</v>
+        <v>12.38</v>
       </c>
       <c r="BK2">
-        <v>41.15</v>
+        <v>38.85</v>
       </c>
       <c r="BL2">
-        <v>41.15</v>
+        <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>502.1815055376047</v>
+        <v>503.3052487315472</v>
       </c>
       <c r="BN2">
-        <v>966.0381707240767</v>
+        <v>928.28231938351</v>
       </c>
       <c r="BO2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BP2">
-        <v>180.9195959595959</v>
+        <v>176.2915151515151</v>
       </c>
       <c r="BQ2">
-        <v>130.3</v>
+        <v>388.5</v>
       </c>
       <c r="BR2">
-        <v>858</v>
+        <v>121</v>
       </c>
       <c r="BS2">
-        <v>7.5</v>
+        <v>26.2</v>
       </c>
       <c r="BT2">
-        <v>24.2</v>
+        <v>838.7999999999995</v>
       </c>
       <c r="BU2">
-        <v>120</v>
+        <v>123.8</v>
       </c>
       <c r="BV2">
-        <v>414.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1524,31 +1422,31 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>2.794341968911915</v>
+        <v>2.762499999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>93139981.91571669</v>
+        <v>92078637.08333331</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>18.69999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="L2">
-        <v>3539329.178328279</v>
+        <v>3211279.34822684</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1562,31 +1460,31 @@
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>2.480538860103628</v>
+        <v>2.452272727272728</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
       </c>
       <c r="I3">
-        <v>82680411.75405876</v>
+        <v>81738255.3787879</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>16.60000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="L3">
-        <v>3438756.663575569</v>
+        <v>3120028.598903444</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1603,13 +1501,13 @@
         <v>11.52</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
@@ -1621,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="K4">
-        <v>79.30854271356787</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L4">
-        <v>5594639.70924738</v>
+        <v>4640353.526253123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1638,31 +1536,31 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>9.729999999999997</v>
+        <v>11.52</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>325266740.8358616</v>
+        <v>385105123.7851107</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>97.29999999999997</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L5">
-        <v>4786474.22858194</v>
+        <v>5770810.054667593</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1676,31 +1574,31 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>2.196621761658029</v>
+        <v>2.171590909090909</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>73431449.25628327</v>
+        <v>72594686.27222878</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>14.69999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="L6">
-        <v>3339074.297922262</v>
+        <v>3029585.493423196</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1717,13 +1615,13 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
@@ -1735,10 +1633,10 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>115.2</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L7">
-        <v>5004876.854845014</v>
+        <v>6034127.062430562</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1752,31 +1650,31 @@
         <v>26316</v>
       </c>
       <c r="D8">
-        <v>4.314087591240877</v>
+        <v>4.387499999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
       </c>
       <c r="I8">
-        <v>144993129.2484882</v>
+        <v>147460463.220396</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>29.70000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="L8">
-        <v>4330325.407872935</v>
+        <v>3591695.233391508</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1790,22 +1688,22 @@
         <v>26954</v>
       </c>
       <c r="D9">
-        <v>1.897761658031086</v>
+        <v>1.876136363636363</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>63782293.60117851</v>
+        <v>63055484.27269455</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -1814,7 +1712,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="L9">
-        <v>3222966.475663574</v>
+        <v>2924239.357757165</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1828,31 +1726,31 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>4.139781021897811</v>
+        <v>4.258756476683939</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F10">
         <v>0.2</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>139134820.996024</v>
+        <v>143133493.5144559</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>28.50000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="L10">
-        <v>4287320.283201578</v>
+        <v>3919293.107758419</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1866,28 +1764,28 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>2.719999999999999</v>
+        <v>4.018181818181819</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>93497489.13908841</v>
+        <v>138121290.7736534</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.19999999999999</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="L11">
         <v>3516074.693055412</v>
@@ -1904,28 +1802,28 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5.90909090909091</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>0.7</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>139850743.4535303</v>
+        <v>206597689.1927152</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1942,31 +1840,31 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>2.286279792746114</v>
+        <v>2.260227272727274</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>80276155.88290195</v>
+        <v>79361396.38373198</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.3</v>
+        <v>15.30000000000001</v>
       </c>
       <c r="L13">
-        <v>3371557.835365569</v>
+        <v>3059058.228987825</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1980,28 +1878,28 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>1.710000000000001</v>
+        <v>2.526136363636365</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>60041744.23239812</v>
+        <v>88698031.25240631</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.1</v>
+        <v>17.10000000000001</v>
       </c>
       <c r="L14">
         <v>3142515.846107772</v>
@@ -2018,22 +1916,22 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>11.18467153284671</v>
+        <v>11.375</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F15">
         <v>0.75</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>392717653.5079336</v>
+        <v>399400491.6044025</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -2042,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="L15">
-        <v>5453109.618307365</v>
+        <v>4522964.437644095</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2056,28 +1954,28 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>3.219999999999999</v>
+        <v>4.756818181818183</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F16">
         <v>0.75</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>113061062.2387847</v>
+        <v>167022023.7618411</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>32.19999999999999</v>
+        <v>32.2</v>
       </c>
       <c r="L16">
         <v>3662634.134160224</v>
@@ -2094,28 +1992,28 @@
         <v>21107</v>
       </c>
       <c r="D17">
-        <v>2.23</v>
+        <v>3.294318181818181</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F17">
         <v>0.75</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>78300052.42002794</v>
+        <v>115670531.9841321</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>22.3</v>
+        <v>22.29999999999999</v>
       </c>
       <c r="L17">
         <v>3351059.927308201</v>
@@ -2132,28 +2030,28 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>3.23</v>
+        <v>4.771590909090911</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F18">
         <v>0.75</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>113412183.5500853</v>
+        <v>167540725.6989897</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>32.3</v>
+        <v>32.30000000000001</v>
       </c>
       <c r="L18">
         <v>3665383.563029062</v>
@@ -2170,22 +2068,22 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>2.25</v>
+        <v>3.323863636363637</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F19">
         <v>0.75</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>79002295.04262906</v>
+        <v>116707935.8584293</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -2208,22 +2106,22 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>8.906031088082901</v>
+        <v>8.804545454545455</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F20">
         <v>0.75</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>312709731.4131343</v>
+        <v>309146354.5405505</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -2232,7 +2130,7 @@
         <v>59.6</v>
       </c>
       <c r="L20">
-        <v>4685380.681094596</v>
+        <v>4251106.766759329</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2246,31 +2144,31 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>6.18640414507772</v>
+        <v>6.115909090909092</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F21">
         <v>0.75</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H21">
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>217217833.5654993</v>
+        <v>214742601.97951</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.4</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="L21">
-        <v>4289921.74677372</v>
+        <v>3892301.737650325</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2284,31 +2182,31 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>7.102992700729924</v>
+        <v>7.307129533678758</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F22">
         <v>0.75</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="H22">
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>249401211.1238694</v>
+        <v>256568890.3708435</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>48.89999999999999</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L22">
-        <v>4885693.477373235</v>
+        <v>4466301.444171549</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2325,13 +2223,13 @@
         <v>4.826590673575129</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F23">
         <v>0.8</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
@@ -2360,22 +2258,22 @@
         <v>24114</v>
       </c>
       <c r="D24">
-        <v>1.309999999999999</v>
+        <v>1.935227272727271</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F24">
         <v>0.8</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>46192460.12023553</v>
+        <v>68238861.54125705</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2401,13 +2299,13 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F25">
         <v>0.8</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
@@ -2419,10 +2317,10 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>115.2</v>
+        <v>77.09292649098477</v>
       </c>
       <c r="L25">
-        <v>5273515.054654035</v>
+        <v>5812233.59331741</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2436,31 +2334,31 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>8.203709844559583</v>
+        <v>8.110227272727272</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F26">
         <v>0.8</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H26">
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>289274457.8876355</v>
+        <v>285978129.6652683</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.89999999999998</v>
+        <v>54.89999999999999</v>
       </c>
       <c r="L26">
-        <v>4593162.336777735</v>
+        <v>4167435.864813926</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2474,28 +2372,28 @@
         <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.690000000000001</v>
+        <v>3.973863636363635</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F27">
         <v>0.8</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="H27">
         <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>94853219.63620898</v>
+        <v>140124074.4625813</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>26.90000000000001</v>
+        <v>26.89999999999999</v>
       </c>
       <c r="L27">
         <v>3506650.390632065</v>
@@ -2515,13 +2413,13 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H28">
         <v>35849408.31499194</v>
@@ -2533,10 +2431,10 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>77.09292649098477</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L28">
-        <v>5527525.228332203</v>
+        <v>6046567.678346199</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2550,28 +2448,28 @@
         <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.649999999999999</v>
+        <v>2.4375</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F29">
         <v>1.4</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H29">
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>60939943.85143567</v>
+        <v>90024917.05325729</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>16.49999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="L29">
         <v>3115469.701891457</v>
@@ -2588,28 +2486,28 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>2.460000000000001</v>
+        <v>3.634090909090908</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F30">
         <v>1.7</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H30">
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>92595658.4966342</v>
+        <v>136789040.9609368</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.60000000000001</v>
+        <v>24.59999999999999</v>
       </c>
       <c r="L30">
         <v>3431616.232505888</v>
@@ -2623,34 +2521,34 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>1.100000000000001</v>
+        <v>2.156818181818181</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>41640981.54995351</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>11.00000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="L31">
-        <v>2824291.034417088</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2661,34 +2559,34 @@
         <v>114</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>1.460000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>55268939.14812007</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>14.60000000000001</v>
+        <v>77.09292649098477</v>
       </c>
       <c r="L32">
-        <v>3024585.102161352</v>
+        <v>5323301.44817334</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2702,28 +2600,28 @@
         <v>49536</v>
       </c>
       <c r="D33">
-        <v>1.489999999999998</v>
+        <v>2.201136363636366</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>56404602.28130053</v>
+        <v>83324980.64283051</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>14.89999999999998</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="L33">
         <v>3039509.425943215</v>
@@ -2740,31 +2638,31 @@
         <v>49808</v>
       </c>
       <c r="D34">
-        <v>11.4</v>
+        <v>11.52</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>431551990.6086085</v>
+        <v>436094643.1413308</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>114</v>
+        <v>79.30854271356786</v>
       </c>
       <c r="L34">
-        <v>4973514.536159209</v>
+        <v>5996315.099936542</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2778,22 +2676,22 @@
         <v>49824</v>
       </c>
       <c r="D35">
-        <v>3.850000000000001</v>
+        <v>5.687500000000001</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>145743435.4248371</v>
+        <v>215302802.3321458</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -2816,28 +2714,28 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.600000000000001</v>
+        <v>2.363636363636363</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>60568700.43629599</v>
+        <v>89476489.2808917</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>16.00000000000001</v>
+        <v>15.99999999999999</v>
       </c>
       <c r="L36">
         <v>3092355.773228031</v>
@@ -2851,34 +2749,34 @@
         <v>119</v>
       </c>
       <c r="C37">
-        <v>31171</v>
+        <v>31226</v>
       </c>
       <c r="D37">
-        <v>1.210000000000001</v>
+        <v>2.422727272727272</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F37">
         <v>1.9</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H37">
         <v>38060293.37896816</v>
       </c>
       <c r="I37">
-        <v>46052954.98855151</v>
+        <v>92209710.77722739</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>12.10000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="L37">
-        <v>2890190.553294488</v>
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2889,34 +2787,34 @@
         <v>120</v>
       </c>
       <c r="C38">
-        <v>31226</v>
+        <v>31319</v>
       </c>
       <c r="D38">
-        <v>1.640000000000001</v>
+        <v>9.219834196891192</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>62418881.14150781</v>
+        <v>350909594.4391221</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>16.40000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="L38">
-        <v>3110889.813225406</v>
+        <v>4724809.440349433</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2927,34 +2825,34 @@
         <v>121</v>
       </c>
       <c r="C39">
-        <v>31319</v>
+        <v>31789</v>
       </c>
       <c r="D39">
-        <v>8.962262773722628</v>
+        <v>6.216290155440415</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>341106350.5072882</v>
+        <v>236593827.0448538</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>61.70000000000001</v>
+        <v>41.6</v>
       </c>
       <c r="L39">
-        <v>5168475.740631191</v>
+        <v>4294927.860967864</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2965,34 +2863,34 @@
         <v>122</v>
       </c>
       <c r="C40">
-        <v>31789</v>
+        <v>38239</v>
       </c>
       <c r="D40">
-        <v>3.608100234993144</v>
+        <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="H40">
-        <v>38060293.37896816</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I40">
-        <v>137325353.484563</v>
+        <v>440702116.0896025</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>24.14574706496799</v>
+        <v>155.2000000000001</v>
       </c>
       <c r="L40">
-        <v>4294927.860967864</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3003,34 +2901,34 @@
         <v>123</v>
       </c>
       <c r="C41">
-        <v>38239</v>
+        <v>31061</v>
       </c>
       <c r="D41">
-        <v>11.52</v>
+        <v>4.889772727272728</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H41">
-        <v>38255392.02166688</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I41">
-        <v>440702116.0896025</v>
+        <v>187968198.0835942</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>115.2</v>
+        <v>33.1</v>
       </c>
       <c r="L41">
-        <v>5273515.054654035</v>
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3044,28 +2942,28 @@
         <v>33332</v>
       </c>
       <c r="D42">
-        <v>2.579999999999998</v>
+        <v>3.811363636363637</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F42">
         <v>2.3</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="H42">
         <v>38785844.374162</v>
       </c>
       <c r="I42">
-        <v>100067478.4853379</v>
+        <v>147826956.8533402</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>25.79999999999998</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="L42">
         <v>3471397.820165223</v>
@@ -3082,31 +2980,31 @@
         <v>33609</v>
       </c>
       <c r="D43">
-        <v>3.88</v>
+        <v>5.635912408759122</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F43">
         <v>2.3</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H43">
         <v>38785844.374162</v>
       </c>
       <c r="I43">
-        <v>150489076.1717485</v>
+        <v>218593621.5925398</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>38.8</v>
+        <v>38.79999999999999</v>
       </c>
       <c r="L43">
-        <v>3831684.085287054</v>
+        <v>4619667.836848523</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3120,22 +3018,22 @@
         <v>38372</v>
       </c>
       <c r="D44">
-        <v>4.469999999999999</v>
+        <v>6.603409090909089</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>173372724.3525041</v>
+        <v>256118797.3389265</v>
       </c>
       <c r="J44">
         <v>100</v>
@@ -3155,34 +3053,34 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>39596</v>
+        <v>38723</v>
       </c>
       <c r="D45">
-        <v>11.52</v>
+        <v>4.880583941605838</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>446812927.1903463</v>
+        <v>189297569.2141582</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>115.2</v>
+        <v>33.6</v>
       </c>
       <c r="L45">
-        <v>5273515.054654035</v>
+        <v>4461568.626817144</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3193,34 +3091,34 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>39171</v>
+        <v>39340</v>
       </c>
       <c r="D46">
-        <v>1.43</v>
+        <v>1.757937405784104</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F46">
         <v>2.5</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H46">
         <v>39097761.98338025</v>
       </c>
       <c r="I46">
-        <v>55909799.63623375</v>
+        <v>68731418.27302784</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>14.3</v>
+        <v>12.10238314534785</v>
       </c>
       <c r="L46">
-        <v>3009426.484318849</v>
+        <v>3470530.273544989</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3231,34 +3129,34 @@
         <v>129</v>
       </c>
       <c r="C47">
-        <v>39326</v>
+        <v>58710</v>
       </c>
       <c r="D47">
-        <v>3.704014598540144</v>
+        <v>11.52</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F47">
         <v>2.5</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H47">
         <v>39097761.98338025</v>
       </c>
       <c r="I47">
-        <v>144818681.1566883</v>
+        <v>450406218.0485406</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>25.49999999999999</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L47">
-        <v>4173459.430245438</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3269,832 +3167,34 @@
         <v>130</v>
       </c>
       <c r="C48">
-        <v>58710</v>
+        <v>45329</v>
       </c>
       <c r="D48">
-        <v>8.060000000000002</v>
+        <v>9.075987293423447</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H48">
-        <v>39097761.98338025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="I48">
-        <v>315127961.5860449</v>
+        <v>360811532.8811125</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>80.60000000000002</v>
+        <v>61.43745244778949</v>
       </c>
       <c r="L48">
-        <v>4573255.840545377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49">
-        <v>59075</v>
-      </c>
-      <c r="D49">
-        <v>2.550000000000001</v>
-      </c>
-      <c r="E49" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49">
-        <v>2.5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49">
-        <v>39097761.98338025</v>
-      </c>
-      <c r="I49">
-        <v>99699293.05761966</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>25.50000000000001</v>
-      </c>
-      <c r="L49">
-        <v>3461586.123553794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50">
-        <v>44793</v>
-      </c>
-      <c r="D50">
-        <v>2.370000000000001</v>
-      </c>
-      <c r="E50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>200</v>
-      </c>
-      <c r="H50">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I50">
-        <v>94218216.18766128</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>23.70000000000001</v>
-      </c>
-      <c r="L50">
-        <v>3400803.330760665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51">
-        <v>45329</v>
-      </c>
-      <c r="D51">
-        <v>6.190000000000001</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I51">
-        <v>246080488.692668</v>
-      </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51">
-        <v>61.90000000000001</v>
-      </c>
-      <c r="L51">
         <v>4290239.673387973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52">
-        <v>45356</v>
-      </c>
-      <c r="D52">
-        <v>2.68</v>
-      </c>
-      <c r="E52" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>202</v>
-      </c>
-      <c r="H52">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I52">
-        <v>106542117.8830937</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>26.8</v>
-      </c>
-      <c r="L52">
-        <v>3503491.254460279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53">
-        <v>45772</v>
-      </c>
-      <c r="D53">
-        <v>11.52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I53">
-        <v>457972088.8109104</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>115.2</v>
-      </c>
-      <c r="L53">
-        <v>5273515.054654035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54">
-        <v>45966</v>
-      </c>
-      <c r="D54">
-        <v>2.370000000000001</v>
-      </c>
-      <c r="E54" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>200</v>
-      </c>
-      <c r="H54">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I54">
-        <v>94218216.18766128</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54">
-        <v>23.70000000000001</v>
-      </c>
-      <c r="L54">
-        <v>3400803.330760665</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55">
-        <v>47137</v>
-      </c>
-      <c r="D55">
-        <v>2.43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I55">
-        <v>96603487.48355138</v>
-      </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
-      <c r="K55">
-        <v>24.3</v>
-      </c>
-      <c r="L55">
-        <v>3421441.633780445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56">
-        <v>47166</v>
-      </c>
-      <c r="D56">
-        <v>11.52</v>
-      </c>
-      <c r="E56" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>178</v>
-      </c>
-      <c r="H56">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I56">
-        <v>457972088.8109104</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56">
-        <v>115.2</v>
-      </c>
-      <c r="L56">
-        <v>5273515.054654035</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57">
-        <v>47166</v>
-      </c>
-      <c r="D57">
-        <v>4.890000000000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I57">
-        <v>194399610.6150479</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
-      <c r="K57">
-        <v>48.90000000000001</v>
-      </c>
-      <c r="L57">
-        <v>4052333.328712357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58">
-        <v>47198</v>
-      </c>
-      <c r="D58">
-        <v>5.673595403511847</v>
-      </c>
-      <c r="E58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>204</v>
-      </c>
-      <c r="H58">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I58">
-        <v>225551071.0081858</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58">
-        <v>39.05942564226749</v>
-      </c>
-      <c r="L58">
-        <v>4634004.69700745</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59">
-        <v>47443</v>
-      </c>
-      <c r="D59">
-        <v>1.809999999999999</v>
-      </c>
-      <c r="E59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>205</v>
-      </c>
-      <c r="H59">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I59">
-        <v>71955684.09268637</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59">
-        <v>18.09999999999999</v>
-      </c>
-      <c r="L59">
-        <v>3186035.662342605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60">
-        <v>47475</v>
-      </c>
-      <c r="D60">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>206</v>
-      </c>
-      <c r="H60">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I60">
-        <v>87459947.51597242</v>
-      </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>21.99999999999999</v>
-      </c>
-      <c r="L60">
-        <v>3340094.131013245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61">
-        <v>47829</v>
-      </c>
-      <c r="D61">
-        <v>3.219999999999999</v>
-      </c>
-      <c r="E61" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I61">
-        <v>128009559.5461051</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
-        <v>32.19999999999999</v>
-      </c>
-      <c r="L61">
-        <v>3662634.134160224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62">
-        <v>47829</v>
-      </c>
-      <c r="D62">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="E62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>207</v>
-      </c>
-      <c r="H62">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I62">
-        <v>75136045.82054</v>
-      </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62">
-        <v>18.90000000000001</v>
-      </c>
-      <c r="L62">
-        <v>3219557.413728694</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63">
-        <v>40235</v>
-      </c>
-      <c r="D63">
-        <v>3.91</v>
-      </c>
-      <c r="E63" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63">
-        <v>3.2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>208</v>
-      </c>
-      <c r="H63">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I63">
-        <v>156304402.0237591</v>
-      </c>
-      <c r="J63">
-        <v>100</v>
-      </c>
-      <c r="K63">
-        <v>39.1</v>
-      </c>
-      <c r="L63">
-        <v>3838832.76455666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64">
-        <v>42327</v>
-      </c>
-      <c r="D64">
-        <v>2.609999999999999</v>
-      </c>
-      <c r="E64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F64">
-        <v>3.2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>209</v>
-      </c>
-      <c r="H64">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I64">
-        <v>104336186.5171384</v>
-      </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64">
-        <v>26.09999999999999</v>
-      </c>
-      <c r="L64">
-        <v>3481123.414272474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65">
-        <v>42349</v>
-      </c>
-      <c r="D65">
-        <v>3.66</v>
-      </c>
-      <c r="E65" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65">
-        <v>3.2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>210</v>
-      </c>
-      <c r="H65">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I65">
-        <v>146310514.426332</v>
-      </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65">
-        <v>36.6</v>
-      </c>
-      <c r="L65">
-        <v>3777938.120327855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66">
-        <v>6686</v>
-      </c>
-      <c r="D66">
-        <v>2.786433279153138</v>
-      </c>
-      <c r="E66" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66">
-        <v>3.5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>211</v>
-      </c>
-      <c r="H66">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I66">
-        <v>112210304.2397123</v>
-      </c>
-      <c r="J66">
-        <v>100</v>
-      </c>
-      <c r="K66">
-        <v>27.86433279153137</v>
-      </c>
-      <c r="L66">
-        <v>3597533.486741587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67">
-        <v>6712</v>
-      </c>
-      <c r="D67">
-        <v>3.789999999999999</v>
-      </c>
-      <c r="E67" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67">
-        <v>3.5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>212</v>
-      </c>
-      <c r="H67">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I67">
-        <v>152624165.1828682</v>
-      </c>
-      <c r="J67">
-        <v>100</v>
-      </c>
-      <c r="K67">
-        <v>37.89999999999999</v>
-      </c>
-      <c r="L67">
-        <v>3809983.601047164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68">
-        <v>50354</v>
-      </c>
-      <c r="D68">
-        <v>10.8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68">
-        <v>3.5</v>
-      </c>
-      <c r="G68" t="s">
-        <v>213</v>
-      </c>
-      <c r="H68">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I68">
-        <v>434918465.4287538</v>
-      </c>
-      <c r="J68">
-        <v>100</v>
-      </c>
-      <c r="K68">
-        <v>108</v>
-      </c>
-      <c r="L68">
-        <v>4908863.618608388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69">
-        <v>50997</v>
-      </c>
-      <c r="D69">
-        <v>2.969999999999999</v>
-      </c>
-      <c r="E69" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69">
-        <v>3.5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I69">
-        <v>119602577.9929072</v>
-      </c>
-      <c r="J69">
-        <v>100</v>
-      </c>
-      <c r="K69">
-        <v>29.69999999999999</v>
-      </c>
-      <c r="L69">
-        <v>3591695.233391508</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,24 +218,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -356,6 +356,9 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
     <t>Sappi Alfeld GmbH</t>
   </si>
   <si>
+    <t>Heidelberg Cement AG Zementwerk Paderborn</t>
+  </si>
+  <si>
     <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
   </si>
   <si>
@@ -401,15 +407,15 @@
     <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
   </si>
   <si>
-    <t>EUROGLAS GmbH</t>
+    <t>EUROGLAS AG</t>
+  </si>
+  <si>
+    <t>Werk  Zielitz</t>
   </si>
   <si>
     <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
-    <t>RWE Generation SE MHKW Karnap</t>
-  </si>
-  <si>
     <t>MtG</t>
   </si>
   <si>
@@ -506,6 +512,9 @@
     <t>{'Meth': 4587104.703249776, 'MtG': 5847075.126559586, 'FT': 6418372.486949732}</t>
   </si>
   <si>
+    <t>{'Meth': 2051752.656756106, 'MtG': 2614545.7882990018, 'FT': 2870003.957579148}</t>
+  </si>
+  <si>
     <t>{'Meth': 2723021.589861078, 'MtG': 3470215.3190150387, 'FT': 3809277.9800595967}</t>
   </si>
   <si>
@@ -536,6 +545,9 @@
     <t>{'Meth': 6170936.453752637, 'MtG': 7867405.96297245, 'FT': 8636102.817806346}</t>
   </si>
   <si>
+    <t>{'Meth': 4307544.049353574, 'MtG': 5490546.155427906, 'FT': 6027008.310916212}</t>
+  </si>
+  <si>
     <t>{'Meth': 4810740.062798683, 'MtG': 6132298.3034649305, 'FT': 6731463.8277765475}</t>
   </si>
   <si>
@@ -548,13 +560,13 @@
     <t>{'Meth': 6264084.751326288, 'MtG': 7986248.953349681, 'FT': 8766557.543150855}</t>
   </si>
   <si>
-    <t>{'Meth': 2219579.770081987, 'MtG': 2828463.1709780106, 'FT': 3104822.46319926}</t>
+    <t>{'Meth': 2667086.537107407, 'MtG': 3398909.5247887024, 'FT': 3731005.144852893}</t>
+  </si>
+  <si>
+    <t>{'Meth': 4754832.319820861, 'MtG': 6060992.509238595, 'FT': 6653190.992569845}</t>
   </si>
   <si>
     <t>{'Meth': 15010968.327398868, 'MtG': 19157490.04880905, 'FT': 21029301.725534488}</t>
-  </si>
-  <si>
-    <t>{'Meth': 11532970.807191214, 'MtG': 14712762.208700748, 'FT': 16150294.997649936}</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10731280224.48027</v>
+        <v>10727036714.35463</v>
       </c>
       <c r="C2">
         <v>96.00000000000001</v>
@@ -1156,13 +1168,13 @@
         <v>180.0220284871184</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>399.999999999999</v>
       </c>
       <c r="G2">
-        <v>277.8919766312965</v>
+        <v>277.8880778795417</v>
       </c>
       <c r="H2">
-        <v>19.74285655014018</v>
+        <v>19.74208440955209</v>
       </c>
       <c r="I2">
         <v>865.6153846153844</v>
@@ -1192,10 +1204,10 @@
         <v>176.2915151515151</v>
       </c>
       <c r="R2">
-        <v>166.8193217440867</v>
+        <v>166.8193217440861</v>
       </c>
       <c r="S2">
-        <v>166.8193217440867</v>
+        <v>166.8193217440861</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1222,10 +1234,10 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>134.9724819155903</v>
+        <v>134.9361670730875</v>
       </c>
       <c r="AC2">
-        <v>134.9724819155903</v>
+        <v>134.9361670730875</v>
       </c>
       <c r="AD2">
         <v>9.701052631578948</v>
@@ -1237,46 +1249,46 @@
         <v>6.703157894736841</v>
       </c>
       <c r="AG2">
-        <v>6.564332929285719e-18</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.608261567675001e-18</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.969299878785716e-19</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.759141373732146e-18</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.330724898794558e-17</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.330724898794558e-17</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>49.99566329486787</v>
+        <v>49.9956637561382</v>
       </c>
       <c r="AN2">
-        <v>49.99566329486787</v>
+        <v>49.99566375613819</v>
       </c>
       <c r="AO2">
-        <v>49.9655969019896</v>
+        <v>50</v>
       </c>
       <c r="AP2">
-        <v>49.96559690198959</v>
+        <v>50</v>
       </c>
       <c r="AQ2">
-        <v>397.3462489985899</v>
+        <v>397.3175797502485</v>
       </c>
       <c r="AR2">
-        <v>397.3462489985899</v>
+        <v>397.3175797502485</v>
       </c>
       <c r="AS2">
-        <v>357.5737510014097</v>
+        <v>357.6024202497512</v>
       </c>
       <c r="AT2">
-        <v>357.5737510014097</v>
+        <v>357.6024202497512</v>
       </c>
       <c r="AU2">
         <v>7.2</v>
@@ -1333,10 +1345,10 @@
         <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>503.3052487315472</v>
+        <v>503.2689343503147</v>
       </c>
       <c r="BN2">
-        <v>928.28231938351</v>
+        <v>928.3167224815198</v>
       </c>
       <c r="BO2">
         <v>121</v>
@@ -1345,22 +1357,22 @@
         <v>176.2915151515151</v>
       </c>
       <c r="BQ2">
+        <v>123.8</v>
+      </c>
+      <c r="BR2">
+        <v>838.7999999999996</v>
+      </c>
+      <c r="BS2">
+        <v>121</v>
+      </c>
+      <c r="BT2">
+        <v>8</v>
+      </c>
+      <c r="BU2">
         <v>388.5</v>
       </c>
-      <c r="BR2">
-        <v>121</v>
-      </c>
-      <c r="BS2">
+      <c r="BV2">
         <v>26.2</v>
-      </c>
-      <c r="BT2">
-        <v>838.7999999999995</v>
-      </c>
-      <c r="BU2">
-        <v>123.8</v>
-      </c>
-      <c r="BV2">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,13 +1437,13 @@
         <v>2.762499999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
@@ -1463,13 +1475,13 @@
         <v>2.452272727272728</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
@@ -1501,13 +1513,13 @@
         <v>11.52</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
@@ -1539,13 +1551,13 @@
         <v>11.52</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
@@ -1577,13 +1589,13 @@
         <v>2.171590909090909</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
@@ -1615,13 +1627,13 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
@@ -1653,13 +1665,13 @@
         <v>4.387499999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
@@ -1691,13 +1703,13 @@
         <v>1.876136363636363</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
@@ -1729,13 +1741,13 @@
         <v>4.258756476683939</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <v>0.2</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
@@ -1764,31 +1776,31 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>4.018181818181819</v>
+        <v>4.064497409326423</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>138121290.7736534</v>
+        <v>139713346.4648347</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.20000000000001</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="L11">
-        <v>3516074.693055412</v>
+        <v>3875261.042358126</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1805,13 +1817,13 @@
         <v>5.90909090909091</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F12">
         <v>0.7</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
@@ -1843,13 +1855,13 @@
         <v>2.260227272727274</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
@@ -1881,13 +1893,13 @@
         <v>2.526136363636365</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
@@ -1916,22 +1928,22 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>11.375</v>
+        <v>11.50611398963731</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F15">
         <v>0.75</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>399400491.6044025</v>
+        <v>404004183.2015326</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -1940,7 +1952,7 @@
         <v>77</v>
       </c>
       <c r="L15">
-        <v>4522964.437644095</v>
+        <v>4985010.106808093</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1954,22 +1966,22 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>4.756818181818183</v>
+        <v>4.811647668393782</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F16">
         <v>0.75</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>167022023.7618411</v>
+        <v>168947203.8842773</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -1978,7 +1990,7 @@
         <v>32.2</v>
       </c>
       <c r="L16">
-        <v>3662634.134160224</v>
+        <v>4036792.335656594</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1995,13 +2007,13 @@
         <v>3.294318181818181</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F17">
         <v>0.75</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
@@ -2033,13 +2045,13 @@
         <v>4.771590909090911</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F18">
         <v>0.75</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
@@ -2071,13 +2083,13 @@
         <v>3.323863636363637</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>0.75</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
@@ -2109,13 +2121,13 @@
         <v>8.804545454545455</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20">
         <v>0.75</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
@@ -2144,28 +2156,28 @@
         <v>21683</v>
       </c>
       <c r="D21">
-        <v>6.115909090909092</v>
+        <v>6.115909090909089</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <v>0.75</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H21">
         <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>214742601.97951</v>
+        <v>214742601.9795099</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.40000000000001</v>
+        <v>41.39999999999999</v>
       </c>
       <c r="L21">
         <v>3892301.737650325</v>
@@ -2182,22 +2194,22 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>7.307129533678758</v>
+        <v>7.307129533678757</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22">
         <v>0.75</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22">
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>256568890.3708435</v>
+        <v>256568890.3708434</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -2220,7 +2232,7 @@
         <v>22145</v>
       </c>
       <c r="D23">
-        <v>4.826590673575129</v>
+        <v>4.771590909090911</v>
       </c>
       <c r="E23" t="s">
         <v>133</v>
@@ -2229,22 +2241,22 @@
         <v>0.8</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>170192440.6151299</v>
+        <v>168253070.8230996</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>32.3</v>
+        <v>32.30000000000001</v>
       </c>
       <c r="L23">
-        <v>4039822.633791384</v>
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2261,13 +2273,13 @@
         <v>1.935227272727271</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F24">
         <v>0.8</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
@@ -2299,13 +2311,13 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <v>0.8</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
@@ -2317,10 +2329,10 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>77.09292649098477</v>
+        <v>155.2000000000001</v>
       </c>
       <c r="L25">
-        <v>5812233.59331741</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2337,13 +2349,13 @@
         <v>8.110227272727272</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26">
         <v>0.8</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H26">
         <v>35261419.93911113</v>
@@ -2375,13 +2387,13 @@
         <v>3.973863636363635</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27">
         <v>0.8</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H27">
         <v>35261419.93911113</v>
@@ -2413,13 +2425,13 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28">
         <v>35849408.31499194</v>
@@ -2431,10 +2443,10 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>79.30854271356787</v>
+        <v>77.09292649098477</v>
       </c>
       <c r="L28">
-        <v>6046567.678346199</v>
+        <v>5527525.228332203</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2451,13 +2463,13 @@
         <v>2.4375</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F29">
         <v>1.4</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H29">
         <v>36933299.30390043</v>
@@ -2489,13 +2501,13 @@
         <v>3.634090909090908</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F30">
         <v>1.7</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H30">
         <v>37640511.58399763</v>
@@ -2521,34 +2533,34 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>2.156818181818181</v>
+        <v>1.625</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>81647296.46881369</v>
+        <v>61515086.38061306</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>14.6</v>
+        <v>11</v>
       </c>
       <c r="L31">
-        <v>3024585.102161352</v>
+        <v>2824291.034417088</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2559,10 +2571,10 @@
         <v>114</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>11.52</v>
+        <v>2.156818181818181</v>
       </c>
       <c r="E32" t="s">
         <v>133</v>
@@ -2571,22 +2583,22 @@
         <v>1.8</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>436094643.1413309</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>77.09292649098477</v>
+        <v>14.6</v>
       </c>
       <c r="L32">
-        <v>5323301.44817334</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2597,34 +2609,34 @@
         <v>115</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D33">
-        <v>2.201136363636366</v>
+        <v>11.52</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>83324980.64283051</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>14.90000000000001</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L33">
-        <v>3039509.425943215</v>
+        <v>5823166.995898143</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2635,34 +2647,34 @@
         <v>116</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D34">
-        <v>11.52</v>
+        <v>2.201136363636365</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>436094643.1413308</v>
+        <v>83324980.64283049</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>79.30854271356786</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="L34">
-        <v>5996315.099936542</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2673,34 +2685,34 @@
         <v>117</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D35">
-        <v>5.687500000000001</v>
+        <v>11.52</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>215302802.3321458</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>38.50000000000001</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L35">
-        <v>3824493.385265881</v>
+        <v>5996315.099936542</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2714,31 +2726,31 @@
         <v>49824</v>
       </c>
       <c r="D36">
-        <v>2.363636363636363</v>
+        <v>5.6875</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>1.8</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>89476489.2808917</v>
+        <v>215302802.3321457</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>15.99999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="L36">
-        <v>3092355.773228031</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2749,34 +2761,34 @@
         <v>119</v>
       </c>
       <c r="C37">
-        <v>31226</v>
+        <v>49824</v>
       </c>
       <c r="D37">
-        <v>2.422727272727272</v>
+        <v>2.363636363636363</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H37">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>92209710.77722739</v>
+        <v>89476489.28089172</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="L37">
-        <v>3110889.813225406</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2787,10 +2799,10 @@
         <v>120</v>
       </c>
       <c r="C38">
-        <v>31319</v>
+        <v>31226</v>
       </c>
       <c r="D38">
-        <v>9.219834196891192</v>
+        <v>2.422727272727272</v>
       </c>
       <c r="E38" t="s">
         <v>133</v>
@@ -2799,22 +2811,22 @@
         <v>1.9</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>350909594.4391221</v>
+        <v>92209710.77722739</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>61.7</v>
+        <v>16.4</v>
       </c>
       <c r="L38">
-        <v>4724809.440349433</v>
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2825,10 +2837,10 @@
         <v>121</v>
       </c>
       <c r="C39">
-        <v>31789</v>
+        <v>31319</v>
       </c>
       <c r="D39">
-        <v>6.216290155440415</v>
+        <v>9.114772727272729</v>
       </c>
       <c r="E39" t="s">
         <v>133</v>
@@ -2837,22 +2849,22 @@
         <v>1.9</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>236593827.0448538</v>
+        <v>346910924.0826179</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>41.6</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="L39">
-        <v>4294927.860967864</v>
+        <v>4286880.992309345</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2863,34 +2875,34 @@
         <v>122</v>
       </c>
       <c r="C40">
-        <v>38239</v>
+        <v>31789</v>
       </c>
       <c r="D40">
-        <v>11.52</v>
+        <v>6.145454545454548</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H40">
-        <v>38255392.02166688</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>440702116.0896025</v>
+        <v>233897802.9471135</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>155.2000000000001</v>
+        <v>41.60000000000002</v>
       </c>
       <c r="L40">
-        <v>5273515.054654035</v>
+        <v>3896843.850100604</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2901,34 +2913,34 @@
         <v>123</v>
       </c>
       <c r="C41">
-        <v>31061</v>
+        <v>38239</v>
       </c>
       <c r="D41">
-        <v>4.889772727272728</v>
+        <v>11.43823495001904</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H41">
-        <v>38441090.93970785</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I41">
-        <v>187968198.0835942</v>
+        <v>437574162.0489098</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>33.1</v>
+        <v>76.54574706496794</v>
       </c>
       <c r="L41">
-        <v>3687149.882920415</v>
+        <v>5812233.59331741</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2939,34 +2951,34 @@
         <v>124</v>
       </c>
       <c r="C42">
-        <v>33332</v>
+        <v>31061</v>
       </c>
       <c r="D42">
-        <v>3.811363636363637</v>
+        <v>4.889772727272728</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F42">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H42">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I42">
-        <v>147826956.8533402</v>
+        <v>187968198.0835942</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>25.80000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="L42">
-        <v>3471397.820165223</v>
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2977,34 +2989,34 @@
         <v>125</v>
       </c>
       <c r="C43">
-        <v>33609</v>
+        <v>33106</v>
       </c>
       <c r="D43">
-        <v>5.635912408759122</v>
+        <v>3.412500000000002</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43">
         <v>2.3</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H43">
         <v>38785844.374162</v>
       </c>
       <c r="I43">
-        <v>218593621.5925398</v>
+        <v>132356693.9268279</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>38.79999999999999</v>
+        <v>23.10000000000001</v>
       </c>
       <c r="L43">
-        <v>4619667.836848523</v>
+        <v>3379765.097364126</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3015,34 +3027,34 @@
         <v>126</v>
       </c>
       <c r="C44">
-        <v>38372</v>
+        <v>33332</v>
       </c>
       <c r="D44">
-        <v>6.603409090909089</v>
+        <v>3.811363636363637</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F44">
         <v>2.3</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H44">
         <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>256118797.3389265</v>
+        <v>147826956.8533402</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>44.69999999999999</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="L44">
-        <v>3965215.892681056</v>
+        <v>3471397.820165223</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3053,34 +3065,34 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>38723</v>
+        <v>33609</v>
       </c>
       <c r="D45">
-        <v>4.880583941605838</v>
+        <v>5.635912408759121</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F45">
         <v>2.3</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>189297569.2141582</v>
+        <v>218593621.5925397</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>33.6</v>
+        <v>38.79999999999998</v>
       </c>
       <c r="L45">
-        <v>4461568.626817144</v>
+        <v>4619667.836848523</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3091,34 +3103,34 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>39340</v>
+        <v>38372</v>
       </c>
       <c r="D46">
-        <v>1.757937405784104</v>
+        <v>6.603409090909089</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H46">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I46">
-        <v>68731418.27302784</v>
+        <v>256118797.3389265</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>12.10238314534785</v>
+        <v>44.69999999999999</v>
       </c>
       <c r="L46">
-        <v>3470530.273544989</v>
+        <v>3965215.892681056</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3129,34 +3141,34 @@
         <v>129</v>
       </c>
       <c r="C47">
-        <v>58710</v>
+        <v>38723</v>
       </c>
       <c r="D47">
-        <v>11.52</v>
+        <v>4.880583941605839</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F47">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H47">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I47">
-        <v>450406218.0485406</v>
+        <v>189297569.2141582</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>77.98153846153848</v>
+        <v>33.6</v>
       </c>
       <c r="L47">
-        <v>4573255.840545377</v>
+        <v>4461568.626817144</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3167,34 +3179,110 @@
         <v>130</v>
       </c>
       <c r="C48">
-        <v>45329</v>
+        <v>39171</v>
       </c>
       <c r="D48">
-        <v>9.075987293423447</v>
+        <v>2.112500000000001</v>
       </c>
       <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48">
+        <v>39097761.98338025</v>
+      </c>
+      <c r="I48">
+        <v>82594022.18989083</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="L48">
+        <v>3009426.484318849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>131</v>
       </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H48">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I48">
-        <v>360811532.8811125</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>61.43745244778949</v>
-      </c>
-      <c r="L48">
-        <v>4290239.673387973</v>
+      <c r="C49">
+        <v>39326</v>
+      </c>
+      <c r="D49">
+        <v>3.760428251994032</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49">
+        <v>39097761.98338025</v>
+      </c>
+      <c r="I49">
+        <v>147024328.7520413</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>25.45520662888267</v>
+      </c>
+      <c r="L49">
+        <v>3461586.123553794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50">
+        <v>58710</v>
+      </c>
+      <c r="D50">
+        <v>11.52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50">
+        <v>39097761.98338025</v>
+      </c>
+      <c r="I50">
+        <v>450406218.0485406</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>77.98153846153848</v>
+      </c>
+      <c r="L50">
+        <v>4573255.840545377</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,24 +218,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -308,9 +308,6 @@
     <t>Aurubis AG</t>
   </si>
   <si>
-    <t>Holborn Europa Raffinerie GmbH</t>
-  </si>
-  <si>
     <t>Shell Deutschland Oil GmbH SDO Raffinerie Harburg</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>TRIMET Aluminium SE, Niederlassung Hamburg</t>
   </si>
   <si>
-    <t>DOW Deutschland Anlagenges. m.b.H Werk Stade</t>
-  </si>
-  <si>
     <t>Aluminium Oxid Stade GmbH</t>
   </si>
   <si>
@@ -377,6 +371,9 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -386,39 +383,81 @@
     <t>Enertec Hameln GmbH Müllverbrennungsanlage</t>
   </si>
   <si>
-    <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
-  </si>
-  <si>
     <t>Sappi Alfeld GmbH</t>
   </si>
   <si>
-    <t>Heidelberg Cement AG Zementwerk Paderborn</t>
-  </si>
-  <si>
-    <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
-  </si>
-  <si>
     <t>MVA Bielefeld-Herford GmbH</t>
   </si>
   <si>
-    <t>EEW Energy from Waste Helmstedt GmbH</t>
-  </si>
-  <si>
     <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
   </si>
   <si>
+    <t>Nordzucker AG, Werk Klein Wanzleben</t>
+  </si>
+  <si>
     <t>EUROGLAS AG</t>
   </si>
   <si>
     <t>Werk  Zielitz</t>
   </si>
   <si>
-    <t>Rheinkalk GmbH Werk Hönnetal</t>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
+  </si>
+  <si>
+    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
+  </si>
+  <si>
+    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
+    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+  </si>
+  <si>
+    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+  </si>
+  <si>
+    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
+  </si>
+  <si>
+    <t>Biomassekraftwerk Lünen GmbH</t>
+  </si>
+  <si>
+    <t>SUEZ Energie und Verwertung GmbH</t>
+  </si>
+  <si>
+    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
+  </si>
+  <si>
+    <t>LEIPA Georg Leinfelder GmbH Werk Schwedt</t>
+  </si>
+  <si>
+    <t>ZKW Otterbein Zementwerk</t>
   </si>
   <si>
     <t>MtG</t>
   </si>
   <si>
+    <t>PtF-FT2</t>
+  </si>
+  <si>
     <t>PtF-MeOH</t>
   </si>
   <si>
@@ -426,147 +465,6 @@
   </si>
   <si>
     <t>PtF-FT1</t>
-  </si>
-  <si>
-    <t>{'Meth': 3487393.97800187, 'MtG': 4444727.840108303, 'FT': 4879006.727884552}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3095903.241680239, 'MtG': 3945587.280523948, 'FT': 4331096.881437624}</t>
-  </si>
-  <si>
-    <t>{'Meth': 15940434.284553453, 'MtG': 20345919.952581324, 'FT': 22333848.978979554}</t>
-  </si>
-  <si>
-    <t>{'Meth': 18114593.910633203, 'MtG': 23126845.927408446, 'FT': 25386489.552041017}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2741666.4448316456, 'MtG': 3493983.9170904844, 'FT': 3835368.9251284986}</t>
-  </si>
-  <si>
-    <t>{'Meth': 21772856.99976025, 'MtG': 27809259.748271197, 'FT': 30526405.730614576}</t>
-  </si>
-  <si>
-    <t>{'Meth': 5537474.182711428, 'MtG': 7059273.628407304, 'FT': 7749010.6854637}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2368753.8965786793, 'MtG': 3018611.9555815747, 'FT': 3313550.0237504714}</t>
-  </si>
-  <si>
-    <t>{'Meth': 5313876.844978522, 'MtG': 6774050.451501959, 'FT': 7435919.344636883}</t>
-  </si>
-  <si>
-    <t>{'Meth': 5071633.194829957, 'MtG': 6465058.676521169, 'FT': 7096737.058741168}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7456203.6692092875, 'MtG': 9507439.23017819, 'FT': 10436378.027560541}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2853533.867243568, 'MtG': 3636595.5055431565, 'FT': 3991914.5955419056}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3189118.573443136, 'MtG': 4064430.2709011757, 'FT': 4461551.60678213}</t>
-  </si>
-  <si>
-    <t>{'Meth': 14341627.495048827, 'MtG': 18301820.518093012, 'FT': 20090027.70305404}</t>
-  </si>
-  <si>
-    <t>{'Meth': 6003264.40165077, 'MtG': 7653488.580293442, 'FT': 8401284.312186236}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4158437.5577930594, 'MtG': 5300397.37082434, 'FT': 5818280.750365}</t>
-  </si>
-  <si>
-    <t>{'Meth': 6021894.954526041, 'MtG': 7677257.178368888, 'FT': 8427375.257255137}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4195714.668279373, 'MtG': 5347934.566975232, 'FT': 5870462.640502805}</t>
-  </si>
-  <si>
-    <t>{'Meth': 11104999.999200322, 'MtG': 14166084.452965502, 'FT': 15550203.261065204}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7716935.3545670165, 'MtG': 9840199.603234423, 'FT': 10801651.25852516}</t>
-  </si>
-  <si>
-    <t>{'Meth': 9113441.365831105, 'MtG': 11622844.458892835, 'FT': 12758472.13869276}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2443339.008220378, 'MtG': 3113686.3478833577, 'FT': 3417913.8040260775}</t>
-  </si>
-  <si>
-    <t>{'Meth': 27007138.60142434, 'MtG': 34515896.339734614, 'FT': 37888324.4415765}</t>
-  </si>
-  <si>
-    <t>{'Meth': 10230317.574675746, 'MtG': 13048960.343419567, 'FT': 14323928.842826845}</t>
-  </si>
-  <si>
-    <t>{'Meth': 5015728.864236233, 'MtG': 6393752.882294831, 'FT': 7018464.223534462}</t>
-  </si>
-  <si>
-    <t>{'Meth': 21958471.983473293, 'MtG': 28046945.729025654, 'FT': 30787315.18130359}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3077259.9314400596, 'MtG': 3921818.6824485026, 'FT': 4305005.936368723}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4587104.703249776, 'MtG': 5847075.126559586, 'FT': 6418372.486949732}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2051752.656756106, 'MtG': 2614545.7882990018, 'FT': 2870003.957579148}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2723021.589861078, 'MtG': 3470215.3190150387, 'FT': 3809277.9800595967}</t>
-  </si>
-  <si>
-    <t>{'Meth': 18801918.172355607, 'MtG': 24006284.056199927, 'FT': 26351854.519590363}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2778955.9108548313, 'MtG': 3541521.1132413754, 'FT': 3887550.815266301}</t>
-  </si>
-  <si>
-    <t>{'Meth': 21215963.57252571, 'MtG': 27096201.806007836, 'FT': 29743677.37854753}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7176830.63573128, 'MtG': 9150910.259046506, 'FT': 10045013.85152702}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2984042.160773337, 'MtG': 3802975.692071275, 'FT': 4174551.211024216}</t>
-  </si>
-  <si>
-    <t>{'Meth': 3058616.539902832, 'MtG': 3898050.084373057, 'FT': 4278914.991299821}</t>
-  </si>
-  <si>
-    <t>{'Meth': 11495757.656832574, 'MtG': 14665225.012549855, 'FT': 16098113.107512131}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7754181.439418147, 'MtG': 9887736.799385315, 'FT': 10853833.14866296}</t>
-  </si>
-  <si>
-    <t>{'Meth': 6170936.453752637, 'MtG': 7867405.96297245, 'FT': 8636102.817806346}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4307544.049353574, 'MtG': 5490546.155427906, 'FT': 6027008.310916212}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4810740.062798683, 'MtG': 6132298.3034649305, 'FT': 6731463.8277765475}</t>
-  </si>
-  <si>
-    <t>{'Meth': 7232706.703717464, 'MtG': 9222216.053272843, 'FT': 10123286.686733723}</t>
-  </si>
-  <si>
-    <t>{'Meth': 8331454.2385598505, 'MtG': 10624563.339724127, 'FT': 11662652.445798906}</t>
-  </si>
-  <si>
-    <t>{'Meth': 6264084.751326288, 'MtG': 7986248.953349681, 'FT': 8766557.543150855}</t>
-  </si>
-  <si>
-    <t>{'Meth': 2667086.537107407, 'MtG': 3398909.5247887024, 'FT': 3731005.144852893}</t>
-  </si>
-  <si>
-    <t>{'Meth': 4754832.319820861, 'MtG': 6060992.509238595, 'FT': 6653190.992569845}</t>
-  </si>
-  <si>
-    <t>{'Meth': 15010968.327398868, 'MtG': 19157490.04880905, 'FT': 21029301.725534488}</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10727036714.35463</v>
+        <v>10990186769.94681</v>
       </c>
       <c r="C2">
-        <v>96.00000000000001</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>1173.26177594295</v>
@@ -1168,34 +1066,34 @@
         <v>180.0220284871184</v>
       </c>
       <c r="F2">
-        <v>399.999999999999</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>277.8880778795417</v>
+        <v>278.4721641226033</v>
       </c>
       <c r="H2">
-        <v>19.74208440955209</v>
+        <v>20.0789024370546</v>
       </c>
       <c r="I2">
-        <v>865.6153846153844</v>
+        <v>840.0916390173081</v>
       </c>
       <c r="J2">
-        <v>242</v>
+        <v>234.8643291876346</v>
       </c>
       <c r="K2">
-        <v>502.6153846153845</v>
+        <v>487.7951452358563</v>
       </c>
       <c r="L2">
-        <v>121</v>
+        <v>117.4321645938173</v>
       </c>
       <c r="M2">
-        <v>225.5180670115593</v>
+        <v>251.0418126096355</v>
       </c>
       <c r="N2">
-        <v>73.33920878424694</v>
+        <v>81.63961385679205</v>
       </c>
       <c r="O2">
-        <v>152.1788582273124</v>
+        <v>169.4021987528435</v>
       </c>
       <c r="P2">
         <v>176.2915151515151</v>
@@ -1204,10 +1102,10 @@
         <v>176.2915151515151</v>
       </c>
       <c r="R2">
-        <v>166.8193217440861</v>
+        <v>166.8193217440867</v>
       </c>
       <c r="S2">
-        <v>166.8193217440861</v>
+        <v>166.8193217440867</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1234,31 +1132,31 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>134.9361670730875</v>
+        <v>131.5862245966318</v>
       </c>
       <c r="AC2">
-        <v>134.9361670730875</v>
+        <v>131.5862245966318</v>
       </c>
       <c r="AD2">
-        <v>9.701052631578948</v>
+        <v>10.8699294628323</v>
       </c>
       <c r="AE2">
-        <v>2.997894736842106</v>
+        <v>3.359110146500259</v>
       </c>
       <c r="AF2">
-        <v>6.703157894736841</v>
+        <v>7.510819316332038</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>4.921152284389971</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.205682309675543</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.1476345685316992</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>3.56783540618273</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1267,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>49.9956637561382</v>
+        <v>47.06899949827633</v>
       </c>
       <c r="AN2">
-        <v>49.99566375613819</v>
+        <v>47.06899949827634</v>
       </c>
       <c r="AO2">
         <v>50</v>
@@ -1279,16 +1177,16 @@
         <v>50</v>
       </c>
       <c r="AQ2">
-        <v>397.3175797502485</v>
+        <v>394.5189154701399</v>
       </c>
       <c r="AR2">
-        <v>397.3175797502485</v>
+        <v>394.5189154701399</v>
       </c>
       <c r="AS2">
-        <v>357.6024202497512</v>
+        <v>360.40108452986</v>
       </c>
       <c r="AT2">
-        <v>357.6024202497512</v>
+        <v>360.40108452986</v>
       </c>
       <c r="AU2">
         <v>7.2</v>
@@ -1345,10 +1243,10 @@
         <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>503.2689343503147</v>
+        <v>499.7239595955106</v>
       </c>
       <c r="BN2">
-        <v>928.3167224815198</v>
+        <v>931.6751196176504</v>
       </c>
       <c r="BO2">
         <v>121</v>
@@ -1357,22 +1255,22 @@
         <v>176.2915151515151</v>
       </c>
       <c r="BQ2">
-        <v>123.8</v>
+        <v>838.8</v>
       </c>
       <c r="BR2">
-        <v>838.7999999999996</v>
+        <v>8</v>
       </c>
       <c r="BS2">
+        <v>26.2</v>
+      </c>
+      <c r="BT2">
         <v>121</v>
-      </c>
-      <c r="BT2">
-        <v>8</v>
       </c>
       <c r="BU2">
         <v>388.5</v>
       </c>
       <c r="BV2">
-        <v>26.2</v>
+        <v>123.8</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,22 +1332,22 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>2.762499999999999</v>
+        <v>2.7625</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>137</v>
+      <c r="G2">
+        <v>4444727.840108303</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>92078637.08333331</v>
+        <v>92078637.08333333</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1475,13 +1373,13 @@
         <v>2.452272727272728</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>138</v>
+      <c r="G3">
+        <v>3945587.280523948</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
@@ -1510,28 +1408,28 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>11.52</v>
+        <v>6.35381443298969</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4" t="s">
-        <v>139</v>
+      <c r="G4">
+        <v>22333848.97897955</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>385105123.7851107</v>
+        <v>212403341.4691074</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>77.98153846153848</v>
+        <v>85.60000000000001</v>
       </c>
       <c r="L4">
         <v>4640353.526253123</v>
@@ -1551,13 +1449,13 @@
         <v>11.52</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="G5" t="s">
-        <v>140</v>
+      <c r="G5">
+        <v>18114593.9106332</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
@@ -1589,13 +1487,13 @@
         <v>2.171590909090909</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6" t="s">
-        <v>141</v>
+      <c r="G6">
+        <v>3493983.917090484</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
@@ -1627,13 +1525,13 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
-      <c r="G7" t="s">
-        <v>142</v>
+      <c r="G7">
+        <v>21772856.99976025</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
@@ -1665,13 +1563,13 @@
         <v>4.387499999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
-      <c r="G8" t="s">
-        <v>143</v>
+      <c r="G8">
+        <v>7059273.628407304</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
@@ -1703,13 +1601,13 @@
         <v>1.876136363636363</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
-      <c r="G9" t="s">
-        <v>144</v>
+      <c r="G9">
+        <v>3018611.955581575</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
@@ -1741,13 +1639,13 @@
         <v>4.258756476683939</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>0.2</v>
       </c>
-      <c r="G10" t="s">
-        <v>145</v>
+      <c r="G10">
+        <v>5313876.844978522</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
@@ -1776,16 +1674,16 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>4.064497409326423</v>
+        <v>4.064497409326425</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="G11" t="s">
-        <v>146</v>
+      <c r="G11">
+        <v>5071633.194829957</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
@@ -1797,7 +1695,7 @@
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.19999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="L11">
         <v>3875261.042358126</v>
@@ -1814,28 +1712,28 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>5.90909090909091</v>
+        <v>5.909090909090947</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F12">
         <v>0.7</v>
       </c>
-      <c r="G12" t="s">
-        <v>147</v>
+      <c r="G12">
+        <v>9507439.23017819</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>206597689.1927152</v>
+        <v>206597689.1927165</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>40.00000000000001</v>
+        <v>40.00000000000026</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1852,31 +1750,31 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>2.260227272727274</v>
+        <v>2.222408759124086</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
-      <c r="G13" t="s">
-        <v>148</v>
+      <c r="G13">
+        <v>2853533.867243568</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>79361396.38373198</v>
+        <v>78033507.77495299</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.30000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="L13">
-        <v>3059058.228987825</v>
+        <v>3688151.892731824</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1890,31 +1788,31 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>2.526136363636365</v>
+        <v>2.483868613138686</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
-      <c r="G14" t="s">
-        <v>149</v>
+      <c r="G14">
+        <v>3189118.573443136</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>88698031.25240631</v>
+        <v>87213920.45435926</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.10000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="L14">
-        <v>3142515.846107772</v>
+        <v>3788772.523495583</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1925,34 +1823,34 @@
         <v>97</v>
       </c>
       <c r="C15">
-        <v>21079</v>
+        <v>21107</v>
       </c>
       <c r="D15">
-        <v>11.50611398963731</v>
+        <v>2.390103092783505</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F15">
         <v>0.75</v>
       </c>
-      <c r="G15" t="s">
-        <v>150</v>
+      <c r="G15">
+        <v>8401284.312186236</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>404004183.2015326</v>
+        <v>83921613.2081701</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>77</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L15">
-        <v>4985010.106808093</v>
+        <v>3662634.134160224</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1966,31 +1864,31 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>4.811647668393782</v>
+        <v>3.294318181818181</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F16">
         <v>0.75</v>
       </c>
-      <c r="G16" t="s">
-        <v>151</v>
+      <c r="G16">
+        <v>5300397.37082434</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>168947203.8842773</v>
+        <v>115670531.9841321</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>32.2</v>
+        <v>22.29999999999999</v>
       </c>
       <c r="L16">
-        <v>4036792.335656594</v>
+        <v>3351059.927308201</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2001,34 +1899,34 @@
         <v>99</v>
       </c>
       <c r="C17">
-        <v>21107</v>
+        <v>21119</v>
       </c>
       <c r="D17">
-        <v>3.294318181818181</v>
+        <v>4.771590909090911</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F17">
         <v>0.75</v>
       </c>
-      <c r="G17" t="s">
-        <v>152</v>
+      <c r="G17">
+        <v>7677257.178368888</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>115670531.9841321</v>
+        <v>167540725.6989897</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>22.29999999999999</v>
+        <v>32.30000000000001</v>
       </c>
       <c r="L17">
-        <v>3351059.927308201</v>
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2039,34 +1937,34 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>21119</v>
+        <v>21129</v>
       </c>
       <c r="D18">
-        <v>4.771590909090911</v>
+        <v>3.323863636363637</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F18">
         <v>0.75</v>
       </c>
-      <c r="G18" t="s">
-        <v>153</v>
+      <c r="G18">
+        <v>5347934.566975232</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>167540725.6989897</v>
+        <v>116707935.8584293</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>32.30000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="L18">
-        <v>3665383.563029062</v>
+        <v>3358308.48673273</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2077,34 +1975,34 @@
         <v>101</v>
       </c>
       <c r="C19">
-        <v>21129</v>
+        <v>21683</v>
       </c>
       <c r="D19">
-        <v>3.323863636363637</v>
+        <v>6.115909090909092</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F19">
         <v>0.75</v>
       </c>
-      <c r="G19" t="s">
-        <v>154</v>
+      <c r="G19">
+        <v>9840199.603234423</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>116707935.8584293</v>
+        <v>214742601.97951</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>22.5</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="L19">
-        <v>3358308.48673273</v>
+        <v>3892301.737650325</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2115,34 +2013,34 @@
         <v>102</v>
       </c>
       <c r="C20">
-        <v>21683</v>
+        <v>22113</v>
       </c>
       <c r="D20">
-        <v>8.804545454545455</v>
+        <v>7.307129533678758</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>0.75</v>
       </c>
-      <c r="G20" t="s">
-        <v>155</v>
+      <c r="G20">
+        <v>9113441.365831105</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>309146354.5405505</v>
+        <v>256568890.3708435</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.6</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L20">
-        <v>4251106.766759329</v>
+        <v>4466301.444171549</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2153,34 +2051,34 @@
         <v>103</v>
       </c>
       <c r="C21">
-        <v>21683</v>
+        <v>22145</v>
       </c>
       <c r="D21">
-        <v>6.115909090909089</v>
+        <v>4.826590673575129</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>156</v>
+        <v>0.8</v>
+      </c>
+      <c r="G21">
+        <v>6021894.954526041</v>
       </c>
       <c r="H21">
-        <v>35112131.13005736</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="I21">
-        <v>214742601.9795099</v>
+        <v>170192440.6151299</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.39999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="L21">
-        <v>3892301.737650325</v>
+        <v>4039822.633791384</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2191,34 +2089,34 @@
         <v>104</v>
       </c>
       <c r="C22">
-        <v>22113</v>
+        <v>24114</v>
       </c>
       <c r="D22">
-        <v>7.307129533678757</v>
+        <v>1.957533678756477</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>157</v>
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>2443339.008220378</v>
       </c>
       <c r="H22">
-        <v>35112131.13005736</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="I22">
-        <v>256568890.3708434</v>
+        <v>69025417.09158517</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>48.90000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="L22">
-        <v>4466301.444171549</v>
+        <v>3247244.13603022</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2229,34 +2127,34 @@
         <v>105</v>
       </c>
       <c r="C23">
-        <v>22145</v>
+        <v>28237</v>
       </c>
       <c r="D23">
-        <v>4.771590909090911</v>
+        <v>11.52</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F23">
         <v>0.8</v>
       </c>
-      <c r="G23" t="s">
-        <v>153</v>
+      <c r="G23">
+        <v>34515896.33973461</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>168253070.8230996</v>
+        <v>406211557.6985603</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>32.30000000000001</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L23">
-        <v>3665383.563029062</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2267,34 +2165,34 @@
         <v>106</v>
       </c>
       <c r="C24">
-        <v>24114</v>
+        <v>28237</v>
       </c>
       <c r="D24">
-        <v>1.935227272727271</v>
+        <v>7.974525547445253</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F24">
         <v>0.8</v>
       </c>
-      <c r="G24" t="s">
-        <v>158</v>
+      <c r="G24">
+        <v>10230317.57467575</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>68238861.54125705</v>
+        <v>281193094.1436371</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>13.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="L24">
-        <v>2946266.794435292</v>
+        <v>5024466.787524213</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2308,31 +2206,31 @@
         <v>28237</v>
       </c>
       <c r="D25">
-        <v>11.52</v>
+        <v>4.019668393782382</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F25">
         <v>0.8</v>
       </c>
-      <c r="G25" t="s">
-        <v>159</v>
+      <c r="G25">
+        <v>5015728.864236233</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>406211557.6985603</v>
+        <v>141739215.2491329</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>155.2000000000001</v>
+        <v>26.89999999999999</v>
       </c>
       <c r="L25">
-        <v>5273515.054654035</v>
+        <v>3864873.995659508</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2343,34 +2241,34 @@
         <v>108</v>
       </c>
       <c r="C26">
-        <v>28237</v>
+        <v>26197</v>
       </c>
       <c r="D26">
-        <v>8.110227272727272</v>
+        <v>8.758762886597935</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30787315.18130359</v>
       </c>
       <c r="H26">
-        <v>35261419.93911113</v>
+        <v>35849408.31499194</v>
       </c>
       <c r="I26">
-        <v>285978129.6652683</v>
+        <v>313996467.0558469</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.89999999999999</v>
+        <v>118</v>
       </c>
       <c r="L26">
-        <v>4167435.864813926</v>
+        <v>5015195.456029908</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2381,34 +2279,34 @@
         <v>109</v>
       </c>
       <c r="C27">
-        <v>28237</v>
+        <v>29525</v>
       </c>
       <c r="D27">
-        <v>3.973863636363635</v>
+        <v>2.4375</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F27">
-        <v>0.8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>161</v>
+        <v>1.4</v>
+      </c>
+      <c r="G27">
+        <v>3921818.682448503</v>
       </c>
       <c r="H27">
-        <v>35261419.93911113</v>
+        <v>36933299.30390043</v>
       </c>
       <c r="I27">
-        <v>140124074.4625813</v>
+        <v>90024917.05325729</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>26.89999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="L27">
-        <v>3506650.390632065</v>
+        <v>3115469.701891457</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2419,34 +2317,34 @@
         <v>110</v>
       </c>
       <c r="C28">
-        <v>26197</v>
+        <v>30659</v>
       </c>
       <c r="D28">
-        <v>11.52</v>
+        <v>3.634090909090908</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>162</v>
+        <v>1.7</v>
+      </c>
+      <c r="G28">
+        <v>5847075.126559586</v>
       </c>
       <c r="H28">
-        <v>35849408.31499194</v>
+        <v>37640511.58399763</v>
       </c>
       <c r="I28">
-        <v>412985183.7887073</v>
+        <v>136789040.9609368</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>77.09292649098477</v>
+        <v>24.59999999999999</v>
       </c>
       <c r="L28">
-        <v>5527525.228332203</v>
+        <v>3431616.232505888</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2457,34 +2355,34 @@
         <v>111</v>
       </c>
       <c r="C29">
-        <v>29525</v>
+        <v>49086</v>
       </c>
       <c r="D29">
-        <v>2.4375</v>
+        <v>1.625</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F29">
-        <v>1.4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>163</v>
+        <v>1.8</v>
+      </c>
+      <c r="G29">
+        <v>2614545.788299002</v>
       </c>
       <c r="H29">
-        <v>36933299.30390043</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I29">
-        <v>90024917.05325729</v>
+        <v>61515086.38061306</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="L29">
-        <v>3115469.701891457</v>
+        <v>2824291.034417088</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2495,34 +2393,34 @@
         <v>112</v>
       </c>
       <c r="C30">
-        <v>30659</v>
+        <v>49124</v>
       </c>
       <c r="D30">
-        <v>3.634090909090908</v>
+        <v>2.156818181818181</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F30">
-        <v>1.7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>164</v>
+        <v>1.8</v>
+      </c>
+      <c r="G30">
+        <v>3470215.319015039</v>
       </c>
       <c r="H30">
-        <v>37640511.58399763</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I30">
-        <v>136789040.9609368</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.59999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="L30">
-        <v>3431616.232505888</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2533,34 +2431,34 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>49525</v>
       </c>
       <c r="D31">
-        <v>1.625</v>
+        <v>11.52</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F31">
         <v>1.8</v>
       </c>
-      <c r="G31" t="s">
-        <v>165</v>
+      <c r="G31">
+        <v>24006284.05619993</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>61515086.38061306</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>11</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L31">
-        <v>2824291.034417088</v>
+        <v>4829900.566914583</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2571,34 +2469,34 @@
         <v>114</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>49536</v>
       </c>
       <c r="D32">
-        <v>2.156818181818181</v>
+        <v>2.201136363636365</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F32">
         <v>1.8</v>
       </c>
-      <c r="G32" t="s">
-        <v>166</v>
+      <c r="G32">
+        <v>3541521.113241375</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>81647296.46881369</v>
+        <v>83324980.64283049</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>14.6</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="L32">
-        <v>3024585.102161352</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2609,19 +2507,19 @@
         <v>115</v>
       </c>
       <c r="C33">
-        <v>49525</v>
+        <v>49808</v>
       </c>
       <c r="D33">
         <v>11.52</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F33">
         <v>1.8</v>
       </c>
-      <c r="G33" t="s">
-        <v>167</v>
+      <c r="G33">
+        <v>21215963.57252571</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
@@ -2636,7 +2534,7 @@
         <v>79.30854271356787</v>
       </c>
       <c r="L33">
-        <v>5823166.995898143</v>
+        <v>5996315.099936542</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2647,34 +2545,34 @@
         <v>116</v>
       </c>
       <c r="C34">
-        <v>49536</v>
+        <v>49824</v>
       </c>
       <c r="D34">
-        <v>2.201136363636365</v>
+        <v>5.6875</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F34">
         <v>1.8</v>
       </c>
-      <c r="G34" t="s">
-        <v>168</v>
+      <c r="G34">
+        <v>9150910.259046506</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>83324980.64283049</v>
+        <v>215302802.3321457</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>14.90000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="L34">
-        <v>3039509.425943215</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2685,34 +2583,34 @@
         <v>117</v>
       </c>
       <c r="C35">
-        <v>49808</v>
+        <v>49824</v>
       </c>
       <c r="D35">
-        <v>11.52</v>
+        <v>2.363636363636363</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F35">
         <v>1.8</v>
       </c>
-      <c r="G35" t="s">
-        <v>169</v>
+      <c r="G35">
+        <v>3802975.692071275</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>436094643.1413309</v>
+        <v>89476489.28089172</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>79.30854271356787</v>
+        <v>16</v>
       </c>
       <c r="L35">
-        <v>5996315.099936542</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2723,34 +2621,34 @@
         <v>118</v>
       </c>
       <c r="C36">
-        <v>49824</v>
+        <v>31171</v>
       </c>
       <c r="D36">
-        <v>5.6875</v>
+        <v>1.787500000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F36">
-        <v>1.8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>170</v>
+        <v>1.9</v>
+      </c>
+      <c r="G36">
+        <v>2876000.367128902</v>
       </c>
       <c r="H36">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I36">
-        <v>215302802.3321457</v>
+        <v>68032774.41490565</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>38.5</v>
+        <v>12.10000000000001</v>
       </c>
       <c r="L36">
-        <v>3824493.385265881</v>
+        <v>2890190.553294488</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2761,34 +2659,34 @@
         <v>119</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>31226</v>
       </c>
       <c r="D37">
-        <v>2.363636363636363</v>
+        <v>2.422727272727272</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F37">
-        <v>1.8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>171</v>
+        <v>1.9</v>
+      </c>
+      <c r="G37">
+        <v>3898050.084373057</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I37">
-        <v>89476489.28089172</v>
+        <v>92209710.77722739</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="L37">
-        <v>3092355.773228031</v>
+        <v>3110889.813225406</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2799,34 +2697,34 @@
         <v>120</v>
       </c>
       <c r="C38">
-        <v>31226</v>
+        <v>31319</v>
       </c>
       <c r="D38">
-        <v>2.422727272727272</v>
+        <v>9.114772727272729</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F38">
         <v>1.9</v>
       </c>
-      <c r="G38" t="s">
-        <v>172</v>
+      <c r="G38">
+        <v>14665225.01254985</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>92209710.77722739</v>
+        <v>346910924.0826179</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>16.4</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="L38">
-        <v>3110889.813225406</v>
+        <v>4286880.992309345</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2837,34 +2735,34 @@
         <v>121</v>
       </c>
       <c r="C39">
-        <v>31319</v>
+        <v>31789</v>
       </c>
       <c r="D39">
-        <v>9.114772727272729</v>
+        <v>6.042627737226283</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F39">
         <v>1.9</v>
       </c>
-      <c r="G39" t="s">
-        <v>173</v>
+      <c r="G39">
+        <v>7754181.439418147</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>346910924.0826179</v>
+        <v>229984184.4587229</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>61.70000000000002</v>
+        <v>41.60000000000004</v>
       </c>
       <c r="L39">
-        <v>4286880.992309345</v>
+        <v>4698227.67191468</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2875,34 +2773,34 @@
         <v>122</v>
       </c>
       <c r="C40">
-        <v>31789</v>
+        <v>31061</v>
       </c>
       <c r="D40">
-        <v>6.145454545454548</v>
+        <v>4.946134715025906</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F40">
-        <v>1.9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>174</v>
+        <v>2.1</v>
+      </c>
+      <c r="G40">
+        <v>6170936.453752637</v>
       </c>
       <c r="H40">
-        <v>38060293.37896816</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I40">
-        <v>233897802.9471135</v>
+        <v>190134814.3803568</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>41.60000000000002</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="L40">
-        <v>3896843.850100604</v>
+        <v>4063812.502856754</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2913,34 +2811,34 @@
         <v>123</v>
       </c>
       <c r="C41">
-        <v>38239</v>
+        <v>33609</v>
       </c>
       <c r="D41">
-        <v>11.43823495001904</v>
+        <v>5.731818181818184</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>159</v>
+        <v>2.3</v>
+      </c>
+      <c r="G41">
+        <v>9222216.053272843</v>
       </c>
       <c r="H41">
-        <v>38255392.02166688</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I41">
-        <v>437574162.0489098</v>
+        <v>222313407.9809923</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>76.54574706496794</v>
+        <v>38.80000000000002</v>
       </c>
       <c r="L41">
-        <v>5812233.59331741</v>
+        <v>3831684.085287054</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2951,34 +2849,34 @@
         <v>124</v>
       </c>
       <c r="C42">
-        <v>31061</v>
+        <v>38723</v>
       </c>
       <c r="D42">
-        <v>4.889772727272728</v>
+        <v>5.02084974093264</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F42">
-        <v>2.1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>175</v>
+        <v>2.3</v>
+      </c>
+      <c r="G42">
+        <v>6264084.751326288</v>
       </c>
       <c r="H42">
-        <v>38441090.93970785</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I42">
-        <v>187968198.0835942</v>
+        <v>194737896.6778649</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>33.1</v>
+        <v>33.59999999999998</v>
       </c>
       <c r="L42">
-        <v>3687149.882920415</v>
+        <v>4078583.827149421</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2989,34 +2887,34 @@
         <v>125</v>
       </c>
       <c r="C43">
-        <v>33106</v>
+        <v>39164</v>
       </c>
       <c r="D43">
-        <v>3.412500000000002</v>
+        <v>1.808103626943005</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F43">
-        <v>2.3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>176</v>
+        <v>2.5</v>
+      </c>
+      <c r="G43">
+        <v>2256873.78961794</v>
       </c>
       <c r="H43">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I43">
-        <v>132356693.9268279</v>
+        <v>70692805.24750416</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>23.10000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="L43">
-        <v>3379765.097364126</v>
+        <v>3185439.398740639</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3027,34 +2925,34 @@
         <v>126</v>
       </c>
       <c r="C44">
-        <v>33332</v>
+        <v>39171</v>
       </c>
       <c r="D44">
-        <v>3.811363636363637</v>
+        <v>2.112500000000001</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F44">
-        <v>2.3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>177</v>
+        <v>2.5</v>
+      </c>
+      <c r="G44">
+        <v>3398909.524788702</v>
       </c>
       <c r="H44">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I44">
-        <v>147826956.8533402</v>
+        <v>82594022.1898908</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>25.80000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="L44">
-        <v>3471397.820165223</v>
+        <v>3009426.484318849</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3065,34 +2963,34 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>33609</v>
+        <v>39326</v>
       </c>
       <c r="D45">
-        <v>5.635912408759121</v>
+        <v>3.767045454545453</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>2.3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>178</v>
+        <v>2.5</v>
+      </c>
+      <c r="G45">
+        <v>6060992.509238595</v>
       </c>
       <c r="H45">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I45">
-        <v>218593621.5925397</v>
+        <v>147283046.5623926</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>38.79999999999998</v>
+        <v>25.49999999999999</v>
       </c>
       <c r="L45">
-        <v>4619667.836848523</v>
+        <v>3461586.123553794</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3103,34 +3001,34 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>38372</v>
+        <v>39418</v>
       </c>
       <c r="D46">
-        <v>6.603409090909089</v>
+        <v>2.895454545454545</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F46">
-        <v>2.3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>179</v>
+        <v>2.5</v>
+      </c>
+      <c r="G46">
+        <v>4658645.222787313</v>
       </c>
       <c r="H46">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I46">
-        <v>256118797.3389265</v>
+        <v>113205792.6518782</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>44.69999999999999</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="L46">
-        <v>3965215.892681056</v>
+        <v>3248017.696927753</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3141,34 +3039,34 @@
         <v>129</v>
       </c>
       <c r="C47">
-        <v>38723</v>
+        <v>59075</v>
       </c>
       <c r="D47">
-        <v>4.880583941605839</v>
+        <v>3.810466321243524</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F47">
-        <v>2.3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>180</v>
+        <v>2.5</v>
+      </c>
+      <c r="G47">
+        <v>4754832.319820861</v>
       </c>
       <c r="H47">
-        <v>38785844.374162</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="I47">
-        <v>189297569.2141582</v>
+        <v>148980705.2736658</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>33.6</v>
+        <v>25.5</v>
       </c>
       <c r="L47">
-        <v>4461568.626817144</v>
+        <v>3815206.166089286</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3179,34 +3077,34 @@
         <v>130</v>
       </c>
       <c r="C48">
-        <v>39171</v>
+        <v>14727</v>
       </c>
       <c r="D48">
-        <v>2.112500000000001</v>
+        <v>2.038636363636364</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>181</v>
+        <v>2.7</v>
+      </c>
+      <c r="G48">
+        <v>3280066.534411476</v>
       </c>
       <c r="H48">
-        <v>39097761.98338025</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I48">
-        <v>82594022.18989083</v>
+        <v>80281596.67013799</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>14.30000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="L48">
-        <v>3009426.484318849</v>
+        <v>2983617.57351983</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3217,34 +3115,34 @@
         <v>131</v>
       </c>
       <c r="C49">
-        <v>39326</v>
+        <v>37218</v>
       </c>
       <c r="D49">
-        <v>3.760428251994032</v>
+        <v>5.588683937823834</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F49">
-        <v>2.5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>182</v>
+        <v>2.7</v>
+      </c>
+      <c r="G49">
+        <v>6971945.468368442</v>
       </c>
       <c r="H49">
-        <v>39097761.98338025</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="I49">
-        <v>147024328.7520413</v>
+        <v>220082638.4814166</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49">
-        <v>25.45520662888267</v>
+        <v>37.4</v>
       </c>
       <c r="L49">
-        <v>3461586.123553794</v>
+        <v>4185720.406359651</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3255,34 +3153,490 @@
         <v>132</v>
       </c>
       <c r="C50">
-        <v>58710</v>
+        <v>44793</v>
       </c>
       <c r="D50">
-        <v>11.52</v>
+        <v>3.501136363636363</v>
       </c>
       <c r="E50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>5633157.743880576</v>
+      </c>
+      <c r="H50">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I50">
+        <v>139186001.1863177</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>23.69999999999999</v>
+      </c>
+      <c r="L50">
+        <v>3400803.330760665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>133</v>
       </c>
-      <c r="F50">
-        <v>2.5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>183</v>
-      </c>
-      <c r="H50">
-        <v>39097761.98338025</v>
-      </c>
-      <c r="I50">
-        <v>450406218.0485406</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>77.98153846153848</v>
-      </c>
-      <c r="L50">
-        <v>4573255.840545377</v>
+      <c r="C51">
+        <v>45356</v>
+      </c>
+      <c r="D51">
+        <v>4.004725388601038</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4997093.924883411</v>
+      </c>
+      <c r="H51">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I51">
+        <v>159205941.9558769</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>26.80000000000001</v>
+      </c>
+      <c r="L51">
+        <v>3861392.136369599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52">
+        <v>45966</v>
+      </c>
+      <c r="D52">
+        <v>1.759175257731957</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>6183553.98132962</v>
+      </c>
+      <c r="H52">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I52">
+        <v>69935170.77847014</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>23.69999999999999</v>
+      </c>
+      <c r="L52">
+        <v>3400803.330760665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53">
+        <v>46236</v>
+      </c>
+      <c r="D53">
+        <v>5.584090909090911</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>8984530.072518388</v>
+      </c>
+      <c r="H53">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I53">
+        <v>221992862.6515954</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>37.80000000000001</v>
+      </c>
+      <c r="L53">
+        <v>3807548.40454141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54">
+        <v>47137</v>
+      </c>
+      <c r="D54">
+        <v>3.589772727272727</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>5775769.33233325</v>
+      </c>
+      <c r="H54">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I54">
+        <v>142709697.4188827</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>24.3</v>
+      </c>
+      <c r="L54">
+        <v>3421441.633780445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55">
+        <v>47475</v>
+      </c>
+      <c r="D55">
+        <v>3.25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>5229091.576598004</v>
+      </c>
+      <c r="H55">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I55">
+        <v>129202195.1940502</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>3340094.131013245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56">
+        <v>47829</v>
+      </c>
+      <c r="D56">
+        <v>4.756818181818183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>7653488.580293442</v>
+      </c>
+      <c r="H56">
+        <v>39754521.5981693</v>
+      </c>
+      <c r="I56">
+        <v>189105031.1476553</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>32.2</v>
+      </c>
+      <c r="L56">
+        <v>3662634.134160224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>41468</v>
+      </c>
+      <c r="D57">
+        <v>4.520454545454548</v>
+      </c>
+      <c r="E57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57">
+        <v>3.2</v>
+      </c>
+      <c r="G57">
+        <v>7273191.011086313</v>
+      </c>
+      <c r="H57">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I57">
+        <v>180707658.4662038</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>30.60000000000002</v>
+      </c>
+      <c r="L57">
+        <v>3617737.093152948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58">
+        <v>44536</v>
+      </c>
+      <c r="D58">
+        <v>3.102272727272727</v>
+      </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58">
+        <v>3.2</v>
+      </c>
+      <c r="G58">
+        <v>4991405.59584355</v>
+      </c>
+      <c r="H58">
+        <v>39975550.38970821</v>
+      </c>
+      <c r="I58">
+        <v>124015059.7317084</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>3302702.741187976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59">
+        <v>6686</v>
+      </c>
+      <c r="D59">
+        <v>3.293240131366201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+      <c r="G59">
+        <v>5574739.268419025</v>
+      </c>
+      <c r="H59">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I59">
+        <v>132619531.8724236</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>22.03867355595273</v>
+      </c>
+      <c r="L59">
+        <v>3965041.29940244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60">
+        <v>50997</v>
+      </c>
+      <c r="D60">
+        <v>4.387499999999999</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+      <c r="G60">
+        <v>7059273.628407304</v>
+      </c>
+      <c r="H60">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="I60">
+        <v>176685626.5804311</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>29.7</v>
+      </c>
+      <c r="L60">
+        <v>3591695.233391508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61">
+        <v>16303</v>
+      </c>
+      <c r="D61">
+        <v>5.233906858735675</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61">
+        <v>3.6</v>
+      </c>
+      <c r="G61">
+        <v>8675538.297537597</v>
+      </c>
+      <c r="H61">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="I61">
+        <v>211238866.4246241</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>35.42952335144149</v>
+      </c>
+      <c r="L61">
+        <v>3775437.548528487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62">
+        <v>36137</v>
+      </c>
+      <c r="D62">
+        <v>3.013636363636365</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62">
+        <v>3.6</v>
+      </c>
+      <c r="G62">
+        <v>4848794.007390876</v>
+      </c>
+      <c r="H62">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="I62">
+        <v>121629434.0828891</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>20.40000000000001</v>
+      </c>
+      <c r="L62">
+        <v>3279615.407868277</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,24 +218,24 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>tkm-N1Usage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -308,6 +308,9 @@
     <t>Aurubis AG</t>
   </si>
   <si>
+    <t>Holborn Europa Raffinerie GmbH</t>
+  </si>
+  <si>
     <t>Shell Deutschland Oil GmbH SDO Raffinerie Harburg</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t>TRIMET Aluminium SE, Niederlassung Hamburg</t>
   </si>
   <si>
+    <t>DOW Deutschland Anlagenges. m.b.H Werk Stade</t>
+  </si>
+  <si>
     <t>Aluminium Oxid Stade GmbH</t>
   </si>
   <si>
@@ -350,9 +356,6 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
-    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
@@ -371,9 +374,6 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
-    <t>Nordzucker AG Werk Nordstemmen</t>
-  </si>
-  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -383,79 +383,31 @@
     <t>Enertec Hameln GmbH Müllverbrennungsanlage</t>
   </si>
   <si>
+    <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
+  </si>
+  <si>
     <t>Sappi Alfeld GmbH</t>
   </si>
   <si>
+    <t>Heidelberg Cement AG Zementwerk Paderborn</t>
+  </si>
+  <si>
     <t>MVA Bielefeld-Herford GmbH</t>
   </si>
   <si>
+    <t>EEW Energy from Waste Helmstedt GmbH</t>
+  </si>
+  <si>
     <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
   </si>
   <si>
-    <t>Nordzucker AG, Werk Klein Wanzleben</t>
-  </si>
-  <si>
-    <t>EUROGLAS AG</t>
-  </si>
-  <si>
-    <t>Werk  Zielitz</t>
-  </si>
-  <si>
-    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
-  </si>
-  <si>
-    <t>Energieversorgung DSS Paper B+T Energie GmbH</t>
-  </si>
-  <si>
-    <t>ThyssenKrupp Steel Europe AG Werk Höntrop</t>
-  </si>
-  <si>
-    <t>TRIMET Aluminium SE</t>
-  </si>
-  <si>
-    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Bremen GmbH Kokerei Prosper</t>
-  </si>
-  <si>
-    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
-  </si>
-  <si>
-    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
-  </si>
-  <si>
-    <t>EGK Entsorgungsgesellschaft Krefeld GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>Hydro Aluminium Rolled Products GmbH Rheinwerk</t>
-  </si>
-  <si>
-    <t>Biomassekraftwerk Lünen GmbH</t>
-  </si>
-  <si>
-    <t>SUEZ Energie und Verwertung GmbH</t>
-  </si>
-  <si>
-    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
-  </si>
-  <si>
-    <t>LEIPA Georg Leinfelder GmbH Werk Schwedt</t>
-  </si>
-  <si>
-    <t>ZKW Otterbein Zementwerk</t>
+    <t>Zellstoff Stendal GmbH</t>
+  </si>
+  <si>
+    <t>Rheinkalk GmbH Werk Hönnetal</t>
   </si>
   <si>
     <t>MtG</t>
-  </si>
-  <si>
-    <t>PtF-FT2</t>
   </si>
   <si>
     <t>PtF-MeOH</t>
@@ -1054,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10990186769.94681</v>
+        <v>10261084987.95488</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1069,31 +1021,31 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>278.4721641226033</v>
+        <v>277.8056350617557</v>
       </c>
       <c r="H2">
-        <v>20.0789024370546</v>
+        <v>20.26196192689025</v>
       </c>
       <c r="I2">
-        <v>840.0916390173081</v>
+        <v>865.6153846153844</v>
       </c>
       <c r="J2">
-        <v>234.8643291876346</v>
+        <v>242</v>
       </c>
       <c r="K2">
-        <v>487.7951452358563</v>
+        <v>502.6153846153845</v>
       </c>
       <c r="L2">
-        <v>117.4321645938173</v>
+        <v>121</v>
       </c>
       <c r="M2">
-        <v>251.0418126096355</v>
+        <v>225.5180670115592</v>
       </c>
       <c r="N2">
-        <v>81.63961385679205</v>
+        <v>73.33920878424689</v>
       </c>
       <c r="O2">
-        <v>169.4021987528435</v>
+        <v>152.1788582273123</v>
       </c>
       <c r="P2">
         <v>176.2915151515151</v>
@@ -1132,31 +1084,31 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>131.5862245966318</v>
+        <v>114.7892669495623</v>
       </c>
       <c r="AC2">
-        <v>131.5862245966318</v>
+        <v>114.7892669495623</v>
       </c>
       <c r="AD2">
-        <v>10.8699294628323</v>
+        <v>29.10315789473685</v>
       </c>
       <c r="AE2">
-        <v>3.359110146500259</v>
+        <v>8.993684210526318</v>
       </c>
       <c r="AF2">
-        <v>7.510819316332038</v>
+        <v>20.10947368421052</v>
       </c>
       <c r="AG2">
-        <v>4.921152284389971</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.205682309675543</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.1476345685316992</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.56783540618273</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1165,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>47.06899949827633</v>
+        <v>49.99566329486784</v>
       </c>
       <c r="AN2">
-        <v>47.06899949827634</v>
+        <v>49.99566329486784</v>
       </c>
       <c r="AO2">
         <v>50</v>
@@ -1177,16 +1129,16 @@
         <v>50</v>
       </c>
       <c r="AQ2">
-        <v>394.5189154701399</v>
+        <v>386.1456499256868</v>
       </c>
       <c r="AR2">
-        <v>394.5189154701399</v>
+        <v>386.1456499256868</v>
       </c>
       <c r="AS2">
-        <v>360.40108452986</v>
+        <v>368.7743500743131</v>
       </c>
       <c r="AT2">
-        <v>360.40108452986</v>
+        <v>368.7743500743131</v>
       </c>
       <c r="AU2">
         <v>7.2</v>
@@ -1243,10 +1195,10 @@
         <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>499.7239595955106</v>
+        <v>489.1178232392033</v>
       </c>
       <c r="BN2">
-        <v>931.6751196176504</v>
+        <v>941.723038270994</v>
       </c>
       <c r="BO2">
         <v>121</v>
@@ -1255,22 +1207,22 @@
         <v>176.2915151515151</v>
       </c>
       <c r="BQ2">
+        <v>121</v>
+      </c>
+      <c r="BR2">
+        <v>123.8</v>
+      </c>
+      <c r="BS2">
         <v>838.8</v>
       </c>
-      <c r="BR2">
+      <c r="BT2">
+        <v>26.2</v>
+      </c>
+      <c r="BU2">
         <v>8</v>
       </c>
-      <c r="BS2">
-        <v>26.2</v>
-      </c>
-      <c r="BT2">
-        <v>121</v>
-      </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>388.5</v>
-      </c>
-      <c r="BV2">
-        <v>123.8</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1332,22 +1284,22 @@
         <v>25541</v>
       </c>
       <c r="D2">
-        <v>2.7625</v>
+        <v>2.762499999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4444727.840108303</v>
+        <v>192130.8806403114</v>
       </c>
       <c r="H2">
         <v>33331633.33333333</v>
       </c>
       <c r="I2">
-        <v>92078637.08333333</v>
+        <v>92078637.08333331</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1373,13 +1325,13 @@
         <v>2.452272727272728</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3945587.280523948</v>
+        <v>170820.2534520454</v>
       </c>
       <c r="H3">
         <v>33331633.33333333</v>
@@ -1408,31 +1360,31 @@
         <v>25572</v>
       </c>
       <c r="D4">
-        <v>6.35381443298969</v>
+        <v>11.52</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>22333848.97897955</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H4">
         <v>33429264.21745752</v>
       </c>
       <c r="I4">
-        <v>212403341.4691074</v>
+        <v>385105123.7851107</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>85.60000000000001</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L4">
-        <v>4640353.526253123</v>
+        <v>5594639.70924738</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1449,13 +1401,13 @@
         <v>11.52</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>18114593.9106332</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
@@ -1487,13 +1439,13 @@
         <v>2.171590909090909</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>3493983.917090484</v>
+        <v>151482.1833090819</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
@@ -1525,13 +1477,13 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>21772856.99976025</v>
+        <v>768114.7751442149</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
@@ -1543,10 +1495,10 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>79.30854271356787</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L7">
-        <v>6034127.062430562</v>
+        <v>5004876.854845014</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1563,13 +1515,13 @@
         <v>4.387499999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>7059273.628407304</v>
+        <v>302693.241398587</v>
       </c>
       <c r="H8">
         <v>33609222.38641504</v>
@@ -1601,25 +1553,25 @@
         <v>1.876136363636363</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>3018611.955581575</v>
+        <v>131067.4309870251</v>
       </c>
       <c r="H9">
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>63055484.27269455</v>
+        <v>63055484.27269458</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.69999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="L9">
         <v>2924239.357757165</v>
@@ -1636,22 +1588,22 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>4.258756476683939</v>
+        <v>4.210227272727273</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>5313876.844978522</v>
+        <v>290717.7264693647</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>143133493.5144559</v>
+        <v>141502464.7064406</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1660,7 +1612,7 @@
         <v>28.5</v>
       </c>
       <c r="L10">
-        <v>3919293.107758419</v>
+        <v>3556025.558079649</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1674,31 +1626,31 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>4.064497409326425</v>
+        <v>4.018181818181819</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>5071633.194829957</v>
+        <v>277720.7385821831</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>139713346.4648347</v>
+        <v>138121290.7736534</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.2</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="L11">
-        <v>3875261.042358126</v>
+        <v>3516074.693055412</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1712,28 +1664,28 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>5.909090909090947</v>
+        <v>5.90909090909091</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>9507439.23017819</v>
+        <v>404637.3354885659</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>206597689.1927165</v>
+        <v>206597689.1927152</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>40.00000000000026</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="L12">
         <v>3860032.27064468</v>
@@ -1750,31 +1702,31 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>2.222408759124086</v>
+        <v>2.260227272727274</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>2853533.867243568</v>
+        <v>157594.8154876857</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>78033507.77495299</v>
+        <v>79361396.38373198</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.3</v>
+        <v>15.30000000000001</v>
       </c>
       <c r="L13">
-        <v>3688151.892731824</v>
+        <v>3059058.228987825</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1788,31 +1740,31 @@
         <v>20539</v>
       </c>
       <c r="D14">
-        <v>2.483868613138686</v>
+        <v>2.526136363636365</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G14">
-        <v>3189118.573443136</v>
+        <v>175900.2002961698</v>
       </c>
       <c r="H14">
         <v>35112131.13005736</v>
       </c>
       <c r="I14">
-        <v>87213920.45435926</v>
+        <v>88698031.25240631</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>17.1</v>
+        <v>17.10000000000001</v>
       </c>
       <c r="L14">
-        <v>3788772.523495583</v>
+        <v>3142515.846107772</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1823,34 +1775,34 @@
         <v>97</v>
       </c>
       <c r="C15">
-        <v>21107</v>
+        <v>21079</v>
       </c>
       <c r="D15">
-        <v>2.390103092783505</v>
+        <v>11.50611398963731</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>8401284.312186236</v>
+        <v>616913.5402400541</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>83921613.2081701</v>
+        <v>404004183.2015327</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>32.20000000000001</v>
+        <v>77.00000000000001</v>
       </c>
       <c r="L15">
-        <v>3662634.134160224</v>
+        <v>4985010.106808093</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1864,31 +1816,31 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>3.294318181818181</v>
+        <v>4.756818181818183</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G16">
-        <v>5300397.37082434</v>
+        <v>327575.6525297191</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>115670531.9841321</v>
+        <v>167022023.7618411</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>22.29999999999999</v>
+        <v>32.2</v>
       </c>
       <c r="L16">
-        <v>3351059.927308201</v>
+        <v>3662634.134160224</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1899,34 +1851,34 @@
         <v>99</v>
       </c>
       <c r="C17">
-        <v>21119</v>
+        <v>21107</v>
       </c>
       <c r="D17">
-        <v>4.771590909090911</v>
+        <v>3.294318181818181</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>7677257.178368888</v>
+        <v>228510.6106685676</v>
       </c>
       <c r="H17">
         <v>35112131.13005736</v>
       </c>
       <c r="I17">
-        <v>167540725.6989897</v>
+        <v>115670531.9841321</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>32.30000000000001</v>
+        <v>22.29999999999999</v>
       </c>
       <c r="L17">
-        <v>3665383.563029062</v>
+        <v>3351059.927308201</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1937,34 +1889,34 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>21129</v>
+        <v>21119</v>
       </c>
       <c r="D18">
-        <v>3.323863636363637</v>
+        <v>4.771590909090912</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G18">
-        <v>5347934.566975232</v>
+        <v>328569.0849161223</v>
       </c>
       <c r="H18">
         <v>35112131.13005736</v>
       </c>
       <c r="I18">
-        <v>116707935.8584293</v>
+        <v>167540725.6989897</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>22.5</v>
+        <v>32.30000000000002</v>
       </c>
       <c r="L18">
-        <v>3358308.48673273</v>
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1975,34 +1927,34 @@
         <v>101</v>
       </c>
       <c r="C19">
-        <v>21683</v>
+        <v>21129</v>
       </c>
       <c r="D19">
-        <v>6.115909090909092</v>
+        <v>3.323863636363637</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>9840199.603234423</v>
+        <v>230526.0827522533</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>214742601.97951</v>
+        <v>116707935.8584293</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>41.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="L19">
-        <v>3892301.737650325</v>
+        <v>3358308.48673273</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2013,34 +1965,34 @@
         <v>102</v>
       </c>
       <c r="C20">
-        <v>22113</v>
+        <v>21683</v>
       </c>
       <c r="D20">
-        <v>7.307129533678758</v>
+        <v>8.906031088082898</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F20">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G20">
-        <v>9113441.365831105</v>
+        <v>485437.7520006373</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>256568890.3708435</v>
+        <v>312709731.4131342</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>48.90000000000001</v>
+        <v>59.59999999999998</v>
       </c>
       <c r="L20">
-        <v>4466301.444171549</v>
+        <v>4685380.681094596</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2051,34 +2003,34 @@
         <v>103</v>
       </c>
       <c r="C21">
-        <v>22145</v>
+        <v>21683</v>
       </c>
       <c r="D21">
-        <v>4.826590673575129</v>
+        <v>6.18640414507772</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F21">
-        <v>0.8</v>
+        <v>75</v>
       </c>
       <c r="G21">
-        <v>6021894.954526041</v>
+        <v>343162.5257383654</v>
       </c>
       <c r="H21">
-        <v>35261419.93911113</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="I21">
-        <v>170192440.6151299</v>
+        <v>217217833.5654993</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>32.3</v>
+        <v>41.4</v>
       </c>
       <c r="L21">
-        <v>4039822.633791384</v>
+        <v>4289921.74677372</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2089,34 +2041,34 @@
         <v>104</v>
       </c>
       <c r="C22">
-        <v>24114</v>
+        <v>22113</v>
       </c>
       <c r="D22">
-        <v>1.957533678756477</v>
+        <v>7.307129533678759</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>2443339.008220378</v>
+        <v>402397.6292133929</v>
       </c>
       <c r="H22">
-        <v>35261419.93911113</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>69025417.09158517</v>
+        <v>256568890.3708435</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>13.1</v>
+        <v>48.90000000000001</v>
       </c>
       <c r="L22">
-        <v>3247244.13603022</v>
+        <v>4466301.444171549</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2127,34 +2079,34 @@
         <v>105</v>
       </c>
       <c r="C23">
-        <v>28237</v>
+        <v>22145</v>
       </c>
       <c r="D23">
-        <v>11.52</v>
+        <v>4.771590909090911</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>34515896.33973461</v>
+        <v>328569.0849161223</v>
       </c>
       <c r="H23">
         <v>35261419.93911113</v>
       </c>
       <c r="I23">
-        <v>406211557.6985603</v>
+        <v>168253070.8230996</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>77.98153846153848</v>
+        <v>32.30000000000001</v>
       </c>
       <c r="L23">
-        <v>5273515.054654035</v>
+        <v>3665383.563029062</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2165,34 +2117,34 @@
         <v>106</v>
       </c>
       <c r="C24">
-        <v>28237</v>
+        <v>24114</v>
       </c>
       <c r="D24">
-        <v>7.974525547445253</v>
+        <v>1.935227272727271</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>10230317.57467575</v>
+        <v>135155.230754705</v>
       </c>
       <c r="H24">
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>281193094.1436371</v>
+        <v>68238861.54125704</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>54.9</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="L24">
-        <v>5024466.787524213</v>
+        <v>2946266.794435292</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2206,31 +2158,31 @@
         <v>28237</v>
       </c>
       <c r="D25">
-        <v>4.019668393782382</v>
+        <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>5015728.864236233</v>
+        <v>801035.0141948109</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
       </c>
       <c r="I25">
-        <v>141739215.2491329</v>
+        <v>406211557.6985603</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>26.89999999999999</v>
+        <v>155.2000000000001</v>
       </c>
       <c r="L25">
-        <v>3864873.995659508</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2241,34 +2193,34 @@
         <v>108</v>
       </c>
       <c r="C26">
-        <v>26197</v>
+        <v>28237</v>
       </c>
       <c r="D26">
-        <v>8.758762886597935</v>
+        <v>8.203709844559583</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <v>30787315.18130359</v>
+        <v>449172.0603323171</v>
       </c>
       <c r="H26">
-        <v>35849408.31499194</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>313996467.0558469</v>
+        <v>289274457.8876355</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>118</v>
+        <v>54.89999999999998</v>
       </c>
       <c r="L26">
-        <v>5015195.456029908</v>
+        <v>4593162.336777735</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2279,34 +2231,34 @@
         <v>109</v>
       </c>
       <c r="C27">
-        <v>29525</v>
+        <v>28237</v>
       </c>
       <c r="D27">
-        <v>2.4375</v>
+        <v>3.973863636363635</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F27">
-        <v>1.4</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <v>3921818.682448503</v>
+        <v>274717.950895458</v>
       </c>
       <c r="H27">
-        <v>36933299.30390043</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="I27">
-        <v>90024917.05325729</v>
+        <v>140124074.4625813</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>16.5</v>
+        <v>26.89999999999999</v>
       </c>
       <c r="L27">
-        <v>3115469.701891457</v>
+        <v>3506650.390632065</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2317,34 +2269,34 @@
         <v>110</v>
       </c>
       <c r="C28">
-        <v>30659</v>
+        <v>26197</v>
       </c>
       <c r="D28">
-        <v>3.634090909090908</v>
+        <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>1.7</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>5847075.126559586</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H28">
-        <v>37640511.58399763</v>
+        <v>35849408.31499194</v>
       </c>
       <c r="I28">
-        <v>136789040.9609368</v>
+        <v>412985183.7887073</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>24.59999999999999</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L28">
-        <v>3431616.232505888</v>
+        <v>6046567.678346199</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2355,34 +2307,34 @@
         <v>111</v>
       </c>
       <c r="C29">
-        <v>49086</v>
+        <v>29525</v>
       </c>
       <c r="D29">
-        <v>1.625</v>
+        <v>2.4375</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F29">
-        <v>1.8</v>
+        <v>140</v>
       </c>
       <c r="G29">
-        <v>2614545.788299002</v>
+        <v>169803.813967785</v>
       </c>
       <c r="H29">
-        <v>37855437.77268496</v>
+        <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>61515086.38061306</v>
+        <v>90024917.05325732</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="L29">
-        <v>2824291.034417088</v>
+        <v>3115469.701891457</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2393,34 +2345,34 @@
         <v>112</v>
       </c>
       <c r="C30">
-        <v>49124</v>
+        <v>30659</v>
       </c>
       <c r="D30">
-        <v>2.156818181818181</v>
+        <v>3.634090909090903</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F30">
-        <v>1.8</v>
+        <v>170</v>
       </c>
       <c r="G30">
-        <v>3470215.319015039</v>
+        <v>251653.0139716124</v>
       </c>
       <c r="H30">
-        <v>37855437.77268496</v>
+        <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>81647296.46881369</v>
+        <v>136789040.9609366</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>14.6</v>
+        <v>24.59999999999996</v>
       </c>
       <c r="L30">
-        <v>3024585.102161352</v>
+        <v>3431616.232505888</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2431,34 +2383,34 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D31">
-        <v>11.52</v>
+        <v>2.156818181818181</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G31">
-        <v>24006284.05619993</v>
+        <v>150462.8831150383</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>436094643.1413309</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>77.98153846153848</v>
+        <v>14.6</v>
       </c>
       <c r="L31">
-        <v>4829900.566914583</v>
+        <v>3024585.102161352</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2469,34 +2421,34 @@
         <v>114</v>
       </c>
       <c r="C32">
-        <v>49536</v>
+        <v>49525</v>
       </c>
       <c r="D32">
-        <v>2.201136363636365</v>
+        <v>11.52</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F32">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G32">
-        <v>3541521.113241375</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>83324980.64283049</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>14.90000000000001</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L32">
-        <v>3039509.425943215</v>
+        <v>5823166.995898143</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2507,34 +2459,34 @@
         <v>115</v>
       </c>
       <c r="C33">
-        <v>49808</v>
+        <v>49536</v>
       </c>
       <c r="D33">
-        <v>11.52</v>
+        <v>2.201136363636365</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F33">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G33">
-        <v>21215963.57252571</v>
+        <v>153520.3307989783</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>436094643.1413309</v>
+        <v>83324980.64283049</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>79.30854271356787</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="L33">
-        <v>5996315.099936542</v>
+        <v>3039509.425943215</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2545,34 +2497,34 @@
         <v>116</v>
       </c>
       <c r="C34">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D34">
-        <v>5.6875</v>
+        <v>11.52</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G34">
-        <v>9150910.259046506</v>
+        <v>768114.7751442149</v>
       </c>
       <c r="H34">
         <v>37855437.77268496</v>
       </c>
       <c r="I34">
-        <v>215302802.3321457</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>38.5</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L34">
-        <v>3824493.385265881</v>
+        <v>4973514.536159209</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2586,31 +2538,31 @@
         <v>49824</v>
       </c>
       <c r="D35">
-        <v>2.363636363636363</v>
+        <v>5.687500000000001</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F35">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G35">
-        <v>3802975.692071275</v>
+        <v>389884.387080091</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>89476489.28089172</v>
+        <v>215302802.3321458</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>38.50000000000001</v>
       </c>
       <c r="L35">
-        <v>3092355.773228031</v>
+        <v>3824493.385265881</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2621,34 +2573,34 @@
         <v>118</v>
       </c>
       <c r="C36">
-        <v>31171</v>
+        <v>49824</v>
       </c>
       <c r="D36">
-        <v>1.787500000000001</v>
+        <v>2.363636363636363</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F36">
-        <v>1.9</v>
+        <v>180</v>
       </c>
       <c r="G36">
-        <v>2876000.367128902</v>
+        <v>164719.3634241114</v>
       </c>
       <c r="H36">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>68032774.41490565</v>
+        <v>89476489.2808917</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>12.10000000000001</v>
+        <v>15.99999999999999</v>
       </c>
       <c r="L36">
-        <v>2890190.553294488</v>
+        <v>3092355.773228031</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2665,19 +2617,19 @@
         <v>2.422727272727272</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G37">
-        <v>3898050.084373057</v>
+        <v>168787.2243370978</v>
       </c>
       <c r="H37">
         <v>38060293.37896816</v>
       </c>
       <c r="I37">
-        <v>92209710.77722739</v>
+        <v>92209710.7772274</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -2700,28 +2652,28 @@
         <v>31319</v>
       </c>
       <c r="D38">
-        <v>9.114772727272729</v>
+        <v>9.114772727272728</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F38">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G38">
-        <v>14665225.01254985</v>
+        <v>614621.4706630026</v>
       </c>
       <c r="H38">
         <v>38060293.37896816</v>
       </c>
       <c r="I38">
-        <v>346910924.0826179</v>
+        <v>346910924.0826178</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>61.70000000000002</v>
+        <v>61.7</v>
       </c>
       <c r="L38">
         <v>4286880.992309345</v>
@@ -2738,31 +2690,31 @@
         <v>31789</v>
       </c>
       <c r="D39">
-        <v>6.042627737226283</v>
+        <v>6.216290155440415</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F39">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G39">
-        <v>7754181.439418147</v>
+        <v>344753.3335028072</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>229984184.4587229</v>
+        <v>236593827.0448538</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>41.60000000000004</v>
+        <v>41.6</v>
       </c>
       <c r="L39">
-        <v>4698227.67191468</v>
+        <v>4294927.860967864</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2773,34 +2725,34 @@
         <v>122</v>
       </c>
       <c r="C40">
-        <v>31061</v>
+        <v>38239</v>
       </c>
       <c r="D40">
-        <v>4.946134715025906</v>
+        <v>11.52</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F40">
-        <v>2.1</v>
+        <v>200</v>
       </c>
       <c r="G40">
-        <v>6170936.453752637</v>
+        <v>801035.0141948109</v>
       </c>
       <c r="H40">
-        <v>38441090.93970785</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I40">
-        <v>190134814.3803568</v>
+        <v>440702116.0896025</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>33.09999999999999</v>
+        <v>155.2000000000001</v>
       </c>
       <c r="L40">
-        <v>4063812.502856754</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2811,34 +2763,34 @@
         <v>123</v>
       </c>
       <c r="C41">
-        <v>33609</v>
+        <v>31061</v>
       </c>
       <c r="D41">
-        <v>5.731818181818184</v>
+        <v>4.889772727272737</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F41">
-        <v>2.3</v>
+        <v>210</v>
       </c>
       <c r="G41">
-        <v>9222216.053272843</v>
+        <v>336511.4001062157</v>
       </c>
       <c r="H41">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I41">
-        <v>222313407.9809923</v>
+        <v>187968198.0835945</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>38.80000000000002</v>
+        <v>33.10000000000007</v>
       </c>
       <c r="L41">
-        <v>3831684.085287054</v>
+        <v>3687149.882920415</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2849,34 +2801,34 @@
         <v>124</v>
       </c>
       <c r="C42">
-        <v>38723</v>
+        <v>33106</v>
       </c>
       <c r="D42">
-        <v>5.02084974093264</v>
+        <v>3.412500000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <v>2.3</v>
+        <v>230</v>
       </c>
       <c r="G42">
-        <v>6264084.751326288</v>
+        <v>236568.9630487722</v>
       </c>
       <c r="H42">
         <v>38785844.374162</v>
       </c>
       <c r="I42">
-        <v>194737896.6778649</v>
+        <v>132356693.9268279</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>33.59999999999998</v>
+        <v>23.10000000000001</v>
       </c>
       <c r="L42">
-        <v>4078583.827149421</v>
+        <v>3379765.097364126</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2887,34 +2839,34 @@
         <v>125</v>
       </c>
       <c r="C43">
-        <v>39164</v>
+        <v>33609</v>
       </c>
       <c r="D43">
-        <v>1.808103626943005</v>
+        <v>5.635912408759122</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F43">
-        <v>2.5</v>
+        <v>230</v>
       </c>
       <c r="G43">
-        <v>2256873.78961794</v>
+        <v>310874.993281192</v>
       </c>
       <c r="H43">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I43">
-        <v>70692805.24750416</v>
+        <v>218593621.5925398</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>12.1</v>
+        <v>38.79999999999999</v>
       </c>
       <c r="L43">
-        <v>3185439.398740639</v>
+        <v>4619667.836848523</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2925,34 +2877,34 @@
         <v>126</v>
       </c>
       <c r="C44">
-        <v>39171</v>
+        <v>38372</v>
       </c>
       <c r="D44">
-        <v>2.112500000000001</v>
+        <v>6.580701271262555</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F44">
-        <v>2.5</v>
+        <v>230</v>
       </c>
       <c r="G44">
-        <v>3398909.524788702</v>
+        <v>369332.0210697243</v>
       </c>
       <c r="H44">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I44">
-        <v>82594022.1898908</v>
+        <v>255238055.3800395</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>14.3</v>
+        <v>44.03867355595261</v>
       </c>
       <c r="L44">
-        <v>3009426.484318849</v>
+        <v>4370284.483374606</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2963,34 +2915,34 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>39326</v>
+        <v>38723</v>
       </c>
       <c r="D45">
-        <v>3.767045454545453</v>
+        <v>4.880583941605832</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F45">
-        <v>2.5</v>
+        <v>230</v>
       </c>
       <c r="G45">
-        <v>6060992.509238595</v>
+        <v>270532.0601478429</v>
       </c>
       <c r="H45">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>147283046.5623926</v>
+        <v>189297569.2141579</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>25.49999999999999</v>
+        <v>33.59999999999995</v>
       </c>
       <c r="L45">
-        <v>3461586.123553794</v>
+        <v>4461568.626817144</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3001,34 +2953,34 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>39418</v>
+        <v>39596</v>
       </c>
       <c r="D46">
-        <v>2.895454545454545</v>
+        <v>11.52</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F46">
-        <v>2.5</v>
+        <v>230</v>
       </c>
       <c r="G46">
-        <v>4658645.222787313</v>
+        <v>801035.0141948109</v>
       </c>
       <c r="H46">
-        <v>39097761.98338025</v>
+        <v>38785844.374162</v>
       </c>
       <c r="I46">
-        <v>113205792.6518782</v>
+        <v>446812927.1903462</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>19.59999999999999</v>
+        <v>155.2</v>
       </c>
       <c r="L46">
-        <v>3248017.696927753</v>
+        <v>5273515.054654035</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3039,604 +2991,34 @@
         <v>129</v>
       </c>
       <c r="C47">
-        <v>59075</v>
+        <v>58710</v>
       </c>
       <c r="D47">
-        <v>3.810466321243524</v>
+        <v>10.98116777456054</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F47">
-        <v>2.5</v>
+        <v>250</v>
       </c>
       <c r="G47">
-        <v>4754832.319820861</v>
+        <v>768114.7751442149</v>
       </c>
       <c r="H47">
         <v>39097761.98338025</v>
       </c>
       <c r="I47">
-        <v>148980705.2736658</v>
+        <v>429339083.9493334</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>25.5</v>
+        <v>74.33405878164058</v>
       </c>
       <c r="L47">
-        <v>3815206.166089286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48">
-        <v>14727</v>
-      </c>
-      <c r="D48">
-        <v>2.038636363636364</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48">
-        <v>2.7</v>
-      </c>
-      <c r="G48">
-        <v>3280066.534411476</v>
-      </c>
-      <c r="H48">
-        <v>39380047.41901974</v>
-      </c>
-      <c r="I48">
-        <v>80281596.67013799</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>13.8</v>
-      </c>
-      <c r="L48">
-        <v>2983617.57351983</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49">
-        <v>37218</v>
-      </c>
-      <c r="D49">
-        <v>5.588683937823834</v>
-      </c>
-      <c r="E49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49">
-        <v>2.7</v>
-      </c>
-      <c r="G49">
-        <v>6971945.468368442</v>
-      </c>
-      <c r="H49">
-        <v>39380047.41901974</v>
-      </c>
-      <c r="I49">
-        <v>220082638.4814166</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>37.4</v>
-      </c>
-      <c r="L49">
-        <v>4185720.406359651</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50">
-        <v>44793</v>
-      </c>
-      <c r="D50">
-        <v>3.501136363636363</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>5633157.743880576</v>
-      </c>
-      <c r="H50">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I50">
-        <v>139186001.1863177</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>23.69999999999999</v>
-      </c>
-      <c r="L50">
-        <v>3400803.330760665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51">
-        <v>45356</v>
-      </c>
-      <c r="D51">
-        <v>4.004725388601038</v>
-      </c>
-      <c r="E51" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51">
-        <v>4997093.924883411</v>
-      </c>
-      <c r="H51">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I51">
-        <v>159205941.9558769</v>
-      </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51">
-        <v>26.80000000000001</v>
-      </c>
-      <c r="L51">
-        <v>3861392.136369599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52">
-        <v>45966</v>
-      </c>
-      <c r="D52">
-        <v>1.759175257731957</v>
-      </c>
-      <c r="E52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>6183553.98132962</v>
-      </c>
-      <c r="H52">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I52">
-        <v>69935170.77847014</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>23.69999999999999</v>
-      </c>
-      <c r="L52">
-        <v>3400803.330760665</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53">
-        <v>46236</v>
-      </c>
-      <c r="D53">
-        <v>5.584090909090911</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>8984530.072518388</v>
-      </c>
-      <c r="H53">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I53">
-        <v>221992862.6515954</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>37.80000000000001</v>
-      </c>
-      <c r="L53">
-        <v>3807548.40454141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54">
-        <v>47137</v>
-      </c>
-      <c r="D54">
-        <v>3.589772727272727</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>5775769.33233325</v>
-      </c>
-      <c r="H54">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I54">
-        <v>142709697.4188827</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54">
-        <v>24.3</v>
-      </c>
-      <c r="L54">
-        <v>3421441.633780445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55">
-        <v>47475</v>
-      </c>
-      <c r="D55">
-        <v>3.25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>5229091.576598004</v>
-      </c>
-      <c r="H55">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I55">
-        <v>129202195.1940502</v>
-      </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
-      <c r="K55">
-        <v>22</v>
-      </c>
-      <c r="L55">
-        <v>3340094.131013245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56">
-        <v>47829</v>
-      </c>
-      <c r="D56">
-        <v>4.756818181818183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>7653488.580293442</v>
-      </c>
-      <c r="H56">
-        <v>39754521.5981693</v>
-      </c>
-      <c r="I56">
-        <v>189105031.1476553</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56">
-        <v>32.2</v>
-      </c>
-      <c r="L56">
-        <v>3662634.134160224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57">
-        <v>41468</v>
-      </c>
-      <c r="D57">
-        <v>4.520454545454548</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57">
-        <v>3.2</v>
-      </c>
-      <c r="G57">
-        <v>7273191.011086313</v>
-      </c>
-      <c r="H57">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I57">
-        <v>180707658.4662038</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
-      <c r="K57">
-        <v>30.60000000000002</v>
-      </c>
-      <c r="L57">
-        <v>3617737.093152948</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58">
-        <v>44536</v>
-      </c>
-      <c r="D58">
-        <v>3.102272727272727</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58">
-        <v>3.2</v>
-      </c>
-      <c r="G58">
-        <v>4991405.59584355</v>
-      </c>
-      <c r="H58">
-        <v>39975550.38970821</v>
-      </c>
-      <c r="I58">
-        <v>124015059.7317084</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58">
-        <v>21</v>
-      </c>
-      <c r="L58">
-        <v>3302702.741187976</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59">
-        <v>6686</v>
-      </c>
-      <c r="D59">
-        <v>3.293240131366201</v>
-      </c>
-      <c r="E59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59">
-        <v>3.5</v>
-      </c>
-      <c r="G59">
-        <v>5574739.268419025</v>
-      </c>
-      <c r="H59">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I59">
-        <v>132619531.8724236</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59">
-        <v>22.03867355595273</v>
-      </c>
-      <c r="L59">
-        <v>3965041.29940244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60">
-        <v>50997</v>
-      </c>
-      <c r="D60">
-        <v>4.387499999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60">
-        <v>3.5</v>
-      </c>
-      <c r="G60">
-        <v>7059273.628407304</v>
-      </c>
-      <c r="H60">
-        <v>40270228.28044015</v>
-      </c>
-      <c r="I60">
-        <v>176685626.5804311</v>
-      </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>29.7</v>
-      </c>
-      <c r="L60">
-        <v>3591695.233391508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61">
-        <v>16303</v>
-      </c>
-      <c r="D61">
-        <v>5.233906858735675</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61">
-        <v>3.6</v>
-      </c>
-      <c r="G61">
-        <v>8675538.297537597</v>
-      </c>
-      <c r="H61">
-        <v>40359691.55088324</v>
-      </c>
-      <c r="I61">
-        <v>211238866.4246241</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
-        <v>35.42952335144149</v>
-      </c>
-      <c r="L61">
-        <v>3775437.548528487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62">
-        <v>36137</v>
-      </c>
-      <c r="D62">
-        <v>3.013636363636365</v>
-      </c>
-      <c r="E62" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62">
-        <v>3.6</v>
-      </c>
-      <c r="G62">
-        <v>4848794.007390876</v>
-      </c>
-      <c r="H62">
-        <v>40359691.55088324</v>
-      </c>
-      <c r="I62">
-        <v>121629434.0828891</v>
-      </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62">
-        <v>20.40000000000001</v>
-      </c>
-      <c r="L62">
-        <v>3279615.407868277</v>
+        <v>4573255.840545377</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
   <si>
     <t>Total Cost</t>
   </si>
@@ -224,18 +224,18 @@
     <t>tkm-N3Usage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
     <t>pkmUsage</t>
   </si>
   <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -356,9 +356,15 @@
     <t>EEW Energy from Waste Hannover GmbH</t>
   </si>
   <si>
+    <t>Schoeller Technocell GmbH &amp; Co. KG</t>
+  </si>
+  <si>
     <t>Georgsmarienhütte GmbH</t>
   </si>
   <si>
+    <t>RAG Anthrazit Ibbenbüren GmbH</t>
+  </si>
+  <si>
     <t>Dyckerhoff GmbH, werk Lengerich</t>
   </si>
   <si>
@@ -374,6 +380,9 @@
     <t>EBE Holzheizkraftwerk GmbH</t>
   </si>
   <si>
+    <t>Nordzucker AG Werk Nordstemmen</t>
+  </si>
+  <si>
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
@@ -392,6 +401,9 @@
     <t>Heidelberg Cement AG Zementwerk Paderborn</t>
   </si>
   <si>
+    <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
+  </si>
+  <si>
     <t>MVA Bielefeld-Herford GmbH</t>
   </si>
   <si>
@@ -404,13 +416,22 @@
     <t>Zellstoff Stendal GmbH</t>
   </si>
   <si>
-    <t>Rheinkalk GmbH Werk Hönnetal</t>
+    <t>Werk  Zielitz</t>
+  </si>
+  <si>
+    <t>Deuna Zement GmbH</t>
+  </si>
+  <si>
+    <t>Hagener Entsorgungsbetrieb HEB GmbH</t>
   </si>
   <si>
     <t>MtG</t>
   </si>
   <si>
     <t>PtF-MeOH</t>
+  </si>
+  <si>
+    <t>PtF-FT2</t>
   </si>
   <si>
     <t>PtF-DME</t>
@@ -1006,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10261084987.95488</v>
+        <v>10395451552.85602</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -1021,31 +1042,31 @@
         <v>400</v>
       </c>
       <c r="G2">
-        <v>277.8056350617557</v>
+        <v>278.8279158149577</v>
       </c>
       <c r="H2">
-        <v>20.26196192689025</v>
+        <v>20.54999089349133</v>
       </c>
       <c r="I2">
-        <v>865.6153846153844</v>
+        <v>818.8317901721812</v>
       </c>
       <c r="J2">
-        <v>242</v>
+        <v>228.9207155320077</v>
       </c>
       <c r="K2">
-        <v>502.6153846153845</v>
+        <v>475.4507168741698</v>
       </c>
       <c r="L2">
-        <v>121</v>
+        <v>114.4603577660039</v>
       </c>
       <c r="M2">
-        <v>225.5180670115592</v>
+        <v>272.3016614547624</v>
       </c>
       <c r="N2">
-        <v>73.33920878424689</v>
+        <v>88.55338583894712</v>
       </c>
       <c r="O2">
-        <v>152.1788582273123</v>
+        <v>183.7482756158153</v>
       </c>
       <c r="P2">
         <v>176.2915151515151</v>
@@ -1084,31 +1105,31 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>114.7892669495623</v>
+        <v>109.7589866399234</v>
       </c>
       <c r="AC2">
-        <v>114.7892669495623</v>
+        <v>109.7589866399234</v>
       </c>
       <c r="AD2">
-        <v>29.10315789473685</v>
+        <v>25.77779706999457</v>
       </c>
       <c r="AE2">
-        <v>8.993684210526318</v>
+        <v>7.966055344546936</v>
       </c>
       <c r="AF2">
-        <v>20.10947368421052</v>
+        <v>17.81174172544764</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>9.020196184822272</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.209948065281456</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.2706058855446682</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>6.539642233996148</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1117,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>49.99566329486784</v>
+        <v>49.19901804586726</v>
       </c>
       <c r="AN2">
-        <v>49.99566329486784</v>
+        <v>49.19901804586726</v>
       </c>
       <c r="AO2">
         <v>50</v>
@@ -1129,16 +1150,16 @@
         <v>50</v>
       </c>
       <c r="AQ2">
-        <v>386.1456499256868</v>
+        <v>384.1642969472952</v>
       </c>
       <c r="AR2">
-        <v>386.1456499256868</v>
+        <v>384.1642969472952</v>
       </c>
       <c r="AS2">
-        <v>368.7743500743131</v>
+        <v>370.7557030527048</v>
       </c>
       <c r="AT2">
-        <v>368.7743500743131</v>
+        <v>370.7557030527048</v>
       </c>
       <c r="AU2">
         <v>7.2</v>
@@ -1195,10 +1216,10 @@
         <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>489.1178232392033</v>
+        <v>486.6081094665739</v>
       </c>
       <c r="BN2">
-        <v>941.723038270994</v>
+        <v>944.100661845064</v>
       </c>
       <c r="BO2">
         <v>121</v>
@@ -1213,16 +1234,16 @@
         <v>123.8</v>
       </c>
       <c r="BS2">
+        <v>388.5</v>
+      </c>
+      <c r="BT2">
+        <v>8</v>
+      </c>
+      <c r="BU2">
+        <v>26.2</v>
+      </c>
+      <c r="BV2">
         <v>838.8</v>
-      </c>
-      <c r="BT2">
-        <v>26.2</v>
-      </c>
-      <c r="BU2">
-        <v>8</v>
-      </c>
-      <c r="BV2">
-        <v>388.5</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1287,7 +1308,7 @@
         <v>2.762499999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1308,7 +1329,7 @@
         <v>18.7</v>
       </c>
       <c r="L2">
-        <v>3211279.34822684</v>
+        <v>3732706.505062939</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1325,7 +1346,7 @@
         <v>2.452272727272728</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1346,7 +1367,7 @@
         <v>16.6</v>
       </c>
       <c r="L3">
-        <v>3120028.598903444</v>
+        <v>3626639.03828233</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1363,7 +1384,7 @@
         <v>11.52</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1384,7 +1405,7 @@
         <v>79.30854271356787</v>
       </c>
       <c r="L4">
-        <v>5594639.70924738</v>
+        <v>6476561.045924471</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1398,31 +1419,31 @@
         <v>25734</v>
       </c>
       <c r="D5">
-        <v>11.52</v>
+        <v>7.222268041237111</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>612153.4459508199</v>
+        <v>471955.2073590848</v>
       </c>
       <c r="H5">
         <v>33429264.21745752</v>
       </c>
       <c r="I5">
-        <v>385105123.7851107</v>
+        <v>241435106.5998148</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>79.30854271356787</v>
+        <v>97.3</v>
       </c>
       <c r="L5">
-        <v>5770810.054667593</v>
+        <v>4710073.692228228</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1436,31 +1457,31 @@
         <v>26388</v>
       </c>
       <c r="D6">
-        <v>2.171590909090909</v>
+        <v>2.135255474452553</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>151482.1833090819</v>
+        <v>120505.3208392468</v>
       </c>
       <c r="H6">
         <v>33429264.21745752</v>
       </c>
       <c r="I6">
-        <v>72594686.27222878</v>
+        <v>71380019.427247</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>14.7</v>
+        <v>14.69999999999999</v>
       </c>
       <c r="L6">
-        <v>3029585.493423196</v>
+        <v>4228405.28873365</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1477,13 +1498,13 @@
         <v>11.52</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>768114.7751442149</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H7">
         <v>33609222.38641504</v>
@@ -1495,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>77.98153846153848</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L7">
-        <v>5004876.854845014</v>
+        <v>6985327.79762394</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1515,7 +1536,7 @@
         <v>4.387499999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -1536,7 +1557,7 @@
         <v>29.7</v>
       </c>
       <c r="L8">
-        <v>3591695.233391508</v>
+        <v>4174891.906955022</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1553,7 +1574,7 @@
         <v>1.876136363636363</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1565,16 +1586,16 @@
         <v>33609222.38641504</v>
       </c>
       <c r="I9">
-        <v>63055484.27269458</v>
+        <v>63055484.27269455</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>12.7</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="L9">
-        <v>2924239.357757165</v>
+        <v>3399058.782939054</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1588,22 +1609,22 @@
         <v>27570</v>
       </c>
       <c r="D10">
-        <v>4.210227272727273</v>
+        <v>4.258756476683939</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10">
-        <v>290717.7264693647</v>
+        <v>239232.4574537762</v>
       </c>
       <c r="H10">
         <v>33609222.38641504</v>
       </c>
       <c r="I10">
-        <v>141502464.7064406</v>
+        <v>143133493.5144559</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1612,7 +1633,7 @@
         <v>28.5</v>
       </c>
       <c r="L10">
-        <v>3556025.558079649</v>
+        <v>4568335.589196196</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1626,31 +1647,31 @@
         <v>26892</v>
       </c>
       <c r="D11">
-        <v>4.018181818181819</v>
+        <v>4.064497409326425</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>277720.7385821831</v>
+        <v>228612.3322807539</v>
       </c>
       <c r="H11">
         <v>34374076.88937075</v>
       </c>
       <c r="I11">
-        <v>138121290.7736534</v>
+        <v>139713346.4648347</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>27.20000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="L11">
-        <v>3516074.693055412</v>
+        <v>4517011.72902463</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1664,31 +1685,31 @@
         <v>24534</v>
       </c>
       <c r="D12">
-        <v>5.90909090909091</v>
+        <v>5.977202072538859</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>70</v>
       </c>
       <c r="G12">
-        <v>404637.3354885659</v>
+        <v>332009.530752334</v>
       </c>
       <c r="H12">
         <v>34962685.86338257</v>
       </c>
       <c r="I12">
-        <v>206597689.1927152</v>
+        <v>208979038.4041353</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>40.00000000000001</v>
+        <v>39.99999999999999</v>
       </c>
       <c r="L12">
-        <v>3860032.27064468</v>
+        <v>4958885.280609371</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1702,31 +1723,31 @@
         <v>20457</v>
       </c>
       <c r="D13">
-        <v>2.260227272727274</v>
+        <v>2.222408759124086</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13">
         <v>75</v>
       </c>
       <c r="G13">
-        <v>157594.8154876857</v>
+        <v>125351.7400645756</v>
       </c>
       <c r="H13">
         <v>35112131.13005736</v>
       </c>
       <c r="I13">
-        <v>79361396.38373198</v>
+        <v>78033507.77495298</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>15.30000000000001</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="L13">
-        <v>3059058.228987825</v>
+        <v>4269540.510434923</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1743,7 +1764,7 @@
         <v>2.526136363636365</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F14">
         <v>75</v>
@@ -1764,7 +1785,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="L14">
-        <v>3142515.846107772</v>
+        <v>3652777.621948962</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1778,31 +1799,31 @@
         <v>21079</v>
       </c>
       <c r="D15">
-        <v>11.50611398963731</v>
+        <v>11.18467153284671</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F15">
         <v>75</v>
       </c>
       <c r="G15">
-        <v>616913.5402400541</v>
+        <v>595578.0818916217</v>
       </c>
       <c r="H15">
         <v>35112131.13005736</v>
       </c>
       <c r="I15">
-        <v>404004183.2015327</v>
+        <v>392717653.5079336</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>77.00000000000001</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>4985010.106808093</v>
+        <v>6312720.59838088</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1816,22 +1837,22 @@
         <v>21107</v>
       </c>
       <c r="D16">
-        <v>4.756818181818183</v>
+        <v>4.811647668393782</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>75</v>
       </c>
       <c r="G16">
-        <v>327575.6525297191</v>
+        <v>269310.7866974464</v>
       </c>
       <c r="H16">
         <v>35112131.13005736</v>
       </c>
       <c r="I16">
-        <v>167022023.7618411</v>
+        <v>168947203.8842773</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -1840,7 +1861,7 @@
         <v>32.2</v>
       </c>
       <c r="L16">
-        <v>3662634.134160224</v>
+        <v>4705292.915364972</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1857,7 +1878,7 @@
         <v>3.294318181818181</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>75</v>
@@ -1878,7 +1899,7 @@
         <v>22.29999999999999</v>
       </c>
       <c r="L17">
-        <v>3351059.927308201</v>
+        <v>3895183.767312502</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1892,10 +1913,10 @@
         <v>21119</v>
       </c>
       <c r="D18">
-        <v>4.771590909090912</v>
+        <v>4.771590909090911</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F18">
         <v>75</v>
@@ -1913,10 +1934,10 @@
         <v>100</v>
       </c>
       <c r="K18">
-        <v>32.30000000000002</v>
+        <v>32.30000000000001</v>
       </c>
       <c r="L18">
-        <v>3665383.563029062</v>
+        <v>4260545.279819391</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1930,22 +1951,22 @@
         <v>21129</v>
       </c>
       <c r="D19">
-        <v>3.323863636363637</v>
+        <v>3.268248175182482</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F19">
         <v>75</v>
       </c>
       <c r="G19">
-        <v>230526.0827522533</v>
+        <v>183076.4265540964</v>
       </c>
       <c r="H19">
         <v>35112131.13005736</v>
       </c>
       <c r="I19">
-        <v>116707935.8584293</v>
+        <v>114755158.492578</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -1954,7 +1975,7 @@
         <v>22.5</v>
       </c>
       <c r="L19">
-        <v>3358308.48673273</v>
+        <v>4687205.361039192</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1968,31 +1989,31 @@
         <v>21683</v>
       </c>
       <c r="D20">
-        <v>8.906031088082898</v>
+        <v>4.423917525773195</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F20">
         <v>75</v>
       </c>
       <c r="G20">
-        <v>485437.7520006373</v>
+        <v>292473.7751894842</v>
       </c>
       <c r="H20">
         <v>35112131.13005736</v>
       </c>
       <c r="I20">
-        <v>312709731.4131342</v>
+        <v>155333172.2735074</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>59.59999999999998</v>
+        <v>59.6</v>
       </c>
       <c r="L20">
-        <v>4685380.681094596</v>
+        <v>4183251.635494259</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2009,7 +2030,7 @@
         <v>6.18640414507772</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F21">
         <v>75</v>
@@ -2030,7 +2051,7 @@
         <v>41.4</v>
       </c>
       <c r="L21">
-        <v>4289921.74677372</v>
+        <v>5000341.044117969</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2044,22 +2065,22 @@
         <v>22113</v>
       </c>
       <c r="D22">
-        <v>7.307129533678759</v>
+        <v>7.223863636363639</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F22">
         <v>75</v>
       </c>
       <c r="G22">
-        <v>402397.6292133929</v>
+        <v>491530.2935203245</v>
       </c>
       <c r="H22">
         <v>35112131.13005736</v>
       </c>
       <c r="I22">
-        <v>256568890.3708435</v>
+        <v>253645247.2656531</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -2068,7 +2089,7 @@
         <v>48.90000000000001</v>
       </c>
       <c r="L22">
-        <v>4466301.444171549</v>
+        <v>4710325.492274638</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2085,7 +2106,7 @@
         <v>4.771590909090911</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F23">
         <v>80</v>
@@ -2106,7 +2127,7 @@
         <v>32.30000000000001</v>
       </c>
       <c r="L23">
-        <v>3665383.563029062</v>
+        <v>4260545.279819391</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2123,7 +2144,7 @@
         <v>1.935227272727271</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>80</v>
@@ -2135,7 +2156,7 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I24">
-        <v>68238861.54125704</v>
+        <v>68238861.54125705</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2144,7 +2165,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="L24">
-        <v>2946266.794435292</v>
+        <v>3424662.894964906</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2161,13 +2182,13 @@
         <v>11.52</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F25">
         <v>80</v>
       </c>
       <c r="G25">
-        <v>801035.0141948109</v>
+        <v>617604.1836526247</v>
       </c>
       <c r="H25">
         <v>35261419.93911113</v>
@@ -2179,10 +2200,10 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>155.2000000000001</v>
+        <v>77.09292649098477</v>
       </c>
       <c r="L25">
-        <v>5273515.054654035</v>
+        <v>8022471.696007755</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2196,10 +2217,10 @@
         <v>28237</v>
       </c>
       <c r="D26">
-        <v>8.203709844559583</v>
+        <v>8.203709844559585</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -2211,16 +2232,16 @@
         <v>35261419.93911113</v>
       </c>
       <c r="I26">
-        <v>289274457.8876355</v>
+        <v>289274457.8876356</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>54.89999999999998</v>
+        <v>54.9</v>
       </c>
       <c r="L26">
-        <v>4593162.336777735</v>
+        <v>5353798.859421938</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2237,7 +2258,7 @@
         <v>3.973863636363635</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F27">
         <v>80</v>
@@ -2258,7 +2279,7 @@
         <v>26.89999999999999</v>
       </c>
       <c r="L27">
-        <v>3506650.390632065</v>
+        <v>4076038.022453973</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2275,13 +2296,13 @@
         <v>11.52</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F28">
         <v>100</v>
       </c>
       <c r="G28">
-        <v>612153.4459508199</v>
+        <v>768114.7751442149</v>
       </c>
       <c r="H28">
         <v>35849408.31499194</v>
@@ -2293,10 +2314,10 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>79.30854271356787</v>
+        <v>77.98153846153848</v>
       </c>
       <c r="L28">
-        <v>6046567.678346199</v>
+        <v>5829531.060018688</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2313,7 +2334,7 @@
         <v>2.4375</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F29">
         <v>140</v>
@@ -2325,7 +2346,7 @@
         <v>36933299.30390043</v>
       </c>
       <c r="I29">
-        <v>90024917.05325732</v>
+        <v>90024917.05325729</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -2334,7 +2355,7 @@
         <v>16.5</v>
       </c>
       <c r="L29">
-        <v>3115469.701891457</v>
+        <v>3621339.896511324</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2348,10 +2369,10 @@
         <v>30659</v>
       </c>
       <c r="D30">
-        <v>3.634090909090903</v>
+        <v>3.634090909090908</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F30">
         <v>170</v>
@@ -2363,16 +2384,16 @@
         <v>37640511.58399763</v>
       </c>
       <c r="I30">
-        <v>136789040.9609366</v>
+        <v>136789040.9609368</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>24.59999999999996</v>
+        <v>24.59999999999999</v>
       </c>
       <c r="L30">
-        <v>3431616.232505888</v>
+        <v>3988820.294013698</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2383,34 +2404,34 @@
         <v>113</v>
       </c>
       <c r="C31">
-        <v>49124</v>
+        <v>49086</v>
       </c>
       <c r="D31">
-        <v>2.156818181818181</v>
+        <v>1.624999999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F31">
         <v>180</v>
       </c>
       <c r="G31">
-        <v>150462.8831150383</v>
+        <v>113667.1290495303</v>
       </c>
       <c r="H31">
         <v>37855437.77268496</v>
       </c>
       <c r="I31">
-        <v>81647296.46881369</v>
+        <v>61515086.38061304</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>14.6</v>
+        <v>10.99999999999999</v>
       </c>
       <c r="L31">
-        <v>3024585.102161352</v>
+        <v>3282881.485281148</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2421,34 +2442,34 @@
         <v>114</v>
       </c>
       <c r="C32">
-        <v>49525</v>
+        <v>49124</v>
       </c>
       <c r="D32">
-        <v>11.52</v>
+        <v>2.156818181818181</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F32">
         <v>180</v>
       </c>
       <c r="G32">
-        <v>612153.4459508199</v>
+        <v>150462.8831150383</v>
       </c>
       <c r="H32">
         <v>37855437.77268496</v>
       </c>
       <c r="I32">
-        <v>436094643.1413309</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>79.30854271356787</v>
+        <v>14.6</v>
       </c>
       <c r="L32">
-        <v>5823166.995898143</v>
+        <v>3515698.032370814</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2459,34 +2480,34 @@
         <v>115</v>
       </c>
       <c r="C33">
-        <v>49536</v>
+        <v>49477</v>
       </c>
       <c r="D33">
-        <v>2.201136363636365</v>
+        <v>1.595454545454544</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F33">
         <v>180</v>
       </c>
       <c r="G33">
-        <v>153520.3307989783</v>
+        <v>111617.1376495814</v>
       </c>
       <c r="H33">
         <v>37855437.77268496</v>
       </c>
       <c r="I33">
-        <v>83324980.64283049</v>
+        <v>60396630.26460185</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>14.90000000000001</v>
+        <v>10.79999999999999</v>
       </c>
       <c r="L33">
-        <v>3039509.425943215</v>
+        <v>3268336.19577872</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2497,13 +2518,13 @@
         <v>116</v>
       </c>
       <c r="C34">
-        <v>49808</v>
+        <v>49525</v>
       </c>
       <c r="D34">
         <v>11.52</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F34">
         <v>180</v>
@@ -2524,7 +2545,7 @@
         <v>77.98153846153848</v>
       </c>
       <c r="L34">
-        <v>4973514.536159209</v>
+        <v>5614149.162975817</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2535,34 +2556,34 @@
         <v>117</v>
       </c>
       <c r="C35">
-        <v>49824</v>
+        <v>49536</v>
       </c>
       <c r="D35">
-        <v>5.687500000000001</v>
+        <v>2.201136363636365</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F35">
         <v>180</v>
       </c>
       <c r="G35">
-        <v>389884.387080091</v>
+        <v>153520.3307989783</v>
       </c>
       <c r="H35">
         <v>37855437.77268496</v>
       </c>
       <c r="I35">
-        <v>215302802.3321458</v>
+        <v>83324980.64283049</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>38.50000000000001</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="L35">
-        <v>3824493.385265881</v>
+        <v>3533045.673115612</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2573,34 +2594,34 @@
         <v>118</v>
       </c>
       <c r="C36">
-        <v>49824</v>
+        <v>49808</v>
       </c>
       <c r="D36">
-        <v>2.363636363636363</v>
+        <v>11.52</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F36">
         <v>180</v>
       </c>
       <c r="G36">
-        <v>164719.3634241114</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="H36">
         <v>37855437.77268496</v>
       </c>
       <c r="I36">
-        <v>89476489.2808917</v>
+        <v>436094643.1413309</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>15.99999999999999</v>
+        <v>79.30854271356787</v>
       </c>
       <c r="L36">
-        <v>3092355.773228031</v>
+        <v>6941555.276767245</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2611,34 +2632,34 @@
         <v>119</v>
       </c>
       <c r="C37">
-        <v>31226</v>
+        <v>49824</v>
       </c>
       <c r="D37">
-        <v>2.422727272727272</v>
+        <v>5.6875</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F37">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G37">
-        <v>168787.2243370978</v>
+        <v>389884.387080091</v>
       </c>
       <c r="H37">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I37">
-        <v>92209710.7772274</v>
+        <v>215302802.3321457</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>16.4</v>
+        <v>38.5</v>
       </c>
       <c r="L37">
-        <v>3110889.813225406</v>
+        <v>4445490.345034822</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2649,34 +2670,34 @@
         <v>120</v>
       </c>
       <c r="C38">
-        <v>31319</v>
+        <v>49824</v>
       </c>
       <c r="D38">
-        <v>9.114772727272728</v>
+        <v>2.324087591240875</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F38">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G38">
-        <v>614621.4706630026</v>
+        <v>130998.8478980427</v>
       </c>
       <c r="H38">
-        <v>38060293.37896816</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="I38">
-        <v>346910924.0826178</v>
+        <v>87979353.18848825</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>61.7</v>
+        <v>16</v>
       </c>
       <c r="L38">
-        <v>4286880.992309345</v>
+        <v>4316014.033784165</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2687,34 +2708,34 @@
         <v>121</v>
       </c>
       <c r="C39">
-        <v>31789</v>
+        <v>31171</v>
       </c>
       <c r="D39">
-        <v>6.216290155440415</v>
+        <v>1.787500000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>190</v>
       </c>
       <c r="G39">
-        <v>344753.3335028072</v>
+        <v>124931.1729695994</v>
       </c>
       <c r="H39">
         <v>38060293.37896816</v>
       </c>
       <c r="I39">
-        <v>236593827.0448538</v>
+        <v>68032774.41490564</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>41.6</v>
+        <v>12.10000000000001</v>
       </c>
       <c r="L39">
-        <v>4294927.860967864</v>
+        <v>3359481.349733927</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2725,34 +2746,34 @@
         <v>122</v>
       </c>
       <c r="C40">
-        <v>38239</v>
+        <v>31226</v>
       </c>
       <c r="D40">
-        <v>11.52</v>
+        <v>2.422727272727272</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G40">
-        <v>801035.0141948109</v>
+        <v>168787.2243370978</v>
       </c>
       <c r="H40">
-        <v>38255392.02166688</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I40">
-        <v>440702116.0896025</v>
+        <v>92209710.7772274</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>155.2000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="L40">
-        <v>5273515.054654035</v>
+        <v>3616016.354594713</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2763,34 +2784,34 @@
         <v>123</v>
       </c>
       <c r="C41">
-        <v>31061</v>
+        <v>31319</v>
       </c>
       <c r="D41">
-        <v>4.889772727272737</v>
+        <v>9.114772727272729</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F41">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G41">
-        <v>336511.4001062157</v>
+        <v>614621.4706630026</v>
       </c>
       <c r="H41">
-        <v>38441090.93970785</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I41">
-        <v>187968198.0835945</v>
+        <v>346910924.0826179</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>33.10000000000007</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="L41">
-        <v>3687149.882920415</v>
+        <v>4982957.516685472</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2801,34 +2822,34 @@
         <v>124</v>
       </c>
       <c r="C42">
-        <v>33106</v>
+        <v>31789</v>
       </c>
       <c r="D42">
-        <v>3.412500000000001</v>
+        <v>6.145454545454548</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F42">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G42">
-        <v>236568.9630487722</v>
+        <v>420339.1934723008</v>
       </c>
       <c r="H42">
-        <v>38785844.374162</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="I42">
-        <v>132356693.9268279</v>
+        <v>233897802.9471135</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>23.10000000000001</v>
+        <v>41.60000000000002</v>
       </c>
       <c r="L42">
-        <v>3379765.097364126</v>
+        <v>4529588.61910183</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2839,34 +2860,34 @@
         <v>125</v>
       </c>
       <c r="C43">
-        <v>33609</v>
+        <v>38239</v>
       </c>
       <c r="D43">
-        <v>5.635912408759122</v>
+        <v>11.52</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G43">
-        <v>310874.993281192</v>
+        <v>801035.0141948109</v>
       </c>
       <c r="H43">
-        <v>38785844.374162</v>
+        <v>38255392.02166688</v>
       </c>
       <c r="I43">
-        <v>218593621.5925398</v>
+        <v>440702116.0896025</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>38.79999999999999</v>
+        <v>155.2000000000001</v>
       </c>
       <c r="L43">
-        <v>4619667.836848523</v>
+        <v>7703421.965571916</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2877,34 +2898,34 @@
         <v>126</v>
       </c>
       <c r="C44">
-        <v>38372</v>
+        <v>31061</v>
       </c>
       <c r="D44">
-        <v>6.580701271262555</v>
+        <v>4.946134715025906</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F44">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G44">
-        <v>369332.0210697243</v>
+        <v>276594.1657165497</v>
       </c>
       <c r="H44">
-        <v>38785844.374162</v>
+        <v>38441090.93970785</v>
       </c>
       <c r="I44">
-        <v>255238055.3800395</v>
+        <v>190134814.3803568</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>44.03867355595261</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="L44">
-        <v>4370284.483374606</v>
+        <v>4736787.674254571</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2915,34 +2936,34 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>38723</v>
+        <v>33106</v>
       </c>
       <c r="D45">
-        <v>4.880583941605832</v>
+        <v>3.412499999999952</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>230</v>
       </c>
       <c r="G45">
-        <v>270532.0601478429</v>
+        <v>236568.9630487722</v>
       </c>
       <c r="H45">
         <v>38785844.374162</v>
       </c>
       <c r="I45">
-        <v>189297569.2141579</v>
+        <v>132356693.9268259</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>33.59999999999995</v>
+        <v>23.09999999999967</v>
       </c>
       <c r="L45">
-        <v>4461568.626817144</v>
+        <v>3928549.900674851</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2953,34 +2974,34 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>39596</v>
+        <v>33332</v>
       </c>
       <c r="D46">
-        <v>11.52</v>
+        <v>3.811363636363637</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F46">
         <v>230</v>
       </c>
       <c r="G46">
-        <v>801035.0141948109</v>
+        <v>263696.5242697849</v>
       </c>
       <c r="H46">
         <v>38785844.374162</v>
       </c>
       <c r="I46">
-        <v>446812927.1903462</v>
+        <v>147826956.8533402</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>155.2</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="L46">
-        <v>5273515.054654035</v>
+        <v>4035061.363361877</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2991,34 +3012,262 @@
         <v>129</v>
       </c>
       <c r="C47">
-        <v>58710</v>
+        <v>33609</v>
       </c>
       <c r="D47">
-        <v>10.98116777456054</v>
+        <v>5.731818181818184</v>
       </c>
       <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47">
+        <v>230</v>
+      </c>
+      <c r="G47">
+        <v>392837.4968233245</v>
+      </c>
+      <c r="H47">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I47">
+        <v>222313407.9809923</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>38.80000000000002</v>
+      </c>
+      <c r="L47">
+        <v>4453848.625282167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>130</v>
       </c>
-      <c r="F47">
+      <c r="C48">
+        <v>38372</v>
+      </c>
+      <c r="D48">
+        <v>6.603409090909089</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48">
+        <v>230</v>
+      </c>
+      <c r="G48">
+        <v>450660.4973793401</v>
+      </c>
+      <c r="H48">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I48">
+        <v>256118797.3389265</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>44.69999999999999</v>
+      </c>
+      <c r="L48">
+        <v>4609062.479962116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49">
+        <v>38723</v>
+      </c>
+      <c r="D49">
+        <v>4.938027696133044</v>
+      </c>
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49">
+        <v>230</v>
+      </c>
+      <c r="G49">
+        <v>280634.940059881</v>
+      </c>
+      <c r="H49">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I49">
+        <v>191525573.737518</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>33.04574706496802</v>
+      </c>
+      <c r="L49">
+        <v>4754005.158277944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50">
+        <v>39596</v>
+      </c>
+      <c r="D50">
+        <v>11.52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50">
+        <v>230</v>
+      </c>
+      <c r="G50">
+        <v>801035.0141948109</v>
+      </c>
+      <c r="H50">
+        <v>38785844.374162</v>
+      </c>
+      <c r="I50">
+        <v>446812927.1903463</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>155.2000000000001</v>
+      </c>
+      <c r="L50">
+        <v>5573047.833346938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51">
+        <v>39326</v>
+      </c>
+      <c r="D51">
+        <v>3.767045454545453</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51">
         <v>250</v>
       </c>
-      <c r="G47">
-        <v>768114.7751442149</v>
-      </c>
-      <c r="H47">
+      <c r="G51">
+        <v>260687.6193448816</v>
+      </c>
+      <c r="H51">
         <v>39097761.98338025</v>
       </c>
-      <c r="I47">
-        <v>429339083.9493334</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47">
-        <v>74.33405878164058</v>
-      </c>
-      <c r="L47">
-        <v>4573255.840545377</v>
+      <c r="I51">
+        <v>147283046.5623926</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>25.49999999999999</v>
+      </c>
+      <c r="L51">
+        <v>4023656.505734837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52">
+        <v>37355</v>
+      </c>
+      <c r="D52">
+        <v>7.571134020618555</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52">
+        <v>290</v>
+      </c>
+      <c r="G52">
+        <v>535696.0892835769</v>
+      </c>
+      <c r="H52">
+        <v>39635749.05499732</v>
+      </c>
+      <c r="I52">
+        <v>300087568.1029899</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>102</v>
+      </c>
+      <c r="L52">
+        <v>4764152.29680264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53">
+        <v>58097</v>
+      </c>
+      <c r="D53">
+        <v>0.8204537576519795</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53">
+        <v>290</v>
+      </c>
+      <c r="G53">
+        <v>110591.9127653434</v>
+      </c>
+      <c r="H53">
+        <v>39635749.05499732</v>
+      </c>
+      <c r="I53">
+        <v>32519299.24952344</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>5.553840821028784</v>
+      </c>
+      <c r="L53">
+        <v>3260986.861328017</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="157">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,31 +218,34 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>keroseneUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
   </si>
   <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Postal Code</t>
   </si>
   <si>
-    <t>Amount Used</t>
+    <t>Amount of Hydrogen Used</t>
+  </si>
+  <si>
+    <t>Amount of Fuel Produced</t>
   </si>
   <si>
     <t>Process Used</t>
@@ -275,18 +278,9 @@
     <t>Covestro Deutschland AG</t>
   </si>
   <si>
-    <t>YARA Brunsbüttel GmbH</t>
-  </si>
-  <si>
-    <t>Raffinerie Heide GmbH</t>
-  </si>
-  <si>
     <t>VYNOVA Wilhelmshaven GmbH</t>
   </si>
   <si>
-    <t>Holcim (Deutschland) AG</t>
-  </si>
-  <si>
     <t>Papier- u. Kartonfabrik Varel GmbH &amp; Co. KG</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>Nordland Papier GmbH Papierfabrik</t>
   </si>
   <si>
-    <t>SWN Stadtwerke Neumünster GmbH</t>
-  </si>
-  <si>
     <t>VERA Klärschlammverbrennung GmbH</t>
   </si>
   <si>
@@ -311,45 +302,24 @@
     <t>Holborn Europa Raffinerie GmbH</t>
   </si>
   <si>
-    <t>Shell Deutschland Oil GmbH SDO Raffinerie Harburg</t>
-  </si>
-  <si>
     <t>ADM Hamburg Aktiengesellschaft Werk Hamburg</t>
   </si>
   <si>
-    <t>MVR Müllverwertung Rugenberger Damm GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>TRIMET Aluminium SE, Niederlassung Hamburg</t>
   </si>
   <si>
     <t>DOW Deutschland Anlagenges. m.b.H Werk Stade</t>
   </si>
   <si>
-    <t>Aluminium Oxid Stade GmbH</t>
-  </si>
-  <si>
-    <t>Müllverwertung Borsigstraße GmbH, (MVB)</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Stapelfeld GmbH</t>
-  </si>
-  <si>
     <t>Müllverbrennung Kiel GmbH &amp; Co. KG - Müllheizkraftwerk Kiel</t>
   </si>
   <si>
     <t>ArcelorMittal Bremen GmbH</t>
   </si>
   <si>
-    <t>ArcelorMittal Bremen GmbH / BREMA Walzwerk GmbH</t>
-  </si>
-  <si>
     <t>swb Entsorgung GmbH &amp; Co. KG / MKK Bremen Mittelkalorik-Kraftwerk</t>
   </si>
   <si>
-    <t>EMPG - EAA Großenkneten Erdgas-Aufbereitungsanlage</t>
-  </si>
-  <si>
     <t>Nordzucker AG Werk Uelzen</t>
   </si>
   <si>
@@ -365,15 +335,9 @@
     <t>RAG Anthrazit Ibbenbüren GmbH</t>
   </si>
   <si>
-    <t>Dyckerhoff GmbH, werk Lengerich</t>
-  </si>
-  <si>
     <t>Calcis Lienen GmbH &amp; Co.KG</t>
   </si>
   <si>
-    <t>BP Europa SE BP Lingen</t>
-  </si>
-  <si>
     <t>EVI Abfallverwertung B.V. &amp; Co. KG</t>
   </si>
   <si>
@@ -386,55 +350,139 @@
     <t>Peiner Träger GmbH</t>
   </si>
   <si>
-    <t>Holcim (Deutschland) GmbH Werk Höver</t>
-  </si>
-  <si>
-    <t>Enertec Hameln GmbH Müllverbrennungsanlage</t>
-  </si>
-  <si>
-    <t>Salzgitter Flachstahl GmbH Werk Salzgitter</t>
-  </si>
-  <si>
-    <t>Sappi Alfeld GmbH</t>
-  </si>
-  <si>
     <t>Heidelberg Cement AG Zementwerk Paderborn</t>
   </si>
   <si>
     <t>Pfleiderer Gütersloh GmbH (Werk 2)</t>
   </si>
   <si>
-    <t>MVA Bielefeld-Herford GmbH</t>
-  </si>
-  <si>
-    <t>EEW Energy from Waste Helmstedt GmbH</t>
-  </si>
-  <si>
     <t>Fels-Werke GmbH Kalkwerk Münchehof</t>
   </si>
   <si>
-    <t>Zellstoff Stendal GmbH</t>
+    <t>Nordzucker AG, Werk Klein Wanzleben</t>
+  </si>
+  <si>
+    <t>EUROGLAS AG</t>
   </si>
   <si>
     <t>Werk  Zielitz</t>
   </si>
   <si>
-    <t>Deuna Zement GmbH</t>
-  </si>
-  <si>
-    <t>Hagener Entsorgungsbetrieb HEB GmbH</t>
+    <t>CIECH Soda Deutschland GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>MHB Hamm Betriebsführungsgesell schaft mbH</t>
+  </si>
+  <si>
+    <t>EEW Energy from Waste Premnitz GmbH Industriegelände</t>
+  </si>
+  <si>
+    <t>RWE Generation SE MHKW Karnap</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE</t>
+  </si>
+  <si>
+    <t>Ruhr Oel GmbH Werk Scholven</t>
+  </si>
+  <si>
+    <t>Pilkington Deutschland AG -Werk Gladbeck-</t>
+  </si>
+  <si>
+    <t>Oxea GmbH Werk Ruhrchemie</t>
+  </si>
+  <si>
+    <t>TRIMET Aluminium SE Niederlassung Voerde</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Ruhrort GmbH Werk Ruhrort</t>
+  </si>
+  <si>
+    <t>Huntsman P&amp;A Germany GmbH ehemals Sachtleben Chemie GmbH</t>
+  </si>
+  <si>
+    <t>Sasol-Huntsman GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Kreis Weseler Abfallgesellschaft mbH &amp; Co. KG Abfallentsorgungszentrum Asdonkshof</t>
+  </si>
+  <si>
+    <t>LANXESS Deutschland GmbH CHEMPARK Krefeld-Uerdingen</t>
+  </si>
+  <si>
+    <t>BSR / MHKW</t>
+  </si>
+  <si>
+    <t>Stadtwerke Düsseldorf AG</t>
+  </si>
+  <si>
+    <t>Kalkwerke H. Oetelshofen GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Biomassekraftwerk Lünen GmbH</t>
+  </si>
+  <si>
+    <t>Fritz Winter Eisengießerei GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Vattenfall Europe New Energy Ecopower GmbH</t>
+  </si>
+  <si>
+    <t>Fels-Werke GmbH</t>
+  </si>
+  <si>
+    <t>Pfleiderer Baruth GmbH</t>
+  </si>
+  <si>
+    <t>Dow Olefinverbund GmbH Werk Böhlen</t>
+  </si>
+  <si>
+    <t>Linde Gas Produktionsgesellschaft mbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>SUEZ Energie und Verwertung GmbH</t>
+  </si>
+  <si>
+    <t>SKW Stickstoffwerke Piesteritz GmbH</t>
+  </si>
+  <si>
+    <t>Martinswerk GmbH</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Fortuna Nord</t>
+  </si>
+  <si>
+    <t>RWE Power AG-Fabrik Ville/Berrenrath</t>
+  </si>
+  <si>
+    <t>Abfallentsorgungs- und Verwertungsgesellschaft Köln mbH</t>
+  </si>
+  <si>
+    <t>Orion Engineered Carbons GmbH Werk Kalscheuren</t>
+  </si>
+  <si>
+    <t>ETN Wintershall</t>
+  </si>
+  <si>
+    <t>Werk Werra Standort Hattorf</t>
+  </si>
+  <si>
+    <t>FELS-WERKE Kalkwerk Kaltes Tal</t>
+  </si>
+  <si>
+    <t>FELS-WERKE GmbH Kalkwerk Rübeland</t>
   </si>
   <si>
     <t>MtG</t>
   </si>
   <si>
+    <t>PtF-DME</t>
+  </si>
+  <si>
+    <t>PtF-FT2</t>
+  </si>
+  <si>
     <t>PtF-MeOH</t>
-  </si>
-  <si>
-    <t>PtF-FT2</t>
-  </si>
-  <si>
-    <t>PtF-DME</t>
   </si>
   <si>
     <t>PtF-FT1</t>
@@ -1027,52 +1075,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10395451552.85602</v>
+        <v>11170928391.31773</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2">
-        <v>1173.26177594295</v>
+        <v>1173.261775942155</v>
       </c>
       <c r="E2">
-        <v>180.0220284871184</v>
+        <v>180.0220284881543</v>
       </c>
       <c r="F2">
         <v>400</v>
       </c>
       <c r="G2">
-        <v>278.8279158149577</v>
+        <v>282.0716625514231</v>
       </c>
       <c r="H2">
-        <v>20.54999089349133</v>
+        <v>22.14064167608583</v>
       </c>
       <c r="I2">
-        <v>818.8317901721812</v>
+        <v>792.5924255386446</v>
       </c>
       <c r="J2">
-        <v>228.9207155320077</v>
+        <v>221.584979182847</v>
       </c>
       <c r="K2">
-        <v>475.4507168741698</v>
+        <v>460.2149567643743</v>
       </c>
       <c r="L2">
-        <v>114.4603577660039</v>
+        <v>110.7924895914235</v>
       </c>
       <c r="M2">
-        <v>272.3016614547624</v>
+        <v>298.5410260875593</v>
       </c>
       <c r="N2">
-        <v>88.55338583894712</v>
+        <v>97.08651254879979</v>
       </c>
       <c r="O2">
-        <v>183.7482756158153</v>
+        <v>201.4545135387595</v>
       </c>
       <c r="P2">
-        <v>176.2915151515151</v>
+        <v>176.2915151525296</v>
       </c>
       <c r="Q2">
-        <v>176.2915151515151</v>
+        <v>176.2915151525296</v>
       </c>
       <c r="R2">
         <v>166.8193217440867</v>
@@ -1105,31 +1153,31 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AB2">
-        <v>109.7589866399234</v>
+        <v>150.6751424274583</v>
       </c>
       <c r="AC2">
-        <v>109.7589866399234</v>
+        <v>150.6751424274583</v>
       </c>
       <c r="AD2">
-        <v>25.77779706999457</v>
+        <v>25.10897449810092</v>
       </c>
       <c r="AE2">
-        <v>7.966055344546936</v>
+        <v>7.759370591427022</v>
       </c>
       <c r="AF2">
-        <v>17.81174172544764</v>
+        <v>17.3496039066739</v>
       </c>
       <c r="AG2">
-        <v>9.020196184822272</v>
+        <v>14.07932470148486</v>
       </c>
       <c r="AH2">
-        <v>2.209948065281456</v>
+        <v>3.449434551863792</v>
       </c>
       <c r="AI2">
-        <v>0.2706058855446682</v>
+        <v>0.4223797410445461</v>
       </c>
       <c r="AJ2">
-        <v>6.539642233996148</v>
+        <v>10.20751040857653</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1138,28 +1186,28 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>49.19901804586726</v>
+        <v>25.26619567222879</v>
       </c>
       <c r="AN2">
-        <v>49.19901804586726</v>
+        <v>25.26619567222879</v>
       </c>
       <c r="AO2">
-        <v>50</v>
+        <v>29.63759882597578</v>
       </c>
       <c r="AP2">
-        <v>50</v>
+        <v>29.63759882597577</v>
       </c>
       <c r="AQ2">
-        <v>384.1642969472952</v>
+        <v>399.3328697168089</v>
       </c>
       <c r="AR2">
-        <v>384.1642969472952</v>
+        <v>399.3328697168089</v>
       </c>
       <c r="AS2">
-        <v>370.7557030527048</v>
+        <v>355.5871302831911</v>
       </c>
       <c r="AT2">
-        <v>370.7557030527048</v>
+        <v>355.5871302831911</v>
       </c>
       <c r="AU2">
         <v>7.2</v>
@@ -1168,10 +1216,10 @@
         <v>7.2</v>
       </c>
       <c r="AW2">
-        <v>23.58</v>
+        <v>23.57999999949278</v>
       </c>
       <c r="AX2">
-        <v>23.58</v>
+        <v>23.57999999949278</v>
       </c>
       <c r="AY2">
         <v>111.42</v>
@@ -1198,10 +1246,10 @@
         <v>0.8</v>
       </c>
       <c r="BG2">
-        <v>2.62</v>
+        <v>2.620000000507218</v>
       </c>
       <c r="BH2">
-        <v>2.62</v>
+        <v>2.620000000507218</v>
       </c>
       <c r="BI2">
         <v>12.38</v>
@@ -1216,34 +1264,34 @@
         <v>38.85</v>
       </c>
       <c r="BM2">
-        <v>486.6081094665739</v>
+        <v>505.8216349746246</v>
       </c>
       <c r="BN2">
-        <v>944.100661845064</v>
+        <v>925.8983745209148</v>
       </c>
       <c r="BO2">
         <v>121</v>
       </c>
       <c r="BP2">
-        <v>176.2915151515151</v>
+        <v>176.2915151525296</v>
       </c>
       <c r="BQ2">
+        <v>123.8</v>
+      </c>
+      <c r="BR2">
+        <v>838.8</v>
+      </c>
+      <c r="BS2">
         <v>121</v>
       </c>
-      <c r="BR2">
-        <v>123.8</v>
-      </c>
-      <c r="BS2">
+      <c r="BT2">
+        <v>26.2</v>
+      </c>
+      <c r="BU2">
+        <v>8</v>
+      </c>
+      <c r="BV2">
         <v>388.5</v>
-      </c>
-      <c r="BT2">
-        <v>8</v>
-      </c>
-      <c r="BU2">
-        <v>26.2</v>
-      </c>
-      <c r="BV2">
-        <v>838.8</v>
       </c>
     </row>
   </sheetData>
@@ -1253,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1293,13 +1341,16 @@
       <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>25541</v>
@@ -1307,1894 +1358,2044 @@
       <c r="D2">
         <v>2.762499999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>2.407004021447721</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>192130.8806403114</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>33331633.33333333</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>92078637.08333331</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
         <v>18.7</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3732706.505062939</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>25541</v>
       </c>
       <c r="D3">
-        <v>2.452272727272728</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3">
+        <v>2.480538860103628</v>
+      </c>
+      <c r="E3">
+        <v>2.258880351291084</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>170820.2534520454</v>
-      </c>
       <c r="H3">
+        <v>140991.7124741257</v>
+      </c>
+      <c r="I3">
         <v>33331633.33333333</v>
       </c>
-      <c r="I3">
-        <v>81738255.3787879</v>
-      </c>
       <c r="J3">
-        <v>100</v>
+        <v>82680411.75405876</v>
       </c>
       <c r="K3">
-        <v>16.6</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>3626639.03828233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.60000000000001</v>
+      </c>
+      <c r="M3">
+        <v>4008221.385050375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>25572</v>
+        <v>26388</v>
       </c>
       <c r="D4">
-        <v>11.52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4">
+        <v>2.171590909090909</v>
+      </c>
+      <c r="E4">
+        <v>1.892136851084572</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>612153.4459508199</v>
-      </c>
       <c r="H4">
+        <v>151482.1833090819</v>
+      </c>
+      <c r="I4">
         <v>33429264.21745752</v>
       </c>
-      <c r="I4">
-        <v>385105123.7851107</v>
-      </c>
       <c r="J4">
-        <v>100</v>
+        <v>72594686.27222878</v>
       </c>
       <c r="K4">
-        <v>79.30854271356787</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>6476561.045924471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.7</v>
+      </c>
+      <c r="M4">
+        <v>3521510.355425566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>25734</v>
+        <v>26316</v>
       </c>
       <c r="D5">
-        <v>7.222268041237111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
+        <v>4.387499999999999</v>
+      </c>
+      <c r="E5">
+        <v>3.82288873994638</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
       </c>
       <c r="G5">
-        <v>471955.2073590848</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>33429264.21745752</v>
+        <v>302693.241398587</v>
       </c>
       <c r="I5">
-        <v>241435106.5998148</v>
+        <v>33609222.38641504</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>147460463.220396</v>
       </c>
       <c r="K5">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>4710073.692228228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>29.7</v>
+      </c>
+      <c r="M5">
+        <v>4174891.906955022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>26388</v>
+        <v>26954</v>
       </c>
       <c r="D6">
-        <v>2.135255474452553</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
+        <v>0.9426804123711321</v>
+      </c>
+      <c r="E6">
+        <v>0.7301242291092584</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
       </c>
       <c r="G6">
-        <v>120505.3208392468</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>33429264.21745752</v>
+        <v>63246.86980871521</v>
       </c>
       <c r="I6">
-        <v>71380019.427247</v>
+        <v>33609222.38641504</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>31682755.61869882</v>
       </c>
       <c r="K6">
-        <v>14.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>4228405.28873365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.69999999999998</v>
+      </c>
+      <c r="M6">
+        <v>2877563.361044346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>25566</v>
+        <v>27570</v>
       </c>
       <c r="D7">
-        <v>11.52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7">
+        <v>4.258756476683939</v>
+      </c>
+      <c r="E7">
+        <v>3.87819819348168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>612153.4459508199</v>
-      </c>
       <c r="H7">
+        <v>239232.4574537762</v>
+      </c>
+      <c r="I7">
         <v>33609222.38641504</v>
       </c>
-      <c r="I7">
-        <v>387178241.8915014</v>
-      </c>
       <c r="J7">
-        <v>100</v>
+        <v>143133493.5144559</v>
       </c>
       <c r="K7">
-        <v>79.30854271356787</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>6985327.79762394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>28.50000000000001</v>
+      </c>
+      <c r="M7">
+        <v>4568335.589196196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>26316</v>
+        <v>26892</v>
       </c>
       <c r="D8">
-        <v>4.387499999999999</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
+        <v>4.064497409326425</v>
+      </c>
+      <c r="E8">
+        <v>3.701297925007075</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
       </c>
       <c r="G8">
-        <v>302693.241398587</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>33609222.38641504</v>
+        <v>228612.3322807539</v>
       </c>
       <c r="I8">
-        <v>147460463.220396</v>
+        <v>34374076.88937075</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>139713346.4648347</v>
       </c>
       <c r="K8">
-        <v>29.7</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>4174891.906955022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>27.2</v>
+      </c>
+      <c r="M8">
+        <v>4517011.72902463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>26954</v>
+        <v>20457</v>
       </c>
       <c r="D9">
-        <v>1.876136363636363</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
+        <v>2.260227272727274</v>
+      </c>
+      <c r="E9">
+        <v>1.969366926639046</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
       </c>
       <c r="G9">
-        <v>131067.4309870251</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>33609222.38641504</v>
+        <v>157594.8154876857</v>
       </c>
       <c r="I9">
-        <v>63055484.27269455</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>79361396.38373198</v>
       </c>
       <c r="K9">
-        <v>12.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>3399058.782939054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.30000000000001</v>
+      </c>
+      <c r="M9">
+        <v>3555768.686711767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10">
-        <v>27570</v>
+        <v>20539</v>
       </c>
       <c r="D10">
-        <v>4.258756476683939</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
+        <v>2.526136363636365</v>
+      </c>
+      <c r="E10">
+        <v>2.201057153302462</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
       </c>
       <c r="G10">
-        <v>239232.4574537762</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>33609222.38641504</v>
+        <v>175900.2002961698</v>
       </c>
       <c r="I10">
-        <v>143133493.5144559</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>88698031.25240631</v>
       </c>
       <c r="K10">
-        <v>28.5</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>4568335.589196196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.10000000000001</v>
+      </c>
+      <c r="M10">
+        <v>3652777.621948962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>26892</v>
+        <v>21079</v>
       </c>
       <c r="D11">
-        <v>4.064497409326425</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
+        <v>5.715463917525774</v>
+      </c>
+      <c r="E11">
+        <v>4.426737452079766</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
       </c>
       <c r="G11">
-        <v>228612.3322807539</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>34374076.88937075</v>
+        <v>375828.4854696281</v>
       </c>
       <c r="I11">
-        <v>139713346.4648347</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>200682118.5412764</v>
       </c>
       <c r="K11">
-        <v>27.2</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>4517011.72902463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>77.00000000000003</v>
+      </c>
+      <c r="M11">
+        <v>4450769.980421008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12">
-        <v>24534</v>
+        <v>21107</v>
       </c>
       <c r="D12">
-        <v>5.977202072538859</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12">
-        <v>70</v>
+        <v>3.294318181818181</v>
+      </c>
+      <c r="E12">
+        <v>2.870384474774554</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
       </c>
       <c r="G12">
-        <v>332009.530752334</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>34962685.86338257</v>
+        <v>228510.6106685676</v>
       </c>
       <c r="I12">
-        <v>208979038.4041353</v>
+        <v>35112131.13005736</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>115670531.9841321</v>
       </c>
       <c r="K12">
-        <v>39.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>4958885.280609371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22.29999999999999</v>
+      </c>
+      <c r="M12">
+        <v>3895183.767312502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13">
-        <v>20457</v>
+        <v>21129</v>
       </c>
       <c r="D13">
-        <v>2.222408759124086</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13">
+        <v>3.323863636363637</v>
+      </c>
+      <c r="E13">
+        <v>2.896127833292713</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13">
         <v>75</v>
       </c>
-      <c r="G13">
-        <v>125351.7400645756</v>
-      </c>
       <c r="H13">
+        <v>230526.0827522533</v>
+      </c>
+      <c r="I13">
         <v>35112131.13005736</v>
       </c>
-      <c r="I13">
-        <v>78033507.77495298</v>
-      </c>
       <c r="J13">
-        <v>100</v>
+        <v>116707935.8584293</v>
       </c>
       <c r="K13">
-        <v>15.29999999999999</v>
+        <v>100</v>
       </c>
       <c r="L13">
-        <v>4269540.510434923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.5</v>
+      </c>
+      <c r="M13">
+        <v>3903609.301805856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>20539</v>
+        <v>21683</v>
       </c>
       <c r="D14">
-        <v>2.526136363636365</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14">
+        <v>8.804545454545455</v>
+      </c>
+      <c r="E14">
+        <v>7.671520838410919</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14">
         <v>75</v>
       </c>
-      <c r="G14">
-        <v>175900.2002961698</v>
-      </c>
       <c r="H14">
+        <v>594575.7095875458</v>
+      </c>
+      <c r="I14">
         <v>35112131.13005736</v>
       </c>
-      <c r="I14">
-        <v>88698031.25240631</v>
-      </c>
       <c r="J14">
-        <v>100</v>
+        <v>309146354.5405505</v>
       </c>
       <c r="K14">
-        <v>17.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="L14">
-        <v>3652777.621948962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>59.6</v>
+      </c>
+      <c r="M14">
+        <v>4941374.499469029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15">
-        <v>21079</v>
+        <v>24114</v>
       </c>
       <c r="D15">
-        <v>11.18467153284671</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15">
-        <v>75</v>
+        <v>1.935227272727271</v>
+      </c>
+      <c r="E15">
+        <v>1.686189982939311</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
       </c>
       <c r="G15">
-        <v>595578.0818916217</v>
+        <v>80</v>
       </c>
       <c r="H15">
-        <v>35112131.13005736</v>
+        <v>135155.230754705</v>
       </c>
       <c r="I15">
-        <v>392717653.5079336</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>68238861.54125705</v>
       </c>
       <c r="K15">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>6312720.59838088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="M15">
+        <v>3424662.894964906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16">
-        <v>21107</v>
+        <v>28237</v>
       </c>
       <c r="D16">
-        <v>4.811647668393782</v>
-      </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16">
-        <v>75</v>
+        <v>11.52</v>
+      </c>
+      <c r="E16">
+        <v>8.92246302029584</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
       </c>
       <c r="G16">
-        <v>269310.7866974464</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>35112131.13005736</v>
+        <v>739725.8791865052</v>
       </c>
       <c r="I16">
-        <v>168947203.8842773</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>406211557.6985603</v>
       </c>
       <c r="K16">
-        <v>32.2</v>
+        <v>100</v>
       </c>
       <c r="L16">
-        <v>4705292.915364972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>155.2000000000001</v>
+      </c>
+      <c r="M16">
+        <v>6145072.975754005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>21107</v>
+        <v>28237</v>
       </c>
       <c r="D17">
-        <v>3.294318181818181</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17">
-        <v>75</v>
+        <v>4.019668393782382</v>
+      </c>
+      <c r="E17">
+        <v>3.66047478612832</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
       </c>
       <c r="G17">
-        <v>228510.6106685676</v>
+        <v>80</v>
       </c>
       <c r="H17">
-        <v>35112131.13005736</v>
+        <v>226157.6696936796</v>
       </c>
       <c r="I17">
-        <v>115670531.9841321</v>
+        <v>35261419.93911113</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>141739215.2491329</v>
       </c>
       <c r="K17">
-        <v>22.29999999999999</v>
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>3895183.767312502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>26.89999999999999</v>
+      </c>
+      <c r="M17">
+        <v>4504904.567402549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18">
-        <v>21119</v>
+        <v>29525</v>
       </c>
       <c r="D18">
-        <v>4.771590909090911</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18">
-        <v>75</v>
+        <v>2.4375</v>
+      </c>
+      <c r="E18">
+        <v>2.123827077747989</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
       </c>
       <c r="G18">
-        <v>328569.0849161223</v>
+        <v>140</v>
       </c>
       <c r="H18">
-        <v>35112131.13005736</v>
+        <v>169803.813967785</v>
       </c>
       <c r="I18">
-        <v>167540725.6989897</v>
+        <v>36933299.30390043</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>90024917.05325729</v>
       </c>
       <c r="K18">
-        <v>32.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="L18">
-        <v>4260545.279819391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.5</v>
+      </c>
+      <c r="M18">
+        <v>3621339.896511324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19">
-        <v>21129</v>
+        <v>30659</v>
       </c>
       <c r="D19">
-        <v>3.268248175182482</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19">
-        <v>75</v>
+        <v>3.634090909090908</v>
+      </c>
+      <c r="E19">
+        <v>3.166433097733365</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
       </c>
       <c r="G19">
-        <v>183076.4265540964</v>
+        <v>170</v>
       </c>
       <c r="H19">
-        <v>35112131.13005736</v>
+        <v>251653.0139716124</v>
       </c>
       <c r="I19">
-        <v>114755158.492578</v>
+        <v>37640511.58399763</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>136789040.9609368</v>
       </c>
       <c r="K19">
-        <v>22.5</v>
+        <v>100</v>
       </c>
       <c r="L19">
-        <v>4687205.361039192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>24.59999999999999</v>
+      </c>
+      <c r="M19">
+        <v>3988820.294013698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>21683</v>
+        <v>49086</v>
       </c>
       <c r="D20">
-        <v>4.423917525773195</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20">
-        <v>75</v>
+        <v>1.625</v>
+      </c>
+      <c r="E20">
+        <v>1.415884718498659</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
       </c>
       <c r="G20">
-        <v>292473.7751894842</v>
+        <v>180</v>
       </c>
       <c r="H20">
-        <v>35112131.13005736</v>
+        <v>113667.1290495303</v>
       </c>
       <c r="I20">
-        <v>155333172.2735074</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>61515086.38061306</v>
       </c>
       <c r="K20">
-        <v>59.6</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>4183251.635494259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>3282881.485281148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21">
-        <v>21683</v>
+        <v>49124</v>
       </c>
       <c r="D21">
-        <v>6.18640414507772</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
+        <v>2.156818181818181</v>
+      </c>
+      <c r="E21">
+        <v>1.879265171825493</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
       </c>
       <c r="G21">
-        <v>343162.5257383654</v>
+        <v>180</v>
       </c>
       <c r="H21">
-        <v>35112131.13005736</v>
+        <v>150462.8831150383</v>
       </c>
       <c r="I21">
-        <v>217217833.5654993</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>81647296.46881369</v>
       </c>
       <c r="K21">
-        <v>41.4</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>5000341.044117969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.6</v>
+      </c>
+      <c r="M21">
+        <v>3515698.032370814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22">
-        <v>22113</v>
+        <v>49477</v>
       </c>
       <c r="D22">
-        <v>7.223863636363639</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22">
-        <v>75</v>
+        <v>1.595454545454544</v>
+      </c>
+      <c r="E22">
+        <v>1.390141359980501</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
       </c>
       <c r="G22">
-        <v>491530.2935203245</v>
+        <v>180</v>
       </c>
       <c r="H22">
-        <v>35112131.13005736</v>
+        <v>111617.1376495814</v>
       </c>
       <c r="I22">
-        <v>253645247.2656531</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>60396630.26460186</v>
       </c>
       <c r="K22">
-        <v>48.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L22">
-        <v>4710325.492274638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.79999999999999</v>
+      </c>
+      <c r="M22">
+        <v>3268336.19577872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>22145</v>
+        <v>49536</v>
       </c>
       <c r="D23">
-        <v>4.771590909090911</v>
-      </c>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23">
-        <v>80</v>
+        <v>2.201136363636365</v>
+      </c>
+      <c r="E23">
+        <v>1.917880209602731</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
       </c>
       <c r="G23">
-        <v>328569.0849161223</v>
+        <v>180</v>
       </c>
       <c r="H23">
-        <v>35261419.93911113</v>
+        <v>153520.3307989783</v>
       </c>
       <c r="I23">
-        <v>168253070.8230996</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>83324980.64283049</v>
       </c>
       <c r="K23">
-        <v>32.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="L23">
-        <v>4260545.279819391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.90000000000001</v>
+      </c>
+      <c r="M23">
+        <v>3533045.673115612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>24114</v>
+        <v>49824</v>
       </c>
       <c r="D24">
-        <v>1.935227272727271</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24">
-        <v>80</v>
+        <v>5.592335766423357</v>
+      </c>
+      <c r="E24">
+        <v>4.940103257966886</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
       </c>
       <c r="G24">
-        <v>135155.230754705</v>
+        <v>180</v>
       </c>
       <c r="H24">
-        <v>35261419.93911113</v>
+        <v>308558.2334479515</v>
       </c>
       <c r="I24">
-        <v>68238861.54125705</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>211700318.6097999</v>
       </c>
       <c r="K24">
-        <v>13.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="L24">
-        <v>3424662.894964906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.5</v>
+      </c>
+      <c r="M24">
+        <v>5337861.595948086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25">
-        <v>28237</v>
+        <v>49824</v>
       </c>
       <c r="D25">
-        <v>11.52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25">
-        <v>80</v>
+        <v>2.363636363636363</v>
+      </c>
+      <c r="E25">
+        <v>2.059468681452596</v>
+      </c>
+      <c r="F25" t="s">
+        <v>152</v>
       </c>
       <c r="G25">
-        <v>617604.1836526247</v>
+        <v>180</v>
       </c>
       <c r="H25">
-        <v>35261419.93911113</v>
+        <v>164719.3634241114</v>
       </c>
       <c r="I25">
-        <v>406211557.6985603</v>
+        <v>37855437.77268496</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>89476489.28089172</v>
       </c>
       <c r="K25">
-        <v>77.09292649098477</v>
+        <v>100</v>
       </c>
       <c r="L25">
-        <v>8022471.696007755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>3594472.874828153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>28237</v>
+        <v>31171</v>
       </c>
       <c r="D26">
-        <v>8.203709844559585</v>
-      </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26">
-        <v>80</v>
+        <v>1.787500000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.557473190348527</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
       </c>
       <c r="G26">
-        <v>449172.0603323171</v>
+        <v>190</v>
       </c>
       <c r="H26">
-        <v>35261419.93911113</v>
+        <v>124931.1729695994</v>
       </c>
       <c r="I26">
-        <v>289274457.8876356</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>68032774.41490565</v>
       </c>
       <c r="K26">
-        <v>54.9</v>
+        <v>100</v>
       </c>
       <c r="L26">
-        <v>5353798.859421938</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>12.10000000000001</v>
+      </c>
+      <c r="M26">
+        <v>3359481.349733927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>28237</v>
+        <v>31226</v>
       </c>
       <c r="D27">
-        <v>3.973863636363635</v>
-      </c>
-      <c r="E27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27">
-        <v>80</v>
+        <v>2.422727272727272</v>
+      </c>
+      <c r="E27">
+        <v>2.11095539848891</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
       </c>
       <c r="G27">
-        <v>274717.950895458</v>
+        <v>190</v>
       </c>
       <c r="H27">
-        <v>35261419.93911113</v>
+        <v>168787.2243370978</v>
       </c>
       <c r="I27">
-        <v>140124074.4625813</v>
+        <v>38060293.37896816</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>92209710.77722739</v>
       </c>
       <c r="K27">
-        <v>26.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="L27">
-        <v>4076038.022453973</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>16.4</v>
+      </c>
+      <c r="M27">
+        <v>3616016.354594713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28">
-        <v>26197</v>
+        <v>33106</v>
       </c>
       <c r="D28">
-        <v>11.52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
+        <v>3.451834196891191</v>
+      </c>
+      <c r="E28">
+        <v>3.143381693664097</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
       </c>
       <c r="G28">
-        <v>768114.7751442149</v>
+        <v>230</v>
       </c>
       <c r="H28">
-        <v>35849408.31499194</v>
+        <v>194939.184766818</v>
       </c>
       <c r="I28">
-        <v>412985183.7887073</v>
+        <v>38785844.374162</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>133882303.9660322</v>
       </c>
       <c r="K28">
-        <v>77.98153846153848</v>
+        <v>100</v>
       </c>
       <c r="L28">
-        <v>5829531.060018688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>23.1</v>
+      </c>
+      <c r="M28">
+        <v>4341898.258388686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29">
-        <v>29525</v>
+        <v>33332</v>
       </c>
       <c r="D29">
-        <v>2.4375</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29">
-        <v>140</v>
+        <v>3.811363636363637</v>
+      </c>
+      <c r="E29">
+        <v>3.320893248842311</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
       </c>
       <c r="G29">
-        <v>169803.813967785</v>
+        <v>230</v>
       </c>
       <c r="H29">
-        <v>36933299.30390043</v>
+        <v>263696.5242697849</v>
       </c>
       <c r="I29">
-        <v>90024917.05325729</v>
+        <v>38785844.374162</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>147826956.8533402</v>
       </c>
       <c r="K29">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="L29">
-        <v>3621339.896511324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>25.80000000000001</v>
+      </c>
+      <c r="M29">
+        <v>4035061.363361877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30">
-        <v>30659</v>
+        <v>38723</v>
       </c>
       <c r="D30">
-        <v>3.634090909090908</v>
-      </c>
-      <c r="E30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30">
-        <v>170</v>
+        <v>5.02084974093264</v>
+      </c>
+      <c r="E30">
+        <v>4.572191554420503</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
       </c>
       <c r="G30">
-        <v>251653.0139716124</v>
+        <v>230</v>
       </c>
       <c r="H30">
-        <v>37640511.58399763</v>
+        <v>280634.940059881</v>
       </c>
       <c r="I30">
-        <v>136789040.9609368</v>
+        <v>38785844.374162</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>194737896.6778649</v>
       </c>
       <c r="K30">
-        <v>24.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="L30">
-        <v>3988820.294013698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>33.59999999999998</v>
+      </c>
+      <c r="M30">
+        <v>4754005.158277944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31">
-        <v>49086</v>
+        <v>39164</v>
       </c>
       <c r="D31">
-        <v>1.624999999999999</v>
-      </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31">
-        <v>180</v>
+        <v>1.787500000000001</v>
+      </c>
+      <c r="E31">
+        <v>1.557473190348527</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
       </c>
       <c r="G31">
-        <v>113667.1290495303</v>
+        <v>250</v>
       </c>
       <c r="H31">
-        <v>37855437.77268496</v>
+        <v>124931.1729695994</v>
       </c>
       <c r="I31">
-        <v>61515086.38061304</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="J31">
-        <v>100</v>
+        <v>69887249.54529226</v>
       </c>
       <c r="K31">
-        <v>10.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="L31">
-        <v>3282881.485281148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>12.10000000000001</v>
+      </c>
+      <c r="M31">
+        <v>3359481.349733927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>49124</v>
+        <v>39171</v>
       </c>
       <c r="D32">
-        <v>2.156818181818181</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32">
-        <v>180</v>
+        <v>2.112499999999692</v>
+      </c>
+      <c r="E32">
+        <v>1.840650134047989</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
       </c>
       <c r="G32">
-        <v>150462.8831150383</v>
+        <v>250</v>
       </c>
       <c r="H32">
-        <v>37855437.77268496</v>
+        <v>147404.0761782828</v>
       </c>
       <c r="I32">
-        <v>81647296.46881369</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>82594022.18987872</v>
       </c>
       <c r="K32">
-        <v>14.6</v>
+        <v>100</v>
       </c>
       <c r="L32">
-        <v>3515698.032370814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>14.29999999999791</v>
+      </c>
+      <c r="M32">
+        <v>3498078.054383001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33">
-        <v>49477</v>
+        <v>39326</v>
       </c>
       <c r="D33">
-        <v>1.595454545454544</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33">
-        <v>180</v>
+        <v>1.89278350515464</v>
+      </c>
+      <c r="E33">
+        <v>1.59392295170917</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
       </c>
       <c r="G33">
-        <v>111617.1376495814</v>
+        <v>250</v>
       </c>
       <c r="H33">
-        <v>37855437.77268496</v>
+        <v>137419.3217183069</v>
       </c>
       <c r="I33">
-        <v>60396630.26460185</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>74003598.97060429</v>
       </c>
       <c r="K33">
-        <v>10.79999999999999</v>
+        <v>100</v>
       </c>
       <c r="L33">
-        <v>3268336.19577872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>25.50000000000001</v>
+      </c>
+      <c r="M33">
+        <v>3406333.12858417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>49525</v>
+        <v>39418</v>
       </c>
       <c r="D34">
-        <v>11.52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34">
-        <v>180</v>
+        <v>2.895454545454545</v>
+      </c>
+      <c r="E34">
+        <v>2.522849134779429</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
       </c>
       <c r="G34">
-        <v>768114.7751442149</v>
+        <v>250</v>
       </c>
       <c r="H34">
-        <v>37855437.77268496</v>
+        <v>201243.8489676261</v>
       </c>
       <c r="I34">
-        <v>436094643.1413309</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>113205792.6518782</v>
       </c>
       <c r="K34">
-        <v>77.98153846153848</v>
+        <v>100</v>
       </c>
       <c r="L34">
-        <v>5614149.162975817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>19.59999999999999</v>
+      </c>
+      <c r="M34">
+        <v>3775410.193627713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35">
-        <v>49536</v>
+        <v>59075</v>
       </c>
       <c r="D35">
-        <v>2.201136363636365</v>
-      </c>
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35">
-        <v>180</v>
+        <v>3.767045454545453</v>
+      </c>
+      <c r="E35">
+        <v>3.282278211065073</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
       </c>
       <c r="G35">
-        <v>153520.3307989783</v>
+        <v>250</v>
       </c>
       <c r="H35">
-        <v>37855437.77268496</v>
+        <v>260687.6193448816</v>
       </c>
       <c r="I35">
-        <v>83324980.64283049</v>
+        <v>39097761.98338025</v>
       </c>
       <c r="J35">
-        <v>100</v>
+        <v>147283046.5623926</v>
       </c>
       <c r="K35">
-        <v>14.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L35">
-        <v>3533045.673115612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>25.49999999999999</v>
+      </c>
+      <c r="M35">
+        <v>4023656.505734837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36">
-        <v>49808</v>
+        <v>14727</v>
       </c>
       <c r="D36">
-        <v>11.52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36">
-        <v>180</v>
+        <v>2.038636363636364</v>
+      </c>
+      <c r="E36">
+        <v>1.776291737752864</v>
+      </c>
+      <c r="F36" t="s">
+        <v>152</v>
       </c>
       <c r="G36">
-        <v>612153.4459508199</v>
+        <v>270</v>
       </c>
       <c r="H36">
-        <v>37855437.77268496</v>
+        <v>142303.0406416291</v>
       </c>
       <c r="I36">
-        <v>436094643.1413309</v>
+        <v>39380047.41901974</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>80281596.67013799</v>
       </c>
       <c r="K36">
-        <v>79.30854271356787</v>
+        <v>100</v>
       </c>
       <c r="L36">
-        <v>6941555.276767245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>13.8</v>
+      </c>
+      <c r="M36">
+        <v>3468078.45647157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37">
-        <v>49824</v>
+        <v>45329</v>
       </c>
       <c r="D37">
-        <v>5.6875</v>
-      </c>
-      <c r="E37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37">
-        <v>180</v>
+        <v>9.249720207253887</v>
+      </c>
+      <c r="E37">
+        <v>8.423174321983014</v>
+      </c>
+      <c r="F37" t="s">
+        <v>153</v>
       </c>
       <c r="G37">
-        <v>389884.387080091</v>
+        <v>300</v>
       </c>
       <c r="H37">
-        <v>37855437.77268496</v>
+        <v>503066.4849474893</v>
       </c>
       <c r="I37">
-        <v>215302802.3321457</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>367718201.7562976</v>
       </c>
       <c r="K37">
-        <v>38.5</v>
+        <v>100</v>
       </c>
       <c r="L37">
-        <v>4445490.345034822</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>61.90000000000001</v>
+      </c>
+      <c r="M37">
+        <v>5511561.788859546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>49824</v>
+        <v>45356</v>
       </c>
       <c r="D38">
-        <v>2.324087591240875</v>
-      </c>
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38">
-        <v>180</v>
+        <v>3.959090909090911</v>
+      </c>
+      <c r="E38">
+        <v>3.449610041433099</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
       </c>
       <c r="G38">
-        <v>130998.8478980427</v>
+        <v>300</v>
       </c>
       <c r="H38">
-        <v>37855437.77268496</v>
+        <v>273716.7309248754</v>
       </c>
       <c r="I38">
-        <v>87979353.18848825</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>157391765.0545703</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="L38">
-        <v>4316014.033784165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>26.80000000000001</v>
+      </c>
+      <c r="M38">
+        <v>4072365.925803358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39">
-        <v>31171</v>
+        <v>45896</v>
       </c>
       <c r="D39">
-        <v>1.787500000000001</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39">
-        <v>190</v>
+        <v>11.52</v>
+      </c>
+      <c r="E39">
+        <v>10.17642572062084</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
       </c>
       <c r="G39">
-        <v>124931.1729695994</v>
+        <v>300</v>
       </c>
       <c r="H39">
-        <v>38060293.37896816</v>
+        <v>612153.4459508199</v>
       </c>
       <c r="I39">
-        <v>68032774.41490564</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>457972088.8109104</v>
       </c>
       <c r="K39">
-        <v>12.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="L39">
-        <v>3359481.349733927</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>79.30854271356787</v>
+      </c>
+      <c r="M39">
+        <v>8937945.554257696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40">
-        <v>31226</v>
+        <v>45966</v>
       </c>
       <c r="D40">
-        <v>2.422727272727272</v>
-      </c>
-      <c r="E40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40">
-        <v>190</v>
+        <v>3.501136363636363</v>
+      </c>
+      <c r="E40">
+        <v>3.050587984401656</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
       </c>
       <c r="G40">
-        <v>168787.2243370978</v>
+        <v>300</v>
       </c>
       <c r="H40">
-        <v>38060293.37896816</v>
+        <v>242606.5470541055</v>
       </c>
       <c r="I40">
-        <v>92209710.7772274</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>139186001.1863177</v>
       </c>
       <c r="K40">
-        <v>16.4</v>
+        <v>100</v>
       </c>
       <c r="L40">
-        <v>3616016.354594713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>23.69999999999999</v>
+      </c>
+      <c r="M40">
+        <v>3953004.188869259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41">
-        <v>31319</v>
+        <v>46147</v>
       </c>
       <c r="D41">
-        <v>9.114772727272729</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41">
-        <v>190</v>
+        <v>2.526136363636365</v>
+      </c>
+      <c r="E41">
+        <v>2.201057153302462</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
       </c>
       <c r="G41">
-        <v>614621.4706630026</v>
+        <v>300</v>
       </c>
       <c r="H41">
-        <v>38060293.37896816</v>
+        <v>175900.2002961698</v>
       </c>
       <c r="I41">
-        <v>346910924.0826179</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>100425342.6281027</v>
       </c>
       <c r="K41">
-        <v>61.70000000000002</v>
+        <v>100</v>
       </c>
       <c r="L41">
-        <v>4982957.516685472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>17.10000000000001</v>
+      </c>
+      <c r="M41">
+        <v>3652777.621948962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42">
-        <v>31789</v>
+        <v>46562</v>
       </c>
       <c r="D42">
-        <v>6.145454545454548</v>
-      </c>
-      <c r="E42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42">
-        <v>190</v>
+        <v>2.334090909090911</v>
+      </c>
+      <c r="E42">
+        <v>2.03372532293444</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
       </c>
       <c r="G42">
-        <v>420339.1934723008</v>
+        <v>300</v>
       </c>
       <c r="H42">
-        <v>38060293.37896816</v>
+        <v>162684.5308849443</v>
       </c>
       <c r="I42">
-        <v>233897802.9471135</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>92790667.45754522</v>
       </c>
       <c r="K42">
-        <v>41.60000000000002</v>
+        <v>100</v>
       </c>
       <c r="L42">
-        <v>4529588.61910183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="M42">
+        <v>3583547.701606124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43">
-        <v>38239</v>
+        <v>47137</v>
       </c>
       <c r="D43">
-        <v>11.52</v>
-      </c>
-      <c r="E43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43">
-        <v>200</v>
+        <v>3.589772727272727</v>
+      </c>
+      <c r="E43">
+        <v>3.127818059956129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>152</v>
       </c>
       <c r="G43">
-        <v>801035.0141948109</v>
+        <v>300</v>
       </c>
       <c r="H43">
-        <v>38255392.02166688</v>
+        <v>248638.8445784838</v>
       </c>
       <c r="I43">
-        <v>440702116.0896025</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>142709697.4188827</v>
       </c>
       <c r="K43">
-        <v>155.2000000000001</v>
+        <v>100</v>
       </c>
       <c r="L43">
-        <v>7703421.965571916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>24.3</v>
+      </c>
+      <c r="M43">
+        <v>3976993.608530906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44">
-        <v>31061</v>
+        <v>47198</v>
       </c>
       <c r="D44">
-        <v>4.946134715025906</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44">
-        <v>210</v>
+        <v>5.708540145985399</v>
+      </c>
+      <c r="E44">
+        <v>5.042754754236325</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
       </c>
       <c r="G44">
-        <v>276594.1657165497</v>
+        <v>300</v>
       </c>
       <c r="H44">
-        <v>38441090.93970785</v>
+        <v>314733.3589783509</v>
       </c>
       <c r="I44">
-        <v>190134814.3803568</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J44">
-        <v>100</v>
+        <v>226940282.527593</v>
       </c>
       <c r="K44">
-        <v>33.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="L44">
-        <v>4736787.674254571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>39.29999999999999</v>
+      </c>
+      <c r="M44">
+        <v>5364494.56390587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45">
-        <v>33106</v>
+        <v>47443</v>
       </c>
       <c r="D45">
-        <v>3.412499999999952</v>
-      </c>
-      <c r="E45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45">
-        <v>230</v>
+        <v>2.673863636363635</v>
+      </c>
+      <c r="E45">
+        <v>2.329773945893247</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
       </c>
       <c r="G45">
-        <v>236568.9630487722</v>
+        <v>300</v>
       </c>
       <c r="H45">
-        <v>38785844.374162</v>
+        <v>186048.8595825074</v>
       </c>
       <c r="I45">
-        <v>132356693.9268259</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>106298169.6823776</v>
       </c>
       <c r="K45">
-        <v>23.09999999999967</v>
+        <v>100</v>
       </c>
       <c r="L45">
-        <v>3928549.900674851</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>18.09999999999999</v>
+      </c>
+      <c r="M45">
+        <v>3703363.909700166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46">
-        <v>33332</v>
+        <v>47475</v>
       </c>
       <c r="D46">
-        <v>3.811363636363637</v>
-      </c>
-      <c r="E46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46">
-        <v>230</v>
+        <v>3.25</v>
+      </c>
+      <c r="E46">
+        <v>2.831769436997319</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
       </c>
       <c r="G46">
-        <v>263696.5242697849</v>
+        <v>300</v>
       </c>
       <c r="H46">
-        <v>38785844.374162</v>
+        <v>225486.2963050941</v>
       </c>
       <c r="I46">
-        <v>147826956.8533402</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>129202195.1940502</v>
       </c>
       <c r="K46">
-        <v>25.80000000000001</v>
+        <v>100</v>
       </c>
       <c r="L46">
-        <v>4035061.363361877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>3882437.414621019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47">
-        <v>33609</v>
+        <v>47829</v>
       </c>
       <c r="D47">
-        <v>5.731818181818184</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47">
-        <v>230</v>
+        <v>2.792045454545455</v>
+      </c>
+      <c r="E47">
+        <v>2.432747379965879</v>
+      </c>
+      <c r="F47" t="s">
+        <v>152</v>
       </c>
       <c r="G47">
-        <v>392837.4968233245</v>
+        <v>300</v>
       </c>
       <c r="H47">
-        <v>38785844.374162</v>
+        <v>194157.0274518482</v>
       </c>
       <c r="I47">
-        <v>222313407.9809923</v>
+        <v>39754521.5981693</v>
       </c>
       <c r="J47">
-        <v>100</v>
+        <v>110996431.3257977</v>
       </c>
       <c r="K47">
-        <v>38.80000000000002</v>
+        <v>100</v>
       </c>
       <c r="L47">
-        <v>4453848.625282167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>18.90000000000001</v>
+      </c>
+      <c r="M47">
+        <v>3742328.710295619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48">
-        <v>38372</v>
+        <v>13597</v>
       </c>
       <c r="D48">
-        <v>6.603409090909089</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48">
-        <v>230</v>
+        <v>5.78116788321168</v>
+      </c>
+      <c r="E48">
+        <v>5.10691193940473</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
       </c>
       <c r="G48">
-        <v>450660.4973793401</v>
+        <v>310</v>
       </c>
       <c r="H48">
-        <v>38785844.374162</v>
+        <v>318588.1032186776</v>
       </c>
       <c r="I48">
-        <v>256118797.3389265</v>
+        <v>39867684.89458863</v>
       </c>
       <c r="J48">
-        <v>100</v>
+        <v>230481779.4905992</v>
       </c>
       <c r="K48">
-        <v>44.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="L48">
-        <v>4609062.479962116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>39.80000000000001</v>
+      </c>
+      <c r="M48">
+        <v>5380932.148425418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49">
-        <v>38723</v>
+        <v>40235</v>
       </c>
       <c r="D49">
-        <v>4.938027696133044</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49">
-        <v>230</v>
+        <v>5.776136363636365</v>
+      </c>
+      <c r="E49">
+        <v>5.032826590299782</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
       </c>
       <c r="G49">
-        <v>280634.940059881</v>
+        <v>320</v>
       </c>
       <c r="H49">
-        <v>38785844.374162</v>
+        <v>395789.3453611294</v>
       </c>
       <c r="I49">
-        <v>191525573.737518</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>230904230.2623714</v>
       </c>
       <c r="K49">
-        <v>33.04574706496802</v>
+        <v>100</v>
       </c>
       <c r="L49">
-        <v>4754005.158277944</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>39.10000000000001</v>
+      </c>
+      <c r="M49">
+        <v>4462158.061715034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50">
-        <v>39596</v>
+        <v>42327</v>
       </c>
       <c r="D50">
-        <v>11.52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50">
-        <v>230</v>
+        <v>3.855681818181818</v>
+      </c>
+      <c r="E50">
+        <v>3.359508286619546</v>
+      </c>
+      <c r="F50" t="s">
+        <v>152</v>
       </c>
       <c r="G50">
-        <v>801035.0141948109</v>
+        <v>320</v>
       </c>
       <c r="H50">
-        <v>38785844.374162</v>
+        <v>266704.1161270175</v>
       </c>
       <c r="I50">
-        <v>446812927.1903463</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>154133002.809409</v>
       </c>
       <c r="K50">
-        <v>155.2000000000001</v>
+        <v>100</v>
       </c>
       <c r="L50">
-        <v>5573047.833346938</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>26.1</v>
+      </c>
+      <c r="M50">
+        <v>4046366.137706651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C51">
-        <v>39326</v>
+        <v>44532</v>
       </c>
       <c r="D51">
-        <v>3.767045454545453</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51">
-        <v>250</v>
+        <v>2.585227272727273</v>
+      </c>
+      <c r="E51">
+        <v>2.252543870338777</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
       </c>
       <c r="G51">
-        <v>260687.6193448816</v>
+        <v>320</v>
       </c>
       <c r="H51">
-        <v>39097761.98338025</v>
+        <v>179961.4598525891</v>
       </c>
       <c r="I51">
-        <v>147283046.5623926</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>103345883.109757</v>
       </c>
       <c r="K51">
-        <v>25.49999999999999</v>
+        <v>100</v>
       </c>
       <c r="L51">
-        <v>4023656.505734837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>17.5</v>
+      </c>
+      <c r="M51">
+        <v>3673274.488696368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3202,37 +3403,40 @@
         <v>134</v>
       </c>
       <c r="C52">
-        <v>37355</v>
+        <v>44536</v>
       </c>
       <c r="D52">
-        <v>7.571134020618555</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52">
-        <v>290</v>
+        <v>3.102272727272727</v>
+      </c>
+      <c r="E52">
+        <v>2.703052644406531</v>
+      </c>
+      <c r="F52" t="s">
+        <v>152</v>
       </c>
       <c r="G52">
-        <v>535696.0892835769</v>
+        <v>320</v>
       </c>
       <c r="H52">
-        <v>39635749.05499732</v>
+        <v>215395.6462119084</v>
       </c>
       <c r="I52">
-        <v>300087568.1029899</v>
+        <v>39975550.38970821</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>124015059.7317084</v>
       </c>
       <c r="K52">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L52">
-        <v>4764152.29680264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="M52">
+        <v>3838974.648259323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3240,34 +3444,693 @@
         <v>135</v>
       </c>
       <c r="C53">
-        <v>58097</v>
+        <v>35260</v>
       </c>
       <c r="D53">
-        <v>0.8204537576519795</v>
-      </c>
-      <c r="E53" t="s">
+        <v>3.205681818181819</v>
+      </c>
+      <c r="E53">
+        <v>2.793154399220084</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53">
+        <v>330</v>
+      </c>
+      <c r="H53">
+        <v>222460.6533622536</v>
+      </c>
+      <c r="I53">
+        <v>40078412.97837315</v>
+      </c>
+      <c r="J53">
+        <v>128478639.7863531</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>21.70000000000001</v>
+      </c>
+      <c r="M53">
+        <v>3869558.622038402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>136</v>
       </c>
-      <c r="F53">
-        <v>290</v>
-      </c>
-      <c r="G53">
-        <v>110591.9127653434</v>
-      </c>
-      <c r="H53">
-        <v>39635749.05499732</v>
-      </c>
-      <c r="I53">
-        <v>32519299.24952344</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>5.553840821028784</v>
-      </c>
-      <c r="L53">
-        <v>3260986.861328017</v>
+      <c r="C54">
+        <v>15562</v>
+      </c>
+      <c r="D54">
+        <v>3.663636363636364</v>
+      </c>
+      <c r="E54">
+        <v>3.192176456251524</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54">
+        <v>340</v>
+      </c>
+      <c r="H54">
+        <v>253661.727964543</v>
+      </c>
+      <c r="I54">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="J54">
+        <v>147192274.364379</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>24.8</v>
+      </c>
+      <c r="M54">
+        <v>3996644.149623269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55">
+        <v>15562</v>
+      </c>
+      <c r="D55">
+        <v>3.338636363636365</v>
+      </c>
+      <c r="E55">
+        <v>2.908999512551792</v>
+      </c>
+      <c r="F55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55">
+        <v>340</v>
+      </c>
+      <c r="H55">
+        <v>231533.5976831523</v>
+      </c>
+      <c r="I55">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="J55">
+        <v>134134895.1868938</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>22.60000000000001</v>
+      </c>
+      <c r="M55">
+        <v>3907800.796618099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56">
+        <v>15837</v>
+      </c>
+      <c r="D56">
+        <v>6.175000000000001</v>
+      </c>
+      <c r="E56">
+        <v>5.380361930294907</v>
+      </c>
+      <c r="F56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56">
+        <v>340</v>
+      </c>
+      <c r="H56">
+        <v>422299.4215369486</v>
+      </c>
+      <c r="I56">
+        <v>40176551.31533918</v>
+      </c>
+      <c r="J56">
+        <v>248090204.3722194</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>41.8</v>
+      </c>
+      <c r="M56">
+        <v>4534849.045657212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>4564</v>
+      </c>
+      <c r="D57">
+        <v>8.38762886597938</v>
+      </c>
+      <c r="E57">
+        <v>7.063266413456319</v>
+      </c>
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57">
+        <v>350</v>
+      </c>
+      <c r="H57">
+        <v>591315.0833910158</v>
+      </c>
+      <c r="I57">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J57">
+        <v>337771729.164599</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+      <c r="L57">
+        <v>113</v>
+      </c>
+      <c r="M57">
+        <v>4883704.499148568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58">
+        <v>6237</v>
+      </c>
+      <c r="D58">
+        <v>6.55909090909091</v>
+      </c>
+      <c r="E58">
+        <v>5.715025591030954</v>
+      </c>
+      <c r="F58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58">
+        <v>350</v>
+      </c>
+      <c r="H58">
+        <v>447731.9766804872</v>
+      </c>
+      <c r="I58">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J58">
+        <v>264136088.2212507</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <v>44.40000000000001</v>
+      </c>
+      <c r="M58">
+        <v>4601557.503646089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59">
+        <v>6686</v>
+      </c>
+      <c r="D59">
+        <v>4.417045454545455</v>
+      </c>
+      <c r="E59">
+        <v>3.848632098464539</v>
+      </c>
+      <c r="F59" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59">
+        <v>350</v>
+      </c>
+      <c r="H59">
+        <v>304687.1404235911</v>
+      </c>
+      <c r="I59">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J59">
+        <v>177875428.779626</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>29.90000000000001</v>
+      </c>
+      <c r="M59">
+        <v>4181678.138825533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60">
+        <v>6886</v>
+      </c>
+      <c r="D60">
+        <v>11.52</v>
+      </c>
+      <c r="E60">
+        <v>9.701052631578948</v>
+      </c>
+      <c r="F60" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60">
+        <v>350</v>
+      </c>
+      <c r="H60">
+        <v>801035.0141948109</v>
+      </c>
+      <c r="I60">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J60">
+        <v>463913029.7906707</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
+        <v>155.2000000000001</v>
+      </c>
+      <c r="M60">
+        <v>5842429.686833193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61">
+        <v>50127</v>
+      </c>
+      <c r="D61">
+        <v>3.885227272727274</v>
+      </c>
+      <c r="E61">
+        <v>3.385251645137705</v>
+      </c>
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61">
+        <v>350</v>
+      </c>
+      <c r="H61">
+        <v>268708.4484845335</v>
+      </c>
+      <c r="I61">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J61">
+        <v>156458989.1941192</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <v>26.30000000000001</v>
+      </c>
+      <c r="M61">
+        <v>4053848.049137005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62">
+        <v>50129</v>
+      </c>
+      <c r="D62">
+        <v>6.234090909090909</v>
+      </c>
+      <c r="E62">
+        <v>5.431848647331221</v>
+      </c>
+      <c r="F62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62">
+        <v>350</v>
+      </c>
+      <c r="H62">
+        <v>426218.212015135</v>
+      </c>
+      <c r="I62">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J62">
+        <v>251048264.0301076</v>
+      </c>
+      <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>42.2</v>
+      </c>
+      <c r="M62">
+        <v>4545312.925818236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63">
+        <v>50354</v>
+      </c>
+      <c r="D63">
+        <v>8.016494845360826</v>
+      </c>
+      <c r="E63">
+        <v>6.750732501356485</v>
+      </c>
+      <c r="F63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63">
+        <v>350</v>
+      </c>
+      <c r="H63">
+        <v>566083.4778257813</v>
+      </c>
+      <c r="I63">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J63">
+        <v>322826077.4316522</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63">
+        <v>108</v>
+      </c>
+      <c r="M63">
+        <v>4830509.532607174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64">
+        <v>50735</v>
+      </c>
+      <c r="D64">
+        <v>3.944318181818183</v>
+      </c>
+      <c r="E64">
+        <v>3.436738362174019</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64">
+        <v>350</v>
+      </c>
+      <c r="H64">
+        <v>272715.3655084808</v>
+      </c>
+      <c r="I64">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J64">
+        <v>158838593.5925089</v>
+      </c>
+      <c r="K64">
+        <v>100</v>
+      </c>
+      <c r="L64">
+        <v>26.70000000000001</v>
+      </c>
+      <c r="M64">
+        <v>4068683.428413182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65">
+        <v>50997</v>
+      </c>
+      <c r="D65">
+        <v>4.387499999999999</v>
+      </c>
+      <c r="E65">
+        <v>3.82288873994638</v>
+      </c>
+      <c r="F65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65">
+        <v>350</v>
+      </c>
+      <c r="H65">
+        <v>302693.241398587</v>
+      </c>
+      <c r="I65">
+        <v>40270228.28044015</v>
+      </c>
+      <c r="J65">
+        <v>176685626.5804311</v>
+      </c>
+      <c r="K65">
+        <v>100</v>
+      </c>
+      <c r="L65">
+        <v>29.7</v>
+      </c>
+      <c r="M65">
+        <v>4174891.906955022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66">
+        <v>36266</v>
+      </c>
+      <c r="D66">
+        <v>4.357954545454547</v>
+      </c>
+      <c r="E66">
+        <v>3.797145381428225</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66">
+        <v>360</v>
+      </c>
+      <c r="H66">
+        <v>300698.7657893279</v>
+      </c>
+      <c r="I66">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="J66">
+        <v>175885701.2473151</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66">
+        <v>29.50000000000001</v>
+      </c>
+      <c r="M66">
+        <v>4168070.946677938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67">
+        <v>36269</v>
+      </c>
+      <c r="D67">
+        <v>4.076429197164334</v>
+      </c>
+      <c r="E67">
+        <v>3.551848496188763</v>
+      </c>
+      <c r="F67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67">
+        <v>360</v>
+      </c>
+      <c r="H67">
+        <v>287720.595398256</v>
+      </c>
+      <c r="I67">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="J67">
+        <v>164523425.0265671</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>27.59428995003549</v>
+      </c>
+      <c r="M67">
+        <v>4122858.778412691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68">
+        <v>38875</v>
+      </c>
+      <c r="D68">
+        <v>6.765909090909091</v>
+      </c>
+      <c r="E68">
+        <v>5.895229100658055</v>
+      </c>
+      <c r="F68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68">
+        <v>360</v>
+      </c>
+      <c r="H68">
+        <v>461387.8213030926</v>
+      </c>
+      <c r="I68">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="J68">
+        <v>273070003.9704077</v>
+      </c>
+      <c r="K68">
+        <v>100</v>
+      </c>
+      <c r="L68">
+        <v>45.8</v>
+      </c>
+      <c r="M68">
+        <v>4636258.264408924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69">
+        <v>38889</v>
+      </c>
+      <c r="D69">
+        <v>3.870454545454546</v>
+      </c>
+      <c r="E69">
+        <v>3.372379965878625</v>
+      </c>
+      <c r="F69" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69">
+        <v>360</v>
+      </c>
+      <c r="H69">
+        <v>267706.3551637836</v>
+      </c>
+      <c r="I69">
+        <v>40359691.55088324</v>
+      </c>
+      <c r="J69">
+        <v>156210351.6162595</v>
+      </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="L69">
+        <v>26.2</v>
+      </c>
+      <c r="M69">
+        <v>4050112.504971349</v>
       </c>
     </row>
   </sheetData>
